--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="524" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{778FF08C-774D-4C34-9D21-13A3EFC6BDC2}"/>
+  <xr:revisionPtr revIDLastSave="530" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{412CB164-9F7A-4B35-8FED-DF2DB67637E1}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="57840" windowHeight="15720" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="60">
   <si>
     <t>Togprodukt</t>
   </si>
@@ -231,7 +231,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,12 +266,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -353,7 +347,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -2576,10 +2570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE9A58E-6281-4D08-BF08-9517A14C48DB}">
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I142" sqref="I142"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M193" sqref="M193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7724,8 +7718,264 @@
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G192" s="17"/>
-      <c r="H192" s="17"/>
+      <c r="A192" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B192" t="s">
+        <v>32</v>
+      </c>
+      <c r="C192" t="s">
+        <v>16</v>
+      </c>
+      <c r="D192" t="s">
+        <v>50</v>
+      </c>
+      <c r="E192" s="17">
+        <v>18789.020999999997</v>
+      </c>
+      <c r="F192" s="17">
+        <v>18505.593999999997</v>
+      </c>
+      <c r="G192">
+        <v>59.492139000000002</v>
+      </c>
+      <c r="H192">
+        <v>10.311612999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B193" t="s">
+        <v>32</v>
+      </c>
+      <c r="C193" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" t="s">
+        <v>51</v>
+      </c>
+      <c r="E193" s="17">
+        <v>20257.911999999993</v>
+      </c>
+      <c r="F193" s="17">
+        <v>20880.127</v>
+      </c>
+      <c r="G193">
+        <v>59.050356999999998</v>
+      </c>
+      <c r="H193">
+        <v>10.030742999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B194" t="s">
+        <v>32</v>
+      </c>
+      <c r="C194" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194" t="s">
+        <v>52</v>
+      </c>
+      <c r="E194" s="17">
+        <v>20535.07699999999</v>
+      </c>
+      <c r="F194" s="17">
+        <v>20810.712999999989</v>
+      </c>
+      <c r="G194">
+        <v>59.139355999999999</v>
+      </c>
+      <c r="H194">
+        <v>9.6586020000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B195" t="s">
+        <v>32</v>
+      </c>
+      <c r="C195" t="s">
+        <v>16</v>
+      </c>
+      <c r="D195" t="s">
+        <v>53</v>
+      </c>
+      <c r="E195" s="17">
+        <v>12154.948</v>
+      </c>
+      <c r="F195" s="17">
+        <v>12230.609999999997</v>
+      </c>
+      <c r="G195">
+        <v>59.585008000000002</v>
+      </c>
+      <c r="H195">
+        <v>10.205496999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B196" t="s">
+        <v>32</v>
+      </c>
+      <c r="C196" t="s">
+        <v>16</v>
+      </c>
+      <c r="D196" t="s">
+        <v>54</v>
+      </c>
+      <c r="E196" s="17">
+        <v>31605.749000000003</v>
+      </c>
+      <c r="F196" s="17">
+        <v>31041.086000000007</v>
+      </c>
+      <c r="G196">
+        <v>59.135238999999999</v>
+      </c>
+      <c r="H196">
+        <v>10.22247</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B197" t="s">
+        <v>32</v>
+      </c>
+      <c r="C197" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" t="s">
+        <v>55</v>
+      </c>
+      <c r="E197" s="17">
+        <v>16574.036</v>
+      </c>
+      <c r="F197" s="17">
+        <v>16976.095999999994</v>
+      </c>
+      <c r="G197">
+        <v>59.218800999999999</v>
+      </c>
+      <c r="H197">
+        <v>9.6032630000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B198" t="s">
+        <v>32</v>
+      </c>
+      <c r="C198" t="s">
+        <v>16</v>
+      </c>
+      <c r="D198" t="s">
+        <v>56</v>
+      </c>
+      <c r="E198" s="17">
+        <v>13859.484000000004</v>
+      </c>
+      <c r="F198" s="17">
+        <v>14258.957999999995</v>
+      </c>
+      <c r="G198">
+        <v>59.390796999999999</v>
+      </c>
+      <c r="H198">
+        <v>10.411158</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B199" t="s">
+        <v>32</v>
+      </c>
+      <c r="C199" t="s">
+        <v>16</v>
+      </c>
+      <c r="D199" t="s">
+        <v>57</v>
+      </c>
+      <c r="E199" s="17">
+        <v>8544.9649999999983</v>
+      </c>
+      <c r="F199" s="17">
+        <v>8017.3680000000022</v>
+      </c>
+      <c r="G199">
+        <v>59.221215000000001</v>
+      </c>
+      <c r="H199">
+        <v>10.300190000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B200" t="s">
+        <v>32</v>
+      </c>
+      <c r="C200" t="s">
+        <v>16</v>
+      </c>
+      <c r="D200" t="s">
+        <v>58</v>
+      </c>
+      <c r="E200" s="17">
+        <v>58771.459999999941</v>
+      </c>
+      <c r="F200" s="17">
+        <v>57098.92</v>
+      </c>
+      <c r="G200">
+        <v>59.271692000000002</v>
+      </c>
+      <c r="H200">
+        <v>10.409449</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B201" t="s">
+        <v>32</v>
+      </c>
+      <c r="C201" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" t="s">
+        <v>59</v>
+      </c>
+      <c r="E201" s="17">
+        <v>12435.758000000009</v>
+      </c>
+      <c r="F201" s="17">
+        <v>10748.339999999997</v>
+      </c>
+      <c r="G201">
+        <v>59.165526999999997</v>
+      </c>
+      <c r="H201">
+        <v>10.266083</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F121" xr:uid="{8DE9A58E-6281-4D08-BF08-9517A14C48DB}">

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="530" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{412CB164-9F7A-4B35-8FED-DF2DB67637E1}"/>
+  <xr:revisionPtr revIDLastSave="534" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B496B0A0-F567-490B-94E3-694390827FCC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="57840" windowHeight="15720" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012-2023" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2023_2024'!$A$1:$F$121</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,9 +41,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="60">
   <si>
     <t>Togprodukt</t>
+  </si>
+  <si>
+    <t>Stasjonsnavn</t>
+  </si>
+  <si>
+    <t>Antall_av_på</t>
+  </si>
+  <si>
+    <t>År</t>
+  </si>
+  <si>
+    <t>Notis</t>
   </si>
   <si>
     <t>Eidsvoll - Skien</t>
@@ -79,94 +91,19 @@
     <t>Tønsberg</t>
   </si>
   <si>
-    <t>desember</t>
+    <t>*OBS</t>
   </si>
   <si>
-    <t>november</t>
+    <t>Måned_nr</t>
   </si>
   <si>
-    <t>oktober</t>
-  </si>
-  <si>
-    <t>september</t>
-  </si>
-  <si>
-    <t>august</t>
-  </si>
-  <si>
-    <t>juli</t>
-  </si>
-  <si>
-    <t>juni</t>
-  </si>
-  <si>
-    <t>mai</t>
-  </si>
-  <si>
-    <t>april</t>
-  </si>
-  <si>
-    <t>mars</t>
-  </si>
-  <si>
-    <t>februar</t>
-  </si>
-  <si>
-    <t>januar</t>
-  </si>
-  <si>
-    <t>Stasjonsnavn</t>
-  </si>
-  <si>
-    <t>Avstigninger</t>
+    <t>Måned</t>
   </si>
   <si>
     <t>Påstigninger</t>
   </si>
   <si>
-    <t>Måned</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>År</t>
-  </si>
-  <si>
-    <t>Måned_nr</t>
+    <t>Avstigninger</t>
   </si>
   <si>
     <t>Lat</t>
@@ -175,25 +112,79 @@
     <t>Lon</t>
   </si>
   <si>
-    <t>Antall_av_på</t>
+    <t>01</t>
   </si>
   <si>
-    <t>Tall jeg har tatt vekk</t>
-  </si>
-  <si>
-    <t>Påstigende</t>
-  </si>
-  <si>
-    <t>Avstigende</t>
-  </si>
-  <si>
-    <t>Notis</t>
-  </si>
-  <si>
-    <t>*OBS</t>
+    <t>januar</t>
   </si>
   <si>
     <t>Holmestrand stasjon</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>februar</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>mars</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>april</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>mai</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>juni</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>juli</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>august</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>september</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>oktober</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>november</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>desember</t>
   </si>
   <si>
     <t>Larvik stasjon</t>
@@ -217,10 +208,19 @@
     <t>Stokke stasjon</t>
   </si>
   <si>
+    <t>Torp stasjon</t>
+  </si>
+  <si>
     <t>Tønsberg stasjon</t>
   </si>
   <si>
-    <t>Torp stasjon</t>
+    <t>Tall jeg har tatt vekk</t>
+  </si>
+  <si>
+    <t>Påstigende</t>
+  </si>
+  <si>
+    <t>Avstigende</t>
   </si>
 </sst>
 </file>
@@ -329,7 +329,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -348,6 +348,7 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -750,7 +751,7 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.5546875" customWidth="1"/>
     <col min="2" max="2" width="29.109375" customWidth="1"/>
@@ -767,24 +768,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>314525</v>
@@ -805,10 +806,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>304197</v>
@@ -829,10 +830,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>141379</v>
@@ -853,10 +854,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>194755</v>
@@ -877,10 +878,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>434447</v>
@@ -901,10 +902,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
         <v>80101</v>
@@ -925,10 +926,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>200669</v>
@@ -949,10 +950,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>109481</v>
@@ -973,10 +974,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <v>113162</v>
@@ -997,10 +998,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1">
         <v>931728</v>
@@ -1021,10 +1022,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
         <v>353599</v>
@@ -1035,10 +1036,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
         <v>321290</v>
@@ -1049,10 +1050,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1">
         <v>190114</v>
@@ -1063,10 +1064,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1">
         <v>186446</v>
@@ -1077,10 +1078,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1">
         <v>469650</v>
@@ -1091,10 +1092,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1">
         <v>112886</v>
@@ -1105,10 +1106,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1">
         <v>239920</v>
@@ -1119,10 +1120,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1">
         <v>116768</v>
@@ -1133,10 +1134,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1">
         <v>140340</v>
@@ -1147,10 +1148,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1">
         <v>1042193</v>
@@ -1161,10 +1162,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1">
         <v>359195</v>
@@ -1175,10 +1176,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1">
         <v>327977</v>
@@ -1189,10 +1190,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1">
         <v>198514</v>
@@ -1203,10 +1204,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1">
         <v>195675</v>
@@ -1217,10 +1218,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1">
         <v>476502</v>
@@ -1231,10 +1232,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1">
         <v>119997</v>
@@ -1245,10 +1246,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1">
         <v>251589</v>
@@ -1259,10 +1260,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29" s="1">
         <v>123843</v>
@@ -1273,10 +1274,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1">
         <v>143266</v>
@@ -1287,10 +1288,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C31" s="1">
         <v>1086214</v>
@@ -1301,10 +1302,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C32" s="1">
         <v>379205</v>
@@ -1315,10 +1316,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1">
         <v>331198</v>
@@ -1329,10 +1330,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1">
         <v>217635</v>
@@ -1343,10 +1344,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1">
         <v>209684</v>
@@ -1357,10 +1358,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1">
         <v>523077</v>
@@ -1371,10 +1372,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C37" s="1">
         <v>126139</v>
@@ -1385,10 +1386,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C38" s="1">
         <v>281275</v>
@@ -1399,10 +1400,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C39" s="1">
         <v>139646</v>
@@ -1413,10 +1414,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C40" s="1">
         <v>138141</v>
@@ -1427,10 +1428,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C41" s="1">
         <v>1165629</v>
@@ -1441,10 +1442,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C42" s="1">
         <v>445746</v>
@@ -1455,10 +1456,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C43" s="1">
         <v>399416</v>
@@ -1469,10 +1470,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C44" s="1">
         <v>268098</v>
@@ -1483,10 +1484,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C45" s="1">
         <v>257728</v>
@@ -1497,10 +1498,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C46" s="1">
         <v>650596</v>
@@ -1511,10 +1512,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C47" s="1">
         <v>145151</v>
@@ -1525,10 +1526,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C48" s="1">
         <v>349818</v>
@@ -1539,10 +1540,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C49" s="1">
         <v>179477</v>
@@ -1553,10 +1554,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C50" s="1">
         <v>166417</v>
@@ -1567,10 +1568,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C51" s="1">
         <v>1464748</v>
@@ -1581,10 +1582,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C52" s="1">
         <v>363920</v>
@@ -1595,10 +1596,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C53" s="1">
         <v>492976</v>
@@ -1609,10 +1610,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C54" s="1">
         <v>95402</v>
@@ -1623,10 +1624,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C55" s="1">
         <v>208064</v>
@@ -1637,10 +1638,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C56" s="1">
         <v>528753</v>
@@ -1651,10 +1652,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C57" s="1">
         <v>77829</v>
@@ -1665,10 +1666,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C58" s="1">
         <v>265829</v>
@@ -1679,10 +1680,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C59" s="1">
         <v>145204</v>
@@ -1693,10 +1694,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C60" s="1">
         <v>159607</v>
@@ -1707,10 +1708,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C61" s="1">
         <v>1176354</v>
@@ -1721,10 +1722,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C62" s="1">
         <v>354378</v>
@@ -1735,10 +1736,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C63" s="1">
         <v>387448</v>
@@ -1749,10 +1750,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C64" s="1">
         <v>115993</v>
@@ -1763,10 +1764,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C65" s="1">
         <v>213193</v>
@@ -1777,10 +1778,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C66" s="1">
         <v>573324</v>
@@ -1791,10 +1792,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C67" s="1">
         <v>97152</v>
@@ -1805,10 +1806,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C68" s="1">
         <v>269212</v>
@@ -1819,10 +1820,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C69" s="1">
         <v>148426</v>
@@ -1833,10 +1834,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C70" s="1">
         <v>167068</v>
@@ -1847,10 +1848,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C71" s="1">
         <v>1173778</v>
@@ -1861,10 +1862,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C72" s="1">
         <v>378078</v>
@@ -1875,10 +1876,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C73" s="1">
         <v>396320</v>
@@ -1889,10 +1890,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C74" s="1">
         <v>291603</v>
@@ -1903,10 +1904,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C75" s="1">
         <v>243057</v>
@@ -1917,10 +1918,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C76" s="1">
         <v>615512</v>
@@ -1931,10 +1932,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C77" s="1">
         <v>220938</v>
@@ -1945,10 +1946,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C78" s="1">
         <v>302231</v>
@@ -1959,10 +1960,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C79" s="1">
         <v>161621</v>
@@ -1973,10 +1974,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C80" s="1">
         <v>195439</v>
@@ -1987,10 +1988,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C81" s="1">
         <v>1314385</v>
@@ -2001,10 +2002,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C82" s="1">
         <v>203272</v>
@@ -2015,10 +2016,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C83" s="1">
         <v>226735</v>
@@ -2029,10 +2030,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C84" s="1">
         <v>179134</v>
@@ -2043,10 +2044,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C85" s="1">
         <v>132978</v>
@@ -2057,10 +2058,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C86" s="1">
         <v>342489</v>
@@ -2071,10 +2072,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C87" s="1">
         <v>151023</v>
@@ -2085,10 +2086,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C88" s="1">
         <v>148262</v>
@@ -2099,10 +2100,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C89" s="1">
         <v>94565</v>
@@ -2113,10 +2114,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C90" s="1">
         <v>81050</v>
@@ -2127,10 +2128,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C91" s="1">
         <v>698842</v>
@@ -2141,10 +2142,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C92" s="1">
         <v>209977</v>
@@ -2155,10 +2156,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C93" s="1">
         <v>182074</v>
@@ -2169,10 +2170,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C94" s="1">
         <v>151838</v>
@@ -2183,10 +2184,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C95" s="1">
         <v>146097</v>
@@ -2197,10 +2198,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C96" s="1">
         <v>270316</v>
@@ -2211,10 +2212,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C97" s="1">
         <v>127373</v>
@@ -2225,10 +2226,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C98" s="1">
         <v>145517</v>
@@ -2239,10 +2240,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C99" s="1">
         <v>83301</v>
@@ -2253,10 +2254,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C100" s="1">
         <v>67015</v>
@@ -2267,10 +2268,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C101" s="1">
         <v>742001</v>
@@ -2281,10 +2282,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C102" s="1">
         <v>323386</v>
@@ -2295,10 +2296,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C103" s="1">
         <v>328021</v>
@@ -2309,10 +2310,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C104" s="1">
         <v>300022</v>
@@ -2323,10 +2324,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C105" s="1">
         <v>290272</v>
@@ -2337,10 +2338,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C106" s="1">
         <v>483295</v>
@@ -2351,10 +2352,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C107" s="1">
         <v>207067</v>
@@ -2365,10 +2366,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C108" s="1">
         <v>241594</v>
@@ -2379,10 +2380,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C109" s="1">
         <v>135171</v>
@@ -2393,10 +2394,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C110" s="1">
         <v>210024</v>
@@ -2407,10 +2408,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C111" s="1">
         <v>1086156</v>
@@ -2421,10 +2422,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C112" s="1">
         <v>383403</v>
@@ -2435,10 +2436,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C113" s="1">
         <v>424403</v>
@@ -2449,10 +2450,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C114" s="1">
         <v>454512</v>
@@ -2463,10 +2464,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C115" s="1">
         <v>275695</v>
@@ -2477,10 +2478,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C116" s="1">
         <v>638979</v>
@@ -2491,10 +2492,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C117" s="1">
         <v>362417</v>
@@ -2505,10 +2506,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C118" s="1">
         <v>303505</v>
@@ -2519,10 +2520,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C119" s="1">
         <v>211644</v>
@@ -2531,15 +2532,15 @@
         <v>2023</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C120" s="1">
         <v>224883</v>
@@ -2550,10 +2551,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C121" s="1">
         <v>1197623</v>
@@ -2570,10 +2571,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE9A58E-6281-4D08-BF08-9517A14C48DB}">
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:I221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M193" sqref="M193"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202:XFD202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2591,31 +2592,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2623,13 +2624,13 @@
         <v>2023</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E2" s="12">
         <v>17403.659999999996</v>
@@ -2650,13 +2651,13 @@
         <v>2023</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E3" s="15">
         <v>15431.262000000002</v>
@@ -2677,13 +2678,13 @@
         <v>2023</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E4" s="12">
         <v>18573.163000000004</v>
@@ -2704,13 +2705,13 @@
         <v>2023</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E5" s="15">
         <v>15470.585000000001</v>
@@ -2731,13 +2732,13 @@
         <v>2023</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E6" s="12">
         <v>16981.820000000003</v>
@@ -2761,10 +2762,10 @@
         <v>34</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E7" s="15">
         <v>16032.897000000003</v>
@@ -2779,7 +2780,7 @@
         <v>10.311612999999999</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2787,13 +2788,13 @@
         <v>2023</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E8" s="12">
         <v>9584.854000000003</v>
@@ -2808,7 +2809,7 @@
         <v>10.311612999999999</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -2816,13 +2817,13 @@
         <v>2023</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E9" s="15">
         <v>15001.256000000003</v>
@@ -2837,7 +2838,7 @@
         <v>10.311612999999999</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2845,13 +2846,13 @@
         <v>2023</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E10" s="12">
         <v>17264.561999999998</v>
@@ -2872,13 +2873,13 @@
         <v>2023</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E11" s="15">
         <v>17725.079999999994</v>
@@ -2899,13 +2900,13 @@
         <v>2023</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E12" s="12">
         <v>18271.003999999997</v>
@@ -2926,13 +2927,13 @@
         <v>2023</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E13" s="15">
         <v>15497.320000000003</v>
@@ -2953,13 +2954,13 @@
         <v>2024</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E14" s="12">
         <v>15739.492</v>
@@ -2980,13 +2981,13 @@
         <v>2024</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E15" s="15">
         <v>16475.093000000001</v>
@@ -3007,13 +3008,13 @@
         <v>2024</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E16" s="12">
         <v>16790.627</v>
@@ -3034,13 +3035,13 @@
         <v>2024</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E17" s="15">
         <v>17965.491000000002</v>
@@ -3061,13 +3062,13 @@
         <v>2024</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E18" s="12">
         <v>17303.508000000005</v>
@@ -3091,10 +3092,10 @@
         <v>34</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E19" s="15">
         <v>18419.898000000001</v>
@@ -3115,13 +3116,13 @@
         <v>2024</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E20" s="12">
         <v>10529.396999999997</v>
@@ -3142,13 +3143,13 @@
         <v>2023</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E21" s="15">
         <v>17721.540000000008</v>
@@ -3169,13 +3170,13 @@
         <v>2023</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E22" s="12">
         <v>16133.207999999997</v>
@@ -3196,13 +3197,13 @@
         <v>2023</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E23" s="15">
         <v>18890.385999999999</v>
@@ -3223,13 +3224,13 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E24" s="12">
         <v>16881.565000000006</v>
@@ -3250,13 +3251,13 @@
         <v>2023</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E25" s="15">
         <v>17415.655999999995</v>
@@ -3280,10 +3281,10 @@
         <v>34</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E26" s="12">
         <v>18894.601000000002</v>
@@ -3304,13 +3305,13 @@
         <v>2023</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E27" s="15">
         <v>13340.001999999997</v>
@@ -3331,13 +3332,13 @@
         <v>2023</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E28" s="12">
         <v>17554.716</v>
@@ -3358,13 +3359,13 @@
         <v>2023</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E29" s="15">
         <v>20032.392</v>
@@ -3385,13 +3386,13 @@
         <v>2023</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E30" s="12">
         <v>21243.343000000004</v>
@@ -3412,13 +3413,13 @@
         <v>2023</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E31" s="15">
         <v>20394.406000000003</v>
@@ -3439,13 +3440,13 @@
         <v>2023</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E32" s="12">
         <v>18226.094999999998</v>
@@ -3466,13 +3467,13 @@
         <v>2024</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E33" s="15">
         <v>16978.29</v>
@@ -3493,13 +3494,13 @@
         <v>2024</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E34" s="12">
         <v>17393.621999999999</v>
@@ -3520,13 +3521,13 @@
         <v>2024</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E35" s="15">
         <v>17656.744000000002</v>
@@ -3547,13 +3548,13 @@
         <v>2024</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E36" s="12">
         <v>18515.464</v>
@@ -3574,13 +3575,13 @@
         <v>2024</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E37" s="15">
         <v>18522.847999999998</v>
@@ -3604,10 +3605,10 @@
         <v>34</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E38" s="12">
         <v>20180.283000000003</v>
@@ -3628,13 +3629,13 @@
         <v>2024</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E39" s="15">
         <v>13812.998000000003</v>
@@ -3655,13 +3656,13 @@
         <v>2023</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E40" s="12">
         <v>19299.116999999995</v>
@@ -3682,13 +3683,13 @@
         <v>2023</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E41" s="15">
         <v>17562.728999999996</v>
@@ -3709,13 +3710,13 @@
         <v>2023</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E42" s="12">
         <v>20321.337000000003</v>
@@ -3736,13 +3737,13 @@
         <v>2023</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E43" s="15">
         <v>18191.475000000006</v>
@@ -3763,13 +3764,13 @@
         <v>2023</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E44" s="12">
         <v>18784.802000000003</v>
@@ -3793,10 +3794,10 @@
         <v>34</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E45" s="15">
         <v>20636.684000000001</v>
@@ -3817,13 +3818,13 @@
         <v>2023</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E46" s="12">
         <v>14329.561000000002</v>
@@ -3844,13 +3845,13 @@
         <v>2023</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E47" s="15">
         <v>19113.870999999999</v>
@@ -3871,13 +3872,13 @@
         <v>2023</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E48" s="12">
         <v>23710.557999999997</v>
@@ -3898,13 +3899,13 @@
         <v>2023</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E49" s="15">
         <v>23530.459000000003</v>
@@ -3925,13 +3926,13 @@
         <v>2023</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E50" s="12">
         <v>22014.04199999999</v>
@@ -3952,13 +3953,13 @@
         <v>2023</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E51" s="15">
         <v>19299.676999999996</v>
@@ -3979,13 +3980,13 @@
         <v>2024</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E52" s="12">
         <v>19303.536</v>
@@ -4006,13 +4007,13 @@
         <v>2024</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E53" s="15">
         <v>19722.067999999999</v>
@@ -4033,13 +4034,13 @@
         <v>2024</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E54" s="12">
         <v>20221.484</v>
@@ -4060,13 +4061,13 @@
         <v>2024</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E55" s="15">
         <v>22270.287000000004</v>
@@ -4087,13 +4088,13 @@
         <v>2024</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E56" s="12">
         <v>21195.548999999995</v>
@@ -4117,10 +4118,10 @@
         <v>34</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E57" s="15">
         <v>21388.302</v>
@@ -4141,13 +4142,13 @@
         <v>2024</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E58" s="12">
         <v>12680.278999999999</v>
@@ -4168,13 +4169,13 @@
         <v>2023</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E59" s="15">
         <v>11397.062000000004</v>
@@ -4195,13 +4196,13 @@
         <v>2023</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E60" s="12">
         <v>11252.791000000001</v>
@@ -4222,13 +4223,13 @@
         <v>2023</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E61" s="15">
         <v>13113.727000000001</v>
@@ -4249,13 +4250,13 @@
         <v>2023</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E62" s="12">
         <v>15403.501999999999</v>
@@ -4276,13 +4277,13 @@
         <v>2023</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E63" s="15">
         <v>10925.186999999998</v>
@@ -4306,10 +4307,10 @@
         <v>34</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E64" s="12">
         <v>10316.288999999999</v>
@@ -4324,7 +4325,7 @@
         <v>10.205496999999999</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -4332,13 +4333,13 @@
         <v>2023</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E65" s="15">
         <v>5522.1439999999993</v>
@@ -4353,7 +4354,7 @@
         <v>10.205496999999999</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -4361,13 +4362,13 @@
         <v>2023</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E66" s="12">
         <v>10089.251</v>
@@ -4382,7 +4383,7 @@
         <v>10.205496999999999</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -4390,13 +4391,13 @@
         <v>2023</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E67" s="15">
         <v>10891.928999999998</v>
@@ -4417,13 +4418,13 @@
         <v>2023</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E68" s="12">
         <v>11861.058000000001</v>
@@ -4444,13 +4445,13 @@
         <v>2023</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E69" s="15">
         <v>12094.032999999996</v>
@@ -4471,13 +4472,13 @@
         <v>2023</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E70" s="12">
         <v>10091.090999999999</v>
@@ -4498,13 +4499,13 @@
         <v>2024</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E71" s="15">
         <v>10546.991999999995</v>
@@ -4525,13 +4526,13 @@
         <v>2024</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E72" s="12">
         <v>10925.283999999998</v>
@@ -4552,13 +4553,13 @@
         <v>2024</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E73" s="15">
         <v>11461.300999999999</v>
@@ -4579,13 +4580,13 @@
         <v>2024</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E74" s="12">
         <v>11972.827999999998</v>
@@ -4606,13 +4607,13 @@
         <v>2024</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E75" s="15">
         <v>12223.186</v>
@@ -4636,10 +4637,10 @@
         <v>34</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E76" s="12">
         <v>12273.871999999999</v>
@@ -4660,13 +4661,13 @@
         <v>2024</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E77" s="15">
         <v>10694.581</v>
@@ -4687,13 +4688,13 @@
         <v>2023</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E78" s="12">
         <v>26951.393</v>
@@ -4714,13 +4715,13 @@
         <v>2023</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E79" s="15">
         <v>24524.912000000004</v>
@@ -4741,13 +4742,13 @@
         <v>2023</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E80" s="12">
         <v>29017.516000000014</v>
@@ -4768,13 +4769,13 @@
         <v>2023</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E81" s="15">
         <v>25834.431000000004</v>
@@ -4795,13 +4796,13 @@
         <v>2023</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E82" s="12">
         <v>26042.323999999993</v>
@@ -4825,10 +4826,10 @@
         <v>34</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E83" s="15">
         <v>30266.754999999997</v>
@@ -4849,13 +4850,13 @@
         <v>2023</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E84" s="12">
         <v>16016.841</v>
@@ -4876,13 +4877,13 @@
         <v>2023</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E85" s="15">
         <v>28013.754000000001</v>
@@ -4903,13 +4904,13 @@
         <v>2023</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E86" s="12">
         <v>30983.672999999995</v>
@@ -4930,13 +4931,13 @@
         <v>2023</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E87" s="15">
         <v>31519.802</v>
@@ -4957,13 +4958,13 @@
         <v>2023</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E88" s="12">
         <v>29805.934999999994</v>
@@ -4984,13 +4985,13 @@
         <v>2023</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E89" s="15">
         <v>27716.103999999999</v>
@@ -5011,13 +5012,13 @@
         <v>2024</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E90" s="12">
         <v>25763.435000000005</v>
@@ -5038,13 +5039,13 @@
         <v>2024</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E91" s="15">
         <v>27941.672999999995</v>
@@ -5065,13 +5066,13 @@
         <v>2024</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E92" s="12">
         <v>26994.79</v>
@@ -5092,13 +5093,13 @@
         <v>2024</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E93" s="15">
         <v>30272.343000000001</v>
@@ -5119,13 +5120,13 @@
         <v>2024</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E94" s="12">
         <v>29028.511000000002</v>
@@ -5149,10 +5150,10 @@
         <v>34</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E95" s="15">
         <v>30814.475999999995</v>
@@ -5173,13 +5174,13 @@
         <v>2024</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E96" s="12">
         <v>17674.721999999998</v>
@@ -5200,13 +5201,13 @@
         <v>2023</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E97" s="15">
         <v>16296.622999999998</v>
@@ -5227,13 +5228,13 @@
         <v>2023</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E98" s="12">
         <v>14463.427000000001</v>
@@ -5254,13 +5255,13 @@
         <v>2023</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E99" s="15">
         <v>16556.240999999998</v>
@@ -5281,13 +5282,13 @@
         <v>2023</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E100" s="12">
         <v>15679.056</v>
@@ -5308,13 +5309,13 @@
         <v>2023</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E101" s="15">
         <v>15942.387000000002</v>
@@ -5338,10 +5339,10 @@
         <v>34</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E102" s="12">
         <v>16333.529999999999</v>
@@ -5362,13 +5363,13 @@
         <v>2023</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E103" s="15">
         <v>12461.429999999997</v>
@@ -5389,13 +5390,13 @@
         <v>2023</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E104" s="12">
         <v>15359.741000000002</v>
@@ -5416,13 +5417,13 @@
         <v>2023</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E105" s="15">
         <v>17969.771999999997</v>
@@ -5443,13 +5444,13 @@
         <v>2023</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E106" s="12">
         <v>18987.434000000001</v>
@@ -5470,13 +5471,13 @@
         <v>2023</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E107" s="15">
         <v>18091.618999999999</v>
@@ -5497,13 +5498,13 @@
         <v>2023</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E108" s="12">
         <v>16218.726999999997</v>
@@ -5524,13 +5525,13 @@
         <v>2024</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E109" s="15">
         <v>15939.559000000007</v>
@@ -5551,13 +5552,13 @@
         <v>2024</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E110" s="12">
         <v>16263.026000000003</v>
@@ -5578,13 +5579,13 @@
         <v>2024</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E111" s="15">
         <v>16805.678999999996</v>
@@ -5605,13 +5606,13 @@
         <v>2024</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E112" s="12">
         <v>17302.801000000003</v>
@@ -5632,13 +5633,13 @@
         <v>2024</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E113" s="15">
         <v>17358.112999999998</v>
@@ -5662,10 +5663,10 @@
         <v>34</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E114" s="12">
         <v>17570.36</v>
@@ -5686,13 +5687,13 @@
         <v>2024</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E115" s="15">
         <v>11282.172000000002</v>
@@ -5713,13 +5714,13 @@
         <v>2023</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E116" s="12">
         <v>12707.752999999997</v>
@@ -5740,13 +5741,13 @@
         <v>2023</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E117" s="15">
         <v>11761.259</v>
@@ -5767,13 +5768,13 @@
         <v>2023</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E118" s="12">
         <v>14658.205000000004</v>
@@ -5794,13 +5795,13 @@
         <v>2023</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E119" s="15">
         <v>11619.467999999999</v>
@@ -5821,13 +5822,13 @@
         <v>2023</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E120" s="12">
         <v>12646.883000000002</v>
@@ -5851,10 +5852,10 @@
         <v>34</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E121" s="15">
         <v>12381.177999999998</v>
@@ -5869,7 +5870,7 @@
         <v>10.411158</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -5877,13 +5878,13 @@
         <v>2023</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E122" s="12">
         <v>5968.77</v>
@@ -5898,7 +5899,7 @@
         <v>10.411158</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -5906,13 +5907,13 @@
         <v>2023</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E123" s="15">
         <v>11304.572000000004</v>
@@ -5927,7 +5928,7 @@
         <v>10.411158</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -5935,13 +5936,13 @@
         <v>2023</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E124" s="12">
         <v>13161.940999999999</v>
@@ -5961,13 +5962,13 @@
         <v>2023</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E125" s="15">
         <v>13422.159999999998</v>
@@ -5987,13 +5988,13 @@
         <v>2023</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E126" s="12">
         <v>13348.026</v>
@@ -6013,13 +6014,13 @@
         <v>2023</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E127" s="15">
         <v>11928.379000000003</v>
@@ -6039,13 +6040,13 @@
         <v>2024</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E128" s="12">
         <v>11691.819</v>
@@ -6065,13 +6066,13 @@
         <v>2024</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E129" s="15">
         <v>12438.783999999996</v>
@@ -6091,13 +6092,13 @@
         <v>2024</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E130" s="12">
         <v>13062.050999999999</v>
@@ -6117,13 +6118,13 @@
         <v>2024</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E131" s="15">
         <v>13382.759999999998</v>
@@ -6143,13 +6144,13 @@
         <v>2024</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E132" s="12">
         <v>11962.442999999997</v>
@@ -6172,10 +6173,10 @@
         <v>34</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E133" s="15">
         <v>13465.931000000004</v>
@@ -6195,13 +6196,13 @@
         <v>2024</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E134" s="12">
         <v>6146.9430000000011</v>
@@ -6221,13 +6222,13 @@
         <v>2023</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E135" s="15">
         <v>7776.0119999999988</v>
@@ -6247,13 +6248,13 @@
         <v>2023</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E136" s="12">
         <v>6954.4609999999993</v>
@@ -6273,13 +6274,13 @@
         <v>2023</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E137" s="15">
         <v>8450.3539999999975</v>
@@ -6299,13 +6300,13 @@
         <v>2023</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E138" s="12">
         <v>7387.6450000000013</v>
@@ -6325,13 +6326,13 @@
         <v>2023</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E139" s="15">
         <v>7952.3369999999986</v>
@@ -6355,10 +6356,10 @@
         <v>34</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E140" s="12">
         <v>10369.655999999999</v>
@@ -6373,7 +6374,7 @@
         <v>10.300190000000001</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -6381,13 +6382,13 @@
         <v>2023</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E141" s="15">
         <v>17841.851000000002</v>
@@ -6402,7 +6403,7 @@
         <v>10.300190000000001</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -6410,13 +6411,13 @@
         <v>2023</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E142" s="12">
         <v>10847.431999999999</v>
@@ -6431,7 +6432,7 @@
         <v>10.300190000000001</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -6439,13 +6440,13 @@
         <v>2023</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E143" s="15">
         <v>9015.0609999999997</v>
@@ -6465,13 +6466,13 @@
         <v>2023</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E144" s="12">
         <v>9040.1399999999976</v>
@@ -6491,13 +6492,13 @@
         <v>2023</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E145" s="15">
         <v>8723.9040000000023</v>
@@ -6517,13 +6518,13 @@
         <v>2023</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E146" s="12">
         <v>7944.868999999997</v>
@@ -6543,13 +6544,13 @@
         <v>2024</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E147" s="15">
         <v>7507.4540000000034</v>
@@ -6569,13 +6570,13 @@
         <v>2024</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E148" s="12">
         <v>9098.4650000000001</v>
@@ -6595,13 +6596,13 @@
         <v>2024</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E149" s="15">
         <v>9216.851999999999</v>
@@ -6621,13 +6622,13 @@
         <v>2024</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E150" s="12">
         <v>8980.0820000000022</v>
@@ -6647,13 +6648,13 @@
         <v>2024</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E151" s="15">
         <v>8339.85</v>
@@ -6676,10 +6677,10 @@
         <v>34</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E152" s="12">
         <v>8789.3059999999969</v>
@@ -6699,13 +6700,13 @@
         <v>2024</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E153" s="15">
         <v>6116.2710000000006</v>
@@ -6725,13 +6726,13 @@
         <v>2023</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E154" s="12">
         <v>10041.566999999999</v>
@@ -6751,13 +6752,13 @@
         <v>2023</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E155" s="15">
         <v>8659.6319999999996</v>
@@ -6777,13 +6778,13 @@
         <v>2023</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E156" s="12">
         <v>9624.2999999999975</v>
@@ -6803,13 +6804,13 @@
         <v>2023</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E157" s="15">
         <v>10769.863999999998</v>
@@ -6829,13 +6830,13 @@
         <v>2023</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E158" s="12">
         <v>10119.624000000002</v>
@@ -6858,10 +6859,10 @@
         <v>34</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E159" s="15">
         <v>10185.323000000002</v>
@@ -6881,13 +6882,13 @@
         <v>2023</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E160" s="12">
         <v>6676.7770000000019</v>
@@ -6907,13 +6908,13 @@
         <v>2023</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E161" s="15">
         <v>10857.368000000002</v>
@@ -6933,13 +6934,13 @@
         <v>2023</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E162" s="12">
         <v>10035.850000000002</v>
@@ -6959,13 +6960,13 @@
         <v>2023</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E163" s="15">
         <v>10348.186999999998</v>
@@ -6985,13 +6986,13 @@
         <v>2023</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E164" s="12">
         <v>9757.5980000000018</v>
@@ -7011,13 +7012,13 @@
         <v>2023</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E165" s="15">
         <v>8078.7479999999978</v>
@@ -7037,13 +7038,13 @@
         <v>2024</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E166" s="12">
         <v>8514.226999999999</v>
@@ -7063,13 +7064,13 @@
         <v>2024</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E167" s="15">
         <v>8808.1319999999978</v>
@@ -7089,13 +7090,13 @@
         <v>2024</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E168" s="12">
         <v>8774.3539999999994</v>
@@ -7115,13 +7116,13 @@
         <v>2024</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E169" s="15">
         <v>9217.8770000000004</v>
@@ -7141,13 +7142,13 @@
         <v>2024</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E170" s="12">
         <v>9381.3709999999974</v>
@@ -7170,10 +7171,10 @@
         <v>34</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E171" s="15">
         <v>10294.790000000003</v>
@@ -7193,13 +7194,13 @@
         <v>2024</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E172" s="12">
         <v>7280.5219999999999</v>
@@ -7219,13 +7220,13 @@
         <v>2023</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E173" s="15">
         <v>52899.606999999989</v>
@@ -7245,13 +7246,13 @@
         <v>2023</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E174" s="12">
         <v>48113.856</v>
@@ -7271,13 +7272,13 @@
         <v>2023</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E175" s="15">
         <v>56888.356</v>
@@ -7297,13 +7298,13 @@
         <v>2023</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E176" s="12">
         <v>48093.260000000009</v>
@@ -7323,13 +7324,13 @@
         <v>2023</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E177" s="15">
         <v>51571.553999999996</v>
@@ -7352,10 +7353,10 @@
         <v>34</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E178" s="12">
         <v>52340.88700000001</v>
@@ -7370,7 +7371,7 @@
         <v>10.409449</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -7378,13 +7379,13 @@
         <v>2023</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E179" s="15">
         <v>32663.896999999997</v>
@@ -7399,7 +7400,7 @@
         <v>10.409449</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -7407,13 +7408,13 @@
         <v>2023</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E180" s="12">
         <v>49873.981</v>
@@ -7428,7 +7429,7 @@
         <v>10.409449</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -7436,13 +7437,13 @@
         <v>2023</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E181" s="15">
         <v>53602.29300000002</v>
@@ -7462,13 +7463,13 @@
         <v>2023</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E182" s="12">
         <v>55310.753000000004</v>
@@ -7488,13 +7489,13 @@
         <v>2023</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E183" s="15">
         <v>55394.875999999997</v>
@@ -7514,13 +7515,13 @@
         <v>2023</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E184" s="12">
         <v>47781.125</v>
@@ -7540,13 +7541,13 @@
         <v>2024</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D185" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E185" s="15">
         <v>44774.534000000007</v>
@@ -7566,13 +7567,13 @@
         <v>2024</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E186" s="12">
         <v>47664.486000000012</v>
@@ -7592,13 +7593,13 @@
         <v>2024</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D187" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E187" s="15">
         <v>46266.164000000004</v>
@@ -7618,13 +7619,13 @@
         <v>2024</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E188" s="12">
         <v>50297.75</v>
@@ -7644,13 +7645,13 @@
         <v>2024</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E189" s="15">
         <v>48709.713000000011</v>
@@ -7673,10 +7674,10 @@
         <v>34</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E190" s="12">
         <v>55160.091</v>
@@ -7696,13 +7697,13 @@
         <v>2024</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D191" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E191" s="15">
         <v>35635.683000000012</v>
@@ -7722,13 +7723,13 @@
         <v>2024</v>
       </c>
       <c r="B192" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C192" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D192" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E192" s="17">
         <v>18789.020999999997</v>
@@ -7748,13 +7749,13 @@
         <v>2024</v>
       </c>
       <c r="B193" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C193" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D193" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E193" s="17">
         <v>20257.911999999993</v>
@@ -7774,13 +7775,13 @@
         <v>2024</v>
       </c>
       <c r="B194" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C194" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D194" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E194" s="17">
         <v>20535.07699999999</v>
@@ -7800,13 +7801,13 @@
         <v>2024</v>
       </c>
       <c r="B195" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C195" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D195" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E195" s="17">
         <v>12154.948</v>
@@ -7826,13 +7827,13 @@
         <v>2024</v>
       </c>
       <c r="B196" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C196" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D196" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E196" s="17">
         <v>31605.749000000003</v>
@@ -7852,13 +7853,13 @@
         <v>2024</v>
       </c>
       <c r="B197" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C197" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D197" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E197" s="17">
         <v>16574.036</v>
@@ -7878,13 +7879,13 @@
         <v>2024</v>
       </c>
       <c r="B198" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C198" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D198" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E198" s="17">
         <v>13859.484000000004</v>
@@ -7904,13 +7905,13 @@
         <v>2024</v>
       </c>
       <c r="B199" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C199" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D199" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E199" s="17">
         <v>8544.9649999999983</v>
@@ -7930,13 +7931,13 @@
         <v>2024</v>
       </c>
       <c r="B200" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C200" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D200" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E200" s="17">
         <v>58771.459999999941</v>
@@ -7956,13 +7957,13 @@
         <v>2024</v>
       </c>
       <c r="B201" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C201" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D201" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E201" s="17">
         <v>12435.758000000009</v>
@@ -7975,6 +7976,526 @@
       </c>
       <c r="H201">
         <v>10.266083</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B202" t="s">
+        <v>40</v>
+      </c>
+      <c r="C202" t="s">
+        <v>41</v>
+      </c>
+      <c r="D202" t="s">
+        <v>25</v>
+      </c>
+      <c r="E202" s="18">
+        <v>19680.261999999999</v>
+      </c>
+      <c r="F202" s="18">
+        <v>18951.710000000006</v>
+      </c>
+      <c r="G202">
+        <v>10.311612999999999</v>
+      </c>
+      <c r="H202">
+        <v>59.492139000000002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B203" t="s">
+        <v>40</v>
+      </c>
+      <c r="C203" t="s">
+        <v>41</v>
+      </c>
+      <c r="D203" t="s">
+        <v>48</v>
+      </c>
+      <c r="E203" s="18">
+        <v>19633.394999999997</v>
+      </c>
+      <c r="F203" s="18">
+        <v>20245.920000000002</v>
+      </c>
+      <c r="G203">
+        <v>10.030742999999999</v>
+      </c>
+      <c r="H203">
+        <v>59.050356999999998</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B204" t="s">
+        <v>40</v>
+      </c>
+      <c r="C204" t="s">
+        <v>41</v>
+      </c>
+      <c r="D204" t="s">
+        <v>49</v>
+      </c>
+      <c r="E204" s="18">
+        <v>21261.245000000003</v>
+      </c>
+      <c r="F204" s="18">
+        <v>21386.857999999997</v>
+      </c>
+      <c r="G204">
+        <v>9.6586020000000001</v>
+      </c>
+      <c r="H204">
+        <v>59.139355999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B205" t="s">
+        <v>40</v>
+      </c>
+      <c r="C205" t="s">
+        <v>41</v>
+      </c>
+      <c r="D205" t="s">
+        <v>50</v>
+      </c>
+      <c r="E205" s="18">
+        <v>12774.434000000003</v>
+      </c>
+      <c r="F205" s="18">
+        <v>12469.708999999999</v>
+      </c>
+      <c r="G205">
+        <v>10.205496999999999</v>
+      </c>
+      <c r="H205">
+        <v>59.585008000000002</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B206" t="s">
+        <v>40</v>
+      </c>
+      <c r="C206" t="s">
+        <v>41</v>
+      </c>
+      <c r="D206" t="s">
+        <v>51</v>
+      </c>
+      <c r="E206" s="18">
+        <v>30466.339</v>
+      </c>
+      <c r="F206" s="18">
+        <v>30409.255999999994</v>
+      </c>
+      <c r="G206">
+        <v>10.22247</v>
+      </c>
+      <c r="H206">
+        <v>59.135238999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B207" t="s">
+        <v>40</v>
+      </c>
+      <c r="C207" t="s">
+        <v>41</v>
+      </c>
+      <c r="D207" t="s">
+        <v>52</v>
+      </c>
+      <c r="E207" s="18">
+        <v>17517.006999999998</v>
+      </c>
+      <c r="F207" s="18">
+        <v>17344.05</v>
+      </c>
+      <c r="G207">
+        <v>9.6032630000000001</v>
+      </c>
+      <c r="H207">
+        <v>59.218800999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B208" t="s">
+        <v>40</v>
+      </c>
+      <c r="C208" t="s">
+        <v>41</v>
+      </c>
+      <c r="D208" t="s">
+        <v>53</v>
+      </c>
+      <c r="E208" s="18">
+        <v>14544.115</v>
+      </c>
+      <c r="F208" s="18">
+        <v>14077.042999999998</v>
+      </c>
+      <c r="G208">
+        <v>10.411158</v>
+      </c>
+      <c r="H208">
+        <v>59.390796999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B209" t="s">
+        <v>40</v>
+      </c>
+      <c r="C209" t="s">
+        <v>41</v>
+      </c>
+      <c r="D209" t="s">
+        <v>54</v>
+      </c>
+      <c r="E209" s="18">
+        <v>8659.603000000001</v>
+      </c>
+      <c r="F209" s="18">
+        <v>8281.9300000000021</v>
+      </c>
+      <c r="G209">
+        <v>10.300190000000001</v>
+      </c>
+      <c r="H209">
+        <v>59.221215000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B210" t="s">
+        <v>40</v>
+      </c>
+      <c r="C210" t="s">
+        <v>41</v>
+      </c>
+      <c r="D210" t="s">
+        <v>56</v>
+      </c>
+      <c r="E210" s="18">
+        <v>57423.668999999994</v>
+      </c>
+      <c r="F210" s="18">
+        <v>57182.881999999991</v>
+      </c>
+      <c r="G210">
+        <v>10.409449</v>
+      </c>
+      <c r="H210">
+        <v>59.271692000000002</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B211" t="s">
+        <v>40</v>
+      </c>
+      <c r="C211" t="s">
+        <v>41</v>
+      </c>
+      <c r="D211" t="s">
+        <v>55</v>
+      </c>
+      <c r="E211" s="18">
+        <v>10128.327999999998</v>
+      </c>
+      <c r="F211" s="18">
+        <v>10825.014999999999</v>
+      </c>
+      <c r="G211">
+        <v>10.266083</v>
+      </c>
+      <c r="H211">
+        <v>59.165526999999997</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B212" t="s">
+        <v>42</v>
+      </c>
+      <c r="C212" t="s">
+        <v>43</v>
+      </c>
+      <c r="D212" t="s">
+        <v>25</v>
+      </c>
+      <c r="E212" s="18">
+        <v>21018.588000000003</v>
+      </c>
+      <c r="F212" s="18">
+        <v>20359.063999999991</v>
+      </c>
+      <c r="G212">
+        <v>10.311612999999999</v>
+      </c>
+      <c r="H212">
+        <v>59.492139000000002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B213" t="s">
+        <v>42</v>
+      </c>
+      <c r="C213" t="s">
+        <v>43</v>
+      </c>
+      <c r="D213" t="s">
+        <v>48</v>
+      </c>
+      <c r="E213" s="18">
+        <v>20607.674000000006</v>
+      </c>
+      <c r="F213" s="18">
+        <v>20675.696000000007</v>
+      </c>
+      <c r="G213">
+        <v>10.030742999999999</v>
+      </c>
+      <c r="H213">
+        <v>59.050356999999998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B214" t="s">
+        <v>42</v>
+      </c>
+      <c r="C214" t="s">
+        <v>43</v>
+      </c>
+      <c r="D214" t="s">
+        <v>49</v>
+      </c>
+      <c r="E214" s="18">
+        <v>21147.625999999986</v>
+      </c>
+      <c r="F214" s="18">
+        <v>21701.289999999997</v>
+      </c>
+      <c r="G214">
+        <v>9.6586020000000001</v>
+      </c>
+      <c r="H214">
+        <v>59.139355999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B215" t="s">
+        <v>42</v>
+      </c>
+      <c r="C215" t="s">
+        <v>43</v>
+      </c>
+      <c r="D215" t="s">
+        <v>50</v>
+      </c>
+      <c r="E215" s="18">
+        <v>13096.959000000003</v>
+      </c>
+      <c r="F215" s="18">
+        <v>12383.291999999999</v>
+      </c>
+      <c r="G215">
+        <v>10.205496999999999</v>
+      </c>
+      <c r="H215">
+        <v>59.585008000000002</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B216" t="s">
+        <v>42</v>
+      </c>
+      <c r="C216" t="s">
+        <v>43</v>
+      </c>
+      <c r="D216" t="s">
+        <v>51</v>
+      </c>
+      <c r="E216" s="18">
+        <v>30079.798000000003</v>
+      </c>
+      <c r="F216" s="18">
+        <v>30817.405999999988</v>
+      </c>
+      <c r="G216">
+        <v>10.22247</v>
+      </c>
+      <c r="H216">
+        <v>59.135238999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B217" t="s">
+        <v>42</v>
+      </c>
+      <c r="C217" t="s">
+        <v>43</v>
+      </c>
+      <c r="D217" t="s">
+        <v>52</v>
+      </c>
+      <c r="E217" s="18">
+        <v>17772.718000000004</v>
+      </c>
+      <c r="F217" s="18">
+        <v>17844.999000000003</v>
+      </c>
+      <c r="G217">
+        <v>9.6032630000000001</v>
+      </c>
+      <c r="H217">
+        <v>59.218800999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B218" t="s">
+        <v>42</v>
+      </c>
+      <c r="C218" t="s">
+        <v>43</v>
+      </c>
+      <c r="D218" t="s">
+        <v>53</v>
+      </c>
+      <c r="E218" s="18">
+        <v>14995.868000000002</v>
+      </c>
+      <c r="F218" s="18">
+        <v>15099.976000000002</v>
+      </c>
+      <c r="G218">
+        <v>10.411158</v>
+      </c>
+      <c r="H218">
+        <v>59.390796999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B219" t="s">
+        <v>42</v>
+      </c>
+      <c r="C219" t="s">
+        <v>43</v>
+      </c>
+      <c r="D219" t="s">
+        <v>54</v>
+      </c>
+      <c r="E219" s="18">
+        <v>8679.3260000000009</v>
+      </c>
+      <c r="F219" s="18">
+        <v>8306.4229999999952</v>
+      </c>
+      <c r="G219">
+        <v>10.300190000000001</v>
+      </c>
+      <c r="H219">
+        <v>59.221215000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B220" t="s">
+        <v>42</v>
+      </c>
+      <c r="C220" t="s">
+        <v>43</v>
+      </c>
+      <c r="D220" t="s">
+        <v>56</v>
+      </c>
+      <c r="E220" s="18">
+        <v>58451.88999999997</v>
+      </c>
+      <c r="F220" s="18">
+        <v>57812.345000000001</v>
+      </c>
+      <c r="G220">
+        <v>10.409449</v>
+      </c>
+      <c r="H220">
+        <v>59.271692000000002</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B221" t="s">
+        <v>42</v>
+      </c>
+      <c r="C221" t="s">
+        <v>43</v>
+      </c>
+      <c r="D221" t="s">
+        <v>55</v>
+      </c>
+      <c r="E221" s="18">
+        <v>11045.914999999997</v>
+      </c>
+      <c r="F221" s="18">
+        <v>10469.111000000001</v>
+      </c>
+      <c r="G221">
+        <v>10.266083</v>
+      </c>
+      <c r="H221">
+        <v>59.165526999999997</v>
       </c>
     </row>
   </sheetData>
@@ -7999,34 +8520,34 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>2023</v>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="534" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B496B0A0-F567-490B-94E3-694390827FCC}"/>
+  <xr:revisionPtr revIDLastSave="535" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{010A68A0-263C-4C4E-BBA7-BFAB960E83AD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="57840" windowHeight="15720" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012-2023" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="60">
   <si>
     <t>Togprodukt</t>
   </si>
@@ -2571,10 +2571,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE9A58E-6281-4D08-BF08-9517A14C48DB}">
-  <dimension ref="A1:I221"/>
+  <dimension ref="A1:I231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD202"/>
+    <sheetView tabSelected="1" topLeftCell="A200" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H231" sqref="H231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8495,6 +8495,266 @@
         <v>10.266083</v>
       </c>
       <c r="H221">
+        <v>59.165526999999997</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B222" t="s">
+        <v>44</v>
+      </c>
+      <c r="C222" t="s">
+        <v>45</v>
+      </c>
+      <c r="D222" t="s">
+        <v>25</v>
+      </c>
+      <c r="E222" s="18">
+        <v>18678.017000000003</v>
+      </c>
+      <c r="F222" s="18">
+        <v>18200.701999999997</v>
+      </c>
+      <c r="G222">
+        <v>10.311612999999999</v>
+      </c>
+      <c r="H222">
+        <v>59.492139000000002</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B223" t="s">
+        <v>44</v>
+      </c>
+      <c r="C223" t="s">
+        <v>45</v>
+      </c>
+      <c r="D223" t="s">
+        <v>48</v>
+      </c>
+      <c r="E223" s="18">
+        <v>19229.685000000001</v>
+      </c>
+      <c r="F223" s="18">
+        <v>19846.914000000004</v>
+      </c>
+      <c r="G223">
+        <v>10.030742999999999</v>
+      </c>
+      <c r="H223">
+        <v>59.050356999999998</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B224" t="s">
+        <v>44</v>
+      </c>
+      <c r="C224" t="s">
+        <v>45</v>
+      </c>
+      <c r="D224" t="s">
+        <v>49</v>
+      </c>
+      <c r="E224" s="18">
+        <v>20470.824000000001</v>
+      </c>
+      <c r="F224" s="18">
+        <v>20324.272999999997</v>
+      </c>
+      <c r="G224">
+        <v>9.6586020000000001</v>
+      </c>
+      <c r="H224">
+        <v>59.139355999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B225" t="s">
+        <v>44</v>
+      </c>
+      <c r="C225" t="s">
+        <v>45</v>
+      </c>
+      <c r="D225" t="s">
+        <v>50</v>
+      </c>
+      <c r="E225" s="18">
+        <v>12038.817000000001</v>
+      </c>
+      <c r="F225" s="18">
+        <v>11982.258999999996</v>
+      </c>
+      <c r="G225">
+        <v>10.205496999999999</v>
+      </c>
+      <c r="H225">
+        <v>59.585008000000002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B226" t="s">
+        <v>44</v>
+      </c>
+      <c r="C226" t="s">
+        <v>45</v>
+      </c>
+      <c r="D226" t="s">
+        <v>51</v>
+      </c>
+      <c r="E226" s="18">
+        <v>29853.899999999994</v>
+      </c>
+      <c r="F226" s="18">
+        <v>30027.300000000003</v>
+      </c>
+      <c r="G226">
+        <v>10.22247</v>
+      </c>
+      <c r="H226">
+        <v>59.135238999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B227" t="s">
+        <v>44</v>
+      </c>
+      <c r="C227" t="s">
+        <v>45</v>
+      </c>
+      <c r="D227" t="s">
+        <v>52</v>
+      </c>
+      <c r="E227" s="18">
+        <v>16926.146000000001</v>
+      </c>
+      <c r="F227" s="18">
+        <v>17238.834999999999</v>
+      </c>
+      <c r="G227">
+        <v>9.6032630000000001</v>
+      </c>
+      <c r="H227">
+        <v>59.218800999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B228" t="s">
+        <v>44</v>
+      </c>
+      <c r="C228" t="s">
+        <v>45</v>
+      </c>
+      <c r="D228" t="s">
+        <v>53</v>
+      </c>
+      <c r="E228" s="18">
+        <v>13541.306999999999</v>
+      </c>
+      <c r="F228" s="18">
+        <v>13848.302000000007</v>
+      </c>
+      <c r="G228">
+        <v>10.411158</v>
+      </c>
+      <c r="H228">
+        <v>59.390796999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B229" t="s">
+        <v>44</v>
+      </c>
+      <c r="C229" t="s">
+        <v>45</v>
+      </c>
+      <c r="D229" t="s">
+        <v>54</v>
+      </c>
+      <c r="E229" s="18">
+        <v>8110.7640000000001</v>
+      </c>
+      <c r="F229" s="18">
+        <v>7868.5959999999986</v>
+      </c>
+      <c r="G229">
+        <v>10.300190000000001</v>
+      </c>
+      <c r="H229">
+        <v>59.221215000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B230" t="s">
+        <v>44</v>
+      </c>
+      <c r="C230" t="s">
+        <v>45</v>
+      </c>
+      <c r="D230" t="s">
+        <v>56</v>
+      </c>
+      <c r="E230" s="18">
+        <v>55668.460999999996</v>
+      </c>
+      <c r="F230" s="18">
+        <v>55700.029000000024</v>
+      </c>
+      <c r="G230">
+        <v>10.409449</v>
+      </c>
+      <c r="H230">
+        <v>59.271692000000002</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B231" t="s">
+        <v>44</v>
+      </c>
+      <c r="C231" t="s">
+        <v>45</v>
+      </c>
+      <c r="D231" t="s">
+        <v>55</v>
+      </c>
+      <c r="E231" s="18">
+        <v>10275.132000000005</v>
+      </c>
+      <c r="F231" s="18">
+        <v>9397.9740000000056</v>
+      </c>
+      <c r="G231">
+        <v>10.266083</v>
+      </c>
+      <c r="H231">
         <v>59.165526999999997</v>
       </c>
     </row>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="535" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{010A68A0-263C-4C4E-BBA7-BFAB960E83AD}"/>
+  <xr:revisionPtr revIDLastSave="556" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51EB0AE9-0BC8-466F-8BE7-46C6237ACD4F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="57840" windowHeight="15720" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
+    <workbookView xWindow="57495" yWindow="0" windowWidth="29010" windowHeight="15585" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012-2023" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="60">
   <si>
     <t>Togprodukt</t>
   </si>
@@ -745,17 +745,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D0B74A-329A-43D4-ACFD-DCC824F63451}">
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.5546875" customWidth="1"/>
     <col min="2" max="2" width="29.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
@@ -2563,6 +2563,146 @@
         <v>2023</v>
       </c>
     </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="1">
+        <v>427331</v>
+      </c>
+      <c r="D122">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="1">
+        <v>437865</v>
+      </c>
+      <c r="D123">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="1">
+        <v>480718</v>
+      </c>
+      <c r="D124">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="1">
+        <v>304775</v>
+      </c>
+      <c r="D125">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="1">
+        <v>666883</v>
+      </c>
+      <c r="D126">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="1">
+        <v>393810</v>
+      </c>
+      <c r="D127">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="1">
+        <v>307318</v>
+      </c>
+      <c r="D128">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="1">
+        <v>188105</v>
+      </c>
+      <c r="D129">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="1">
+        <v>227931</v>
+      </c>
+      <c r="D130">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1237631</v>
+      </c>
+      <c r="D131">
+        <v>2024</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2571,10 +2711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE9A58E-6281-4D08-BF08-9517A14C48DB}">
-  <dimension ref="A1:I231"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H231" sqref="H231"/>
+    <sheetView topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B232" sqref="B232:B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8755,6 +8895,266 @@
         <v>10.266083</v>
       </c>
       <c r="H231">
+        <v>59.165526999999997</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>2024</v>
+      </c>
+      <c r="B232">
+        <v>12</v>
+      </c>
+      <c r="C232" t="s">
+        <v>47</v>
+      </c>
+      <c r="D232" t="s">
+        <v>25</v>
+      </c>
+      <c r="E232" s="18">
+        <v>16482.668000000001</v>
+      </c>
+      <c r="F232" s="18">
+        <v>16577.228999999901</v>
+      </c>
+      <c r="G232">
+        <v>10.311612999999999</v>
+      </c>
+      <c r="H232">
+        <v>59.492139000000002</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>2024</v>
+      </c>
+      <c r="B233">
+        <v>12</v>
+      </c>
+      <c r="C233" t="s">
+        <v>47</v>
+      </c>
+      <c r="D233" t="s">
+        <v>48</v>
+      </c>
+      <c r="E233" s="18">
+        <v>17293.182999999899</v>
+      </c>
+      <c r="F233" s="18">
+        <v>18764.972000000002</v>
+      </c>
+      <c r="G233">
+        <v>10.030742999999999</v>
+      </c>
+      <c r="H233">
+        <v>59.050356999999998</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>2024</v>
+      </c>
+      <c r="B234">
+        <v>12</v>
+      </c>
+      <c r="C234" t="s">
+        <v>47</v>
+      </c>
+      <c r="D234" t="s">
+        <v>49</v>
+      </c>
+      <c r="E234" s="18">
+        <v>18806.705000000002</v>
+      </c>
+      <c r="F234" s="18">
+        <v>19901.514999999999</v>
+      </c>
+      <c r="G234">
+        <v>9.6586020000000001</v>
+      </c>
+      <c r="H234">
+        <v>59.139355999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>2024</v>
+      </c>
+      <c r="B235">
+        <v>12</v>
+      </c>
+      <c r="C235" t="s">
+        <v>47</v>
+      </c>
+      <c r="D235" t="s">
+        <v>50</v>
+      </c>
+      <c r="E235" s="18">
+        <v>10273.003000000001</v>
+      </c>
+      <c r="F235" s="18">
+        <v>10679.4749999999</v>
+      </c>
+      <c r="G235">
+        <v>10.205496999999999</v>
+      </c>
+      <c r="H235">
+        <v>59.585008000000002</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>2024</v>
+      </c>
+      <c r="B236">
+        <v>12</v>
+      </c>
+      <c r="C236" t="s">
+        <v>47</v>
+      </c>
+      <c r="D236" t="s">
+        <v>51</v>
+      </c>
+      <c r="E236" s="18">
+        <v>26917.9209999999</v>
+      </c>
+      <c r="F236" s="18">
+        <v>27833.722000000002</v>
+      </c>
+      <c r="G236">
+        <v>10.22247</v>
+      </c>
+      <c r="H236">
+        <v>59.135238999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>2024</v>
+      </c>
+      <c r="B237">
+        <v>12</v>
+      </c>
+      <c r="C237" t="s">
+        <v>47</v>
+      </c>
+      <c r="D237" t="s">
+        <v>52</v>
+      </c>
+      <c r="E237" s="18">
+        <v>16240.01</v>
+      </c>
+      <c r="F237" s="18">
+        <v>17505.763999999901</v>
+      </c>
+      <c r="G237">
+        <v>9.6032630000000001</v>
+      </c>
+      <c r="H237">
+        <v>59.218800999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>2024</v>
+      </c>
+      <c r="B238">
+        <v>12</v>
+      </c>
+      <c r="C238" t="s">
+        <v>47</v>
+      </c>
+      <c r="D238" t="s">
+        <v>53</v>
+      </c>
+      <c r="E238" s="18">
+        <v>11821.928</v>
+      </c>
+      <c r="F238" s="18">
+        <v>12651.365</v>
+      </c>
+      <c r="G238">
+        <v>10.411158</v>
+      </c>
+      <c r="H238">
+        <v>59.390796999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>2024</v>
+      </c>
+      <c r="B239">
+        <v>12</v>
+      </c>
+      <c r="C239" t="s">
+        <v>47</v>
+      </c>
+      <c r="D239" t="s">
+        <v>54</v>
+      </c>
+      <c r="E239" s="18">
+        <v>7336.2380000000003</v>
+      </c>
+      <c r="F239" s="18">
+        <v>7718.1180000000004</v>
+      </c>
+      <c r="G239">
+        <v>10.300190000000001</v>
+      </c>
+      <c r="H239">
+        <v>59.221215000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>2024</v>
+      </c>
+      <c r="B240">
+        <v>12</v>
+      </c>
+      <c r="C240" t="s">
+        <v>47</v>
+      </c>
+      <c r="D240" t="s">
+        <v>56</v>
+      </c>
+      <c r="E240" s="18">
+        <v>50535.286</v>
+      </c>
+      <c r="F240" s="18">
+        <v>52165.077999999899</v>
+      </c>
+      <c r="G240">
+        <v>10.409449</v>
+      </c>
+      <c r="H240">
+        <v>59.271692000000002</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>2024</v>
+      </c>
+      <c r="B241">
+        <v>12</v>
+      </c>
+      <c r="C241" t="s">
+        <v>47</v>
+      </c>
+      <c r="D241" t="s">
+        <v>55</v>
+      </c>
+      <c r="E241" s="18">
+        <v>9120.6419999999907</v>
+      </c>
+      <c r="F241" s="18">
+        <v>10378.547999999901</v>
+      </c>
+      <c r="G241">
+        <v>10.266083</v>
+      </c>
+      <c r="H241">
         <v>59.165526999999997</v>
       </c>
     </row>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="556" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51EB0AE9-0BC8-466F-8BE7-46C6237ACD4F}"/>
+  <xr:revisionPtr revIDLastSave="560" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E21865-940B-49E2-8981-9314B289FB60}"/>
   <bookViews>
-    <workbookView xWindow="57495" yWindow="0" windowWidth="29010" windowHeight="15585" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
+    <workbookView xWindow="31515" yWindow="2565" windowWidth="22125" windowHeight="11535" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012-2023" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="60">
   <si>
     <t>Togprodukt</t>
   </si>
@@ -329,7 +329,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -349,6 +349,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -747,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D0B74A-329A-43D4-ACFD-DCC824F63451}">
   <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
@@ -2711,10 +2713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE9A58E-6281-4D08-BF08-9517A14C48DB}">
-  <dimension ref="A1:I241"/>
+  <dimension ref="A1:I251"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B232" sqref="B232:B241"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H252" sqref="H252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9156,6 +9158,266 @@
       </c>
       <c r="H241">
         <v>59.165526999999997</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" s="19">
+        <v>2025</v>
+      </c>
+      <c r="B242" s="19">
+        <v>1</v>
+      </c>
+      <c r="C242" t="s">
+        <v>24</v>
+      </c>
+      <c r="D242" t="s">
+        <v>25</v>
+      </c>
+      <c r="E242" s="17">
+        <v>17644.195</v>
+      </c>
+      <c r="F242" s="17">
+        <v>16513.292000000009</v>
+      </c>
+      <c r="G242" s="20">
+        <v>10.311612999999999</v>
+      </c>
+      <c r="H242" s="20">
+        <v>59.492139000000002</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" s="19">
+        <v>2025</v>
+      </c>
+      <c r="B243" s="19">
+        <v>1</v>
+      </c>
+      <c r="C243" t="s">
+        <v>24</v>
+      </c>
+      <c r="D243" t="s">
+        <v>48</v>
+      </c>
+      <c r="E243" s="17">
+        <v>18117.41599999999</v>
+      </c>
+      <c r="F243" s="17">
+        <v>17840.127</v>
+      </c>
+      <c r="G243" s="20">
+        <v>10.030742999999999</v>
+      </c>
+      <c r="H243" s="20">
+        <v>59.050356999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" s="19">
+        <v>2025</v>
+      </c>
+      <c r="B244" s="19">
+        <v>1</v>
+      </c>
+      <c r="C244" t="s">
+        <v>24</v>
+      </c>
+      <c r="D244" t="s">
+        <v>49</v>
+      </c>
+      <c r="E244" s="17">
+        <v>19905.754000000001</v>
+      </c>
+      <c r="F244" s="17">
+        <v>19648.217000000004</v>
+      </c>
+      <c r="G244" s="20">
+        <v>9.6586020000000001</v>
+      </c>
+      <c r="H244" s="20">
+        <v>59.139355999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" s="19">
+        <v>2025</v>
+      </c>
+      <c r="B245" s="19">
+        <v>1</v>
+      </c>
+      <c r="C245" t="s">
+        <v>24</v>
+      </c>
+      <c r="D245" t="s">
+        <v>50</v>
+      </c>
+      <c r="E245" s="17">
+        <v>11274.463000000009</v>
+      </c>
+      <c r="F245" s="17">
+        <v>10851.671999999993</v>
+      </c>
+      <c r="G245" s="20">
+        <v>10.205496999999999</v>
+      </c>
+      <c r="H245" s="20">
+        <v>59.585008000000002</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" s="19">
+        <v>2025</v>
+      </c>
+      <c r="B246" s="19">
+        <v>1</v>
+      </c>
+      <c r="C246" t="s">
+        <v>24</v>
+      </c>
+      <c r="D246" t="s">
+        <v>51</v>
+      </c>
+      <c r="E246" s="17">
+        <v>27530.24500000001</v>
+      </c>
+      <c r="F246" s="17">
+        <v>27359.103999999988</v>
+      </c>
+      <c r="G246" s="20">
+        <v>10.22247</v>
+      </c>
+      <c r="H246" s="20">
+        <v>59.135238999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247" s="19">
+        <v>2025</v>
+      </c>
+      <c r="B247" s="19">
+        <v>1</v>
+      </c>
+      <c r="C247" t="s">
+        <v>24</v>
+      </c>
+      <c r="D247" t="s">
+        <v>52</v>
+      </c>
+      <c r="E247" s="17">
+        <v>16124.785000000007</v>
+      </c>
+      <c r="F247" s="17">
+        <v>15649.839000000005</v>
+      </c>
+      <c r="G247" s="20">
+        <v>9.6032630000000001</v>
+      </c>
+      <c r="H247" s="20">
+        <v>59.218800999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248" s="19">
+        <v>2025</v>
+      </c>
+      <c r="B248" s="19">
+        <v>1</v>
+      </c>
+      <c r="C248" t="s">
+        <v>24</v>
+      </c>
+      <c r="D248" t="s">
+        <v>53</v>
+      </c>
+      <c r="E248" s="17">
+        <v>12593.398000000001</v>
+      </c>
+      <c r="F248" s="17">
+        <v>12355.649999999996</v>
+      </c>
+      <c r="G248" s="20">
+        <v>10.411158</v>
+      </c>
+      <c r="H248" s="20">
+        <v>59.390796999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249" s="19">
+        <v>2025</v>
+      </c>
+      <c r="B249" s="19">
+        <v>1</v>
+      </c>
+      <c r="C249" t="s">
+        <v>24</v>
+      </c>
+      <c r="D249" t="s">
+        <v>54</v>
+      </c>
+      <c r="E249" s="17">
+        <v>7608.0709999999972</v>
+      </c>
+      <c r="F249" s="17">
+        <v>7119.7860000000019</v>
+      </c>
+      <c r="G249" s="20">
+        <v>10.300190000000001</v>
+      </c>
+      <c r="H249" s="20">
+        <v>59.221215000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250" s="19">
+        <v>2025</v>
+      </c>
+      <c r="B250" s="19">
+        <v>1</v>
+      </c>
+      <c r="C250" t="s">
+        <v>24</v>
+      </c>
+      <c r="D250" t="s">
+        <v>55</v>
+      </c>
+      <c r="E250" s="17">
+        <v>9860.5919999999987</v>
+      </c>
+      <c r="F250" s="17">
+        <v>8648.8720000000012</v>
+      </c>
+      <c r="G250" s="20">
+        <v>10.266083</v>
+      </c>
+      <c r="H250" s="20">
+        <v>59.165526999999997</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" s="19">
+        <v>2025</v>
+      </c>
+      <c r="B251" s="19">
+        <v>1</v>
+      </c>
+      <c r="C251" t="s">
+        <v>24</v>
+      </c>
+      <c r="D251" t="s">
+        <v>56</v>
+      </c>
+      <c r="E251" s="17">
+        <v>51597.320999999967</v>
+      </c>
+      <c r="F251" s="17">
+        <v>51390.414000000012</v>
+      </c>
+      <c r="G251" s="20">
+        <v>10.409449</v>
+      </c>
+      <c r="H251" s="20">
+        <v>59.271692000000002</v>
       </c>
     </row>
   </sheetData>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="560" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E21865-940B-49E2-8981-9314B289FB60}"/>
+  <xr:revisionPtr revIDLastSave="569" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A88DD22-BFE6-4C2A-9EFE-F35D74BAEACC}"/>
   <bookViews>
-    <workbookView xWindow="31515" yWindow="2565" windowWidth="22125" windowHeight="11535" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="57840" windowHeight="15720" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012-2023" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="60">
   <si>
     <t>Togprodukt</t>
   </si>
@@ -329,7 +329,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -349,8 +349,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -753,19 +757,19 @@
       <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -782,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -806,7 +810,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -830,7 +834,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -854,7 +858,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -878,7 +882,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -902,7 +906,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -926,7 +930,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -950,7 +954,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -974,7 +978,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -998,7 +1002,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1022,7 +1026,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1036,7 +1040,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1050,7 +1054,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1064,7 +1068,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1078,7 +1082,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1092,7 +1096,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1110,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1120,7 +1124,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1134,7 +1138,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1148,7 +1152,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1162,7 +1166,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1176,7 +1180,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1190,7 +1194,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1218,7 +1222,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1232,7 +1236,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1246,7 +1250,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1260,7 +1264,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1274,7 +1278,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1288,7 +1292,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1302,7 +1306,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1316,7 +1320,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1330,7 +1334,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1344,7 +1348,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1358,7 +1362,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1372,7 +1376,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1386,7 +1390,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1400,7 +1404,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1414,7 +1418,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1428,7 +1432,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1442,7 +1446,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1456,7 +1460,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1470,7 +1474,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1484,7 +1488,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1498,7 +1502,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1512,7 +1516,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1526,7 +1530,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1540,7 +1544,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1554,7 +1558,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1568,7 +1572,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1582,7 +1586,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1596,7 +1600,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +1628,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1638,7 +1642,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1652,7 +1656,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1666,7 +1670,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1680,7 +1684,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1694,7 +1698,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1708,7 +1712,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1722,7 +1726,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1736,7 +1740,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1750,7 +1754,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1764,7 +1768,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1778,7 +1782,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -1792,7 +1796,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1806,7 +1810,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -1820,7 +1824,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -1834,7 +1838,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -1848,7 +1852,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -1862,7 +1866,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -1876,7 +1880,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -1890,7 +1894,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -1904,7 +1908,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -1918,7 +1922,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -1932,7 +1936,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -1946,7 +1950,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -1960,7 +1964,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -1974,7 +1978,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -1988,7 +1992,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2002,7 +2006,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -2016,7 +2020,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -2030,7 +2034,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -2044,7 +2048,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2058,7 +2062,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -2072,7 +2076,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2090,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -2100,7 +2104,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -2114,7 +2118,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -2128,7 +2132,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -2142,7 +2146,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -2156,7 +2160,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -2170,7 +2174,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -2184,7 +2188,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -2198,7 +2202,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -2212,7 +2216,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2226,7 +2230,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -2240,7 +2244,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -2254,7 +2258,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -2268,7 +2272,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -2282,7 +2286,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -2296,7 +2300,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -2310,7 +2314,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -2324,7 +2328,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -2338,7 +2342,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -2352,7 +2356,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -2366,7 +2370,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -2380,7 +2384,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -2394,7 +2398,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -2408,7 +2412,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -2422,7 +2426,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -2436,7 +2440,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -2450,7 +2454,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -2464,7 +2468,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -2478,7 +2482,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -2492,7 +2496,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -2506,7 +2510,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -2520,7 +2524,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -2537,7 +2541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -2551,7 +2555,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -2565,7 +2569,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -2579,7 +2583,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -2593,7 +2597,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -2607,7 +2611,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -2621,7 +2625,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -2635,7 +2639,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -2649,7 +2653,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -2663,7 +2667,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -2677,7 +2681,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -2691,7 +2695,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -2713,30 +2717,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE9A58E-6281-4D08-BF08-9517A14C48DB}">
-  <dimension ref="A1:I251"/>
+  <dimension ref="A1:I261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H252" sqref="H252"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K254" sqref="K254"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="2"/>
-    <col min="2" max="2" width="17.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="21.5546875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="17.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="21.5703125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" customWidth="1"/>
-    <col min="10" max="16384" width="11.44140625" style="2"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -2761,11 +2765,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>2023</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -2788,11 +2792,11 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2023</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -2815,11 +2819,11 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2023</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -2842,11 +2846,11 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>2023</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -2869,11 +2873,11 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2023</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -2896,11 +2900,11 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>2023</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -2925,11 +2929,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2023</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -2954,11 +2958,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>2023</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -2983,11 +2987,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2023</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -3010,11 +3014,11 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>2023</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -3037,11 +3041,11 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2023</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -3064,11 +3068,11 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>2023</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -3091,11 +3095,11 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2024</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -3118,11 +3122,11 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>2024</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -3145,11 +3149,11 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2024</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -3172,11 +3176,11 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>2024</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -3199,11 +3203,11 @@
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2024</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -3226,11 +3230,11 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2024</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -3253,11 +3257,11 @@
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2024</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -3280,11 +3284,11 @@
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>2023</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -3307,11 +3311,11 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>2023</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -3334,11 +3338,11 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>2023</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -3361,11 +3365,11 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>2023</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -3388,11 +3392,11 @@
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>2023</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="14" t="s">
@@ -3415,11 +3419,11 @@
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>2023</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -3442,11 +3446,11 @@
       </c>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>2023</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -3469,11 +3473,11 @@
       </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>2023</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -3496,11 +3500,11 @@
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>2023</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -3523,11 +3527,11 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>2023</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -3550,11 +3554,11 @@
       </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>2023</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -3577,11 +3581,11 @@
       </c>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>2023</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -3604,11 +3608,11 @@
       </c>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>2024</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -3631,11 +3635,11 @@
       </c>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>2024</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="11" t="s">
@@ -3658,11 +3662,11 @@
       </c>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>2024</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="14" t="s">
@@ -3685,11 +3689,11 @@
       </c>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>2024</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -3712,11 +3716,11 @@
       </c>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>2024</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="14" t="s">
@@ -3739,11 +3743,11 @@
       </c>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>2024</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="11" t="s">
@@ -3766,11 +3770,11 @@
       </c>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>2024</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="14" t="s">
@@ -3793,11 +3797,11 @@
       </c>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>2023</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -3820,11 +3824,11 @@
       </c>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>2023</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="14" t="s">
@@ -3847,11 +3851,11 @@
       </c>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>2023</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C42" s="11" t="s">
@@ -3874,11 +3878,11 @@
       </c>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>2023</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C43" s="14" t="s">
@@ -3901,11 +3905,11 @@
       </c>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>2023</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="11" t="s">
@@ -3928,11 +3932,11 @@
       </c>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>2023</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="14" t="s">
@@ -3955,11 +3959,11 @@
       </c>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>2023</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C46" s="11" t="s">
@@ -3982,11 +3986,11 @@
       </c>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>2023</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C47" s="14" t="s">
@@ -4009,11 +4013,11 @@
       </c>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>2023</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -4036,11 +4040,11 @@
       </c>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>2023</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C49" s="14" t="s">
@@ -4063,11 +4067,11 @@
       </c>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>2023</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="11" t="s">
@@ -4090,11 +4094,11 @@
       </c>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>2023</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="14" t="s">
@@ -4117,11 +4121,11 @@
       </c>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>2024</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="11" t="s">
@@ -4144,11 +4148,11 @@
       </c>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>2024</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -4171,11 +4175,11 @@
       </c>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>2024</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="11" t="s">
@@ -4198,11 +4202,11 @@
       </c>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>2024</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="14" t="s">
@@ -4225,11 +4229,11 @@
       </c>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>2024</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="11" t="s">
@@ -4252,11 +4256,11 @@
       </c>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>2024</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C57" s="14" t="s">
@@ -4279,11 +4283,11 @@
       </c>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>2024</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C58" s="11" t="s">
@@ -4306,11 +4310,11 @@
       </c>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>2023</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="14" t="s">
@@ -4333,11 +4337,11 @@
       </c>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>2023</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C60" s="11" t="s">
@@ -4360,11 +4364,11 @@
       </c>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>2023</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -4387,11 +4391,11 @@
       </c>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>2023</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="11" t="s">
@@ -4414,11 +4418,11 @@
       </c>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>2023</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C63" s="14" t="s">
@@ -4441,11 +4445,11 @@
       </c>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>2023</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C64" s="11" t="s">
@@ -4470,11 +4474,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>2023</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C65" s="14" t="s">
@@ -4499,11 +4503,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>2023</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="11" t="s">
@@ -4528,11 +4532,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>2023</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C67" s="14" t="s">
@@ -4555,11 +4559,11 @@
       </c>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>2023</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C68" s="11" t="s">
@@ -4582,11 +4586,11 @@
       </c>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>2023</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C69" s="14" t="s">
@@ -4609,11 +4613,11 @@
       </c>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>2023</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C70" s="11" t="s">
@@ -4636,11 +4640,11 @@
       </c>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>2024</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C71" s="14" t="s">
@@ -4663,11 +4667,11 @@
       </c>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>2024</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C72" s="11" t="s">
@@ -4690,11 +4694,11 @@
       </c>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>2024</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C73" s="14" t="s">
@@ -4717,11 +4721,11 @@
       </c>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>2024</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C74" s="11" t="s">
@@ -4744,11 +4748,11 @@
       </c>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <v>2024</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C75" s="14" t="s">
@@ -4771,11 +4775,11 @@
       </c>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>2024</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C76" s="11" t="s">
@@ -4798,11 +4802,11 @@
       </c>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
         <v>2024</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C77" s="14" t="s">
@@ -4825,11 +4829,11 @@
       </c>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="10">
         <v>2023</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C78" s="11" t="s">
@@ -4852,11 +4856,11 @@
       </c>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>2023</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C79" s="14" t="s">
@@ -4879,11 +4883,11 @@
       </c>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
         <v>2023</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C80" s="11" t="s">
@@ -4906,11 +4910,11 @@
       </c>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
         <v>2023</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C81" s="14" t="s">
@@ -4933,11 +4937,11 @@
       </c>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="10">
         <v>2023</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C82" s="11" t="s">
@@ -4960,11 +4964,11 @@
       </c>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
         <v>2023</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C83" s="14" t="s">
@@ -4987,11 +4991,11 @@
       </c>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="10">
         <v>2023</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C84" s="11" t="s">
@@ -5014,11 +5018,11 @@
       </c>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="13">
         <v>2023</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C85" s="14" t="s">
@@ -5041,11 +5045,11 @@
       </c>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="10">
         <v>2023</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C86" s="11" t="s">
@@ -5068,11 +5072,11 @@
       </c>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="13">
         <v>2023</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C87" s="14" t="s">
@@ -5095,11 +5099,11 @@
       </c>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
         <v>2023</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C88" s="11" t="s">
@@ -5122,11 +5126,11 @@
       </c>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
         <v>2023</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C89" s="14" t="s">
@@ -5149,11 +5153,11 @@
       </c>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="10">
         <v>2024</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C90" s="11" t="s">
@@ -5176,11 +5180,11 @@
       </c>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="13">
         <v>2024</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C91" s="14" t="s">
@@ -5203,11 +5207,11 @@
       </c>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
         <v>2024</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C92" s="11" t="s">
@@ -5230,11 +5234,11 @@
       </c>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
         <v>2024</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C93" s="14" t="s">
@@ -5257,11 +5261,11 @@
       </c>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="10">
         <v>2024</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C94" s="11" t="s">
@@ -5284,11 +5288,11 @@
       </c>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
         <v>2024</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C95" s="14" t="s">
@@ -5311,11 +5315,11 @@
       </c>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
         <v>2024</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C96" s="11" t="s">
@@ -5338,11 +5342,11 @@
       </c>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
         <v>2023</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C97" s="14" t="s">
@@ -5365,11 +5369,11 @@
       </c>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="10">
         <v>2023</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C98" s="11" t="s">
@@ -5392,11 +5396,11 @@
       </c>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="13">
         <v>2023</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C99" s="14" t="s">
@@ -5419,11 +5423,11 @@
       </c>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="10">
         <v>2023</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C100" s="11" t="s">
@@ -5446,11 +5450,11 @@
       </c>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="13">
         <v>2023</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C101" s="14" t="s">
@@ -5473,11 +5477,11 @@
       </c>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="10">
         <v>2023</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C102" s="11" t="s">
@@ -5500,11 +5504,11 @@
       </c>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="13">
         <v>2023</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C103" s="14" t="s">
@@ -5527,11 +5531,11 @@
       </c>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="10">
         <v>2023</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C104" s="11" t="s">
@@ -5554,11 +5558,11 @@
       </c>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="13">
         <v>2023</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C105" s="14" t="s">
@@ -5581,11 +5585,11 @@
       </c>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="10">
         <v>2023</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C106" s="11" t="s">
@@ -5608,11 +5612,11 @@
       </c>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="13">
         <v>2023</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C107" s="14" t="s">
@@ -5635,11 +5639,11 @@
       </c>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="10">
         <v>2023</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C108" s="11" t="s">
@@ -5662,11 +5666,11 @@
       </c>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="13">
         <v>2024</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C109" s="14" t="s">
@@ -5689,11 +5693,11 @@
       </c>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="10">
         <v>2024</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C110" s="11" t="s">
@@ -5716,11 +5720,11 @@
       </c>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="13">
         <v>2024</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C111" s="14" t="s">
@@ -5743,11 +5747,11 @@
       </c>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="10">
         <v>2024</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C112" s="11" t="s">
@@ -5770,11 +5774,11 @@
       </c>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="13">
         <v>2024</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C113" s="14" t="s">
@@ -5797,11 +5801,11 @@
       </c>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="10">
         <v>2024</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C114" s="11" t="s">
@@ -5824,11 +5828,11 @@
       </c>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="13">
         <v>2024</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C115" s="14" t="s">
@@ -5851,11 +5855,11 @@
       </c>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="10">
         <v>2023</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C116" s="11" t="s">
@@ -5878,11 +5882,11 @@
       </c>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="13">
         <v>2023</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C117" s="14" t="s">
@@ -5905,11 +5909,11 @@
       </c>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="10">
         <v>2023</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C118" s="11" t="s">
@@ -5932,11 +5936,11 @@
       </c>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="13">
         <v>2023</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C119" s="14" t="s">
@@ -5959,11 +5963,11 @@
       </c>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="10">
         <v>2023</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C120" s="11" t="s">
@@ -5986,11 +5990,11 @@
       </c>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="13">
         <v>2023</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C121" s="14" t="s">
@@ -6015,11 +6019,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="10">
         <v>2023</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C122" s="11" t="s">
@@ -6044,11 +6048,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="13">
         <v>2023</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C123" s="14" t="s">
@@ -6073,11 +6077,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="10">
         <v>2023</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C124" s="11" t="s">
@@ -6099,11 +6103,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="13">
         <v>2023</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C125" s="14" t="s">
@@ -6125,11 +6129,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="10">
         <v>2023</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C126" s="11" t="s">
@@ -6151,11 +6155,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="13">
         <v>2023</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C127" s="14" t="s">
@@ -6177,11 +6181,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="10">
         <v>2024</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C128" s="11" t="s">
@@ -6203,11 +6207,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="13">
         <v>2024</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C129" s="14" t="s">
@@ -6229,11 +6233,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="10">
         <v>2024</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C130" s="11" t="s">
@@ -6255,11 +6259,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="13">
         <v>2024</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C131" s="14" t="s">
@@ -6281,11 +6285,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="10">
         <v>2024</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C132" s="11" t="s">
@@ -6307,11 +6311,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="13">
         <v>2024</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C133" s="14" t="s">
@@ -6333,11 +6337,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="10">
         <v>2024</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C134" s="11" t="s">
@@ -6359,11 +6363,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="13">
         <v>2023</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C135" s="14" t="s">
@@ -6385,11 +6389,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="10">
         <v>2023</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C136" s="11" t="s">
@@ -6411,11 +6415,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="13">
         <v>2023</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C137" s="14" t="s">
@@ -6437,11 +6441,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="10">
         <v>2023</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C138" s="11" t="s">
@@ -6463,11 +6467,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="13">
         <v>2023</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C139" s="14" t="s">
@@ -6490,11 +6494,11 @@
       </c>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="10">
         <v>2023</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C140" s="11" t="s">
@@ -6519,11 +6523,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="13">
         <v>2023</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C141" s="14" t="s">
@@ -6548,11 +6552,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="10">
         <v>2023</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C142" s="11" t="s">
@@ -6577,11 +6581,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="13">
         <v>2023</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C143" s="14" t="s">
@@ -6603,11 +6607,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="10">
         <v>2023</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C144" s="11" t="s">
@@ -6629,11 +6633,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="13">
         <v>2023</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C145" s="14" t="s">
@@ -6655,11 +6659,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="10">
         <v>2023</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C146" s="11" t="s">
@@ -6681,11 +6685,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="13">
         <v>2024</v>
       </c>
-      <c r="B147" s="14" t="s">
+      <c r="B147" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C147" s="14" t="s">
@@ -6707,11 +6711,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="10">
         <v>2024</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C148" s="11" t="s">
@@ -6733,11 +6737,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="13">
         <v>2024</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C149" s="14" t="s">
@@ -6759,11 +6763,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="10">
         <v>2024</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C150" s="11" t="s">
@@ -6785,11 +6789,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="13">
         <v>2024</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C151" s="14" t="s">
@@ -6811,11 +6815,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="10">
         <v>2024</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C152" s="11" t="s">
@@ -6837,11 +6841,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="13">
         <v>2024</v>
       </c>
-      <c r="B153" s="14" t="s">
+      <c r="B153" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C153" s="14" t="s">
@@ -6863,11 +6867,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="10">
         <v>2023</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C154" s="11" t="s">
@@ -6889,11 +6893,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="13">
         <v>2023</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C155" s="14" t="s">
@@ -6915,11 +6919,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="10">
         <v>2023</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B156" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C156" s="11" t="s">
@@ -6941,11 +6945,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="13">
         <v>2023</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C157" s="14" t="s">
@@ -6967,11 +6971,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="10">
         <v>2023</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C158" s="11" t="s">
@@ -6993,11 +6997,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="13">
         <v>2023</v>
       </c>
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C159" s="14" t="s">
@@ -7019,11 +7023,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="10">
         <v>2023</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C160" s="11" t="s">
@@ -7045,11 +7049,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="13">
         <v>2023</v>
       </c>
-      <c r="B161" s="14" t="s">
+      <c r="B161" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C161" s="14" t="s">
@@ -7071,11 +7075,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="10">
         <v>2023</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C162" s="11" t="s">
@@ -7097,11 +7101,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="13">
         <v>2023</v>
       </c>
-      <c r="B163" s="14" t="s">
+      <c r="B163" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C163" s="14" t="s">
@@ -7123,11 +7127,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="10">
         <v>2023</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B164" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C164" s="11" t="s">
@@ -7149,11 +7153,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="13">
         <v>2023</v>
       </c>
-      <c r="B165" s="14" t="s">
+      <c r="B165" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C165" s="14" t="s">
@@ -7175,11 +7179,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="10">
         <v>2024</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B166" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C166" s="11" t="s">
@@ -7201,11 +7205,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="13">
         <v>2024</v>
       </c>
-      <c r="B167" s="14" t="s">
+      <c r="B167" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C167" s="14" t="s">
@@ -7227,11 +7231,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="10">
         <v>2024</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B168" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C168" s="11" t="s">
@@ -7253,11 +7257,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="13">
         <v>2024</v>
       </c>
-      <c r="B169" s="14" t="s">
+      <c r="B169" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C169" s="14" t="s">
@@ -7279,11 +7283,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="10">
         <v>2024</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B170" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C170" s="11" t="s">
@@ -7305,11 +7309,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="13">
         <v>2024</v>
       </c>
-      <c r="B171" s="14" t="s">
+      <c r="B171" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C171" s="14" t="s">
@@ -7331,11 +7335,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="10">
         <v>2024</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B172" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C172" s="11" t="s">
@@ -7357,11 +7361,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="13">
         <v>2023</v>
       </c>
-      <c r="B173" s="14" t="s">
+      <c r="B173" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C173" s="14" t="s">
@@ -7383,11 +7387,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="10">
         <v>2023</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B174" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C174" s="11" t="s">
@@ -7409,11 +7413,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="13">
         <v>2023</v>
       </c>
-      <c r="B175" s="14" t="s">
+      <c r="B175" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C175" s="14" t="s">
@@ -7435,11 +7439,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="10">
         <v>2023</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="B176" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C176" s="11" t="s">
@@ -7461,11 +7465,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="13">
         <v>2023</v>
       </c>
-      <c r="B177" s="14" t="s">
+      <c r="B177" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C177" s="14" t="s">
@@ -7487,11 +7491,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="10">
         <v>2023</v>
       </c>
-      <c r="B178" s="11" t="s">
+      <c r="B178" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C178" s="11" t="s">
@@ -7516,11 +7520,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="13">
         <v>2023</v>
       </c>
-      <c r="B179" s="14" t="s">
+      <c r="B179" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C179" s="14" t="s">
@@ -7545,11 +7549,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="10">
         <v>2023</v>
       </c>
-      <c r="B180" s="11" t="s">
+      <c r="B180" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C180" s="11" t="s">
@@ -7574,11 +7578,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="13">
         <v>2023</v>
       </c>
-      <c r="B181" s="14" t="s">
+      <c r="B181" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C181" s="14" t="s">
@@ -7600,11 +7604,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="10">
         <v>2023</v>
       </c>
-      <c r="B182" s="11" t="s">
+      <c r="B182" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C182" s="11" t="s">
@@ -7626,11 +7630,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="13">
         <v>2023</v>
       </c>
-      <c r="B183" s="14" t="s">
+      <c r="B183" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C183" s="14" t="s">
@@ -7652,11 +7656,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="10">
         <v>2023</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="B184" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C184" s="11" t="s">
@@ -7678,11 +7682,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="13">
         <v>2024</v>
       </c>
-      <c r="B185" s="14" t="s">
+      <c r="B185" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C185" s="14" t="s">
@@ -7704,11 +7708,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="10">
         <v>2024</v>
       </c>
-      <c r="B186" s="11" t="s">
+      <c r="B186" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C186" s="11" t="s">
@@ -7730,11 +7734,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="13">
         <v>2024</v>
       </c>
-      <c r="B187" s="14" t="s">
+      <c r="B187" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C187" s="14" t="s">
@@ -7756,11 +7760,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="10">
         <v>2024</v>
       </c>
-      <c r="B188" s="11" t="s">
+      <c r="B188" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C188" s="11" t="s">
@@ -7782,11 +7786,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="13">
         <v>2024</v>
       </c>
-      <c r="B189" s="14" t="s">
+      <c r="B189" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C189" s="14" t="s">
@@ -7808,11 +7812,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="10">
         <v>2024</v>
       </c>
-      <c r="B190" s="11" t="s">
+      <c r="B190" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C190" s="11" t="s">
@@ -7834,11 +7838,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="13">
         <v>2024</v>
       </c>
-      <c r="B191" s="14" t="s">
+      <c r="B191" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C191" s="14" t="s">
@@ -7860,11 +7864,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="17">
         <v>2024</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C192" t="s">
@@ -7886,11 +7890,11 @@
         <v>10.311612999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="17">
         <v>2024</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C193" t="s">
@@ -7912,11 +7916,11 @@
         <v>10.030742999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="17">
         <v>2024</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C194" t="s">
@@ -7938,11 +7942,11 @@
         <v>9.6586020000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="17">
         <v>2024</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C195" t="s">
@@ -7964,11 +7968,11 @@
         <v>10.205496999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="17">
         <v>2024</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C196" t="s">
@@ -7990,11 +7994,11 @@
         <v>10.22247</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="17">
         <v>2024</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C197" t="s">
@@ -8016,11 +8020,11 @@
         <v>9.6032630000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="17">
         <v>2024</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C198" t="s">
@@ -8042,11 +8046,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="17">
         <v>2024</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C199" t="s">
@@ -8068,11 +8072,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="17">
         <v>2024</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C200" t="s">
@@ -8094,11 +8098,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="17">
         <v>2024</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C201" t="s">
@@ -8120,11 +8124,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="17">
         <v>2024</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C202" t="s">
@@ -8146,11 +8150,11 @@
         <v>59.492139000000002</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="17">
         <v>2024</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C203" t="s">
@@ -8172,11 +8176,11 @@
         <v>59.050356999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="17">
         <v>2024</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C204" t="s">
@@ -8198,11 +8202,11 @@
         <v>59.139355999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="17">
         <v>2024</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C205" t="s">
@@ -8224,11 +8228,11 @@
         <v>59.585008000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="17">
         <v>2024</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C206" t="s">
@@ -8250,11 +8254,11 @@
         <v>59.135238999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="17">
         <v>2024</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C207" t="s">
@@ -8276,11 +8280,11 @@
         <v>59.218800999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="17">
         <v>2024</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C208" t="s">
@@ -8302,11 +8306,11 @@
         <v>59.390796999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="17">
         <v>2024</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C209" t="s">
@@ -8328,11 +8332,11 @@
         <v>59.221215000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="17">
         <v>2024</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C210" t="s">
@@ -8354,11 +8358,11 @@
         <v>59.271692000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="17">
         <v>2024</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C211" t="s">
@@ -8380,11 +8384,11 @@
         <v>59.165526999999997</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="17">
         <v>2024</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C212" t="s">
@@ -8406,11 +8410,11 @@
         <v>59.492139000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="17">
         <v>2024</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C213" t="s">
@@ -8432,11 +8436,11 @@
         <v>59.050356999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="17">
         <v>2024</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C214" t="s">
@@ -8458,11 +8462,11 @@
         <v>59.139355999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="17">
         <v>2024</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C215" t="s">
@@ -8484,11 +8488,11 @@
         <v>59.585008000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="17">
         <v>2024</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C216" t="s">
@@ -8510,11 +8514,11 @@
         <v>59.135238999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="17">
         <v>2024</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C217" t="s">
@@ -8536,11 +8540,11 @@
         <v>59.218800999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="17">
         <v>2024</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C218" t="s">
@@ -8562,11 +8566,11 @@
         <v>59.390796999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="17">
         <v>2024</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C219" t="s">
@@ -8588,11 +8592,11 @@
         <v>59.221215000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="17">
         <v>2024</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C220" t="s">
@@ -8614,11 +8618,11 @@
         <v>59.271692000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="17">
         <v>2024</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C221" t="s">
@@ -8640,11 +8644,11 @@
         <v>59.165526999999997</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="17">
         <v>2024</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C222" t="s">
@@ -8666,11 +8670,11 @@
         <v>59.492139000000002</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="17">
         <v>2024</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C223" t="s">
@@ -8692,11 +8696,11 @@
         <v>59.050356999999998</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="17">
         <v>2024</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C224" t="s">
@@ -8718,11 +8722,11 @@
         <v>59.139355999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="17">
         <v>2024</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C225" t="s">
@@ -8744,11 +8748,11 @@
         <v>59.585008000000002</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="17">
         <v>2024</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C226" t="s">
@@ -8770,11 +8774,11 @@
         <v>59.135238999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="17">
         <v>2024</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C227" t="s">
@@ -8796,11 +8800,11 @@
         <v>59.218800999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="17">
         <v>2024</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C228" t="s">
@@ -8822,11 +8826,11 @@
         <v>59.390796999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="17">
         <v>2024</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C229" t="s">
@@ -8848,11 +8852,11 @@
         <v>59.221215000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="17">
         <v>2024</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C230" t="s">
@@ -8874,11 +8878,11 @@
         <v>59.271692000000002</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="17">
         <v>2024</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C231" t="s">
@@ -8900,11 +8904,11 @@
         <v>59.165526999999997</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2024</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="23">
         <v>12</v>
       </c>
       <c r="C232" t="s">
@@ -8926,11 +8930,11 @@
         <v>59.492139000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2024</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="23">
         <v>12</v>
       </c>
       <c r="C233" t="s">
@@ -8952,11 +8956,11 @@
         <v>59.050356999999998</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2024</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="23">
         <v>12</v>
       </c>
       <c r="C234" t="s">
@@ -8978,11 +8982,11 @@
         <v>59.139355999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2024</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="23">
         <v>12</v>
       </c>
       <c r="C235" t="s">
@@ -9004,11 +9008,11 @@
         <v>59.585008000000002</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2024</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="23">
         <v>12</v>
       </c>
       <c r="C236" t="s">
@@ -9030,11 +9034,11 @@
         <v>59.135238999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2024</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="23">
         <v>12</v>
       </c>
       <c r="C237" t="s">
@@ -9056,11 +9060,11 @@
         <v>59.218800999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2024</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="23">
         <v>12</v>
       </c>
       <c r="C238" t="s">
@@ -9082,11 +9086,11 @@
         <v>59.390796999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2024</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="23">
         <v>12</v>
       </c>
       <c r="C239" t="s">
@@ -9108,11 +9112,11 @@
         <v>59.221215000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2024</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="23">
         <v>12</v>
       </c>
       <c r="C240" t="s">
@@ -9134,11 +9138,11 @@
         <v>59.271692000000002</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2024</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="23">
         <v>12</v>
       </c>
       <c r="C241" t="s">
@@ -9160,11 +9164,11 @@
         <v>59.165526999999997</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A242" s="19">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242">
         <v>2025</v>
       </c>
-      <c r="B242" s="19">
+      <c r="B242" s="23">
         <v>1</v>
       </c>
       <c r="C242" t="s">
@@ -9179,18 +9183,18 @@
       <c r="F242" s="17">
         <v>16513.292000000009</v>
       </c>
-      <c r="G242" s="20">
+      <c r="G242" s="19">
         <v>10.311612999999999</v>
       </c>
-      <c r="H242" s="20">
+      <c r="H242" s="19">
         <v>59.492139000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A243" s="19">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243">
         <v>2025</v>
       </c>
-      <c r="B243" s="19">
+      <c r="B243" s="23">
         <v>1</v>
       </c>
       <c r="C243" t="s">
@@ -9205,18 +9209,18 @@
       <c r="F243" s="17">
         <v>17840.127</v>
       </c>
-      <c r="G243" s="20">
+      <c r="G243" s="19">
         <v>10.030742999999999</v>
       </c>
-      <c r="H243" s="20">
+      <c r="H243" s="19">
         <v>59.050356999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A244" s="19">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244">
         <v>2025</v>
       </c>
-      <c r="B244" s="19">
+      <c r="B244" s="23">
         <v>1</v>
       </c>
       <c r="C244" t="s">
@@ -9231,18 +9235,18 @@
       <c r="F244" s="17">
         <v>19648.217000000004</v>
       </c>
-      <c r="G244" s="20">
+      <c r="G244" s="19">
         <v>9.6586020000000001</v>
       </c>
-      <c r="H244" s="20">
+      <c r="H244" s="19">
         <v>59.139355999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A245" s="19">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245">
         <v>2025</v>
       </c>
-      <c r="B245" s="19">
+      <c r="B245" s="23">
         <v>1</v>
       </c>
       <c r="C245" t="s">
@@ -9257,18 +9261,18 @@
       <c r="F245" s="17">
         <v>10851.671999999993</v>
       </c>
-      <c r="G245" s="20">
+      <c r="G245" s="19">
         <v>10.205496999999999</v>
       </c>
-      <c r="H245" s="20">
+      <c r="H245" s="19">
         <v>59.585008000000002</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A246" s="19">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246">
         <v>2025</v>
       </c>
-      <c r="B246" s="19">
+      <c r="B246" s="23">
         <v>1</v>
       </c>
       <c r="C246" t="s">
@@ -9283,18 +9287,18 @@
       <c r="F246" s="17">
         <v>27359.103999999988</v>
       </c>
-      <c r="G246" s="20">
+      <c r="G246" s="19">
         <v>10.22247</v>
       </c>
-      <c r="H246" s="20">
+      <c r="H246" s="19">
         <v>59.135238999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A247" s="19">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247">
         <v>2025</v>
       </c>
-      <c r="B247" s="19">
+      <c r="B247" s="23">
         <v>1</v>
       </c>
       <c r="C247" t="s">
@@ -9309,18 +9313,18 @@
       <c r="F247" s="17">
         <v>15649.839000000005</v>
       </c>
-      <c r="G247" s="20">
+      <c r="G247" s="19">
         <v>9.6032630000000001</v>
       </c>
-      <c r="H247" s="20">
+      <c r="H247" s="19">
         <v>59.218800999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A248" s="19">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248">
         <v>2025</v>
       </c>
-      <c r="B248" s="19">
+      <c r="B248" s="23">
         <v>1</v>
       </c>
       <c r="C248" t="s">
@@ -9335,18 +9339,18 @@
       <c r="F248" s="17">
         <v>12355.649999999996</v>
       </c>
-      <c r="G248" s="20">
+      <c r="G248" s="19">
         <v>10.411158</v>
       </c>
-      <c r="H248" s="20">
+      <c r="H248" s="19">
         <v>59.390796999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A249" s="19">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249">
         <v>2025</v>
       </c>
-      <c r="B249" s="19">
+      <c r="B249" s="23">
         <v>1</v>
       </c>
       <c r="C249" t="s">
@@ -9361,18 +9365,18 @@
       <c r="F249" s="17">
         <v>7119.7860000000019</v>
       </c>
-      <c r="G249" s="20">
+      <c r="G249" s="19">
         <v>10.300190000000001</v>
       </c>
-      <c r="H249" s="20">
+      <c r="H249" s="19">
         <v>59.221215000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A250" s="19">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250">
         <v>2025</v>
       </c>
-      <c r="B250" s="19">
+      <c r="B250" s="23">
         <v>1</v>
       </c>
       <c r="C250" t="s">
@@ -9387,18 +9391,18 @@
       <c r="F250" s="17">
         <v>8648.8720000000012</v>
       </c>
-      <c r="G250" s="20">
+      <c r="G250" s="19">
         <v>10.266083</v>
       </c>
-      <c r="H250" s="20">
+      <c r="H250" s="19">
         <v>59.165526999999997</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A251" s="19">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251">
         <v>2025</v>
       </c>
-      <c r="B251" s="19">
+      <c r="B251" s="23">
         <v>1</v>
       </c>
       <c r="C251" t="s">
@@ -9413,10 +9417,270 @@
       <c r="F251" s="17">
         <v>51390.414000000012</v>
       </c>
-      <c r="G251" s="20">
+      <c r="G251" s="19">
         <v>10.409449</v>
       </c>
-      <c r="H251" s="20">
+      <c r="H251" s="19">
+        <v>59.271692000000002</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>2025</v>
+      </c>
+      <c r="B252" s="24">
+        <v>2</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E252" s="5">
+        <v>16595.013000000014</v>
+      </c>
+      <c r="F252" s="5">
+        <v>16374.893</v>
+      </c>
+      <c r="G252" s="19">
+        <v>10.311612999999999</v>
+      </c>
+      <c r="H252" s="19">
+        <v>59.492139000000002</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>2025</v>
+      </c>
+      <c r="B253" s="24">
+        <v>2</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E253" s="5">
+        <v>17603.049999999996</v>
+      </c>
+      <c r="F253" s="5">
+        <v>17320.465000000018</v>
+      </c>
+      <c r="G253" s="19">
+        <v>10.030742999999999</v>
+      </c>
+      <c r="H253" s="19">
+        <v>59.050356999999998</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>2025</v>
+      </c>
+      <c r="B254" s="24">
+        <v>2</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E254" s="5">
+        <v>18759.397999999986</v>
+      </c>
+      <c r="F254" s="5">
+        <v>18507.474000000017</v>
+      </c>
+      <c r="G254" s="19">
+        <v>9.6586020000000001</v>
+      </c>
+      <c r="H254" s="19">
+        <v>59.139355999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>2025</v>
+      </c>
+      <c r="B255" s="24">
+        <v>2</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E255" s="5">
+        <v>10658.684999999998</v>
+      </c>
+      <c r="F255" s="5">
+        <v>10758.136000000006</v>
+      </c>
+      <c r="G255" s="19">
+        <v>10.205496999999999</v>
+      </c>
+      <c r="H255" s="19">
+        <v>59.585008000000002</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>2025</v>
+      </c>
+      <c r="B256" s="24">
+        <v>2</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E256" s="5">
+        <v>25795.942000000003</v>
+      </c>
+      <c r="F256" s="5">
+        <v>26272.268000000004</v>
+      </c>
+      <c r="G256" s="19">
+        <v>10.22247</v>
+      </c>
+      <c r="H256" s="19">
+        <v>59.135238999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>2025</v>
+      </c>
+      <c r="B257" s="24">
+        <v>2</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E257" s="5">
+        <v>15262.924999999999</v>
+      </c>
+      <c r="F257" s="5">
+        <v>15008.458000000002</v>
+      </c>
+      <c r="G257" s="19">
+        <v>9.6032630000000001</v>
+      </c>
+      <c r="H257" s="19">
+        <v>59.218800999999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>2025</v>
+      </c>
+      <c r="B258" s="24">
+        <v>2</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E258" s="5">
+        <v>12271.986000000006</v>
+      </c>
+      <c r="F258" s="5">
+        <v>12069.238000000001</v>
+      </c>
+      <c r="G258" s="19">
+        <v>10.411158</v>
+      </c>
+      <c r="H258" s="19">
+        <v>59.390796999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>2025</v>
+      </c>
+      <c r="B259" s="24">
+        <v>2</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E259" s="5">
+        <v>7326.4110000000019</v>
+      </c>
+      <c r="F259" s="5">
+        <v>7117.4910000000036</v>
+      </c>
+      <c r="G259" s="19">
+        <v>10.300190000000001</v>
+      </c>
+      <c r="H259" s="19">
+        <v>59.221215000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>2025</v>
+      </c>
+      <c r="B260" s="24">
+        <v>2</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E260" s="5">
+        <v>8701.5520000000033</v>
+      </c>
+      <c r="F260" s="5">
+        <v>8716.7950000000019</v>
+      </c>
+      <c r="G260" s="19">
+        <v>10.266083</v>
+      </c>
+      <c r="H260" s="19">
+        <v>59.165526999999997</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>2025</v>
+      </c>
+      <c r="B261" s="24">
+        <v>2</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E261" s="5">
+        <v>48835.939999999966</v>
+      </c>
+      <c r="F261" s="5">
+        <v>49665.556000000004</v>
+      </c>
+      <c r="G261" s="19">
+        <v>10.409449</v>
+      </c>
+      <c r="H261" s="19">
         <v>59.271692000000002</v>
       </c>
     </row>
@@ -9442,12 +9706,12 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -9464,7 +9728,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="569" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A88DD22-BFE6-4C2A-9EFE-F35D74BAEACC}"/>
+  <xr:revisionPtr revIDLastSave="576" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEFF51B0-C9DB-4652-B7C3-722111D1F96F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="57840" windowHeight="15720" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="60">
   <si>
     <t>Togprodukt</t>
   </si>
@@ -329,7 +329,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -350,11 +350,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -2717,16 +2712,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE9A58E-6281-4D08-BF08-9517A14C48DB}">
-  <dimension ref="A1:I261"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K254" sqref="K254"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F266" sqref="F266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="17.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="2"/>
     <col min="4" max="4" width="21.5703125" style="2" customWidth="1"/>
     <col min="5" max="6" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -2740,7 +2735,7 @@
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -2769,7 +2764,7 @@
       <c r="A2" s="10">
         <v>2023</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -2796,7 +2791,7 @@
       <c r="A3" s="13">
         <v>2023</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -2823,7 +2818,7 @@
       <c r="A4" s="10">
         <v>2023</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -2850,7 +2845,7 @@
       <c r="A5" s="13">
         <v>2023</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -2877,7 +2872,7 @@
       <c r="A6" s="10">
         <v>2023</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -2904,7 +2899,7 @@
       <c r="A7" s="13">
         <v>2023</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -2933,7 +2928,7 @@
       <c r="A8" s="10">
         <v>2023</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -2962,7 +2957,7 @@
       <c r="A9" s="13">
         <v>2023</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -2991,7 +2986,7 @@
       <c r="A10" s="10">
         <v>2023</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -3018,7 +3013,7 @@
       <c r="A11" s="13">
         <v>2023</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -3045,7 +3040,7 @@
       <c r="A12" s="10">
         <v>2023</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -3072,7 +3067,7 @@
       <c r="A13" s="13">
         <v>2023</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -3099,7 +3094,7 @@
       <c r="A14" s="10">
         <v>2024</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -3126,7 +3121,7 @@
       <c r="A15" s="13">
         <v>2024</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -3153,7 +3148,7 @@
       <c r="A16" s="10">
         <v>2024</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -3180,7 +3175,7 @@
       <c r="A17" s="13">
         <v>2024</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -3207,7 +3202,7 @@
       <c r="A18" s="10">
         <v>2024</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -3234,7 +3229,7 @@
       <c r="A19" s="13">
         <v>2024</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -3261,7 +3256,7 @@
       <c r="A20" s="10">
         <v>2024</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -3288,7 +3283,7 @@
       <c r="A21" s="13">
         <v>2023</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -3315,7 +3310,7 @@
       <c r="A22" s="10">
         <v>2023</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -3342,7 +3337,7 @@
       <c r="A23" s="13">
         <v>2023</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -3369,7 +3364,7 @@
       <c r="A24" s="10">
         <v>2023</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -3396,7 +3391,7 @@
       <c r="A25" s="13">
         <v>2023</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="14" t="s">
@@ -3423,7 +3418,7 @@
       <c r="A26" s="10">
         <v>2023</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -3450,7 +3445,7 @@
       <c r="A27" s="13">
         <v>2023</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -3477,7 +3472,7 @@
       <c r="A28" s="10">
         <v>2023</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -3504,7 +3499,7 @@
       <c r="A29" s="13">
         <v>2023</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -3531,7 +3526,7 @@
       <c r="A30" s="10">
         <v>2023</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -3558,7 +3553,7 @@
       <c r="A31" s="13">
         <v>2023</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -3585,7 +3580,7 @@
       <c r="A32" s="10">
         <v>2023</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -3612,7 +3607,7 @@
       <c r="A33" s="13">
         <v>2024</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -3639,7 +3634,7 @@
       <c r="A34" s="10">
         <v>2024</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="11" t="s">
@@ -3666,7 +3661,7 @@
       <c r="A35" s="13">
         <v>2024</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="14" t="s">
@@ -3693,7 +3688,7 @@
       <c r="A36" s="10">
         <v>2024</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -3720,7 +3715,7 @@
       <c r="A37" s="13">
         <v>2024</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="14" t="s">
@@ -3747,7 +3742,7 @@
       <c r="A38" s="10">
         <v>2024</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="11" t="s">
@@ -3774,7 +3769,7 @@
       <c r="A39" s="13">
         <v>2024</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="14" t="s">
@@ -3801,7 +3796,7 @@
       <c r="A40" s="10">
         <v>2023</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -3828,7 +3823,7 @@
       <c r="A41" s="13">
         <v>2023</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="14" t="s">
@@ -3855,7 +3850,7 @@
       <c r="A42" s="10">
         <v>2023</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C42" s="11" t="s">
@@ -3882,7 +3877,7 @@
       <c r="A43" s="13">
         <v>2023</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C43" s="14" t="s">
@@ -3909,7 +3904,7 @@
       <c r="A44" s="10">
         <v>2023</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="11" t="s">
@@ -3936,7 +3931,7 @@
       <c r="A45" s="13">
         <v>2023</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="14" t="s">
@@ -3963,7 +3958,7 @@
       <c r="A46" s="10">
         <v>2023</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C46" s="11" t="s">
@@ -3990,7 +3985,7 @@
       <c r="A47" s="13">
         <v>2023</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C47" s="14" t="s">
@@ -4017,7 +4012,7 @@
       <c r="A48" s="10">
         <v>2023</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -4044,7 +4039,7 @@
       <c r="A49" s="13">
         <v>2023</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C49" s="14" t="s">
@@ -4071,7 +4066,7 @@
       <c r="A50" s="10">
         <v>2023</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="11" t="s">
@@ -4098,7 +4093,7 @@
       <c r="A51" s="13">
         <v>2023</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="14" t="s">
@@ -4125,7 +4120,7 @@
       <c r="A52" s="10">
         <v>2024</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="11" t="s">
@@ -4152,7 +4147,7 @@
       <c r="A53" s="13">
         <v>2024</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -4179,7 +4174,7 @@
       <c r="A54" s="10">
         <v>2024</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="11" t="s">
@@ -4206,7 +4201,7 @@
       <c r="A55" s="13">
         <v>2024</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="14" t="s">
@@ -4233,7 +4228,7 @@
       <c r="A56" s="10">
         <v>2024</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="11" t="s">
@@ -4260,7 +4255,7 @@
       <c r="A57" s="13">
         <v>2024</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C57" s="14" t="s">
@@ -4287,7 +4282,7 @@
       <c r="A58" s="10">
         <v>2024</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C58" s="11" t="s">
@@ -4314,7 +4309,7 @@
       <c r="A59" s="13">
         <v>2023</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="14" t="s">
@@ -4341,7 +4336,7 @@
       <c r="A60" s="10">
         <v>2023</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C60" s="11" t="s">
@@ -4368,7 +4363,7 @@
       <c r="A61" s="13">
         <v>2023</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -4395,7 +4390,7 @@
       <c r="A62" s="10">
         <v>2023</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="11" t="s">
@@ -4422,7 +4417,7 @@
       <c r="A63" s="13">
         <v>2023</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C63" s="14" t="s">
@@ -4449,7 +4444,7 @@
       <c r="A64" s="10">
         <v>2023</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C64" s="11" t="s">
@@ -4478,7 +4473,7 @@
       <c r="A65" s="13">
         <v>2023</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C65" s="14" t="s">
@@ -4507,7 +4502,7 @@
       <c r="A66" s="10">
         <v>2023</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="11" t="s">
@@ -4536,7 +4531,7 @@
       <c r="A67" s="13">
         <v>2023</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C67" s="14" t="s">
@@ -4563,7 +4558,7 @@
       <c r="A68" s="10">
         <v>2023</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C68" s="11" t="s">
@@ -4590,7 +4585,7 @@
       <c r="A69" s="13">
         <v>2023</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C69" s="14" t="s">
@@ -4617,7 +4612,7 @@
       <c r="A70" s="10">
         <v>2023</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C70" s="11" t="s">
@@ -4644,7 +4639,7 @@
       <c r="A71" s="13">
         <v>2024</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C71" s="14" t="s">
@@ -4671,7 +4666,7 @@
       <c r="A72" s="10">
         <v>2024</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C72" s="11" t="s">
@@ -4698,7 +4693,7 @@
       <c r="A73" s="13">
         <v>2024</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C73" s="14" t="s">
@@ -4725,7 +4720,7 @@
       <c r="A74" s="10">
         <v>2024</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C74" s="11" t="s">
@@ -4752,7 +4747,7 @@
       <c r="A75" s="13">
         <v>2024</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C75" s="14" t="s">
@@ -4779,7 +4774,7 @@
       <c r="A76" s="10">
         <v>2024</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C76" s="11" t="s">
@@ -4806,7 +4801,7 @@
       <c r="A77" s="13">
         <v>2024</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C77" s="14" t="s">
@@ -4833,7 +4828,7 @@
       <c r="A78" s="10">
         <v>2023</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C78" s="11" t="s">
@@ -4860,7 +4855,7 @@
       <c r="A79" s="13">
         <v>2023</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C79" s="14" t="s">
@@ -4887,7 +4882,7 @@
       <c r="A80" s="10">
         <v>2023</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C80" s="11" t="s">
@@ -4914,7 +4909,7 @@
       <c r="A81" s="13">
         <v>2023</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C81" s="14" t="s">
@@ -4941,7 +4936,7 @@
       <c r="A82" s="10">
         <v>2023</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C82" s="11" t="s">
@@ -4968,7 +4963,7 @@
       <c r="A83" s="13">
         <v>2023</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C83" s="14" t="s">
@@ -4995,7 +4990,7 @@
       <c r="A84" s="10">
         <v>2023</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C84" s="11" t="s">
@@ -5022,7 +5017,7 @@
       <c r="A85" s="13">
         <v>2023</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C85" s="14" t="s">
@@ -5049,7 +5044,7 @@
       <c r="A86" s="10">
         <v>2023</v>
       </c>
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C86" s="11" t="s">
@@ -5076,7 +5071,7 @@
       <c r="A87" s="13">
         <v>2023</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C87" s="14" t="s">
@@ -5103,7 +5098,7 @@
       <c r="A88" s="10">
         <v>2023</v>
       </c>
-      <c r="B88" s="21" t="s">
+      <c r="B88" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C88" s="11" t="s">
@@ -5130,7 +5125,7 @@
       <c r="A89" s="13">
         <v>2023</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C89" s="14" t="s">
@@ -5157,7 +5152,7 @@
       <c r="A90" s="10">
         <v>2024</v>
       </c>
-      <c r="B90" s="21" t="s">
+      <c r="B90" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C90" s="11" t="s">
@@ -5184,7 +5179,7 @@
       <c r="A91" s="13">
         <v>2024</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C91" s="14" t="s">
@@ -5211,7 +5206,7 @@
       <c r="A92" s="10">
         <v>2024</v>
       </c>
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C92" s="11" t="s">
@@ -5238,7 +5233,7 @@
       <c r="A93" s="13">
         <v>2024</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B93" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C93" s="14" t="s">
@@ -5265,7 +5260,7 @@
       <c r="A94" s="10">
         <v>2024</v>
       </c>
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C94" s="11" t="s">
@@ -5292,7 +5287,7 @@
       <c r="A95" s="13">
         <v>2024</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C95" s="14" t="s">
@@ -5319,7 +5314,7 @@
       <c r="A96" s="10">
         <v>2024</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C96" s="11" t="s">
@@ -5346,7 +5341,7 @@
       <c r="A97" s="13">
         <v>2023</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C97" s="14" t="s">
@@ -5373,7 +5368,7 @@
       <c r="A98" s="10">
         <v>2023</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C98" s="11" t="s">
@@ -5400,7 +5395,7 @@
       <c r="A99" s="13">
         <v>2023</v>
       </c>
-      <c r="B99" s="22" t="s">
+      <c r="B99" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C99" s="14" t="s">
@@ -5427,7 +5422,7 @@
       <c r="A100" s="10">
         <v>2023</v>
       </c>
-      <c r="B100" s="21" t="s">
+      <c r="B100" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C100" s="11" t="s">
@@ -5454,7 +5449,7 @@
       <c r="A101" s="13">
         <v>2023</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C101" s="14" t="s">
@@ -5481,7 +5476,7 @@
       <c r="A102" s="10">
         <v>2023</v>
       </c>
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C102" s="11" t="s">
@@ -5508,7 +5503,7 @@
       <c r="A103" s="13">
         <v>2023</v>
       </c>
-      <c r="B103" s="22" t="s">
+      <c r="B103" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C103" s="14" t="s">
@@ -5535,7 +5530,7 @@
       <c r="A104" s="10">
         <v>2023</v>
       </c>
-      <c r="B104" s="21" t="s">
+      <c r="B104" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C104" s="11" t="s">
@@ -5562,7 +5557,7 @@
       <c r="A105" s="13">
         <v>2023</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C105" s="14" t="s">
@@ -5589,7 +5584,7 @@
       <c r="A106" s="10">
         <v>2023</v>
       </c>
-      <c r="B106" s="21" t="s">
+      <c r="B106" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C106" s="11" t="s">
@@ -5616,7 +5611,7 @@
       <c r="A107" s="13">
         <v>2023</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C107" s="14" t="s">
@@ -5643,7 +5638,7 @@
       <c r="A108" s="10">
         <v>2023</v>
       </c>
-      <c r="B108" s="21" t="s">
+      <c r="B108" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C108" s="11" t="s">
@@ -5670,7 +5665,7 @@
       <c r="A109" s="13">
         <v>2024</v>
       </c>
-      <c r="B109" s="22" t="s">
+      <c r="B109" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C109" s="14" t="s">
@@ -5697,7 +5692,7 @@
       <c r="A110" s="10">
         <v>2024</v>
       </c>
-      <c r="B110" s="21" t="s">
+      <c r="B110" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C110" s="11" t="s">
@@ -5724,7 +5719,7 @@
       <c r="A111" s="13">
         <v>2024</v>
       </c>
-      <c r="B111" s="22" t="s">
+      <c r="B111" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C111" s="14" t="s">
@@ -5751,7 +5746,7 @@
       <c r="A112" s="10">
         <v>2024</v>
       </c>
-      <c r="B112" s="21" t="s">
+      <c r="B112" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C112" s="11" t="s">
@@ -5778,7 +5773,7 @@
       <c r="A113" s="13">
         <v>2024</v>
       </c>
-      <c r="B113" s="22" t="s">
+      <c r="B113" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C113" s="14" t="s">
@@ -5805,7 +5800,7 @@
       <c r="A114" s="10">
         <v>2024</v>
       </c>
-      <c r="B114" s="21" t="s">
+      <c r="B114" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C114" s="11" t="s">
@@ -5832,7 +5827,7 @@
       <c r="A115" s="13">
         <v>2024</v>
       </c>
-      <c r="B115" s="22" t="s">
+      <c r="B115" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C115" s="14" t="s">
@@ -5859,7 +5854,7 @@
       <c r="A116" s="10">
         <v>2023</v>
       </c>
-      <c r="B116" s="21" t="s">
+      <c r="B116" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C116" s="11" t="s">
@@ -5886,7 +5881,7 @@
       <c r="A117" s="13">
         <v>2023</v>
       </c>
-      <c r="B117" s="22" t="s">
+      <c r="B117" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C117" s="14" t="s">
@@ -5913,7 +5908,7 @@
       <c r="A118" s="10">
         <v>2023</v>
       </c>
-      <c r="B118" s="21" t="s">
+      <c r="B118" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C118" s="11" t="s">
@@ -5940,7 +5935,7 @@
       <c r="A119" s="13">
         <v>2023</v>
       </c>
-      <c r="B119" s="22" t="s">
+      <c r="B119" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C119" s="14" t="s">
@@ -5967,7 +5962,7 @@
       <c r="A120" s="10">
         <v>2023</v>
       </c>
-      <c r="B120" s="21" t="s">
+      <c r="B120" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C120" s="11" t="s">
@@ -5994,7 +5989,7 @@
       <c r="A121" s="13">
         <v>2023</v>
       </c>
-      <c r="B121" s="22" t="s">
+      <c r="B121" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C121" s="14" t="s">
@@ -6023,7 +6018,7 @@
       <c r="A122" s="10">
         <v>2023</v>
       </c>
-      <c r="B122" s="21" t="s">
+      <c r="B122" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C122" s="11" t="s">
@@ -6052,7 +6047,7 @@
       <c r="A123" s="13">
         <v>2023</v>
       </c>
-      <c r="B123" s="22" t="s">
+      <c r="B123" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C123" s="14" t="s">
@@ -6081,7 +6076,7 @@
       <c r="A124" s="10">
         <v>2023</v>
       </c>
-      <c r="B124" s="21" t="s">
+      <c r="B124" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C124" s="11" t="s">
@@ -6107,7 +6102,7 @@
       <c r="A125" s="13">
         <v>2023</v>
       </c>
-      <c r="B125" s="22" t="s">
+      <c r="B125" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C125" s="14" t="s">
@@ -6133,7 +6128,7 @@
       <c r="A126" s="10">
         <v>2023</v>
       </c>
-      <c r="B126" s="21" t="s">
+      <c r="B126" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C126" s="11" t="s">
@@ -6159,7 +6154,7 @@
       <c r="A127" s="13">
         <v>2023</v>
       </c>
-      <c r="B127" s="22" t="s">
+      <c r="B127" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C127" s="14" t="s">
@@ -6185,7 +6180,7 @@
       <c r="A128" s="10">
         <v>2024</v>
       </c>
-      <c r="B128" s="21" t="s">
+      <c r="B128" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C128" s="11" t="s">
@@ -6211,7 +6206,7 @@
       <c r="A129" s="13">
         <v>2024</v>
       </c>
-      <c r="B129" s="22" t="s">
+      <c r="B129" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C129" s="14" t="s">
@@ -6237,7 +6232,7 @@
       <c r="A130" s="10">
         <v>2024</v>
       </c>
-      <c r="B130" s="21" t="s">
+      <c r="B130" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C130" s="11" t="s">
@@ -6263,7 +6258,7 @@
       <c r="A131" s="13">
         <v>2024</v>
       </c>
-      <c r="B131" s="22" t="s">
+      <c r="B131" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C131" s="14" t="s">
@@ -6289,7 +6284,7 @@
       <c r="A132" s="10">
         <v>2024</v>
       </c>
-      <c r="B132" s="21" t="s">
+      <c r="B132" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C132" s="11" t="s">
@@ -6315,7 +6310,7 @@
       <c r="A133" s="13">
         <v>2024</v>
       </c>
-      <c r="B133" s="22" t="s">
+      <c r="B133" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C133" s="14" t="s">
@@ -6341,7 +6336,7 @@
       <c r="A134" s="10">
         <v>2024</v>
       </c>
-      <c r="B134" s="21" t="s">
+      <c r="B134" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C134" s="11" t="s">
@@ -6367,7 +6362,7 @@
       <c r="A135" s="13">
         <v>2023</v>
       </c>
-      <c r="B135" s="22" t="s">
+      <c r="B135" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C135" s="14" t="s">
@@ -6393,7 +6388,7 @@
       <c r="A136" s="10">
         <v>2023</v>
       </c>
-      <c r="B136" s="21" t="s">
+      <c r="B136" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C136" s="11" t="s">
@@ -6419,7 +6414,7 @@
       <c r="A137" s="13">
         <v>2023</v>
       </c>
-      <c r="B137" s="22" t="s">
+      <c r="B137" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C137" s="14" t="s">
@@ -6445,7 +6440,7 @@
       <c r="A138" s="10">
         <v>2023</v>
       </c>
-      <c r="B138" s="21" t="s">
+      <c r="B138" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C138" s="11" t="s">
@@ -6471,7 +6466,7 @@
       <c r="A139" s="13">
         <v>2023</v>
       </c>
-      <c r="B139" s="22" t="s">
+      <c r="B139" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C139" s="14" t="s">
@@ -6498,7 +6493,7 @@
       <c r="A140" s="10">
         <v>2023</v>
       </c>
-      <c r="B140" s="21" t="s">
+      <c r="B140" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C140" s="11" t="s">
@@ -6527,7 +6522,7 @@
       <c r="A141" s="13">
         <v>2023</v>
       </c>
-      <c r="B141" s="22" t="s">
+      <c r="B141" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C141" s="14" t="s">
@@ -6556,7 +6551,7 @@
       <c r="A142" s="10">
         <v>2023</v>
       </c>
-      <c r="B142" s="21" t="s">
+      <c r="B142" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C142" s="11" t="s">
@@ -6585,7 +6580,7 @@
       <c r="A143" s="13">
         <v>2023</v>
       </c>
-      <c r="B143" s="22" t="s">
+      <c r="B143" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C143" s="14" t="s">
@@ -6611,7 +6606,7 @@
       <c r="A144" s="10">
         <v>2023</v>
       </c>
-      <c r="B144" s="21" t="s">
+      <c r="B144" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C144" s="11" t="s">
@@ -6637,7 +6632,7 @@
       <c r="A145" s="13">
         <v>2023</v>
       </c>
-      <c r="B145" s="22" t="s">
+      <c r="B145" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C145" s="14" t="s">
@@ -6663,7 +6658,7 @@
       <c r="A146" s="10">
         <v>2023</v>
       </c>
-      <c r="B146" s="21" t="s">
+      <c r="B146" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C146" s="11" t="s">
@@ -6689,7 +6684,7 @@
       <c r="A147" s="13">
         <v>2024</v>
       </c>
-      <c r="B147" s="22" t="s">
+      <c r="B147" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C147" s="14" t="s">
@@ -6715,7 +6710,7 @@
       <c r="A148" s="10">
         <v>2024</v>
       </c>
-      <c r="B148" s="21" t="s">
+      <c r="B148" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C148" s="11" t="s">
@@ -6741,7 +6736,7 @@
       <c r="A149" s="13">
         <v>2024</v>
       </c>
-      <c r="B149" s="22" t="s">
+      <c r="B149" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C149" s="14" t="s">
@@ -6767,7 +6762,7 @@
       <c r="A150" s="10">
         <v>2024</v>
       </c>
-      <c r="B150" s="21" t="s">
+      <c r="B150" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C150" s="11" t="s">
@@ -6793,7 +6788,7 @@
       <c r="A151" s="13">
         <v>2024</v>
       </c>
-      <c r="B151" s="22" t="s">
+      <c r="B151" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C151" s="14" t="s">
@@ -6819,7 +6814,7 @@
       <c r="A152" s="10">
         <v>2024</v>
       </c>
-      <c r="B152" s="21" t="s">
+      <c r="B152" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C152" s="11" t="s">
@@ -6845,7 +6840,7 @@
       <c r="A153" s="13">
         <v>2024</v>
       </c>
-      <c r="B153" s="22" t="s">
+      <c r="B153" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C153" s="14" t="s">
@@ -6871,7 +6866,7 @@
       <c r="A154" s="10">
         <v>2023</v>
       </c>
-      <c r="B154" s="21" t="s">
+      <c r="B154" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C154" s="11" t="s">
@@ -6897,7 +6892,7 @@
       <c r="A155" s="13">
         <v>2023</v>
       </c>
-      <c r="B155" s="22" t="s">
+      <c r="B155" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C155" s="14" t="s">
@@ -6923,7 +6918,7 @@
       <c r="A156" s="10">
         <v>2023</v>
       </c>
-      <c r="B156" s="21" t="s">
+      <c r="B156" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C156" s="11" t="s">
@@ -6949,7 +6944,7 @@
       <c r="A157" s="13">
         <v>2023</v>
       </c>
-      <c r="B157" s="22" t="s">
+      <c r="B157" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C157" s="14" t="s">
@@ -6975,7 +6970,7 @@
       <c r="A158" s="10">
         <v>2023</v>
       </c>
-      <c r="B158" s="21" t="s">
+      <c r="B158" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C158" s="11" t="s">
@@ -7001,7 +6996,7 @@
       <c r="A159" s="13">
         <v>2023</v>
       </c>
-      <c r="B159" s="22" t="s">
+      <c r="B159" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C159" s="14" t="s">
@@ -7027,7 +7022,7 @@
       <c r="A160" s="10">
         <v>2023</v>
       </c>
-      <c r="B160" s="21" t="s">
+      <c r="B160" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C160" s="11" t="s">
@@ -7053,7 +7048,7 @@
       <c r="A161" s="13">
         <v>2023</v>
       </c>
-      <c r="B161" s="22" t="s">
+      <c r="B161" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C161" s="14" t="s">
@@ -7079,7 +7074,7 @@
       <c r="A162" s="10">
         <v>2023</v>
       </c>
-      <c r="B162" s="21" t="s">
+      <c r="B162" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C162" s="11" t="s">
@@ -7105,7 +7100,7 @@
       <c r="A163" s="13">
         <v>2023</v>
       </c>
-      <c r="B163" s="22" t="s">
+      <c r="B163" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C163" s="14" t="s">
@@ -7131,7 +7126,7 @@
       <c r="A164" s="10">
         <v>2023</v>
       </c>
-      <c r="B164" s="21" t="s">
+      <c r="B164" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C164" s="11" t="s">
@@ -7157,7 +7152,7 @@
       <c r="A165" s="13">
         <v>2023</v>
       </c>
-      <c r="B165" s="22" t="s">
+      <c r="B165" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C165" s="14" t="s">
@@ -7183,7 +7178,7 @@
       <c r="A166" s="10">
         <v>2024</v>
       </c>
-      <c r="B166" s="21" t="s">
+      <c r="B166" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C166" s="11" t="s">
@@ -7209,7 +7204,7 @@
       <c r="A167" s="13">
         <v>2024</v>
       </c>
-      <c r="B167" s="22" t="s">
+      <c r="B167" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C167" s="14" t="s">
@@ -7235,7 +7230,7 @@
       <c r="A168" s="10">
         <v>2024</v>
       </c>
-      <c r="B168" s="21" t="s">
+      <c r="B168" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C168" s="11" t="s">
@@ -7261,7 +7256,7 @@
       <c r="A169" s="13">
         <v>2024</v>
       </c>
-      <c r="B169" s="22" t="s">
+      <c r="B169" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C169" s="14" t="s">
@@ -7287,7 +7282,7 @@
       <c r="A170" s="10">
         <v>2024</v>
       </c>
-      <c r="B170" s="21" t="s">
+      <c r="B170" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C170" s="11" t="s">
@@ -7313,7 +7308,7 @@
       <c r="A171" s="13">
         <v>2024</v>
       </c>
-      <c r="B171" s="22" t="s">
+      <c r="B171" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C171" s="14" t="s">
@@ -7339,7 +7334,7 @@
       <c r="A172" s="10">
         <v>2024</v>
       </c>
-      <c r="B172" s="21" t="s">
+      <c r="B172" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C172" s="11" t="s">
@@ -7365,7 +7360,7 @@
       <c r="A173" s="13">
         <v>2023</v>
       </c>
-      <c r="B173" s="22" t="s">
+      <c r="B173" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C173" s="14" t="s">
@@ -7391,7 +7386,7 @@
       <c r="A174" s="10">
         <v>2023</v>
       </c>
-      <c r="B174" s="21" t="s">
+      <c r="B174" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C174" s="11" t="s">
@@ -7417,7 +7412,7 @@
       <c r="A175" s="13">
         <v>2023</v>
       </c>
-      <c r="B175" s="22" t="s">
+      <c r="B175" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C175" s="14" t="s">
@@ -7443,7 +7438,7 @@
       <c r="A176" s="10">
         <v>2023</v>
       </c>
-      <c r="B176" s="21" t="s">
+      <c r="B176" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C176" s="11" t="s">
@@ -7469,7 +7464,7 @@
       <c r="A177" s="13">
         <v>2023</v>
       </c>
-      <c r="B177" s="22" t="s">
+      <c r="B177" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C177" s="14" t="s">
@@ -7495,7 +7490,7 @@
       <c r="A178" s="10">
         <v>2023</v>
       </c>
-      <c r="B178" s="21" t="s">
+      <c r="B178" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C178" s="11" t="s">
@@ -7524,7 +7519,7 @@
       <c r="A179" s="13">
         <v>2023</v>
       </c>
-      <c r="B179" s="22" t="s">
+      <c r="B179" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C179" s="14" t="s">
@@ -7553,7 +7548,7 @@
       <c r="A180" s="10">
         <v>2023</v>
       </c>
-      <c r="B180" s="21" t="s">
+      <c r="B180" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C180" s="11" t="s">
@@ -7582,7 +7577,7 @@
       <c r="A181" s="13">
         <v>2023</v>
       </c>
-      <c r="B181" s="22" t="s">
+      <c r="B181" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C181" s="14" t="s">
@@ -7608,7 +7603,7 @@
       <c r="A182" s="10">
         <v>2023</v>
       </c>
-      <c r="B182" s="21" t="s">
+      <c r="B182" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C182" s="11" t="s">
@@ -7634,7 +7629,7 @@
       <c r="A183" s="13">
         <v>2023</v>
       </c>
-      <c r="B183" s="22" t="s">
+      <c r="B183" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C183" s="14" t="s">
@@ -7660,7 +7655,7 @@
       <c r="A184" s="10">
         <v>2023</v>
       </c>
-      <c r="B184" s="21" t="s">
+      <c r="B184" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C184" s="11" t="s">
@@ -7686,7 +7681,7 @@
       <c r="A185" s="13">
         <v>2024</v>
       </c>
-      <c r="B185" s="22" t="s">
+      <c r="B185" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C185" s="14" t="s">
@@ -7712,7 +7707,7 @@
       <c r="A186" s="10">
         <v>2024</v>
       </c>
-      <c r="B186" s="21" t="s">
+      <c r="B186" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C186" s="11" t="s">
@@ -7738,7 +7733,7 @@
       <c r="A187" s="13">
         <v>2024</v>
       </c>
-      <c r="B187" s="22" t="s">
+      <c r="B187" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C187" s="14" t="s">
@@ -7764,7 +7759,7 @@
       <c r="A188" s="10">
         <v>2024</v>
       </c>
-      <c r="B188" s="21" t="s">
+      <c r="B188" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C188" s="11" t="s">
@@ -7790,7 +7785,7 @@
       <c r="A189" s="13">
         <v>2024</v>
       </c>
-      <c r="B189" s="22" t="s">
+      <c r="B189" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C189" s="14" t="s">
@@ -7816,7 +7811,7 @@
       <c r="A190" s="10">
         <v>2024</v>
       </c>
-      <c r="B190" s="21" t="s">
+      <c r="B190" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C190" s="11" t="s">
@@ -7842,7 +7837,7 @@
       <c r="A191" s="13">
         <v>2024</v>
       </c>
-      <c r="B191" s="22" t="s">
+      <c r="B191" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C191" s="14" t="s">
@@ -7868,7 +7863,7 @@
       <c r="A192" s="17">
         <v>2024</v>
       </c>
-      <c r="B192" s="23" t="s">
+      <c r="B192" t="s">
         <v>38</v>
       </c>
       <c r="C192" t="s">
@@ -7894,7 +7889,7 @@
       <c r="A193" s="17">
         <v>2024</v>
       </c>
-      <c r="B193" s="23" t="s">
+      <c r="B193" t="s">
         <v>38</v>
       </c>
       <c r="C193" t="s">
@@ -7920,7 +7915,7 @@
       <c r="A194" s="17">
         <v>2024</v>
       </c>
-      <c r="B194" s="23" t="s">
+      <c r="B194" t="s">
         <v>38</v>
       </c>
       <c r="C194" t="s">
@@ -7946,7 +7941,7 @@
       <c r="A195" s="17">
         <v>2024</v>
       </c>
-      <c r="B195" s="23" t="s">
+      <c r="B195" t="s">
         <v>38</v>
       </c>
       <c r="C195" t="s">
@@ -7972,7 +7967,7 @@
       <c r="A196" s="17">
         <v>2024</v>
       </c>
-      <c r="B196" s="23" t="s">
+      <c r="B196" t="s">
         <v>38</v>
       </c>
       <c r="C196" t="s">
@@ -7998,7 +7993,7 @@
       <c r="A197" s="17">
         <v>2024</v>
       </c>
-      <c r="B197" s="23" t="s">
+      <c r="B197" t="s">
         <v>38</v>
       </c>
       <c r="C197" t="s">
@@ -8024,7 +8019,7 @@
       <c r="A198" s="17">
         <v>2024</v>
       </c>
-      <c r="B198" s="23" t="s">
+      <c r="B198" t="s">
         <v>38</v>
       </c>
       <c r="C198" t="s">
@@ -8050,7 +8045,7 @@
       <c r="A199" s="17">
         <v>2024</v>
       </c>
-      <c r="B199" s="23" t="s">
+      <c r="B199" t="s">
         <v>38</v>
       </c>
       <c r="C199" t="s">
@@ -8076,7 +8071,7 @@
       <c r="A200" s="17">
         <v>2024</v>
       </c>
-      <c r="B200" s="23" t="s">
+      <c r="B200" t="s">
         <v>38</v>
       </c>
       <c r="C200" t="s">
@@ -8102,7 +8097,7 @@
       <c r="A201" s="17">
         <v>2024</v>
       </c>
-      <c r="B201" s="23" t="s">
+      <c r="B201" t="s">
         <v>38</v>
       </c>
       <c r="C201" t="s">
@@ -8128,7 +8123,7 @@
       <c r="A202" s="17">
         <v>2024</v>
       </c>
-      <c r="B202" s="23" t="s">
+      <c r="B202" t="s">
         <v>40</v>
       </c>
       <c r="C202" t="s">
@@ -8154,7 +8149,7 @@
       <c r="A203" s="17">
         <v>2024</v>
       </c>
-      <c r="B203" s="23" t="s">
+      <c r="B203" t="s">
         <v>40</v>
       </c>
       <c r="C203" t="s">
@@ -8180,7 +8175,7 @@
       <c r="A204" s="17">
         <v>2024</v>
       </c>
-      <c r="B204" s="23" t="s">
+      <c r="B204" t="s">
         <v>40</v>
       </c>
       <c r="C204" t="s">
@@ -8206,7 +8201,7 @@
       <c r="A205" s="17">
         <v>2024</v>
       </c>
-      <c r="B205" s="23" t="s">
+      <c r="B205" t="s">
         <v>40</v>
       </c>
       <c r="C205" t="s">
@@ -8232,7 +8227,7 @@
       <c r="A206" s="17">
         <v>2024</v>
       </c>
-      <c r="B206" s="23" t="s">
+      <c r="B206" t="s">
         <v>40</v>
       </c>
       <c r="C206" t="s">
@@ -8258,7 +8253,7 @@
       <c r="A207" s="17">
         <v>2024</v>
       </c>
-      <c r="B207" s="23" t="s">
+      <c r="B207" t="s">
         <v>40</v>
       </c>
       <c r="C207" t="s">
@@ -8284,7 +8279,7 @@
       <c r="A208" s="17">
         <v>2024</v>
       </c>
-      <c r="B208" s="23" t="s">
+      <c r="B208" t="s">
         <v>40</v>
       </c>
       <c r="C208" t="s">
@@ -8310,7 +8305,7 @@
       <c r="A209" s="17">
         <v>2024</v>
       </c>
-      <c r="B209" s="23" t="s">
+      <c r="B209" t="s">
         <v>40</v>
       </c>
       <c r="C209" t="s">
@@ -8336,7 +8331,7 @@
       <c r="A210" s="17">
         <v>2024</v>
       </c>
-      <c r="B210" s="23" t="s">
+      <c r="B210" t="s">
         <v>40</v>
       </c>
       <c r="C210" t="s">
@@ -8362,7 +8357,7 @@
       <c r="A211" s="17">
         <v>2024</v>
       </c>
-      <c r="B211" s="23" t="s">
+      <c r="B211" t="s">
         <v>40</v>
       </c>
       <c r="C211" t="s">
@@ -8388,7 +8383,7 @@
       <c r="A212" s="17">
         <v>2024</v>
       </c>
-      <c r="B212" s="23" t="s">
+      <c r="B212" t="s">
         <v>42</v>
       </c>
       <c r="C212" t="s">
@@ -8414,7 +8409,7 @@
       <c r="A213" s="17">
         <v>2024</v>
       </c>
-      <c r="B213" s="23" t="s">
+      <c r="B213" t="s">
         <v>42</v>
       </c>
       <c r="C213" t="s">
@@ -8440,7 +8435,7 @@
       <c r="A214" s="17">
         <v>2024</v>
       </c>
-      <c r="B214" s="23" t="s">
+      <c r="B214" t="s">
         <v>42</v>
       </c>
       <c r="C214" t="s">
@@ -8466,7 +8461,7 @@
       <c r="A215" s="17">
         <v>2024</v>
       </c>
-      <c r="B215" s="23" t="s">
+      <c r="B215" t="s">
         <v>42</v>
       </c>
       <c r="C215" t="s">
@@ -8492,7 +8487,7 @@
       <c r="A216" s="17">
         <v>2024</v>
       </c>
-      <c r="B216" s="23" t="s">
+      <c r="B216" t="s">
         <v>42</v>
       </c>
       <c r="C216" t="s">
@@ -8518,7 +8513,7 @@
       <c r="A217" s="17">
         <v>2024</v>
       </c>
-      <c r="B217" s="23" t="s">
+      <c r="B217" t="s">
         <v>42</v>
       </c>
       <c r="C217" t="s">
@@ -8544,7 +8539,7 @@
       <c r="A218" s="17">
         <v>2024</v>
       </c>
-      <c r="B218" s="23" t="s">
+      <c r="B218" t="s">
         <v>42</v>
       </c>
       <c r="C218" t="s">
@@ -8570,7 +8565,7 @@
       <c r="A219" s="17">
         <v>2024</v>
       </c>
-      <c r="B219" s="23" t="s">
+      <c r="B219" t="s">
         <v>42</v>
       </c>
       <c r="C219" t="s">
@@ -8596,7 +8591,7 @@
       <c r="A220" s="17">
         <v>2024</v>
       </c>
-      <c r="B220" s="23" t="s">
+      <c r="B220" t="s">
         <v>42</v>
       </c>
       <c r="C220" t="s">
@@ -8622,7 +8617,7 @@
       <c r="A221" s="17">
         <v>2024</v>
       </c>
-      <c r="B221" s="23" t="s">
+      <c r="B221" t="s">
         <v>42</v>
       </c>
       <c r="C221" t="s">
@@ -8648,7 +8643,7 @@
       <c r="A222" s="17">
         <v>2024</v>
       </c>
-      <c r="B222" s="23" t="s">
+      <c r="B222" t="s">
         <v>44</v>
       </c>
       <c r="C222" t="s">
@@ -8674,7 +8669,7 @@
       <c r="A223" s="17">
         <v>2024</v>
       </c>
-      <c r="B223" s="23" t="s">
+      <c r="B223" t="s">
         <v>44</v>
       </c>
       <c r="C223" t="s">
@@ -8700,7 +8695,7 @@
       <c r="A224" s="17">
         <v>2024</v>
       </c>
-      <c r="B224" s="23" t="s">
+      <c r="B224" t="s">
         <v>44</v>
       </c>
       <c r="C224" t="s">
@@ -8726,7 +8721,7 @@
       <c r="A225" s="17">
         <v>2024</v>
       </c>
-      <c r="B225" s="23" t="s">
+      <c r="B225" t="s">
         <v>44</v>
       </c>
       <c r="C225" t="s">
@@ -8752,7 +8747,7 @@
       <c r="A226" s="17">
         <v>2024</v>
       </c>
-      <c r="B226" s="23" t="s">
+      <c r="B226" t="s">
         <v>44</v>
       </c>
       <c r="C226" t="s">
@@ -8778,7 +8773,7 @@
       <c r="A227" s="17">
         <v>2024</v>
       </c>
-      <c r="B227" s="23" t="s">
+      <c r="B227" t="s">
         <v>44</v>
       </c>
       <c r="C227" t="s">
@@ -8804,7 +8799,7 @@
       <c r="A228" s="17">
         <v>2024</v>
       </c>
-      <c r="B228" s="23" t="s">
+      <c r="B228" t="s">
         <v>44</v>
       </c>
       <c r="C228" t="s">
@@ -8830,7 +8825,7 @@
       <c r="A229" s="17">
         <v>2024</v>
       </c>
-      <c r="B229" s="23" t="s">
+      <c r="B229" t="s">
         <v>44</v>
       </c>
       <c r="C229" t="s">
@@ -8856,7 +8851,7 @@
       <c r="A230" s="17">
         <v>2024</v>
       </c>
-      <c r="B230" s="23" t="s">
+      <c r="B230" t="s">
         <v>44</v>
       </c>
       <c r="C230" t="s">
@@ -8882,7 +8877,7 @@
       <c r="A231" s="17">
         <v>2024</v>
       </c>
-      <c r="B231" s="23" t="s">
+      <c r="B231" t="s">
         <v>44</v>
       </c>
       <c r="C231" t="s">
@@ -8908,7 +8903,7 @@
       <c r="A232">
         <v>2024</v>
       </c>
-      <c r="B232" s="23">
+      <c r="B232">
         <v>12</v>
       </c>
       <c r="C232" t="s">
@@ -8934,7 +8929,7 @@
       <c r="A233">
         <v>2024</v>
       </c>
-      <c r="B233" s="23">
+      <c r="B233">
         <v>12</v>
       </c>
       <c r="C233" t="s">
@@ -8960,7 +8955,7 @@
       <c r="A234">
         <v>2024</v>
       </c>
-      <c r="B234" s="23">
+      <c r="B234">
         <v>12</v>
       </c>
       <c r="C234" t="s">
@@ -8986,7 +8981,7 @@
       <c r="A235">
         <v>2024</v>
       </c>
-      <c r="B235" s="23">
+      <c r="B235">
         <v>12</v>
       </c>
       <c r="C235" t="s">
@@ -9012,7 +9007,7 @@
       <c r="A236">
         <v>2024</v>
       </c>
-      <c r="B236" s="23">
+      <c r="B236">
         <v>12</v>
       </c>
       <c r="C236" t="s">
@@ -9038,7 +9033,7 @@
       <c r="A237">
         <v>2024</v>
       </c>
-      <c r="B237" s="23">
+      <c r="B237">
         <v>12</v>
       </c>
       <c r="C237" t="s">
@@ -9064,7 +9059,7 @@
       <c r="A238">
         <v>2024</v>
       </c>
-      <c r="B238" s="23">
+      <c r="B238">
         <v>12</v>
       </c>
       <c r="C238" t="s">
@@ -9090,7 +9085,7 @@
       <c r="A239">
         <v>2024</v>
       </c>
-      <c r="B239" s="23">
+      <c r="B239">
         <v>12</v>
       </c>
       <c r="C239" t="s">
@@ -9116,7 +9111,7 @@
       <c r="A240">
         <v>2024</v>
       </c>
-      <c r="B240" s="23">
+      <c r="B240">
         <v>12</v>
       </c>
       <c r="C240" t="s">
@@ -9142,7 +9137,7 @@
       <c r="A241">
         <v>2024</v>
       </c>
-      <c r="B241" s="23">
+      <c r="B241">
         <v>12</v>
       </c>
       <c r="C241" t="s">
@@ -9168,7 +9163,7 @@
       <c r="A242">
         <v>2025</v>
       </c>
-      <c r="B242" s="23">
+      <c r="B242">
         <v>1</v>
       </c>
       <c r="C242" t="s">
@@ -9194,7 +9189,7 @@
       <c r="A243">
         <v>2025</v>
       </c>
-      <c r="B243" s="23">
+      <c r="B243">
         <v>1</v>
       </c>
       <c r="C243" t="s">
@@ -9220,7 +9215,7 @@
       <c r="A244">
         <v>2025</v>
       </c>
-      <c r="B244" s="23">
+      <c r="B244">
         <v>1</v>
       </c>
       <c r="C244" t="s">
@@ -9246,7 +9241,7 @@
       <c r="A245">
         <v>2025</v>
       </c>
-      <c r="B245" s="23">
+      <c r="B245">
         <v>1</v>
       </c>
       <c r="C245" t="s">
@@ -9272,7 +9267,7 @@
       <c r="A246">
         <v>2025</v>
       </c>
-      <c r="B246" s="23">
+      <c r="B246">
         <v>1</v>
       </c>
       <c r="C246" t="s">
@@ -9298,7 +9293,7 @@
       <c r="A247">
         <v>2025</v>
       </c>
-      <c r="B247" s="23">
+      <c r="B247">
         <v>1</v>
       </c>
       <c r="C247" t="s">
@@ -9324,7 +9319,7 @@
       <c r="A248">
         <v>2025</v>
       </c>
-      <c r="B248" s="23">
+      <c r="B248">
         <v>1</v>
       </c>
       <c r="C248" t="s">
@@ -9350,7 +9345,7 @@
       <c r="A249">
         <v>2025</v>
       </c>
-      <c r="B249" s="23">
+      <c r="B249">
         <v>1</v>
       </c>
       <c r="C249" t="s">
@@ -9376,7 +9371,7 @@
       <c r="A250">
         <v>2025</v>
       </c>
-      <c r="B250" s="23">
+      <c r="B250">
         <v>1</v>
       </c>
       <c r="C250" t="s">
@@ -9402,7 +9397,7 @@
       <c r="A251">
         <v>2025</v>
       </c>
-      <c r="B251" s="23">
+      <c r="B251">
         <v>1</v>
       </c>
       <c r="C251" t="s">
@@ -9428,7 +9423,7 @@
       <c r="A252">
         <v>2025</v>
       </c>
-      <c r="B252" s="24">
+      <c r="B252" s="2">
         <v>2</v>
       </c>
       <c r="C252" s="2" t="s">
@@ -9454,7 +9449,7 @@
       <c r="A253">
         <v>2025</v>
       </c>
-      <c r="B253" s="24">
+      <c r="B253" s="2">
         <v>2</v>
       </c>
       <c r="C253" s="2" t="s">
@@ -9480,7 +9475,7 @@
       <c r="A254">
         <v>2025</v>
       </c>
-      <c r="B254" s="24">
+      <c r="B254" s="2">
         <v>2</v>
       </c>
       <c r="C254" s="2" t="s">
@@ -9506,7 +9501,7 @@
       <c r="A255">
         <v>2025</v>
       </c>
-      <c r="B255" s="24">
+      <c r="B255" s="2">
         <v>2</v>
       </c>
       <c r="C255" s="2" t="s">
@@ -9532,7 +9527,7 @@
       <c r="A256">
         <v>2025</v>
       </c>
-      <c r="B256" s="24">
+      <c r="B256" s="2">
         <v>2</v>
       </c>
       <c r="C256" s="2" t="s">
@@ -9558,7 +9553,7 @@
       <c r="A257">
         <v>2025</v>
       </c>
-      <c r="B257" s="24">
+      <c r="B257" s="2">
         <v>2</v>
       </c>
       <c r="C257" s="2" t="s">
@@ -9584,7 +9579,7 @@
       <c r="A258">
         <v>2025</v>
       </c>
-      <c r="B258" s="24">
+      <c r="B258" s="2">
         <v>2</v>
       </c>
       <c r="C258" s="2" t="s">
@@ -9610,7 +9605,7 @@
       <c r="A259">
         <v>2025</v>
       </c>
-      <c r="B259" s="24">
+      <c r="B259" s="2">
         <v>2</v>
       </c>
       <c r="C259" s="2" t="s">
@@ -9636,7 +9631,7 @@
       <c r="A260">
         <v>2025</v>
       </c>
-      <c r="B260" s="24">
+      <c r="B260" s="2">
         <v>2</v>
       </c>
       <c r="C260" s="2" t="s">
@@ -9662,7 +9657,7 @@
       <c r="A261">
         <v>2025</v>
       </c>
-      <c r="B261" s="24">
+      <c r="B261" s="2">
         <v>2</v>
       </c>
       <c r="C261" s="2" t="s">
@@ -9681,6 +9676,266 @@
         <v>10.409449</v>
       </c>
       <c r="H261" s="19">
+        <v>59.271692000000002</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>2025</v>
+      </c>
+      <c r="B262">
+        <v>3</v>
+      </c>
+      <c r="C262" t="s">
+        <v>29</v>
+      </c>
+      <c r="D262" t="s">
+        <v>25</v>
+      </c>
+      <c r="E262" s="17">
+        <v>19491.976999999999</v>
+      </c>
+      <c r="F262" s="17">
+        <v>18709.88499999998</v>
+      </c>
+      <c r="G262" s="19">
+        <v>10.311612999999999</v>
+      </c>
+      <c r="H262" s="19">
+        <v>59.492139000000002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>2025</v>
+      </c>
+      <c r="B263">
+        <v>3</v>
+      </c>
+      <c r="C263" t="s">
+        <v>29</v>
+      </c>
+      <c r="D263" t="s">
+        <v>48</v>
+      </c>
+      <c r="E263" s="17">
+        <v>19651.041999999998</v>
+      </c>
+      <c r="F263" s="17">
+        <v>20193.808999999972</v>
+      </c>
+      <c r="G263" s="19">
+        <v>10.030742999999999</v>
+      </c>
+      <c r="H263" s="19">
+        <v>59.050356999999998</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>2025</v>
+      </c>
+      <c r="B264">
+        <v>3</v>
+      </c>
+      <c r="C264" t="s">
+        <v>29</v>
+      </c>
+      <c r="D264" t="s">
+        <v>49</v>
+      </c>
+      <c r="E264" s="17">
+        <v>21314.375</v>
+      </c>
+      <c r="F264" s="17">
+        <v>20945.364000000023</v>
+      </c>
+      <c r="G264" s="19">
+        <v>9.6586020000000001</v>
+      </c>
+      <c r="H264" s="19">
+        <v>59.139355999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>2025</v>
+      </c>
+      <c r="B265">
+        <v>3</v>
+      </c>
+      <c r="C265" t="s">
+        <v>29</v>
+      </c>
+      <c r="D265" t="s">
+        <v>50</v>
+      </c>
+      <c r="E265" s="17">
+        <v>12996.375000000007</v>
+      </c>
+      <c r="F265" s="17">
+        <v>12884.251</v>
+      </c>
+      <c r="G265" s="19">
+        <v>10.205496999999999</v>
+      </c>
+      <c r="H265" s="19">
+        <v>59.585008000000002</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>2025</v>
+      </c>
+      <c r="B266">
+        <v>3</v>
+      </c>
+      <c r="C266" t="s">
+        <v>29</v>
+      </c>
+      <c r="D266" t="s">
+        <v>51</v>
+      </c>
+      <c r="E266" s="17">
+        <v>30326.65799999997</v>
+      </c>
+      <c r="F266" s="17">
+        <v>30341.715000000018</v>
+      </c>
+      <c r="G266" s="19">
+        <v>10.22247</v>
+      </c>
+      <c r="H266" s="19">
+        <v>59.135238999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>2025</v>
+      </c>
+      <c r="B267">
+        <v>3</v>
+      </c>
+      <c r="C267" t="s">
+        <v>29</v>
+      </c>
+      <c r="D267" t="s">
+        <v>52</v>
+      </c>
+      <c r="E267" s="17">
+        <v>17063.37100000001</v>
+      </c>
+      <c r="F267" s="17">
+        <v>17125.302000000007</v>
+      </c>
+      <c r="G267" s="19">
+        <v>9.6032630000000001</v>
+      </c>
+      <c r="H267" s="19">
+        <v>59.218800999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>2025</v>
+      </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
+      <c r="C268" t="s">
+        <v>29</v>
+      </c>
+      <c r="D268" t="s">
+        <v>53</v>
+      </c>
+      <c r="E268" s="17">
+        <v>14339.866000000013</v>
+      </c>
+      <c r="F268" s="17">
+        <v>14220.27600000002</v>
+      </c>
+      <c r="G268" s="19">
+        <v>10.411158</v>
+      </c>
+      <c r="H268" s="19">
+        <v>59.390796999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>2025</v>
+      </c>
+      <c r="B269">
+        <v>3</v>
+      </c>
+      <c r="C269" t="s">
+        <v>29</v>
+      </c>
+      <c r="D269" t="s">
+        <v>54</v>
+      </c>
+      <c r="E269" s="17">
+        <v>8471.0229999999938</v>
+      </c>
+      <c r="F269" s="17">
+        <v>8519.294999999991</v>
+      </c>
+      <c r="G269" s="19">
+        <v>10.300190000000001</v>
+      </c>
+      <c r="H269" s="19">
+        <v>59.221215000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>2025</v>
+      </c>
+      <c r="B270">
+        <v>3</v>
+      </c>
+      <c r="C270" t="s">
+        <v>29</v>
+      </c>
+      <c r="D270" t="s">
+        <v>55</v>
+      </c>
+      <c r="E270" s="17">
+        <v>10117.127000000011</v>
+      </c>
+      <c r="F270" s="17">
+        <v>9988.9250000000047</v>
+      </c>
+      <c r="G270" s="19">
+        <v>10.266083</v>
+      </c>
+      <c r="H270" s="19">
+        <v>59.165526999999997</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>2025</v>
+      </c>
+      <c r="B271">
+        <v>3</v>
+      </c>
+      <c r="C271" t="s">
+        <v>29</v>
+      </c>
+      <c r="D271" t="s">
+        <v>56</v>
+      </c>
+      <c r="E271" s="17">
+        <v>56607.154000000039</v>
+      </c>
+      <c r="F271" s="17">
+        <v>57337.808000000005</v>
+      </c>
+      <c r="G271" s="19">
+        <v>10.409449</v>
+      </c>
+      <c r="H271" s="19">
         <v>59.271692000000002</v>
       </c>
     </row>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="576" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEFF51B0-C9DB-4652-B7C3-722111D1F96F}"/>
+  <xr:revisionPtr revIDLastSave="583" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A307A99-BBCA-4271-A9AD-38FCFBDE8978}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="57840" windowHeight="15720" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012-2023" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="60">
   <si>
     <t>Togprodukt</t>
   </si>
@@ -329,7 +329,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -350,6 +350,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -2712,10 +2713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE9A58E-6281-4D08-BF08-9517A14C48DB}">
-  <dimension ref="A1:I271"/>
+  <dimension ref="A1:I281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F266" sqref="F266"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E281" sqref="E281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9936,6 +9937,266 @@
         <v>10.409449</v>
       </c>
       <c r="H271" s="19">
+        <v>59.271692000000002</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>2025</v>
+      </c>
+      <c r="B272" s="20">
+        <v>4</v>
+      </c>
+      <c r="C272" t="s">
+        <v>31</v>
+      </c>
+      <c r="D272" t="s">
+        <v>25</v>
+      </c>
+      <c r="E272" s="17">
+        <v>17354.399000000005</v>
+      </c>
+      <c r="F272" s="17">
+        <v>17346.498999999989</v>
+      </c>
+      <c r="G272" s="19">
+        <v>10.311612999999999</v>
+      </c>
+      <c r="H272" s="19">
+        <v>59.492139000000002</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>2025</v>
+      </c>
+      <c r="B273" s="20">
+        <v>4</v>
+      </c>
+      <c r="C273" t="s">
+        <v>31</v>
+      </c>
+      <c r="D273" t="s">
+        <v>48</v>
+      </c>
+      <c r="E273" s="17">
+        <v>18365.531999999999</v>
+      </c>
+      <c r="F273" s="17">
+        <v>19120.726999999999</v>
+      </c>
+      <c r="G273" s="19">
+        <v>10.030742999999999</v>
+      </c>
+      <c r="H273" s="19">
+        <v>59.050356999999998</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>2025</v>
+      </c>
+      <c r="B274" s="20">
+        <v>4</v>
+      </c>
+      <c r="C274" t="s">
+        <v>31</v>
+      </c>
+      <c r="D274" t="s">
+        <v>49</v>
+      </c>
+      <c r="E274" s="17">
+        <v>19380.586999999992</v>
+      </c>
+      <c r="F274" s="17">
+        <v>19900.140999999992</v>
+      </c>
+      <c r="G274" s="19">
+        <v>9.6586020000000001</v>
+      </c>
+      <c r="H274" s="19">
+        <v>59.139355999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>2025</v>
+      </c>
+      <c r="B275" s="20">
+        <v>4</v>
+      </c>
+      <c r="C275" t="s">
+        <v>31</v>
+      </c>
+      <c r="D275" t="s">
+        <v>50</v>
+      </c>
+      <c r="E275" s="17">
+        <v>11011.601000000001</v>
+      </c>
+      <c r="F275" s="17">
+        <v>11313.089000000005</v>
+      </c>
+      <c r="G275" s="19">
+        <v>10.205496999999999</v>
+      </c>
+      <c r="H275" s="19">
+        <v>59.585008000000002</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>2025</v>
+      </c>
+      <c r="B276" s="20">
+        <v>4</v>
+      </c>
+      <c r="C276" t="s">
+        <v>31</v>
+      </c>
+      <c r="D276" t="s">
+        <v>51</v>
+      </c>
+      <c r="E276" s="17">
+        <v>28057.992999999991</v>
+      </c>
+      <c r="F276" s="17">
+        <v>28316.537999999997</v>
+      </c>
+      <c r="G276" s="19">
+        <v>10.22247</v>
+      </c>
+      <c r="H276" s="19">
+        <v>59.135238999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>2025</v>
+      </c>
+      <c r="B277" s="20">
+        <v>4</v>
+      </c>
+      <c r="C277" t="s">
+        <v>31</v>
+      </c>
+      <c r="D277" t="s">
+        <v>52</v>
+      </c>
+      <c r="E277" s="17">
+        <v>16170.986000000001</v>
+      </c>
+      <c r="F277" s="17">
+        <v>16542.084999999999</v>
+      </c>
+      <c r="G277" s="19">
+        <v>9.6032630000000001</v>
+      </c>
+      <c r="H277" s="19">
+        <v>59.218800999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>2025</v>
+      </c>
+      <c r="B278" s="20">
+        <v>4</v>
+      </c>
+      <c r="C278" t="s">
+        <v>31</v>
+      </c>
+      <c r="D278" t="s">
+        <v>53</v>
+      </c>
+      <c r="E278" s="17">
+        <v>12652.624999999993</v>
+      </c>
+      <c r="F278" s="17">
+        <v>13068.969000000003</v>
+      </c>
+      <c r="G278" s="19">
+        <v>10.411158</v>
+      </c>
+      <c r="H278" s="19">
+        <v>59.390796999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>2025</v>
+      </c>
+      <c r="B279" s="20">
+        <v>4</v>
+      </c>
+      <c r="C279" t="s">
+        <v>31</v>
+      </c>
+      <c r="D279" t="s">
+        <v>54</v>
+      </c>
+      <c r="E279" s="17">
+        <v>7863.9330000000027</v>
+      </c>
+      <c r="F279" s="17">
+        <v>8017.2750000000033</v>
+      </c>
+      <c r="G279" s="19">
+        <v>10.300190000000001</v>
+      </c>
+      <c r="H279" s="19">
+        <v>59.221215000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>2025</v>
+      </c>
+      <c r="B280" s="20">
+        <v>4</v>
+      </c>
+      <c r="C280" t="s">
+        <v>31</v>
+      </c>
+      <c r="D280" t="s">
+        <v>55</v>
+      </c>
+      <c r="E280" s="17">
+        <v>9744.0160000000069</v>
+      </c>
+      <c r="F280" s="17">
+        <v>9763.2589999999982</v>
+      </c>
+      <c r="G280" s="19">
+        <v>10.266083</v>
+      </c>
+      <c r="H280" s="19">
+        <v>59.165526999999997</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>2025</v>
+      </c>
+      <c r="B281" s="20">
+        <v>4</v>
+      </c>
+      <c r="C281" t="s">
+        <v>31</v>
+      </c>
+      <c r="D281" t="s">
+        <v>56</v>
+      </c>
+      <c r="E281" s="17">
+        <v>51534.290999999997</v>
+      </c>
+      <c r="F281" s="17">
+        <v>52217.570999999996</v>
+      </c>
+      <c r="G281" s="19">
+        <v>10.409449</v>
+      </c>
+      <c r="H281" s="19">
         <v>59.271692000000002</v>
       </c>
     </row>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="583" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A307A99-BBCA-4271-A9AD-38FCFBDE8978}"/>
+  <xr:revisionPtr revIDLastSave="590" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18510D28-098E-4E50-8915-929EA9DB6B74}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
+    <workbookView xWindow="67095" yWindow="0" windowWidth="38610" windowHeight="20985" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012-2023" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="60">
   <si>
     <t>Togprodukt</t>
   </si>
@@ -329,7 +329,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -350,7 +350,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -2713,16 +2717,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE9A58E-6281-4D08-BF08-9517A14C48DB}">
-  <dimension ref="A1:I281"/>
+  <dimension ref="A1:I291"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A256" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E281" sqref="E281"/>
+      <selection activeCell="E287" sqref="E287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="24" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="2"/>
     <col min="4" max="4" width="21.5703125" style="2" customWidth="1"/>
     <col min="5" max="6" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -2736,7 +2740,7 @@
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -2765,7 +2769,7 @@
       <c r="A2" s="10">
         <v>2023</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -2792,7 +2796,7 @@
       <c r="A3" s="13">
         <v>2023</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -2819,7 +2823,7 @@
       <c r="A4" s="10">
         <v>2023</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -2846,7 +2850,7 @@
       <c r="A5" s="13">
         <v>2023</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -2873,7 +2877,7 @@
       <c r="A6" s="10">
         <v>2023</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -2900,7 +2904,7 @@
       <c r="A7" s="13">
         <v>2023</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -2929,7 +2933,7 @@
       <c r="A8" s="10">
         <v>2023</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -2958,7 +2962,7 @@
       <c r="A9" s="13">
         <v>2023</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -2987,7 +2991,7 @@
       <c r="A10" s="10">
         <v>2023</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -3014,7 +3018,7 @@
       <c r="A11" s="13">
         <v>2023</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -3041,7 +3045,7 @@
       <c r="A12" s="10">
         <v>2023</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -3068,7 +3072,7 @@
       <c r="A13" s="13">
         <v>2023</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -3095,7 +3099,7 @@
       <c r="A14" s="10">
         <v>2024</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -3122,7 +3126,7 @@
       <c r="A15" s="13">
         <v>2024</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -3149,7 +3153,7 @@
       <c r="A16" s="10">
         <v>2024</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -3176,7 +3180,7 @@
       <c r="A17" s="13">
         <v>2024</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -3203,7 +3207,7 @@
       <c r="A18" s="10">
         <v>2024</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -3230,7 +3234,7 @@
       <c r="A19" s="13">
         <v>2024</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -3257,7 +3261,7 @@
       <c r="A20" s="10">
         <v>2024</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -3284,7 +3288,7 @@
       <c r="A21" s="13">
         <v>2023</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -3311,7 +3315,7 @@
       <c r="A22" s="10">
         <v>2023</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -3338,7 +3342,7 @@
       <c r="A23" s="13">
         <v>2023</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -3365,7 +3369,7 @@
       <c r="A24" s="10">
         <v>2023</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -3392,7 +3396,7 @@
       <c r="A25" s="13">
         <v>2023</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="14" t="s">
@@ -3419,7 +3423,7 @@
       <c r="A26" s="10">
         <v>2023</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -3446,7 +3450,7 @@
       <c r="A27" s="13">
         <v>2023</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -3473,7 +3477,7 @@
       <c r="A28" s="10">
         <v>2023</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -3500,7 +3504,7 @@
       <c r="A29" s="13">
         <v>2023</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -3527,7 +3531,7 @@
       <c r="A30" s="10">
         <v>2023</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -3554,7 +3558,7 @@
       <c r="A31" s="13">
         <v>2023</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -3581,7 +3585,7 @@
       <c r="A32" s="10">
         <v>2023</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -3608,7 +3612,7 @@
       <c r="A33" s="13">
         <v>2024</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -3635,7 +3639,7 @@
       <c r="A34" s="10">
         <v>2024</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="11" t="s">
@@ -3662,7 +3666,7 @@
       <c r="A35" s="13">
         <v>2024</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="14" t="s">
@@ -3689,7 +3693,7 @@
       <c r="A36" s="10">
         <v>2024</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -3716,7 +3720,7 @@
       <c r="A37" s="13">
         <v>2024</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="14" t="s">
@@ -3743,7 +3747,7 @@
       <c r="A38" s="10">
         <v>2024</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="11" t="s">
@@ -3770,7 +3774,7 @@
       <c r="A39" s="13">
         <v>2024</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="14" t="s">
@@ -3797,7 +3801,7 @@
       <c r="A40" s="10">
         <v>2023</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -3824,7 +3828,7 @@
       <c r="A41" s="13">
         <v>2023</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="14" t="s">
@@ -3851,7 +3855,7 @@
       <c r="A42" s="10">
         <v>2023</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C42" s="11" t="s">
@@ -3878,7 +3882,7 @@
       <c r="A43" s="13">
         <v>2023</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C43" s="14" t="s">
@@ -3905,7 +3909,7 @@
       <c r="A44" s="10">
         <v>2023</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="11" t="s">
@@ -3932,7 +3936,7 @@
       <c r="A45" s="13">
         <v>2023</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="14" t="s">
@@ -3959,7 +3963,7 @@
       <c r="A46" s="10">
         <v>2023</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C46" s="11" t="s">
@@ -3986,7 +3990,7 @@
       <c r="A47" s="13">
         <v>2023</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C47" s="14" t="s">
@@ -4013,7 +4017,7 @@
       <c r="A48" s="10">
         <v>2023</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -4040,7 +4044,7 @@
       <c r="A49" s="13">
         <v>2023</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C49" s="14" t="s">
@@ -4067,7 +4071,7 @@
       <c r="A50" s="10">
         <v>2023</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="11" t="s">
@@ -4094,7 +4098,7 @@
       <c r="A51" s="13">
         <v>2023</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="14" t="s">
@@ -4121,7 +4125,7 @@
       <c r="A52" s="10">
         <v>2024</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="11" t="s">
@@ -4148,7 +4152,7 @@
       <c r="A53" s="13">
         <v>2024</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -4175,7 +4179,7 @@
       <c r="A54" s="10">
         <v>2024</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="11" t="s">
@@ -4202,7 +4206,7 @@
       <c r="A55" s="13">
         <v>2024</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="14" t="s">
@@ -4229,7 +4233,7 @@
       <c r="A56" s="10">
         <v>2024</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="11" t="s">
@@ -4256,7 +4260,7 @@
       <c r="A57" s="13">
         <v>2024</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C57" s="14" t="s">
@@ -4283,7 +4287,7 @@
       <c r="A58" s="10">
         <v>2024</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C58" s="11" t="s">
@@ -4310,7 +4314,7 @@
       <c r="A59" s="13">
         <v>2023</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="14" t="s">
@@ -4337,7 +4341,7 @@
       <c r="A60" s="10">
         <v>2023</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C60" s="11" t="s">
@@ -4364,7 +4368,7 @@
       <c r="A61" s="13">
         <v>2023</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -4391,7 +4395,7 @@
       <c r="A62" s="10">
         <v>2023</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="11" t="s">
@@ -4418,7 +4422,7 @@
       <c r="A63" s="13">
         <v>2023</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C63" s="14" t="s">
@@ -4445,7 +4449,7 @@
       <c r="A64" s="10">
         <v>2023</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C64" s="11" t="s">
@@ -4474,7 +4478,7 @@
       <c r="A65" s="13">
         <v>2023</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C65" s="14" t="s">
@@ -4503,7 +4507,7 @@
       <c r="A66" s="10">
         <v>2023</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="11" t="s">
@@ -4532,7 +4536,7 @@
       <c r="A67" s="13">
         <v>2023</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C67" s="14" t="s">
@@ -4559,7 +4563,7 @@
       <c r="A68" s="10">
         <v>2023</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C68" s="11" t="s">
@@ -4586,7 +4590,7 @@
       <c r="A69" s="13">
         <v>2023</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C69" s="14" t="s">
@@ -4613,7 +4617,7 @@
       <c r="A70" s="10">
         <v>2023</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C70" s="11" t="s">
@@ -4640,7 +4644,7 @@
       <c r="A71" s="13">
         <v>2024</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C71" s="14" t="s">
@@ -4667,7 +4671,7 @@
       <c r="A72" s="10">
         <v>2024</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C72" s="11" t="s">
@@ -4694,7 +4698,7 @@
       <c r="A73" s="13">
         <v>2024</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C73" s="14" t="s">
@@ -4721,7 +4725,7 @@
       <c r="A74" s="10">
         <v>2024</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C74" s="11" t="s">
@@ -4748,7 +4752,7 @@
       <c r="A75" s="13">
         <v>2024</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C75" s="14" t="s">
@@ -4775,7 +4779,7 @@
       <c r="A76" s="10">
         <v>2024</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C76" s="11" t="s">
@@ -4802,7 +4806,7 @@
       <c r="A77" s="13">
         <v>2024</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C77" s="14" t="s">
@@ -4829,7 +4833,7 @@
       <c r="A78" s="10">
         <v>2023</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C78" s="11" t="s">
@@ -4856,7 +4860,7 @@
       <c r="A79" s="13">
         <v>2023</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C79" s="14" t="s">
@@ -4883,7 +4887,7 @@
       <c r="A80" s="10">
         <v>2023</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C80" s="11" t="s">
@@ -4910,7 +4914,7 @@
       <c r="A81" s="13">
         <v>2023</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C81" s="14" t="s">
@@ -4937,7 +4941,7 @@
       <c r="A82" s="10">
         <v>2023</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C82" s="11" t="s">
@@ -4964,7 +4968,7 @@
       <c r="A83" s="13">
         <v>2023</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C83" s="14" t="s">
@@ -4991,7 +4995,7 @@
       <c r="A84" s="10">
         <v>2023</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C84" s="11" t="s">
@@ -5018,7 +5022,7 @@
       <c r="A85" s="13">
         <v>2023</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C85" s="14" t="s">
@@ -5045,7 +5049,7 @@
       <c r="A86" s="10">
         <v>2023</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C86" s="11" t="s">
@@ -5072,7 +5076,7 @@
       <c r="A87" s="13">
         <v>2023</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C87" s="14" t="s">
@@ -5099,7 +5103,7 @@
       <c r="A88" s="10">
         <v>2023</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C88" s="11" t="s">
@@ -5126,7 +5130,7 @@
       <c r="A89" s="13">
         <v>2023</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C89" s="14" t="s">
@@ -5153,7 +5157,7 @@
       <c r="A90" s="10">
         <v>2024</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C90" s="11" t="s">
@@ -5180,7 +5184,7 @@
       <c r="A91" s="13">
         <v>2024</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C91" s="14" t="s">
@@ -5207,7 +5211,7 @@
       <c r="A92" s="10">
         <v>2024</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C92" s="11" t="s">
@@ -5234,7 +5238,7 @@
       <c r="A93" s="13">
         <v>2024</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C93" s="14" t="s">
@@ -5261,7 +5265,7 @@
       <c r="A94" s="10">
         <v>2024</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C94" s="11" t="s">
@@ -5288,7 +5292,7 @@
       <c r="A95" s="13">
         <v>2024</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C95" s="14" t="s">
@@ -5315,7 +5319,7 @@
       <c r="A96" s="10">
         <v>2024</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C96" s="11" t="s">
@@ -5342,7 +5346,7 @@
       <c r="A97" s="13">
         <v>2023</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C97" s="14" t="s">
@@ -5369,7 +5373,7 @@
       <c r="A98" s="10">
         <v>2023</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C98" s="11" t="s">
@@ -5396,7 +5400,7 @@
       <c r="A99" s="13">
         <v>2023</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C99" s="14" t="s">
@@ -5423,7 +5427,7 @@
       <c r="A100" s="10">
         <v>2023</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C100" s="11" t="s">
@@ -5450,7 +5454,7 @@
       <c r="A101" s="13">
         <v>2023</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C101" s="14" t="s">
@@ -5477,7 +5481,7 @@
       <c r="A102" s="10">
         <v>2023</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C102" s="11" t="s">
@@ -5504,7 +5508,7 @@
       <c r="A103" s="13">
         <v>2023</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C103" s="14" t="s">
@@ -5531,7 +5535,7 @@
       <c r="A104" s="10">
         <v>2023</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C104" s="11" t="s">
@@ -5558,7 +5562,7 @@
       <c r="A105" s="13">
         <v>2023</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C105" s="14" t="s">
@@ -5585,7 +5589,7 @@
       <c r="A106" s="10">
         <v>2023</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C106" s="11" t="s">
@@ -5612,7 +5616,7 @@
       <c r="A107" s="13">
         <v>2023</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C107" s="14" t="s">
@@ -5639,7 +5643,7 @@
       <c r="A108" s="10">
         <v>2023</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C108" s="11" t="s">
@@ -5666,7 +5670,7 @@
       <c r="A109" s="13">
         <v>2024</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C109" s="14" t="s">
@@ -5693,7 +5697,7 @@
       <c r="A110" s="10">
         <v>2024</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C110" s="11" t="s">
@@ -5720,7 +5724,7 @@
       <c r="A111" s="13">
         <v>2024</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C111" s="14" t="s">
@@ -5747,7 +5751,7 @@
       <c r="A112" s="10">
         <v>2024</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C112" s="11" t="s">
@@ -5774,7 +5778,7 @@
       <c r="A113" s="13">
         <v>2024</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C113" s="14" t="s">
@@ -5801,7 +5805,7 @@
       <c r="A114" s="10">
         <v>2024</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C114" s="11" t="s">
@@ -5828,7 +5832,7 @@
       <c r="A115" s="13">
         <v>2024</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C115" s="14" t="s">
@@ -5855,7 +5859,7 @@
       <c r="A116" s="10">
         <v>2023</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C116" s="11" t="s">
@@ -5882,7 +5886,7 @@
       <c r="A117" s="13">
         <v>2023</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C117" s="14" t="s">
@@ -5909,7 +5913,7 @@
       <c r="A118" s="10">
         <v>2023</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C118" s="11" t="s">
@@ -5936,7 +5940,7 @@
       <c r="A119" s="13">
         <v>2023</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C119" s="14" t="s">
@@ -5963,7 +5967,7 @@
       <c r="A120" s="10">
         <v>2023</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C120" s="11" t="s">
@@ -5990,7 +5994,7 @@
       <c r="A121" s="13">
         <v>2023</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C121" s="14" t="s">
@@ -6019,7 +6023,7 @@
       <c r="A122" s="10">
         <v>2023</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C122" s="11" t="s">
@@ -6048,7 +6052,7 @@
       <c r="A123" s="13">
         <v>2023</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C123" s="14" t="s">
@@ -6077,7 +6081,7 @@
       <c r="A124" s="10">
         <v>2023</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C124" s="11" t="s">
@@ -6103,7 +6107,7 @@
       <c r="A125" s="13">
         <v>2023</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C125" s="14" t="s">
@@ -6129,7 +6133,7 @@
       <c r="A126" s="10">
         <v>2023</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C126" s="11" t="s">
@@ -6155,7 +6159,7 @@
       <c r="A127" s="13">
         <v>2023</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C127" s="14" t="s">
@@ -6181,7 +6185,7 @@
       <c r="A128" s="10">
         <v>2024</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C128" s="11" t="s">
@@ -6207,7 +6211,7 @@
       <c r="A129" s="13">
         <v>2024</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C129" s="14" t="s">
@@ -6233,7 +6237,7 @@
       <c r="A130" s="10">
         <v>2024</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C130" s="11" t="s">
@@ -6259,7 +6263,7 @@
       <c r="A131" s="13">
         <v>2024</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C131" s="14" t="s">
@@ -6285,7 +6289,7 @@
       <c r="A132" s="10">
         <v>2024</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C132" s="11" t="s">
@@ -6311,7 +6315,7 @@
       <c r="A133" s="13">
         <v>2024</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C133" s="14" t="s">
@@ -6337,7 +6341,7 @@
       <c r="A134" s="10">
         <v>2024</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C134" s="11" t="s">
@@ -6363,7 +6367,7 @@
       <c r="A135" s="13">
         <v>2023</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C135" s="14" t="s">
@@ -6389,7 +6393,7 @@
       <c r="A136" s="10">
         <v>2023</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C136" s="11" t="s">
@@ -6415,7 +6419,7 @@
       <c r="A137" s="13">
         <v>2023</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C137" s="14" t="s">
@@ -6441,7 +6445,7 @@
       <c r="A138" s="10">
         <v>2023</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C138" s="11" t="s">
@@ -6467,7 +6471,7 @@
       <c r="A139" s="13">
         <v>2023</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C139" s="14" t="s">
@@ -6494,7 +6498,7 @@
       <c r="A140" s="10">
         <v>2023</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C140" s="11" t="s">
@@ -6523,7 +6527,7 @@
       <c r="A141" s="13">
         <v>2023</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C141" s="14" t="s">
@@ -6552,7 +6556,7 @@
       <c r="A142" s="10">
         <v>2023</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C142" s="11" t="s">
@@ -6581,7 +6585,7 @@
       <c r="A143" s="13">
         <v>2023</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C143" s="14" t="s">
@@ -6607,7 +6611,7 @@
       <c r="A144" s="10">
         <v>2023</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C144" s="11" t="s">
@@ -6633,7 +6637,7 @@
       <c r="A145" s="13">
         <v>2023</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C145" s="14" t="s">
@@ -6659,7 +6663,7 @@
       <c r="A146" s="10">
         <v>2023</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C146" s="11" t="s">
@@ -6685,7 +6689,7 @@
       <c r="A147" s="13">
         <v>2024</v>
       </c>
-      <c r="B147" s="14" t="s">
+      <c r="B147" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C147" s="14" t="s">
@@ -6711,7 +6715,7 @@
       <c r="A148" s="10">
         <v>2024</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C148" s="11" t="s">
@@ -6737,7 +6741,7 @@
       <c r="A149" s="13">
         <v>2024</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C149" s="14" t="s">
@@ -6763,7 +6767,7 @@
       <c r="A150" s="10">
         <v>2024</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C150" s="11" t="s">
@@ -6789,7 +6793,7 @@
       <c r="A151" s="13">
         <v>2024</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C151" s="14" t="s">
@@ -6815,7 +6819,7 @@
       <c r="A152" s="10">
         <v>2024</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C152" s="11" t="s">
@@ -6841,7 +6845,7 @@
       <c r="A153" s="13">
         <v>2024</v>
       </c>
-      <c r="B153" s="14" t="s">
+      <c r="B153" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C153" s="14" t="s">
@@ -6867,7 +6871,7 @@
       <c r="A154" s="10">
         <v>2023</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C154" s="11" t="s">
@@ -6893,7 +6897,7 @@
       <c r="A155" s="13">
         <v>2023</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C155" s="14" t="s">
@@ -6919,7 +6923,7 @@
       <c r="A156" s="10">
         <v>2023</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B156" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C156" s="11" t="s">
@@ -6945,7 +6949,7 @@
       <c r="A157" s="13">
         <v>2023</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C157" s="14" t="s">
@@ -6971,7 +6975,7 @@
       <c r="A158" s="10">
         <v>2023</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C158" s="11" t="s">
@@ -6997,7 +7001,7 @@
       <c r="A159" s="13">
         <v>2023</v>
       </c>
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C159" s="14" t="s">
@@ -7023,7 +7027,7 @@
       <c r="A160" s="10">
         <v>2023</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C160" s="11" t="s">
@@ -7049,7 +7053,7 @@
       <c r="A161" s="13">
         <v>2023</v>
       </c>
-      <c r="B161" s="14" t="s">
+      <c r="B161" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C161" s="14" t="s">
@@ -7075,7 +7079,7 @@
       <c r="A162" s="10">
         <v>2023</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C162" s="11" t="s">
@@ -7101,7 +7105,7 @@
       <c r="A163" s="13">
         <v>2023</v>
       </c>
-      <c r="B163" s="14" t="s">
+      <c r="B163" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C163" s="14" t="s">
@@ -7127,7 +7131,7 @@
       <c r="A164" s="10">
         <v>2023</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B164" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C164" s="11" t="s">
@@ -7153,7 +7157,7 @@
       <c r="A165" s="13">
         <v>2023</v>
       </c>
-      <c r="B165" s="14" t="s">
+      <c r="B165" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C165" s="14" t="s">
@@ -7179,7 +7183,7 @@
       <c r="A166" s="10">
         <v>2024</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B166" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C166" s="11" t="s">
@@ -7205,7 +7209,7 @@
       <c r="A167" s="13">
         <v>2024</v>
       </c>
-      <c r="B167" s="14" t="s">
+      <c r="B167" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C167" s="14" t="s">
@@ -7231,7 +7235,7 @@
       <c r="A168" s="10">
         <v>2024</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B168" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C168" s="11" t="s">
@@ -7257,7 +7261,7 @@
       <c r="A169" s="13">
         <v>2024</v>
       </c>
-      <c r="B169" s="14" t="s">
+      <c r="B169" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C169" s="14" t="s">
@@ -7283,7 +7287,7 @@
       <c r="A170" s="10">
         <v>2024</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B170" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C170" s="11" t="s">
@@ -7309,7 +7313,7 @@
       <c r="A171" s="13">
         <v>2024</v>
       </c>
-      <c r="B171" s="14" t="s">
+      <c r="B171" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C171" s="14" t="s">
@@ -7335,7 +7339,7 @@
       <c r="A172" s="10">
         <v>2024</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B172" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C172" s="11" t="s">
@@ -7361,7 +7365,7 @@
       <c r="A173" s="13">
         <v>2023</v>
       </c>
-      <c r="B173" s="14" t="s">
+      <c r="B173" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C173" s="14" t="s">
@@ -7387,7 +7391,7 @@
       <c r="A174" s="10">
         <v>2023</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B174" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C174" s="11" t="s">
@@ -7413,7 +7417,7 @@
       <c r="A175" s="13">
         <v>2023</v>
       </c>
-      <c r="B175" s="14" t="s">
+      <c r="B175" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C175" s="14" t="s">
@@ -7439,7 +7443,7 @@
       <c r="A176" s="10">
         <v>2023</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="B176" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C176" s="11" t="s">
@@ -7465,7 +7469,7 @@
       <c r="A177" s="13">
         <v>2023</v>
       </c>
-      <c r="B177" s="14" t="s">
+      <c r="B177" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C177" s="14" t="s">
@@ -7491,7 +7495,7 @@
       <c r="A178" s="10">
         <v>2023</v>
       </c>
-      <c r="B178" s="11" t="s">
+      <c r="B178" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C178" s="11" t="s">
@@ -7520,7 +7524,7 @@
       <c r="A179" s="13">
         <v>2023</v>
       </c>
-      <c r="B179" s="14" t="s">
+      <c r="B179" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C179" s="14" t="s">
@@ -7549,7 +7553,7 @@
       <c r="A180" s="10">
         <v>2023</v>
       </c>
-      <c r="B180" s="11" t="s">
+      <c r="B180" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C180" s="11" t="s">
@@ -7578,7 +7582,7 @@
       <c r="A181" s="13">
         <v>2023</v>
       </c>
-      <c r="B181" s="14" t="s">
+      <c r="B181" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C181" s="14" t="s">
@@ -7604,7 +7608,7 @@
       <c r="A182" s="10">
         <v>2023</v>
       </c>
-      <c r="B182" s="11" t="s">
+      <c r="B182" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C182" s="11" t="s">
@@ -7630,7 +7634,7 @@
       <c r="A183" s="13">
         <v>2023</v>
       </c>
-      <c r="B183" s="14" t="s">
+      <c r="B183" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C183" s="14" t="s">
@@ -7656,7 +7660,7 @@
       <c r="A184" s="10">
         <v>2023</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="B184" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C184" s="11" t="s">
@@ -7682,7 +7686,7 @@
       <c r="A185" s="13">
         <v>2024</v>
       </c>
-      <c r="B185" s="14" t="s">
+      <c r="B185" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C185" s="14" t="s">
@@ -7708,7 +7712,7 @@
       <c r="A186" s="10">
         <v>2024</v>
       </c>
-      <c r="B186" s="11" t="s">
+      <c r="B186" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C186" s="11" t="s">
@@ -7734,7 +7738,7 @@
       <c r="A187" s="13">
         <v>2024</v>
       </c>
-      <c r="B187" s="14" t="s">
+      <c r="B187" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C187" s="14" t="s">
@@ -7760,7 +7764,7 @@
       <c r="A188" s="10">
         <v>2024</v>
       </c>
-      <c r="B188" s="11" t="s">
+      <c r="B188" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C188" s="11" t="s">
@@ -7786,7 +7790,7 @@
       <c r="A189" s="13">
         <v>2024</v>
       </c>
-      <c r="B189" s="14" t="s">
+      <c r="B189" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C189" s="14" t="s">
@@ -7812,7 +7816,7 @@
       <c r="A190" s="10">
         <v>2024</v>
       </c>
-      <c r="B190" s="11" t="s">
+      <c r="B190" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C190" s="11" t="s">
@@ -7838,7 +7842,7 @@
       <c r="A191" s="13">
         <v>2024</v>
       </c>
-      <c r="B191" s="14" t="s">
+      <c r="B191" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C191" s="14" t="s">
@@ -7864,7 +7868,7 @@
       <c r="A192" s="17">
         <v>2024</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C192" t="s">
@@ -7890,7 +7894,7 @@
       <c r="A193" s="17">
         <v>2024</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C193" t="s">
@@ -7916,7 +7920,7 @@
       <c r="A194" s="17">
         <v>2024</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C194" t="s">
@@ -7942,7 +7946,7 @@
       <c r="A195" s="17">
         <v>2024</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C195" t="s">
@@ -7968,7 +7972,7 @@
       <c r="A196" s="17">
         <v>2024</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C196" t="s">
@@ -7994,7 +7998,7 @@
       <c r="A197" s="17">
         <v>2024</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C197" t="s">
@@ -8020,7 +8024,7 @@
       <c r="A198" s="17">
         <v>2024</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C198" t="s">
@@ -8046,7 +8050,7 @@
       <c r="A199" s="17">
         <v>2024</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C199" t="s">
@@ -8072,7 +8076,7 @@
       <c r="A200" s="17">
         <v>2024</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C200" t="s">
@@ -8098,7 +8102,7 @@
       <c r="A201" s="17">
         <v>2024</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C201" t="s">
@@ -8124,7 +8128,7 @@
       <c r="A202" s="17">
         <v>2024</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C202" t="s">
@@ -8150,7 +8154,7 @@
       <c r="A203" s="17">
         <v>2024</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C203" t="s">
@@ -8176,7 +8180,7 @@
       <c r="A204" s="17">
         <v>2024</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C204" t="s">
@@ -8202,7 +8206,7 @@
       <c r="A205" s="17">
         <v>2024</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C205" t="s">
@@ -8228,7 +8232,7 @@
       <c r="A206" s="17">
         <v>2024</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C206" t="s">
@@ -8254,7 +8258,7 @@
       <c r="A207" s="17">
         <v>2024</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C207" t="s">
@@ -8280,7 +8284,7 @@
       <c r="A208" s="17">
         <v>2024</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C208" t="s">
@@ -8306,7 +8310,7 @@
       <c r="A209" s="17">
         <v>2024</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C209" t="s">
@@ -8332,7 +8336,7 @@
       <c r="A210" s="17">
         <v>2024</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C210" t="s">
@@ -8358,7 +8362,7 @@
       <c r="A211" s="17">
         <v>2024</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C211" t="s">
@@ -8384,7 +8388,7 @@
       <c r="A212" s="17">
         <v>2024</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C212" t="s">
@@ -8410,7 +8414,7 @@
       <c r="A213" s="17">
         <v>2024</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C213" t="s">
@@ -8436,7 +8440,7 @@
       <c r="A214" s="17">
         <v>2024</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C214" t="s">
@@ -8462,7 +8466,7 @@
       <c r="A215" s="17">
         <v>2024</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C215" t="s">
@@ -8488,7 +8492,7 @@
       <c r="A216" s="17">
         <v>2024</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C216" t="s">
@@ -8514,7 +8518,7 @@
       <c r="A217" s="17">
         <v>2024</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C217" t="s">
@@ -8540,7 +8544,7 @@
       <c r="A218" s="17">
         <v>2024</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C218" t="s">
@@ -8566,7 +8570,7 @@
       <c r="A219" s="17">
         <v>2024</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C219" t="s">
@@ -8592,7 +8596,7 @@
       <c r="A220" s="17">
         <v>2024</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C220" t="s">
@@ -8618,7 +8622,7 @@
       <c r="A221" s="17">
         <v>2024</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C221" t="s">
@@ -8644,7 +8648,7 @@
       <c r="A222" s="17">
         <v>2024</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C222" t="s">
@@ -8670,7 +8674,7 @@
       <c r="A223" s="17">
         <v>2024</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C223" t="s">
@@ -8696,7 +8700,7 @@
       <c r="A224" s="17">
         <v>2024</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C224" t="s">
@@ -8722,7 +8726,7 @@
       <c r="A225" s="17">
         <v>2024</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C225" t="s">
@@ -8748,7 +8752,7 @@
       <c r="A226" s="17">
         <v>2024</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C226" t="s">
@@ -8774,7 +8778,7 @@
       <c r="A227" s="17">
         <v>2024</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C227" t="s">
@@ -8800,7 +8804,7 @@
       <c r="A228" s="17">
         <v>2024</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C228" t="s">
@@ -8826,7 +8830,7 @@
       <c r="A229" s="17">
         <v>2024</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C229" t="s">
@@ -8852,7 +8856,7 @@
       <c r="A230" s="17">
         <v>2024</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C230" t="s">
@@ -8878,7 +8882,7 @@
       <c r="A231" s="17">
         <v>2024</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C231" t="s">
@@ -8904,7 +8908,7 @@
       <c r="A232">
         <v>2024</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="23">
         <v>12</v>
       </c>
       <c r="C232" t="s">
@@ -8930,7 +8934,7 @@
       <c r="A233">
         <v>2024</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="23">
         <v>12</v>
       </c>
       <c r="C233" t="s">
@@ -8956,7 +8960,7 @@
       <c r="A234">
         <v>2024</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="23">
         <v>12</v>
       </c>
       <c r="C234" t="s">
@@ -8982,7 +8986,7 @@
       <c r="A235">
         <v>2024</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="23">
         <v>12</v>
       </c>
       <c r="C235" t="s">
@@ -9008,7 +9012,7 @@
       <c r="A236">
         <v>2024</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="23">
         <v>12</v>
       </c>
       <c r="C236" t="s">
@@ -9034,7 +9038,7 @@
       <c r="A237">
         <v>2024</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="23">
         <v>12</v>
       </c>
       <c r="C237" t="s">
@@ -9060,7 +9064,7 @@
       <c r="A238">
         <v>2024</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="23">
         <v>12</v>
       </c>
       <c r="C238" t="s">
@@ -9086,7 +9090,7 @@
       <c r="A239">
         <v>2024</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="23">
         <v>12</v>
       </c>
       <c r="C239" t="s">
@@ -9112,7 +9116,7 @@
       <c r="A240">
         <v>2024</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="23">
         <v>12</v>
       </c>
       <c r="C240" t="s">
@@ -9138,7 +9142,7 @@
       <c r="A241">
         <v>2024</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="23">
         <v>12</v>
       </c>
       <c r="C241" t="s">
@@ -9164,7 +9168,7 @@
       <c r="A242">
         <v>2025</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="23">
         <v>1</v>
       </c>
       <c r="C242" t="s">
@@ -9190,7 +9194,7 @@
       <c r="A243">
         <v>2025</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="23">
         <v>1</v>
       </c>
       <c r="C243" t="s">
@@ -9216,7 +9220,7 @@
       <c r="A244">
         <v>2025</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="23">
         <v>1</v>
       </c>
       <c r="C244" t="s">
@@ -9242,7 +9246,7 @@
       <c r="A245">
         <v>2025</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="23">
         <v>1</v>
       </c>
       <c r="C245" t="s">
@@ -9268,7 +9272,7 @@
       <c r="A246">
         <v>2025</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="23">
         <v>1</v>
       </c>
       <c r="C246" t="s">
@@ -9294,7 +9298,7 @@
       <c r="A247">
         <v>2025</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="23">
         <v>1</v>
       </c>
       <c r="C247" t="s">
@@ -9320,7 +9324,7 @@
       <c r="A248">
         <v>2025</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="23">
         <v>1</v>
       </c>
       <c r="C248" t="s">
@@ -9346,7 +9350,7 @@
       <c r="A249">
         <v>2025</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="23">
         <v>1</v>
       </c>
       <c r="C249" t="s">
@@ -9372,7 +9376,7 @@
       <c r="A250">
         <v>2025</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="23">
         <v>1</v>
       </c>
       <c r="C250" t="s">
@@ -9398,7 +9402,7 @@
       <c r="A251">
         <v>2025</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="23">
         <v>1</v>
       </c>
       <c r="C251" t="s">
@@ -9424,7 +9428,7 @@
       <c r="A252">
         <v>2025</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B252" s="24">
         <v>2</v>
       </c>
       <c r="C252" s="2" t="s">
@@ -9450,7 +9454,7 @@
       <c r="A253">
         <v>2025</v>
       </c>
-      <c r="B253" s="2">
+      <c r="B253" s="24">
         <v>2</v>
       </c>
       <c r="C253" s="2" t="s">
@@ -9476,7 +9480,7 @@
       <c r="A254">
         <v>2025</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254" s="24">
         <v>2</v>
       </c>
       <c r="C254" s="2" t="s">
@@ -9502,7 +9506,7 @@
       <c r="A255">
         <v>2025</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255" s="24">
         <v>2</v>
       </c>
       <c r="C255" s="2" t="s">
@@ -9528,7 +9532,7 @@
       <c r="A256">
         <v>2025</v>
       </c>
-      <c r="B256" s="2">
+      <c r="B256" s="24">
         <v>2</v>
       </c>
       <c r="C256" s="2" t="s">
@@ -9554,7 +9558,7 @@
       <c r="A257">
         <v>2025</v>
       </c>
-      <c r="B257" s="2">
+      <c r="B257" s="24">
         <v>2</v>
       </c>
       <c r="C257" s="2" t="s">
@@ -9580,7 +9584,7 @@
       <c r="A258">
         <v>2025</v>
       </c>
-      <c r="B258" s="2">
+      <c r="B258" s="24">
         <v>2</v>
       </c>
       <c r="C258" s="2" t="s">
@@ -9606,7 +9610,7 @@
       <c r="A259">
         <v>2025</v>
       </c>
-      <c r="B259" s="2">
+      <c r="B259" s="24">
         <v>2</v>
       </c>
       <c r="C259" s="2" t="s">
@@ -9632,7 +9636,7 @@
       <c r="A260">
         <v>2025</v>
       </c>
-      <c r="B260" s="2">
+      <c r="B260" s="24">
         <v>2</v>
       </c>
       <c r="C260" s="2" t="s">
@@ -9658,7 +9662,7 @@
       <c r="A261">
         <v>2025</v>
       </c>
-      <c r="B261" s="2">
+      <c r="B261" s="24">
         <v>2</v>
       </c>
       <c r="C261" s="2" t="s">
@@ -9684,7 +9688,7 @@
       <c r="A262">
         <v>2025</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="23">
         <v>3</v>
       </c>
       <c r="C262" t="s">
@@ -9710,7 +9714,7 @@
       <c r="A263">
         <v>2025</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="23">
         <v>3</v>
       </c>
       <c r="C263" t="s">
@@ -9736,7 +9740,7 @@
       <c r="A264">
         <v>2025</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="23">
         <v>3</v>
       </c>
       <c r="C264" t="s">
@@ -9762,7 +9766,7 @@
       <c r="A265">
         <v>2025</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="23">
         <v>3</v>
       </c>
       <c r="C265" t="s">
@@ -9788,7 +9792,7 @@
       <c r="A266">
         <v>2025</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="23">
         <v>3</v>
       </c>
       <c r="C266" t="s">
@@ -9814,7 +9818,7 @@
       <c r="A267">
         <v>2025</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="23">
         <v>3</v>
       </c>
       <c r="C267" t="s">
@@ -9840,7 +9844,7 @@
       <c r="A268">
         <v>2025</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="23">
         <v>3</v>
       </c>
       <c r="C268" t="s">
@@ -9866,7 +9870,7 @@
       <c r="A269">
         <v>2025</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="23">
         <v>3</v>
       </c>
       <c r="C269" t="s">
@@ -9892,7 +9896,7 @@
       <c r="A270">
         <v>2025</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="23">
         <v>3</v>
       </c>
       <c r="C270" t="s">
@@ -9918,7 +9922,7 @@
       <c r="A271">
         <v>2025</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="23">
         <v>3</v>
       </c>
       <c r="C271" t="s">
@@ -9944,7 +9948,7 @@
       <c r="A272">
         <v>2025</v>
       </c>
-      <c r="B272" s="20">
+      <c r="B272" s="23">
         <v>4</v>
       </c>
       <c r="C272" t="s">
@@ -9970,7 +9974,7 @@
       <c r="A273">
         <v>2025</v>
       </c>
-      <c r="B273" s="20">
+      <c r="B273" s="23">
         <v>4</v>
       </c>
       <c r="C273" t="s">
@@ -9996,7 +10000,7 @@
       <c r="A274">
         <v>2025</v>
       </c>
-      <c r="B274" s="20">
+      <c r="B274" s="23">
         <v>4</v>
       </c>
       <c r="C274" t="s">
@@ -10022,7 +10026,7 @@
       <c r="A275">
         <v>2025</v>
       </c>
-      <c r="B275" s="20">
+      <c r="B275" s="23">
         <v>4</v>
       </c>
       <c r="C275" t="s">
@@ -10048,7 +10052,7 @@
       <c r="A276">
         <v>2025</v>
       </c>
-      <c r="B276" s="20">
+      <c r="B276" s="23">
         <v>4</v>
       </c>
       <c r="C276" t="s">
@@ -10074,7 +10078,7 @@
       <c r="A277">
         <v>2025</v>
       </c>
-      <c r="B277" s="20">
+      <c r="B277" s="23">
         <v>4</v>
       </c>
       <c r="C277" t="s">
@@ -10100,7 +10104,7 @@
       <c r="A278">
         <v>2025</v>
       </c>
-      <c r="B278" s="20">
+      <c r="B278" s="23">
         <v>4</v>
       </c>
       <c r="C278" t="s">
@@ -10126,7 +10130,7 @@
       <c r="A279">
         <v>2025</v>
       </c>
-      <c r="B279" s="20">
+      <c r="B279" s="23">
         <v>4</v>
       </c>
       <c r="C279" t="s">
@@ -10152,7 +10156,7 @@
       <c r="A280">
         <v>2025</v>
       </c>
-      <c r="B280" s="20">
+      <c r="B280" s="23">
         <v>4</v>
       </c>
       <c r="C280" t="s">
@@ -10178,7 +10182,7 @@
       <c r="A281">
         <v>2025</v>
       </c>
-      <c r="B281" s="20">
+      <c r="B281" s="23">
         <v>4</v>
       </c>
       <c r="C281" t="s">
@@ -10197,6 +10201,266 @@
         <v>10.409449</v>
       </c>
       <c r="H281" s="19">
+        <v>59.271692000000002</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>2025</v>
+      </c>
+      <c r="B282" s="23">
+        <v>5</v>
+      </c>
+      <c r="C282" t="s">
+        <v>33</v>
+      </c>
+      <c r="D282" t="s">
+        <v>25</v>
+      </c>
+      <c r="E282" s="17">
+        <v>18319.176000000003</v>
+      </c>
+      <c r="F282" s="17">
+        <v>18241.580999999998</v>
+      </c>
+      <c r="G282">
+        <v>10.311612999999999</v>
+      </c>
+      <c r="H282">
+        <v>59.492139000000002</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>2025</v>
+      </c>
+      <c r="B283" s="23">
+        <v>5</v>
+      </c>
+      <c r="C283" t="s">
+        <v>33</v>
+      </c>
+      <c r="D283" t="s">
+        <v>48</v>
+      </c>
+      <c r="E283" s="17">
+        <v>19884.151000000002</v>
+      </c>
+      <c r="F283" s="17">
+        <v>20459.780000000006</v>
+      </c>
+      <c r="G283">
+        <v>10.030742999999999</v>
+      </c>
+      <c r="H283">
+        <v>59.050356999999998</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>2025</v>
+      </c>
+      <c r="B284" s="23">
+        <v>5</v>
+      </c>
+      <c r="C284" t="s">
+        <v>33</v>
+      </c>
+      <c r="D284" t="s">
+        <v>49</v>
+      </c>
+      <c r="E284" s="17">
+        <v>20210.923999999995</v>
+      </c>
+      <c r="F284" s="17">
+        <v>20315.542999999998</v>
+      </c>
+      <c r="G284">
+        <v>9.6586020000000001</v>
+      </c>
+      <c r="H284">
+        <v>59.139355999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>2025</v>
+      </c>
+      <c r="B285" s="23">
+        <v>5</v>
+      </c>
+      <c r="C285" t="s">
+        <v>33</v>
+      </c>
+      <c r="D285" t="s">
+        <v>50</v>
+      </c>
+      <c r="E285" s="17">
+        <v>12036.863999999996</v>
+      </c>
+      <c r="F285" s="17">
+        <v>12434.575000000001</v>
+      </c>
+      <c r="G285">
+        <v>10.205496999999999</v>
+      </c>
+      <c r="H285">
+        <v>59.585008000000002</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>2025</v>
+      </c>
+      <c r="B286" s="23">
+        <v>5</v>
+      </c>
+      <c r="C286" t="s">
+        <v>33</v>
+      </c>
+      <c r="D286" t="s">
+        <v>51</v>
+      </c>
+      <c r="E286" s="17">
+        <v>29940.447999999989</v>
+      </c>
+      <c r="F286" s="17">
+        <v>30616.964999999997</v>
+      </c>
+      <c r="G286">
+        <v>10.22247</v>
+      </c>
+      <c r="H286">
+        <v>59.135238999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>2025</v>
+      </c>
+      <c r="B287" s="23">
+        <v>5</v>
+      </c>
+      <c r="C287" t="s">
+        <v>33</v>
+      </c>
+      <c r="D287" t="s">
+        <v>52</v>
+      </c>
+      <c r="E287" s="17">
+        <v>16842.983</v>
+      </c>
+      <c r="F287" s="17">
+        <v>17016.309000000005</v>
+      </c>
+      <c r="G287">
+        <v>9.6032630000000001</v>
+      </c>
+      <c r="H287">
+        <v>59.218800999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>2025</v>
+      </c>
+      <c r="B288" s="23">
+        <v>5</v>
+      </c>
+      <c r="C288" t="s">
+        <v>33</v>
+      </c>
+      <c r="D288" t="s">
+        <v>53</v>
+      </c>
+      <c r="E288" s="17">
+        <v>13004.703</v>
+      </c>
+      <c r="F288" s="17">
+        <v>13285.723000000002</v>
+      </c>
+      <c r="G288">
+        <v>10.411158</v>
+      </c>
+      <c r="H288">
+        <v>59.390796999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>2025</v>
+      </c>
+      <c r="B289" s="23">
+        <v>5</v>
+      </c>
+      <c r="C289" t="s">
+        <v>33</v>
+      </c>
+      <c r="D289" t="s">
+        <v>54</v>
+      </c>
+      <c r="E289" s="17">
+        <v>8364.612000000001</v>
+      </c>
+      <c r="F289" s="17">
+        <v>8188.3679999999995</v>
+      </c>
+      <c r="G289">
+        <v>10.300190000000001</v>
+      </c>
+      <c r="H289">
+        <v>59.221215000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>2025</v>
+      </c>
+      <c r="B290" s="23">
+        <v>5</v>
+      </c>
+      <c r="C290" t="s">
+        <v>33</v>
+      </c>
+      <c r="D290" t="s">
+        <v>55</v>
+      </c>
+      <c r="E290" s="17">
+        <v>10064.831999999999</v>
+      </c>
+      <c r="F290" s="17">
+        <v>9971.8870000000006</v>
+      </c>
+      <c r="G290">
+        <v>10.266083</v>
+      </c>
+      <c r="H290">
+        <v>59.165526999999997</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>2025</v>
+      </c>
+      <c r="B291" s="23">
+        <v>5</v>
+      </c>
+      <c r="C291" t="s">
+        <v>33</v>
+      </c>
+      <c r="D291" t="s">
+        <v>56</v>
+      </c>
+      <c r="E291" s="17">
+        <v>55578.746000000014</v>
+      </c>
+      <c r="F291" s="17">
+        <v>56301.769000000008</v>
+      </c>
+      <c r="G291">
+        <v>10.409449</v>
+      </c>
+      <c r="H291">
         <v>59.271692000000002</v>
       </c>
     </row>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="590" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18510D28-098E-4E50-8915-929EA9DB6B74}"/>
+  <xr:revisionPtr revIDLastSave="593" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5FDA6E5-20B8-45B8-9AE5-2F3BD439BDAF}"/>
   <bookViews>
-    <workbookView xWindow="67095" yWindow="0" windowWidth="38610" windowHeight="20985" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012-2023" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="60">
   <si>
     <t>Togprodukt</t>
   </si>
@@ -231,7 +231,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +266,10 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="3">
@@ -329,7 +333,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -350,11 +354,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -757,7 +757,7 @@
       <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="29.140625" customWidth="1"/>
@@ -769,7 +769,7 @@
     <col min="13" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -786,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -810,7 +810,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -834,7 +834,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -858,7 +858,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -882,7 +882,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -930,7 +930,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -954,7 +954,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -978,7 +978,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1002,7 +1002,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -2717,16 +2717,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE9A58E-6281-4D08-BF08-9517A14C48DB}">
-  <dimension ref="A1:I291"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E287" sqref="E287"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H301" sqref="H301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="17.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="2"/>
     <col min="4" max="4" width="21.5703125" style="2" customWidth="1"/>
     <col min="5" max="6" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -2736,11 +2736,11 @@
     <col min="10" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -2765,11 +2765,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="10">
         <v>2023</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -2792,11 +2792,11 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="13">
         <v>2023</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -2819,11 +2819,11 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="10">
         <v>2023</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -2846,11 +2846,11 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="13">
         <v>2023</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -2873,11 +2873,11 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="10">
         <v>2023</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -2900,11 +2900,11 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="13">
         <v>2023</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -2929,11 +2929,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="10">
         <v>2023</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -2958,11 +2958,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="13">
         <v>2023</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -2987,11 +2987,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="10">
         <v>2023</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -3014,11 +3014,11 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="13">
         <v>2023</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -3041,11 +3041,11 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="10">
         <v>2023</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -3068,11 +3068,11 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="13">
         <v>2023</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -3095,11 +3095,11 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="10">
         <v>2024</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -3122,11 +3122,11 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="13">
         <v>2024</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -3149,11 +3149,11 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="10">
         <v>2024</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -3176,11 +3176,11 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="13">
         <v>2024</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -3203,11 +3203,11 @@
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="10">
         <v>2024</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -3230,11 +3230,11 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="13">
         <v>2024</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -3257,11 +3257,11 @@
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="10">
         <v>2024</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -3284,11 +3284,11 @@
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="13">
         <v>2023</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -3311,11 +3311,11 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="10">
         <v>2023</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -3338,11 +3338,11 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="13">
         <v>2023</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -3365,11 +3365,11 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="10">
         <v>2023</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -3392,11 +3392,11 @@
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="13">
         <v>2023</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="14" t="s">
@@ -3419,11 +3419,11 @@
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="10">
         <v>2023</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -3446,11 +3446,11 @@
       </c>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="13">
         <v>2023</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -3473,11 +3473,11 @@
       </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="10">
         <v>2023</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -3500,11 +3500,11 @@
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="13">
         <v>2023</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -3527,11 +3527,11 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="10">
         <v>2023</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -3554,11 +3554,11 @@
       </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="13">
         <v>2023</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -3581,11 +3581,11 @@
       </c>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="10">
         <v>2023</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -3608,11 +3608,11 @@
       </c>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="13">
         <v>2024</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -3635,11 +3635,11 @@
       </c>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="10">
         <v>2024</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="11" t="s">
@@ -3662,11 +3662,11 @@
       </c>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="13">
         <v>2024</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="14" t="s">
@@ -3689,11 +3689,11 @@
       </c>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="10">
         <v>2024</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -3716,11 +3716,11 @@
       </c>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="13">
         <v>2024</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="14" t="s">
@@ -3743,11 +3743,11 @@
       </c>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="10">
         <v>2024</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="11" t="s">
@@ -3770,11 +3770,11 @@
       </c>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="13">
         <v>2024</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="14" t="s">
@@ -3797,11 +3797,11 @@
       </c>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="10">
         <v>2023</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -3824,11 +3824,11 @@
       </c>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="13">
         <v>2023</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="14" t="s">
@@ -3851,11 +3851,11 @@
       </c>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="10">
         <v>2023</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C42" s="11" t="s">
@@ -3878,11 +3878,11 @@
       </c>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="13">
         <v>2023</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C43" s="14" t="s">
@@ -3905,11 +3905,11 @@
       </c>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="10">
         <v>2023</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="11" t="s">
@@ -3932,11 +3932,11 @@
       </c>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="13">
         <v>2023</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="14" t="s">
@@ -3959,11 +3959,11 @@
       </c>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="10">
         <v>2023</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C46" s="11" t="s">
@@ -3986,11 +3986,11 @@
       </c>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="13">
         <v>2023</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C47" s="14" t="s">
@@ -4013,11 +4013,11 @@
       </c>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="10">
         <v>2023</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -4040,11 +4040,11 @@
       </c>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="13">
         <v>2023</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C49" s="14" t="s">
@@ -4067,11 +4067,11 @@
       </c>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="10">
         <v>2023</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="11" t="s">
@@ -4094,11 +4094,11 @@
       </c>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="13">
         <v>2023</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="14" t="s">
@@ -4121,11 +4121,11 @@
       </c>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="10">
         <v>2024</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="11" t="s">
@@ -4148,11 +4148,11 @@
       </c>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="13">
         <v>2024</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -4175,11 +4175,11 @@
       </c>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="10">
         <v>2024</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="11" t="s">
@@ -4202,11 +4202,11 @@
       </c>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="13">
         <v>2024</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="14" t="s">
@@ -4229,11 +4229,11 @@
       </c>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="10">
         <v>2024</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="11" t="s">
@@ -4256,11 +4256,11 @@
       </c>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="13">
         <v>2024</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C57" s="14" t="s">
@@ -4283,11 +4283,11 @@
       </c>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="10">
         <v>2024</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C58" s="11" t="s">
@@ -4310,11 +4310,11 @@
       </c>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="13">
         <v>2023</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="14" t="s">
@@ -4337,11 +4337,11 @@
       </c>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="10">
         <v>2023</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C60" s="11" t="s">
@@ -4364,11 +4364,11 @@
       </c>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="13">
         <v>2023</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -4391,11 +4391,11 @@
       </c>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="10">
         <v>2023</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="11" t="s">
@@ -4418,11 +4418,11 @@
       </c>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="13">
         <v>2023</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C63" s="14" t="s">
@@ -4445,11 +4445,11 @@
       </c>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="10">
         <v>2023</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C64" s="11" t="s">
@@ -4474,11 +4474,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="13">
         <v>2023</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C65" s="14" t="s">
@@ -4503,11 +4503,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="10">
         <v>2023</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="11" t="s">
@@ -4532,11 +4532,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="13">
         <v>2023</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C67" s="14" t="s">
@@ -4559,11 +4559,11 @@
       </c>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="10">
         <v>2023</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C68" s="11" t="s">
@@ -4586,11 +4586,11 @@
       </c>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="13">
         <v>2023</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C69" s="14" t="s">
@@ -4613,11 +4613,11 @@
       </c>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="10">
         <v>2023</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C70" s="11" t="s">
@@ -4640,11 +4640,11 @@
       </c>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="13">
         <v>2024</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C71" s="14" t="s">
@@ -4667,11 +4667,11 @@
       </c>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="10">
         <v>2024</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C72" s="11" t="s">
@@ -4694,11 +4694,11 @@
       </c>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="13">
         <v>2024</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C73" s="14" t="s">
@@ -4721,11 +4721,11 @@
       </c>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="10">
         <v>2024</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C74" s="11" t="s">
@@ -4748,11 +4748,11 @@
       </c>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="13">
         <v>2024</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C75" s="14" t="s">
@@ -4775,11 +4775,11 @@
       </c>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="10">
         <v>2024</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C76" s="11" t="s">
@@ -4802,11 +4802,11 @@
       </c>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="13">
         <v>2024</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C77" s="14" t="s">
@@ -4829,11 +4829,11 @@
       </c>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="10">
         <v>2023</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C78" s="11" t="s">
@@ -4856,11 +4856,11 @@
       </c>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="13">
         <v>2023</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C79" s="14" t="s">
@@ -4883,11 +4883,11 @@
       </c>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="10">
         <v>2023</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C80" s="11" t="s">
@@ -4910,11 +4910,11 @@
       </c>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="13">
         <v>2023</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C81" s="14" t="s">
@@ -4937,11 +4937,11 @@
       </c>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="10">
         <v>2023</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C82" s="11" t="s">
@@ -4964,11 +4964,11 @@
       </c>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="13">
         <v>2023</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C83" s="14" t="s">
@@ -4991,11 +4991,11 @@
       </c>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="10">
         <v>2023</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C84" s="11" t="s">
@@ -5018,11 +5018,11 @@
       </c>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="13">
         <v>2023</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C85" s="14" t="s">
@@ -5045,11 +5045,11 @@
       </c>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="10">
         <v>2023</v>
       </c>
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C86" s="11" t="s">
@@ -5072,11 +5072,11 @@
       </c>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="13">
         <v>2023</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C87" s="14" t="s">
@@ -5099,11 +5099,11 @@
       </c>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="10">
         <v>2023</v>
       </c>
-      <c r="B88" s="21" t="s">
+      <c r="B88" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C88" s="11" t="s">
@@ -5126,11 +5126,11 @@
       </c>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="13">
         <v>2023</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C89" s="14" t="s">
@@ -5153,11 +5153,11 @@
       </c>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="10">
         <v>2024</v>
       </c>
-      <c r="B90" s="21" t="s">
+      <c r="B90" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C90" s="11" t="s">
@@ -5180,11 +5180,11 @@
       </c>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="13">
         <v>2024</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C91" s="14" t="s">
@@ -5207,11 +5207,11 @@
       </c>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="10">
         <v>2024</v>
       </c>
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C92" s="11" t="s">
@@ -5234,11 +5234,11 @@
       </c>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="13">
         <v>2024</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B93" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C93" s="14" t="s">
@@ -5261,11 +5261,11 @@
       </c>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="10">
         <v>2024</v>
       </c>
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C94" s="11" t="s">
@@ -5288,11 +5288,11 @@
       </c>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="13">
         <v>2024</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C95" s="14" t="s">
@@ -5315,11 +5315,11 @@
       </c>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="10">
         <v>2024</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C96" s="11" t="s">
@@ -5342,11 +5342,11 @@
       </c>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="13">
         <v>2023</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C97" s="14" t="s">
@@ -5369,11 +5369,11 @@
       </c>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="10">
         <v>2023</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C98" s="11" t="s">
@@ -5396,11 +5396,11 @@
       </c>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="13">
         <v>2023</v>
       </c>
-      <c r="B99" s="22" t="s">
+      <c r="B99" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C99" s="14" t="s">
@@ -5423,11 +5423,11 @@
       </c>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="10">
         <v>2023</v>
       </c>
-      <c r="B100" s="21" t="s">
+      <c r="B100" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C100" s="11" t="s">
@@ -5450,11 +5450,11 @@
       </c>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" s="13">
         <v>2023</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C101" s="14" t="s">
@@ -5477,11 +5477,11 @@
       </c>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="10">
         <v>2023</v>
       </c>
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C102" s="11" t="s">
@@ -5504,11 +5504,11 @@
       </c>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="13">
         <v>2023</v>
       </c>
-      <c r="B103" s="22" t="s">
+      <c r="B103" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C103" s="14" t="s">
@@ -5531,11 +5531,11 @@
       </c>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="10">
         <v>2023</v>
       </c>
-      <c r="B104" s="21" t="s">
+      <c r="B104" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C104" s="11" t="s">
@@ -5558,11 +5558,11 @@
       </c>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="13">
         <v>2023</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C105" s="14" t="s">
@@ -5585,11 +5585,11 @@
       </c>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="10">
         <v>2023</v>
       </c>
-      <c r="B106" s="21" t="s">
+      <c r="B106" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C106" s="11" t="s">
@@ -5612,11 +5612,11 @@
       </c>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="13">
         <v>2023</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C107" s="14" t="s">
@@ -5639,11 +5639,11 @@
       </c>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="10">
         <v>2023</v>
       </c>
-      <c r="B108" s="21" t="s">
+      <c r="B108" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C108" s="11" t="s">
@@ -5666,11 +5666,11 @@
       </c>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="13">
         <v>2024</v>
       </c>
-      <c r="B109" s="22" t="s">
+      <c r="B109" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C109" s="14" t="s">
@@ -5693,11 +5693,11 @@
       </c>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="10">
         <v>2024</v>
       </c>
-      <c r="B110" s="21" t="s">
+      <c r="B110" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C110" s="11" t="s">
@@ -5720,11 +5720,11 @@
       </c>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="13">
         <v>2024</v>
       </c>
-      <c r="B111" s="22" t="s">
+      <c r="B111" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C111" s="14" t="s">
@@ -5747,11 +5747,11 @@
       </c>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="10">
         <v>2024</v>
       </c>
-      <c r="B112" s="21" t="s">
+      <c r="B112" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C112" s="11" t="s">
@@ -5774,11 +5774,11 @@
       </c>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="13">
         <v>2024</v>
       </c>
-      <c r="B113" s="22" t="s">
+      <c r="B113" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C113" s="14" t="s">
@@ -5801,11 +5801,11 @@
       </c>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="10">
         <v>2024</v>
       </c>
-      <c r="B114" s="21" t="s">
+      <c r="B114" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C114" s="11" t="s">
@@ -5828,11 +5828,11 @@
       </c>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="13">
         <v>2024</v>
       </c>
-      <c r="B115" s="22" t="s">
+      <c r="B115" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C115" s="14" t="s">
@@ -5855,11 +5855,11 @@
       </c>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="10">
         <v>2023</v>
       </c>
-      <c r="B116" s="21" t="s">
+      <c r="B116" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C116" s="11" t="s">
@@ -5882,11 +5882,11 @@
       </c>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="13">
         <v>2023</v>
       </c>
-      <c r="B117" s="22" t="s">
+      <c r="B117" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C117" s="14" t="s">
@@ -5909,11 +5909,11 @@
       </c>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="10">
         <v>2023</v>
       </c>
-      <c r="B118" s="21" t="s">
+      <c r="B118" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C118" s="11" t="s">
@@ -5936,11 +5936,11 @@
       </c>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="13">
         <v>2023</v>
       </c>
-      <c r="B119" s="22" t="s">
+      <c r="B119" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C119" s="14" t="s">
@@ -5963,11 +5963,11 @@
       </c>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="10">
         <v>2023</v>
       </c>
-      <c r="B120" s="21" t="s">
+      <c r="B120" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C120" s="11" t="s">
@@ -5990,11 +5990,11 @@
       </c>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="13">
         <v>2023</v>
       </c>
-      <c r="B121" s="22" t="s">
+      <c r="B121" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C121" s="14" t="s">
@@ -6019,11 +6019,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="10">
         <v>2023</v>
       </c>
-      <c r="B122" s="21" t="s">
+      <c r="B122" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C122" s="11" t="s">
@@ -6048,11 +6048,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="13">
         <v>2023</v>
       </c>
-      <c r="B123" s="22" t="s">
+      <c r="B123" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C123" s="14" t="s">
@@ -6077,11 +6077,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="10">
         <v>2023</v>
       </c>
-      <c r="B124" s="21" t="s">
+      <c r="B124" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C124" s="11" t="s">
@@ -6103,11 +6103,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="13">
         <v>2023</v>
       </c>
-      <c r="B125" s="22" t="s">
+      <c r="B125" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C125" s="14" t="s">
@@ -6129,11 +6129,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="10">
         <v>2023</v>
       </c>
-      <c r="B126" s="21" t="s">
+      <c r="B126" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C126" s="11" t="s">
@@ -6155,11 +6155,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="13">
         <v>2023</v>
       </c>
-      <c r="B127" s="22" t="s">
+      <c r="B127" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C127" s="14" t="s">
@@ -6181,11 +6181,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="10">
         <v>2024</v>
       </c>
-      <c r="B128" s="21" t="s">
+      <c r="B128" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C128" s="11" t="s">
@@ -6207,11 +6207,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="13">
         <v>2024</v>
       </c>
-      <c r="B129" s="22" t="s">
+      <c r="B129" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C129" s="14" t="s">
@@ -6233,11 +6233,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="10">
         <v>2024</v>
       </c>
-      <c r="B130" s="21" t="s">
+      <c r="B130" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C130" s="11" t="s">
@@ -6259,11 +6259,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="13">
         <v>2024</v>
       </c>
-      <c r="B131" s="22" t="s">
+      <c r="B131" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C131" s="14" t="s">
@@ -6285,11 +6285,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="10">
         <v>2024</v>
       </c>
-      <c r="B132" s="21" t="s">
+      <c r="B132" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C132" s="11" t="s">
@@ -6311,11 +6311,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="13">
         <v>2024</v>
       </c>
-      <c r="B133" s="22" t="s">
+      <c r="B133" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C133" s="14" t="s">
@@ -6337,11 +6337,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="10">
         <v>2024</v>
       </c>
-      <c r="B134" s="21" t="s">
+      <c r="B134" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C134" s="11" t="s">
@@ -6363,11 +6363,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="13">
         <v>2023</v>
       </c>
-      <c r="B135" s="22" t="s">
+      <c r="B135" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C135" s="14" t="s">
@@ -6389,11 +6389,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="10">
         <v>2023</v>
       </c>
-      <c r="B136" s="21" t="s">
+      <c r="B136" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C136" s="11" t="s">
@@ -6415,11 +6415,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="13">
         <v>2023</v>
       </c>
-      <c r="B137" s="22" t="s">
+      <c r="B137" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C137" s="14" t="s">
@@ -6441,11 +6441,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="10">
         <v>2023</v>
       </c>
-      <c r="B138" s="21" t="s">
+      <c r="B138" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C138" s="11" t="s">
@@ -6467,11 +6467,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="13">
         <v>2023</v>
       </c>
-      <c r="B139" s="22" t="s">
+      <c r="B139" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C139" s="14" t="s">
@@ -6494,11 +6494,11 @@
       </c>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="10">
         <v>2023</v>
       </c>
-      <c r="B140" s="21" t="s">
+      <c r="B140" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C140" s="11" t="s">
@@ -6523,11 +6523,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="13">
         <v>2023</v>
       </c>
-      <c r="B141" s="22" t="s">
+      <c r="B141" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C141" s="14" t="s">
@@ -6552,11 +6552,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="10">
         <v>2023</v>
       </c>
-      <c r="B142" s="21" t="s">
+      <c r="B142" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C142" s="11" t="s">
@@ -6581,11 +6581,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="13">
         <v>2023</v>
       </c>
-      <c r="B143" s="22" t="s">
+      <c r="B143" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C143" s="14" t="s">
@@ -6607,11 +6607,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="10">
         <v>2023</v>
       </c>
-      <c r="B144" s="21" t="s">
+      <c r="B144" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C144" s="11" t="s">
@@ -6633,11 +6633,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="13">
         <v>2023</v>
       </c>
-      <c r="B145" s="22" t="s">
+      <c r="B145" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C145" s="14" t="s">
@@ -6659,11 +6659,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="10">
         <v>2023</v>
       </c>
-      <c r="B146" s="21" t="s">
+      <c r="B146" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C146" s="11" t="s">
@@ -6685,11 +6685,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="13">
         <v>2024</v>
       </c>
-      <c r="B147" s="22" t="s">
+      <c r="B147" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C147" s="14" t="s">
@@ -6711,11 +6711,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="10">
         <v>2024</v>
       </c>
-      <c r="B148" s="21" t="s">
+      <c r="B148" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C148" s="11" t="s">
@@ -6737,11 +6737,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="13">
         <v>2024</v>
       </c>
-      <c r="B149" s="22" t="s">
+      <c r="B149" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C149" s="14" t="s">
@@ -6763,11 +6763,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="10">
         <v>2024</v>
       </c>
-      <c r="B150" s="21" t="s">
+      <c r="B150" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C150" s="11" t="s">
@@ -6789,11 +6789,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="13">
         <v>2024</v>
       </c>
-      <c r="B151" s="22" t="s">
+      <c r="B151" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C151" s="14" t="s">
@@ -6815,11 +6815,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="10">
         <v>2024</v>
       </c>
-      <c r="B152" s="21" t="s">
+      <c r="B152" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C152" s="11" t="s">
@@ -6841,11 +6841,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" s="13">
         <v>2024</v>
       </c>
-      <c r="B153" s="22" t="s">
+      <c r="B153" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C153" s="14" t="s">
@@ -6867,11 +6867,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" s="10">
         <v>2023</v>
       </c>
-      <c r="B154" s="21" t="s">
+      <c r="B154" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C154" s="11" t="s">
@@ -6893,11 +6893,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" s="13">
         <v>2023</v>
       </c>
-      <c r="B155" s="22" t="s">
+      <c r="B155" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C155" s="14" t="s">
@@ -6919,11 +6919,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" s="10">
         <v>2023</v>
       </c>
-      <c r="B156" s="21" t="s">
+      <c r="B156" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C156" s="11" t="s">
@@ -6945,11 +6945,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" s="13">
         <v>2023</v>
       </c>
-      <c r="B157" s="22" t="s">
+      <c r="B157" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C157" s="14" t="s">
@@ -6971,11 +6971,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" s="10">
         <v>2023</v>
       </c>
-      <c r="B158" s="21" t="s">
+      <c r="B158" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C158" s="11" t="s">
@@ -6997,11 +6997,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" s="13">
         <v>2023</v>
       </c>
-      <c r="B159" s="22" t="s">
+      <c r="B159" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C159" s="14" t="s">
@@ -7023,11 +7023,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" s="10">
         <v>2023</v>
       </c>
-      <c r="B160" s="21" t="s">
+      <c r="B160" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C160" s="11" t="s">
@@ -7049,11 +7049,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="13">
         <v>2023</v>
       </c>
-      <c r="B161" s="22" t="s">
+      <c r="B161" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C161" s="14" t="s">
@@ -7075,11 +7075,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="10">
         <v>2023</v>
       </c>
-      <c r="B162" s="21" t="s">
+      <c r="B162" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C162" s="11" t="s">
@@ -7101,11 +7101,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="13">
         <v>2023</v>
       </c>
-      <c r="B163" s="22" t="s">
+      <c r="B163" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C163" s="14" t="s">
@@ -7127,11 +7127,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="10">
         <v>2023</v>
       </c>
-      <c r="B164" s="21" t="s">
+      <c r="B164" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C164" s="11" t="s">
@@ -7153,11 +7153,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="13">
         <v>2023</v>
       </c>
-      <c r="B165" s="22" t="s">
+      <c r="B165" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C165" s="14" t="s">
@@ -7179,11 +7179,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="10">
         <v>2024</v>
       </c>
-      <c r="B166" s="21" t="s">
+      <c r="B166" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C166" s="11" t="s">
@@ -7205,11 +7205,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="13">
         <v>2024</v>
       </c>
-      <c r="B167" s="22" t="s">
+      <c r="B167" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C167" s="14" t="s">
@@ -7231,11 +7231,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="10">
         <v>2024</v>
       </c>
-      <c r="B168" s="21" t="s">
+      <c r="B168" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C168" s="11" t="s">
@@ -7257,11 +7257,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="13">
         <v>2024</v>
       </c>
-      <c r="B169" s="22" t="s">
+      <c r="B169" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C169" s="14" t="s">
@@ -7283,11 +7283,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="10">
         <v>2024</v>
       </c>
-      <c r="B170" s="21" t="s">
+      <c r="B170" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C170" s="11" t="s">
@@ -7309,11 +7309,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="13">
         <v>2024</v>
       </c>
-      <c r="B171" s="22" t="s">
+      <c r="B171" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C171" s="14" t="s">
@@ -7335,11 +7335,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="10">
         <v>2024</v>
       </c>
-      <c r="B172" s="21" t="s">
+      <c r="B172" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C172" s="11" t="s">
@@ -7361,11 +7361,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="13">
         <v>2023</v>
       </c>
-      <c r="B173" s="22" t="s">
+      <c r="B173" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C173" s="14" t="s">
@@ -7387,11 +7387,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="10">
         <v>2023</v>
       </c>
-      <c r="B174" s="21" t="s">
+      <c r="B174" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C174" s="11" t="s">
@@ -7413,11 +7413,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="13">
         <v>2023</v>
       </c>
-      <c r="B175" s="22" t="s">
+      <c r="B175" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C175" s="14" t="s">
@@ -7439,11 +7439,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="10">
         <v>2023</v>
       </c>
-      <c r="B176" s="21" t="s">
+      <c r="B176" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C176" s="11" t="s">
@@ -7465,11 +7465,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="13">
         <v>2023</v>
       </c>
-      <c r="B177" s="22" t="s">
+      <c r="B177" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C177" s="14" t="s">
@@ -7491,11 +7491,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" s="10">
         <v>2023</v>
       </c>
-      <c r="B178" s="21" t="s">
+      <c r="B178" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C178" s="11" t="s">
@@ -7520,11 +7520,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" s="13">
         <v>2023</v>
       </c>
-      <c r="B179" s="22" t="s">
+      <c r="B179" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C179" s="14" t="s">
@@ -7549,11 +7549,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180" s="10">
         <v>2023</v>
       </c>
-      <c r="B180" s="21" t="s">
+      <c r="B180" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C180" s="11" t="s">
@@ -7578,11 +7578,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" s="13">
         <v>2023</v>
       </c>
-      <c r="B181" s="22" t="s">
+      <c r="B181" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C181" s="14" t="s">
@@ -7604,11 +7604,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="10">
         <v>2023</v>
       </c>
-      <c r="B182" s="21" t="s">
+      <c r="B182" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C182" s="11" t="s">
@@ -7630,11 +7630,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="13">
         <v>2023</v>
       </c>
-      <c r="B183" s="22" t="s">
+      <c r="B183" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C183" s="14" t="s">
@@ -7656,11 +7656,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184" s="10">
         <v>2023</v>
       </c>
-      <c r="B184" s="21" t="s">
+      <c r="B184" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C184" s="11" t="s">
@@ -7682,11 +7682,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" s="13">
         <v>2024</v>
       </c>
-      <c r="B185" s="22" t="s">
+      <c r="B185" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C185" s="14" t="s">
@@ -7708,11 +7708,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186" s="10">
         <v>2024</v>
       </c>
-      <c r="B186" s="21" t="s">
+      <c r="B186" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C186" s="11" t="s">
@@ -7734,11 +7734,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9">
       <c r="A187" s="13">
         <v>2024</v>
       </c>
-      <c r="B187" s="22" t="s">
+      <c r="B187" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C187" s="14" t="s">
@@ -7760,11 +7760,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9">
       <c r="A188" s="10">
         <v>2024</v>
       </c>
-      <c r="B188" s="21" t="s">
+      <c r="B188" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C188" s="11" t="s">
@@ -7786,11 +7786,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9">
       <c r="A189" s="13">
         <v>2024</v>
       </c>
-      <c r="B189" s="22" t="s">
+      <c r="B189" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C189" s="14" t="s">
@@ -7812,11 +7812,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9">
       <c r="A190" s="10">
         <v>2024</v>
       </c>
-      <c r="B190" s="21" t="s">
+      <c r="B190" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C190" s="11" t="s">
@@ -7838,11 +7838,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="A191" s="13">
         <v>2024</v>
       </c>
-      <c r="B191" s="22" t="s">
+      <c r="B191" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C191" s="14" t="s">
@@ -7864,11 +7864,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9">
       <c r="A192" s="17">
         <v>2024</v>
       </c>
-      <c r="B192" s="23" t="s">
+      <c r="B192" t="s">
         <v>38</v>
       </c>
       <c r="C192" t="s">
@@ -7890,11 +7890,11 @@
         <v>10.311612999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" s="17">
         <v>2024</v>
       </c>
-      <c r="B193" s="23" t="s">
+      <c r="B193" t="s">
         <v>38</v>
       </c>
       <c r="C193" t="s">
@@ -7916,11 +7916,11 @@
         <v>10.030742999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" s="17">
         <v>2024</v>
       </c>
-      <c r="B194" s="23" t="s">
+      <c r="B194" t="s">
         <v>38</v>
       </c>
       <c r="C194" t="s">
@@ -7942,11 +7942,11 @@
         <v>9.6586020000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" s="17">
         <v>2024</v>
       </c>
-      <c r="B195" s="23" t="s">
+      <c r="B195" t="s">
         <v>38</v>
       </c>
       <c r="C195" t="s">
@@ -7968,11 +7968,11 @@
         <v>10.205496999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" s="17">
         <v>2024</v>
       </c>
-      <c r="B196" s="23" t="s">
+      <c r="B196" t="s">
         <v>38</v>
       </c>
       <c r="C196" t="s">
@@ -7994,11 +7994,11 @@
         <v>10.22247</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" s="17">
         <v>2024</v>
       </c>
-      <c r="B197" s="23" t="s">
+      <c r="B197" t="s">
         <v>38</v>
       </c>
       <c r="C197" t="s">
@@ -8020,11 +8020,11 @@
         <v>9.6032630000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" s="17">
         <v>2024</v>
       </c>
-      <c r="B198" s="23" t="s">
+      <c r="B198" t="s">
         <v>38</v>
       </c>
       <c r="C198" t="s">
@@ -8046,11 +8046,11 @@
         <v>10.411158</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" s="17">
         <v>2024</v>
       </c>
-      <c r="B199" s="23" t="s">
+      <c r="B199" t="s">
         <v>38</v>
       </c>
       <c r="C199" t="s">
@@ -8072,11 +8072,11 @@
         <v>10.300190000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" s="17">
         <v>2024</v>
       </c>
-      <c r="B200" s="23" t="s">
+      <c r="B200" t="s">
         <v>38</v>
       </c>
       <c r="C200" t="s">
@@ -8098,11 +8098,11 @@
         <v>10.409449</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" s="17">
         <v>2024</v>
       </c>
-      <c r="B201" s="23" t="s">
+      <c r="B201" t="s">
         <v>38</v>
       </c>
       <c r="C201" t="s">
@@ -8124,11 +8124,11 @@
         <v>10.266083</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" s="17">
         <v>2024</v>
       </c>
-      <c r="B202" s="23" t="s">
+      <c r="B202" t="s">
         <v>40</v>
       </c>
       <c r="C202" t="s">
@@ -8150,11 +8150,11 @@
         <v>59.492139000000002</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" s="17">
         <v>2024</v>
       </c>
-      <c r="B203" s="23" t="s">
+      <c r="B203" t="s">
         <v>40</v>
       </c>
       <c r="C203" t="s">
@@ -8176,11 +8176,11 @@
         <v>59.050356999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" s="17">
         <v>2024</v>
       </c>
-      <c r="B204" s="23" t="s">
+      <c r="B204" t="s">
         <v>40</v>
       </c>
       <c r="C204" t="s">
@@ -8202,11 +8202,11 @@
         <v>59.139355999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" s="17">
         <v>2024</v>
       </c>
-      <c r="B205" s="23" t="s">
+      <c r="B205" t="s">
         <v>40</v>
       </c>
       <c r="C205" t="s">
@@ -8228,11 +8228,11 @@
         <v>59.585008000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" s="17">
         <v>2024</v>
       </c>
-      <c r="B206" s="23" t="s">
+      <c r="B206" t="s">
         <v>40</v>
       </c>
       <c r="C206" t="s">
@@ -8254,11 +8254,11 @@
         <v>59.135238999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" s="17">
         <v>2024</v>
       </c>
-      <c r="B207" s="23" t="s">
+      <c r="B207" t="s">
         <v>40</v>
       </c>
       <c r="C207" t="s">
@@ -8280,11 +8280,11 @@
         <v>59.218800999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" s="17">
         <v>2024</v>
       </c>
-      <c r="B208" s="23" t="s">
+      <c r="B208" t="s">
         <v>40</v>
       </c>
       <c r="C208" t="s">
@@ -8306,11 +8306,11 @@
         <v>59.390796999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" s="17">
         <v>2024</v>
       </c>
-      <c r="B209" s="23" t="s">
+      <c r="B209" t="s">
         <v>40</v>
       </c>
       <c r="C209" t="s">
@@ -8332,11 +8332,11 @@
         <v>59.221215000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" s="17">
         <v>2024</v>
       </c>
-      <c r="B210" s="23" t="s">
+      <c r="B210" t="s">
         <v>40</v>
       </c>
       <c r="C210" t="s">
@@ -8358,11 +8358,11 @@
         <v>59.271692000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" s="17">
         <v>2024</v>
       </c>
-      <c r="B211" s="23" t="s">
+      <c r="B211" t="s">
         <v>40</v>
       </c>
       <c r="C211" t="s">
@@ -8384,11 +8384,11 @@
         <v>59.165526999999997</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" s="17">
         <v>2024</v>
       </c>
-      <c r="B212" s="23" t="s">
+      <c r="B212" t="s">
         <v>42</v>
       </c>
       <c r="C212" t="s">
@@ -8410,11 +8410,11 @@
         <v>59.492139000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" s="17">
         <v>2024</v>
       </c>
-      <c r="B213" s="23" t="s">
+      <c r="B213" t="s">
         <v>42</v>
       </c>
       <c r="C213" t="s">
@@ -8436,11 +8436,11 @@
         <v>59.050356999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" s="17">
         <v>2024</v>
       </c>
-      <c r="B214" s="23" t="s">
+      <c r="B214" t="s">
         <v>42</v>
       </c>
       <c r="C214" t="s">
@@ -8462,11 +8462,11 @@
         <v>59.139355999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" s="17">
         <v>2024</v>
       </c>
-      <c r="B215" s="23" t="s">
+      <c r="B215" t="s">
         <v>42</v>
       </c>
       <c r="C215" t="s">
@@ -8488,11 +8488,11 @@
         <v>59.585008000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" s="17">
         <v>2024</v>
       </c>
-      <c r="B216" s="23" t="s">
+      <c r="B216" t="s">
         <v>42</v>
       </c>
       <c r="C216" t="s">
@@ -8514,11 +8514,11 @@
         <v>59.135238999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" s="17">
         <v>2024</v>
       </c>
-      <c r="B217" s="23" t="s">
+      <c r="B217" t="s">
         <v>42</v>
       </c>
       <c r="C217" t="s">
@@ -8540,11 +8540,11 @@
         <v>59.218800999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" s="17">
         <v>2024</v>
       </c>
-      <c r="B218" s="23" t="s">
+      <c r="B218" t="s">
         <v>42</v>
       </c>
       <c r="C218" t="s">
@@ -8566,11 +8566,11 @@
         <v>59.390796999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" s="17">
         <v>2024</v>
       </c>
-      <c r="B219" s="23" t="s">
+      <c r="B219" t="s">
         <v>42</v>
       </c>
       <c r="C219" t="s">
@@ -8592,11 +8592,11 @@
         <v>59.221215000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" s="17">
         <v>2024</v>
       </c>
-      <c r="B220" s="23" t="s">
+      <c r="B220" t="s">
         <v>42</v>
       </c>
       <c r="C220" t="s">
@@ -8618,11 +8618,11 @@
         <v>59.271692000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" s="17">
         <v>2024</v>
       </c>
-      <c r="B221" s="23" t="s">
+      <c r="B221" t="s">
         <v>42</v>
       </c>
       <c r="C221" t="s">
@@ -8644,11 +8644,11 @@
         <v>59.165526999999997</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" s="17">
         <v>2024</v>
       </c>
-      <c r="B222" s="23" t="s">
+      <c r="B222" t="s">
         <v>44</v>
       </c>
       <c r="C222" t="s">
@@ -8670,11 +8670,11 @@
         <v>59.492139000000002</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" s="17">
         <v>2024</v>
       </c>
-      <c r="B223" s="23" t="s">
+      <c r="B223" t="s">
         <v>44</v>
       </c>
       <c r="C223" t="s">
@@ -8696,11 +8696,11 @@
         <v>59.050356999999998</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" s="17">
         <v>2024</v>
       </c>
-      <c r="B224" s="23" t="s">
+      <c r="B224" t="s">
         <v>44</v>
       </c>
       <c r="C224" t="s">
@@ -8722,11 +8722,11 @@
         <v>59.139355999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225" s="17">
         <v>2024</v>
       </c>
-      <c r="B225" s="23" t="s">
+      <c r="B225" t="s">
         <v>44</v>
       </c>
       <c r="C225" t="s">
@@ -8748,11 +8748,11 @@
         <v>59.585008000000002</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" s="17">
         <v>2024</v>
       </c>
-      <c r="B226" s="23" t="s">
+      <c r="B226" t="s">
         <v>44</v>
       </c>
       <c r="C226" t="s">
@@ -8774,11 +8774,11 @@
         <v>59.135238999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" s="17">
         <v>2024</v>
       </c>
-      <c r="B227" s="23" t="s">
+      <c r="B227" t="s">
         <v>44</v>
       </c>
       <c r="C227" t="s">
@@ -8800,11 +8800,11 @@
         <v>59.218800999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" s="17">
         <v>2024</v>
       </c>
-      <c r="B228" s="23" t="s">
+      <c r="B228" t="s">
         <v>44</v>
       </c>
       <c r="C228" t="s">
@@ -8826,11 +8826,11 @@
         <v>59.390796999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229" s="17">
         <v>2024</v>
       </c>
-      <c r="B229" s="23" t="s">
+      <c r="B229" t="s">
         <v>44</v>
       </c>
       <c r="C229" t="s">
@@ -8852,11 +8852,11 @@
         <v>59.221215000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230" s="17">
         <v>2024</v>
       </c>
-      <c r="B230" s="23" t="s">
+      <c r="B230" t="s">
         <v>44</v>
       </c>
       <c r="C230" t="s">
@@ -8878,11 +8878,11 @@
         <v>59.271692000000002</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" s="17">
         <v>2024</v>
       </c>
-      <c r="B231" s="23" t="s">
+      <c r="B231" t="s">
         <v>44</v>
       </c>
       <c r="C231" t="s">
@@ -8904,11 +8904,11 @@
         <v>59.165526999999997</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232">
         <v>2024</v>
       </c>
-      <c r="B232" s="23">
+      <c r="B232">
         <v>12</v>
       </c>
       <c r="C232" t="s">
@@ -8930,11 +8930,11 @@
         <v>59.492139000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233">
         <v>2024</v>
       </c>
-      <c r="B233" s="23">
+      <c r="B233">
         <v>12</v>
       </c>
       <c r="C233" t="s">
@@ -8956,11 +8956,11 @@
         <v>59.050356999999998</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234">
         <v>2024</v>
       </c>
-      <c r="B234" s="23">
+      <c r="B234">
         <v>12</v>
       </c>
       <c r="C234" t="s">
@@ -8982,11 +8982,11 @@
         <v>59.139355999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235">
         <v>2024</v>
       </c>
-      <c r="B235" s="23">
+      <c r="B235">
         <v>12</v>
       </c>
       <c r="C235" t="s">
@@ -9008,11 +9008,11 @@
         <v>59.585008000000002</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236">
         <v>2024</v>
       </c>
-      <c r="B236" s="23">
+      <c r="B236">
         <v>12</v>
       </c>
       <c r="C236" t="s">
@@ -9034,11 +9034,11 @@
         <v>59.135238999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237">
         <v>2024</v>
       </c>
-      <c r="B237" s="23">
+      <c r="B237">
         <v>12</v>
       </c>
       <c r="C237" t="s">
@@ -9060,11 +9060,11 @@
         <v>59.218800999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238">
         <v>2024</v>
       </c>
-      <c r="B238" s="23">
+      <c r="B238">
         <v>12</v>
       </c>
       <c r="C238" t="s">
@@ -9086,11 +9086,11 @@
         <v>59.390796999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239">
         <v>2024</v>
       </c>
-      <c r="B239" s="23">
+      <c r="B239">
         <v>12</v>
       </c>
       <c r="C239" t="s">
@@ -9112,11 +9112,11 @@
         <v>59.221215000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240">
         <v>2024</v>
       </c>
-      <c r="B240" s="23">
+      <c r="B240">
         <v>12</v>
       </c>
       <c r="C240" t="s">
@@ -9138,11 +9138,11 @@
         <v>59.271692000000002</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241">
         <v>2024</v>
       </c>
-      <c r="B241" s="23">
+      <c r="B241">
         <v>12</v>
       </c>
       <c r="C241" t="s">
@@ -9164,11 +9164,11 @@
         <v>59.165526999999997</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8">
       <c r="A242">
         <v>2025</v>
       </c>
-      <c r="B242" s="23">
+      <c r="B242">
         <v>1</v>
       </c>
       <c r="C242" t="s">
@@ -9190,11 +9190,11 @@
         <v>59.492139000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243">
         <v>2025</v>
       </c>
-      <c r="B243" s="23">
+      <c r="B243">
         <v>1</v>
       </c>
       <c r="C243" t="s">
@@ -9216,11 +9216,11 @@
         <v>59.050356999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8">
       <c r="A244">
         <v>2025</v>
       </c>
-      <c r="B244" s="23">
+      <c r="B244">
         <v>1</v>
       </c>
       <c r="C244" t="s">
@@ -9242,11 +9242,11 @@
         <v>59.139355999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245">
         <v>2025</v>
       </c>
-      <c r="B245" s="23">
+      <c r="B245">
         <v>1</v>
       </c>
       <c r="C245" t="s">
@@ -9268,11 +9268,11 @@
         <v>59.585008000000002</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8">
       <c r="A246">
         <v>2025</v>
       </c>
-      <c r="B246" s="23">
+      <c r="B246">
         <v>1</v>
       </c>
       <c r="C246" t="s">
@@ -9294,11 +9294,11 @@
         <v>59.135238999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>2025</v>
       </c>
-      <c r="B247" s="23">
+      <c r="B247">
         <v>1</v>
       </c>
       <c r="C247" t="s">
@@ -9320,11 +9320,11 @@
         <v>59.218800999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248">
         <v>2025</v>
       </c>
-      <c r="B248" s="23">
+      <c r="B248">
         <v>1</v>
       </c>
       <c r="C248" t="s">
@@ -9346,11 +9346,11 @@
         <v>59.390796999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8">
       <c r="A249">
         <v>2025</v>
       </c>
-      <c r="B249" s="23">
+      <c r="B249">
         <v>1</v>
       </c>
       <c r="C249" t="s">
@@ -9372,11 +9372,11 @@
         <v>59.221215000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8">
       <c r="A250">
         <v>2025</v>
       </c>
-      <c r="B250" s="23">
+      <c r="B250">
         <v>1</v>
       </c>
       <c r="C250" t="s">
@@ -9398,11 +9398,11 @@
         <v>59.165526999999997</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8">
       <c r="A251">
         <v>2025</v>
       </c>
-      <c r="B251" s="23">
+      <c r="B251">
         <v>1</v>
       </c>
       <c r="C251" t="s">
@@ -9424,11 +9424,11 @@
         <v>59.271692000000002</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8">
       <c r="A252">
         <v>2025</v>
       </c>
-      <c r="B252" s="24">
+      <c r="B252" s="2">
         <v>2</v>
       </c>
       <c r="C252" s="2" t="s">
@@ -9450,11 +9450,11 @@
         <v>59.492139000000002</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8">
       <c r="A253">
         <v>2025</v>
       </c>
-      <c r="B253" s="24">
+      <c r="B253" s="2">
         <v>2</v>
       </c>
       <c r="C253" s="2" t="s">
@@ -9476,11 +9476,11 @@
         <v>59.050356999999998</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8">
       <c r="A254">
         <v>2025</v>
       </c>
-      <c r="B254" s="24">
+      <c r="B254" s="2">
         <v>2</v>
       </c>
       <c r="C254" s="2" t="s">
@@ -9502,11 +9502,11 @@
         <v>59.139355999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8">
       <c r="A255">
         <v>2025</v>
       </c>
-      <c r="B255" s="24">
+      <c r="B255" s="2">
         <v>2</v>
       </c>
       <c r="C255" s="2" t="s">
@@ -9528,11 +9528,11 @@
         <v>59.585008000000002</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8">
       <c r="A256">
         <v>2025</v>
       </c>
-      <c r="B256" s="24">
+      <c r="B256" s="2">
         <v>2</v>
       </c>
       <c r="C256" s="2" t="s">
@@ -9554,11 +9554,11 @@
         <v>59.135238999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8">
       <c r="A257">
         <v>2025</v>
       </c>
-      <c r="B257" s="24">
+      <c r="B257" s="2">
         <v>2</v>
       </c>
       <c r="C257" s="2" t="s">
@@ -9580,11 +9580,11 @@
         <v>59.218800999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8">
       <c r="A258">
         <v>2025</v>
       </c>
-      <c r="B258" s="24">
+      <c r="B258" s="2">
         <v>2</v>
       </c>
       <c r="C258" s="2" t="s">
@@ -9606,11 +9606,11 @@
         <v>59.390796999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8">
       <c r="A259">
         <v>2025</v>
       </c>
-      <c r="B259" s="24">
+      <c r="B259" s="2">
         <v>2</v>
       </c>
       <c r="C259" s="2" t="s">
@@ -9632,11 +9632,11 @@
         <v>59.221215000000001</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260">
         <v>2025</v>
       </c>
-      <c r="B260" s="24">
+      <c r="B260" s="2">
         <v>2</v>
       </c>
       <c r="C260" s="2" t="s">
@@ -9658,11 +9658,11 @@
         <v>59.165526999999997</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8">
       <c r="A261">
         <v>2025</v>
       </c>
-      <c r="B261" s="24">
+      <c r="B261" s="2">
         <v>2</v>
       </c>
       <c r="C261" s="2" t="s">
@@ -9684,11 +9684,11 @@
         <v>59.271692000000002</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8">
       <c r="A262">
         <v>2025</v>
       </c>
-      <c r="B262" s="23">
+      <c r="B262">
         <v>3</v>
       </c>
       <c r="C262" t="s">
@@ -9710,11 +9710,11 @@
         <v>59.492139000000002</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8">
       <c r="A263">
         <v>2025</v>
       </c>
-      <c r="B263" s="23">
+      <c r="B263">
         <v>3</v>
       </c>
       <c r="C263" t="s">
@@ -9736,11 +9736,11 @@
         <v>59.050356999999998</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8">
       <c r="A264">
         <v>2025</v>
       </c>
-      <c r="B264" s="23">
+      <c r="B264">
         <v>3</v>
       </c>
       <c r="C264" t="s">
@@ -9762,11 +9762,11 @@
         <v>59.139355999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8">
       <c r="A265">
         <v>2025</v>
       </c>
-      <c r="B265" s="23">
+      <c r="B265">
         <v>3</v>
       </c>
       <c r="C265" t="s">
@@ -9788,11 +9788,11 @@
         <v>59.585008000000002</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8">
       <c r="A266">
         <v>2025</v>
       </c>
-      <c r="B266" s="23">
+      <c r="B266">
         <v>3</v>
       </c>
       <c r="C266" t="s">
@@ -9814,11 +9814,11 @@
         <v>59.135238999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8">
       <c r="A267">
         <v>2025</v>
       </c>
-      <c r="B267" s="23">
+      <c r="B267">
         <v>3</v>
       </c>
       <c r="C267" t="s">
@@ -9840,11 +9840,11 @@
         <v>59.218800999999999</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268">
         <v>2025</v>
       </c>
-      <c r="B268" s="23">
+      <c r="B268">
         <v>3</v>
       </c>
       <c r="C268" t="s">
@@ -9866,11 +9866,11 @@
         <v>59.390796999999999</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269">
         <v>2025</v>
       </c>
-      <c r="B269" s="23">
+      <c r="B269">
         <v>3</v>
       </c>
       <c r="C269" t="s">
@@ -9892,11 +9892,11 @@
         <v>59.221215000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8">
       <c r="A270">
         <v>2025</v>
       </c>
-      <c r="B270" s="23">
+      <c r="B270">
         <v>3</v>
       </c>
       <c r="C270" t="s">
@@ -9918,11 +9918,11 @@
         <v>59.165526999999997</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8">
       <c r="A271">
         <v>2025</v>
       </c>
-      <c r="B271" s="23">
+      <c r="B271">
         <v>3</v>
       </c>
       <c r="C271" t="s">
@@ -9944,11 +9944,11 @@
         <v>59.271692000000002</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8">
       <c r="A272">
         <v>2025</v>
       </c>
-      <c r="B272" s="23">
+      <c r="B272">
         <v>4</v>
       </c>
       <c r="C272" t="s">
@@ -9970,11 +9970,11 @@
         <v>59.492139000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8">
       <c r="A273">
         <v>2025</v>
       </c>
-      <c r="B273" s="23">
+      <c r="B273">
         <v>4</v>
       </c>
       <c r="C273" t="s">
@@ -9996,11 +9996,11 @@
         <v>59.050356999999998</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274">
         <v>2025</v>
       </c>
-      <c r="B274" s="23">
+      <c r="B274">
         <v>4</v>
       </c>
       <c r="C274" t="s">
@@ -10022,11 +10022,11 @@
         <v>59.139355999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8">
       <c r="A275">
         <v>2025</v>
       </c>
-      <c r="B275" s="23">
+      <c r="B275">
         <v>4</v>
       </c>
       <c r="C275" t="s">
@@ -10048,11 +10048,11 @@
         <v>59.585008000000002</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8">
       <c r="A276">
         <v>2025</v>
       </c>
-      <c r="B276" s="23">
+      <c r="B276">
         <v>4</v>
       </c>
       <c r="C276" t="s">
@@ -10074,11 +10074,11 @@
         <v>59.135238999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8">
       <c r="A277">
         <v>2025</v>
       </c>
-      <c r="B277" s="23">
+      <c r="B277">
         <v>4</v>
       </c>
       <c r="C277" t="s">
@@ -10100,11 +10100,11 @@
         <v>59.218800999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8">
       <c r="A278">
         <v>2025</v>
       </c>
-      <c r="B278" s="23">
+      <c r="B278">
         <v>4</v>
       </c>
       <c r="C278" t="s">
@@ -10126,11 +10126,11 @@
         <v>59.390796999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8">
       <c r="A279">
         <v>2025</v>
       </c>
-      <c r="B279" s="23">
+      <c r="B279">
         <v>4</v>
       </c>
       <c r="C279" t="s">
@@ -10152,11 +10152,11 @@
         <v>59.221215000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8">
       <c r="A280">
         <v>2025</v>
       </c>
-      <c r="B280" s="23">
+      <c r="B280">
         <v>4</v>
       </c>
       <c r="C280" t="s">
@@ -10178,11 +10178,11 @@
         <v>59.165526999999997</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>2025</v>
       </c>
-      <c r="B281" s="23">
+      <c r="B281">
         <v>4</v>
       </c>
       <c r="C281" t="s">
@@ -10204,11 +10204,11 @@
         <v>59.271692000000002</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>2025</v>
       </c>
-      <c r="B282" s="23">
+      <c r="B282">
         <v>5</v>
       </c>
       <c r="C282" t="s">
@@ -10230,11 +10230,11 @@
         <v>59.492139000000002</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>2025</v>
       </c>
-      <c r="B283" s="23">
+      <c r="B283">
         <v>5</v>
       </c>
       <c r="C283" t="s">
@@ -10256,11 +10256,11 @@
         <v>59.050356999999998</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>2025</v>
       </c>
-      <c r="B284" s="23">
+      <c r="B284">
         <v>5</v>
       </c>
       <c r="C284" t="s">
@@ -10282,11 +10282,11 @@
         <v>59.139355999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>2025</v>
       </c>
-      <c r="B285" s="23">
+      <c r="B285">
         <v>5</v>
       </c>
       <c r="C285" t="s">
@@ -10308,11 +10308,11 @@
         <v>59.585008000000002</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>2025</v>
       </c>
-      <c r="B286" s="23">
+      <c r="B286">
         <v>5</v>
       </c>
       <c r="C286" t="s">
@@ -10334,11 +10334,11 @@
         <v>59.135238999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>2025</v>
       </c>
-      <c r="B287" s="23">
+      <c r="B287">
         <v>5</v>
       </c>
       <c r="C287" t="s">
@@ -10360,11 +10360,11 @@
         <v>59.218800999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>2025</v>
       </c>
-      <c r="B288" s="23">
+      <c r="B288">
         <v>5</v>
       </c>
       <c r="C288" t="s">
@@ -10386,11 +10386,11 @@
         <v>59.390796999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>2025</v>
       </c>
-      <c r="B289" s="23">
+      <c r="B289">
         <v>5</v>
       </c>
       <c r="C289" t="s">
@@ -10412,11 +10412,11 @@
         <v>59.221215000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>2025</v>
       </c>
-      <c r="B290" s="23">
+      <c r="B290">
         <v>5</v>
       </c>
       <c r="C290" t="s">
@@ -10438,11 +10438,11 @@
         <v>59.165526999999997</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>2025</v>
       </c>
-      <c r="B291" s="23">
+      <c r="B291">
         <v>5</v>
       </c>
       <c r="C291" t="s">
@@ -10461,6 +10461,266 @@
         <v>10.409449</v>
       </c>
       <c r="H291">
+        <v>59.271692000000002</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="20">
+        <v>2025</v>
+      </c>
+      <c r="B292" s="20">
+        <v>6</v>
+      </c>
+      <c r="C292" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D292" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E292" s="20">
+        <v>16984</v>
+      </c>
+      <c r="F292" s="20">
+        <v>16808</v>
+      </c>
+      <c r="G292">
+        <v>10.311612999999999</v>
+      </c>
+      <c r="H292">
+        <v>59.492139000000002</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="20">
+        <v>2025</v>
+      </c>
+      <c r="B293" s="20">
+        <v>6</v>
+      </c>
+      <c r="C293" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D293" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E293" s="20">
+        <v>20989</v>
+      </c>
+      <c r="F293" s="20">
+        <v>21674</v>
+      </c>
+      <c r="G293">
+        <v>10.030742999999999</v>
+      </c>
+      <c r="H293">
+        <v>59.050356999999998</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="20">
+        <v>2025</v>
+      </c>
+      <c r="B294" s="20">
+        <v>6</v>
+      </c>
+      <c r="C294" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D294" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E294" s="20">
+        <v>21283</v>
+      </c>
+      <c r="F294" s="20">
+        <v>21158</v>
+      </c>
+      <c r="G294">
+        <v>9.6586020000000001</v>
+      </c>
+      <c r="H294">
+        <v>59.139355999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="20">
+        <v>2025</v>
+      </c>
+      <c r="B295" s="20">
+        <v>6</v>
+      </c>
+      <c r="C295" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D295" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E295" s="20">
+        <v>11056</v>
+      </c>
+      <c r="F295" s="20">
+        <v>11261</v>
+      </c>
+      <c r="G295">
+        <v>10.205496999999999</v>
+      </c>
+      <c r="H295">
+        <v>59.585008000000002</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="20">
+        <v>2025</v>
+      </c>
+      <c r="B296" s="20">
+        <v>6</v>
+      </c>
+      <c r="C296" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D296" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E296" s="20">
+        <v>31405</v>
+      </c>
+      <c r="F296" s="20">
+        <v>31502</v>
+      </c>
+      <c r="G296">
+        <v>10.22247</v>
+      </c>
+      <c r="H296">
+        <v>59.135238999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="20">
+        <v>2025</v>
+      </c>
+      <c r="B297" s="20">
+        <v>6</v>
+      </c>
+      <c r="C297" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D297" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E297" s="20">
+        <v>17840</v>
+      </c>
+      <c r="F297" s="20">
+        <v>17679</v>
+      </c>
+      <c r="G297">
+        <v>9.6032630000000001</v>
+      </c>
+      <c r="H297">
+        <v>59.218800999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="20">
+        <v>2025</v>
+      </c>
+      <c r="B298" s="20">
+        <v>6</v>
+      </c>
+      <c r="C298" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D298" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E298" s="20">
+        <v>12425</v>
+      </c>
+      <c r="F298" s="20">
+        <v>12360</v>
+      </c>
+      <c r="G298">
+        <v>10.411158</v>
+      </c>
+      <c r="H298">
+        <v>59.390796999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="20">
+        <v>2025</v>
+      </c>
+      <c r="B299" s="20">
+        <v>6</v>
+      </c>
+      <c r="C299" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D299" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E299" s="20">
+        <v>9049</v>
+      </c>
+      <c r="F299" s="20">
+        <v>10029</v>
+      </c>
+      <c r="G299">
+        <v>10.300190000000001</v>
+      </c>
+      <c r="H299">
+        <v>59.221215000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="20">
+        <v>2025</v>
+      </c>
+      <c r="B300" s="20">
+        <v>6</v>
+      </c>
+      <c r="C300" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D300" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E300" s="20">
+        <v>9970</v>
+      </c>
+      <c r="F300" s="20">
+        <v>10578</v>
+      </c>
+      <c r="G300">
+        <v>10.266083</v>
+      </c>
+      <c r="H300">
+        <v>59.165526999999997</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="20">
+        <v>2025</v>
+      </c>
+      <c r="B301" s="20">
+        <v>6</v>
+      </c>
+      <c r="C301" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D301" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E301" s="20">
+        <v>55072</v>
+      </c>
+      <c r="F301" s="20">
+        <v>55503</v>
+      </c>
+      <c r="G301">
+        <v>10.409449</v>
+      </c>
+      <c r="H301">
         <v>59.271692000000002</v>
       </c>
     </row>
@@ -10486,12 +10746,12 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -10508,7 +10768,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="593" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5FDA6E5-20B8-45B8-9AE5-2F3BD439BDAF}"/>
+  <xr:revisionPtr revIDLastSave="595" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46442180-B3EF-487F-B045-28426812D983}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="60">
   <si>
     <t>Togprodukt</t>
   </si>
@@ -2717,10 +2717,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE9A58E-6281-4D08-BF08-9517A14C48DB}">
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:I311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H301" sqref="H301"/>
+    <sheetView tabSelected="1" topLeftCell="A282" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A311" sqref="A311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -10721,6 +10721,266 @@
         <v>10.409449</v>
       </c>
       <c r="H301">
+        <v>59.271692000000002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302">
+        <v>2025</v>
+      </c>
+      <c r="B302">
+        <v>7</v>
+      </c>
+      <c r="C302" t="s">
+        <v>37</v>
+      </c>
+      <c r="D302" t="s">
+        <v>25</v>
+      </c>
+      <c r="E302">
+        <v>3787</v>
+      </c>
+      <c r="F302">
+        <v>4609</v>
+      </c>
+      <c r="G302">
+        <v>10.311612999999999</v>
+      </c>
+      <c r="H302">
+        <v>59.492139000000002</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303">
+        <v>2025</v>
+      </c>
+      <c r="B303">
+        <v>7</v>
+      </c>
+      <c r="C303" t="s">
+        <v>37</v>
+      </c>
+      <c r="D303" t="s">
+        <v>48</v>
+      </c>
+      <c r="E303">
+        <v>13175</v>
+      </c>
+      <c r="F303">
+        <v>13548</v>
+      </c>
+      <c r="G303">
+        <v>10.030742999999999</v>
+      </c>
+      <c r="H303">
+        <v>59.050356999999998</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304">
+        <v>2025</v>
+      </c>
+      <c r="B304">
+        <v>7</v>
+      </c>
+      <c r="C304" t="s">
+        <v>37</v>
+      </c>
+      <c r="D304" t="s">
+        <v>49</v>
+      </c>
+      <c r="E304">
+        <v>12550</v>
+      </c>
+      <c r="F304">
+        <v>12308</v>
+      </c>
+      <c r="G304">
+        <v>9.6586020000000001</v>
+      </c>
+      <c r="H304">
+        <v>59.139355999999999</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305">
+        <v>2025</v>
+      </c>
+      <c r="B305">
+        <v>7</v>
+      </c>
+      <c r="C305" t="s">
+        <v>37</v>
+      </c>
+      <c r="D305" t="s">
+        <v>50</v>
+      </c>
+      <c r="E305">
+        <v>4199</v>
+      </c>
+      <c r="F305">
+        <v>4069</v>
+      </c>
+      <c r="G305">
+        <v>10.205496999999999</v>
+      </c>
+      <c r="H305">
+        <v>59.585008000000002</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306">
+        <v>2025</v>
+      </c>
+      <c r="B306">
+        <v>7</v>
+      </c>
+      <c r="C306" t="s">
+        <v>37</v>
+      </c>
+      <c r="D306" t="s">
+        <v>51</v>
+      </c>
+      <c r="E306">
+        <v>16577</v>
+      </c>
+      <c r="F306">
+        <v>16577</v>
+      </c>
+      <c r="G306">
+        <v>10.22247</v>
+      </c>
+      <c r="H306">
+        <v>59.135238999999999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307">
+        <v>2025</v>
+      </c>
+      <c r="B307">
+        <v>7</v>
+      </c>
+      <c r="C307" t="s">
+        <v>37</v>
+      </c>
+      <c r="D307" t="s">
+        <v>52</v>
+      </c>
+      <c r="E307">
+        <v>11351</v>
+      </c>
+      <c r="F307">
+        <v>11588</v>
+      </c>
+      <c r="G307">
+        <v>9.6032630000000001</v>
+      </c>
+      <c r="H307">
+        <v>59.218800999999999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308">
+        <v>2025</v>
+      </c>
+      <c r="B308">
+        <v>7</v>
+      </c>
+      <c r="C308" t="s">
+        <v>37</v>
+      </c>
+      <c r="D308" t="s">
+        <v>53</v>
+      </c>
+      <c r="E308">
+        <v>2523</v>
+      </c>
+      <c r="F308">
+        <v>2845</v>
+      </c>
+      <c r="G308">
+        <v>10.411158</v>
+      </c>
+      <c r="H308">
+        <v>59.390796999999999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309">
+        <v>2025</v>
+      </c>
+      <c r="B309">
+        <v>7</v>
+      </c>
+      <c r="C309" t="s">
+        <v>37</v>
+      </c>
+      <c r="D309" t="s">
+        <v>54</v>
+      </c>
+      <c r="E309">
+        <v>11822</v>
+      </c>
+      <c r="F309">
+        <v>12590</v>
+      </c>
+      <c r="G309">
+        <v>10.300190000000001</v>
+      </c>
+      <c r="H309">
+        <v>59.221215000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310">
+        <v>2025</v>
+      </c>
+      <c r="B310">
+        <v>7</v>
+      </c>
+      <c r="C310" t="s">
+        <v>37</v>
+      </c>
+      <c r="D310" t="s">
+        <v>55</v>
+      </c>
+      <c r="E310">
+        <v>6600</v>
+      </c>
+      <c r="F310">
+        <v>6134</v>
+      </c>
+      <c r="G310">
+        <v>10.266083</v>
+      </c>
+      <c r="H310">
+        <v>59.165526999999997</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311">
+        <v>2025</v>
+      </c>
+      <c r="B311">
+        <v>7</v>
+      </c>
+      <c r="C311" t="s">
+        <v>37</v>
+      </c>
+      <c r="D311" t="s">
+        <v>56</v>
+      </c>
+      <c r="E311">
+        <v>13376</v>
+      </c>
+      <c r="F311">
+        <v>13119</v>
+      </c>
+      <c r="G311">
+        <v>10.409449</v>
+      </c>
+      <c r="H311">
         <v>59.271692000000002</v>
       </c>
     </row>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="595" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46442180-B3EF-487F-B045-28426812D983}"/>
+  <xr:revisionPtr revIDLastSave="605" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3C33648-37F2-430F-83A8-9B61A5D586F5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
+    <workbookView xWindow="41010" yWindow="3405" windowWidth="24045" windowHeight="16080" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012-2023" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="60">
   <si>
     <t>Togprodukt</t>
   </si>
@@ -333,7 +333,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -344,10 +344,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -355,6 +353,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -2717,15 +2721,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE9A58E-6281-4D08-BF08-9517A14C48DB}">
-  <dimension ref="A1:I311"/>
+  <dimension ref="A1:I321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A311" sqref="A311"/>
+    <sheetView tabSelected="1" topLeftCell="A270" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F321" sqref="F321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="11.42578125" style="24"/>
     <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="2"/>
     <col min="4" max="4" width="21.5703125" style="2" customWidth="1"/>
@@ -2737,7 +2741,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2755,10 +2759,10 @@
       <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>22</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -2766,22 +2770,22 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>17403.659999999996</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>17177.059999999998</v>
       </c>
       <c r="G2">
@@ -2793,22 +2797,22 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <v>15431.262000000002</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="13">
         <v>15602.469000000003</v>
       </c>
       <c r="G3">
@@ -2820,22 +2824,22 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>18573.163000000004</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>18854.499000000003</v>
       </c>
       <c r="G4">
@@ -2847,22 +2851,22 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>15470.585000000001</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>16275.277999999998</v>
       </c>
       <c r="G5">
@@ -2874,22 +2878,22 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>16981.820000000003</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>16691.791999999998</v>
       </c>
       <c r="G6">
@@ -2901,22 +2905,22 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>16032.897000000003</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>16175.365</v>
       </c>
       <c r="G7">
@@ -2930,22 +2934,22 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>9584.854000000003</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>6570.530999999999</v>
       </c>
       <c r="G8">
@@ -2959,22 +2963,22 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <v>15001.256000000003</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <v>14794.727000000003</v>
       </c>
       <c r="G9">
@@ -2988,22 +2992,22 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>17264.561999999998</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>16974.942000000003</v>
       </c>
       <c r="G10">
@@ -3015,22 +3019,22 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>17725.079999999994</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>18378.989999999998</v>
       </c>
       <c r="G11">
@@ -3042,22 +3046,22 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>18271.003999999997</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>18124.618000000006</v>
       </c>
       <c r="G12">
@@ -3069,22 +3073,22 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="13">
         <v>15497.320000000003</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <v>17134.236999999994</v>
       </c>
       <c r="G13">
@@ -3096,22 +3100,22 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>15739.492</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>17478.281999999999</v>
       </c>
       <c r="G14">
@@ -3123,22 +3127,22 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="13">
         <v>16475.093000000001</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="13">
         <v>19613.519000000008</v>
       </c>
       <c r="G15">
@@ -3150,22 +3154,22 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>16790.627</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>20216.465999999993</v>
       </c>
       <c r="G16">
@@ -3177,22 +3181,22 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="13">
         <v>17965.491000000002</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <v>19585.859</v>
       </c>
       <c r="G17">
@@ -3204,22 +3208,22 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>17303.508000000005</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>19120.779000000002</v>
       </c>
       <c r="G18">
@@ -3231,22 +3235,22 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="13">
         <v>18419.898000000001</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="13">
         <v>18735.228999999996</v>
       </c>
       <c r="G19">
@@ -3258,22 +3262,22 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>10529.396999999997</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>12113.715</v>
       </c>
       <c r="G20">
@@ -3285,22 +3289,22 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B21" s="14" t="s">
+      <c r="A21" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="13">
         <v>17721.540000000008</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="13">
         <v>17036.390000000003</v>
       </c>
       <c r="G21">
@@ -3312,22 +3316,22 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>16133.207999999997</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>16376.688000000002</v>
       </c>
       <c r="G22">
@@ -3339,22 +3343,22 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="13">
         <v>18890.385999999999</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="13">
         <v>18848.862000000005</v>
       </c>
       <c r="G23">
@@ -3366,22 +3370,22 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="11">
         <v>16881.565000000006</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <v>15616.441999999997</v>
       </c>
       <c r="G24">
@@ -3393,22 +3397,22 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="13">
         <v>17415.655999999995</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="13">
         <v>17510.249</v>
       </c>
       <c r="G25">
@@ -3420,22 +3424,22 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="11">
         <v>18894.601000000002</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="11">
         <v>19396.420000000002</v>
       </c>
       <c r="G26">
@@ -3447,22 +3451,22 @@
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="13">
         <v>13340.001999999997</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="13">
         <v>11372.489000000001</v>
       </c>
       <c r="G27">
@@ -3474,22 +3478,22 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <v>17554.716</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <v>17767.667999999998</v>
       </c>
       <c r="G28">
@@ -3501,22 +3505,22 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="13">
         <v>20032.392</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="13">
         <v>19923.162000000004</v>
       </c>
       <c r="G29">
@@ -3528,22 +3532,22 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="11">
         <v>21243.343000000004</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="11">
         <v>20217.152000000002</v>
       </c>
       <c r="G30">
@@ -3555,22 +3559,22 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="13">
         <v>20394.406000000003</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="13">
         <v>19724.633000000005</v>
       </c>
       <c r="G31">
@@ -3582,22 +3586,22 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="11">
         <v>18226.094999999998</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="11">
         <v>17909.260999999999</v>
       </c>
       <c r="G32">
@@ -3609,22 +3613,22 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B33" s="14" t="s">
+      <c r="A33" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="13">
         <v>16978.29</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="13">
         <v>15731.142999999998</v>
       </c>
       <c r="G33">
@@ -3636,22 +3640,22 @@
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="11">
         <v>17393.621999999999</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="11">
         <v>16829.989999999998</v>
       </c>
       <c r="G34">
@@ -3663,22 +3667,22 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B35" s="14" t="s">
+      <c r="A35" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="13">
         <v>17656.744000000002</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="13">
         <v>15861.696000000002</v>
       </c>
       <c r="G35">
@@ -3690,22 +3694,22 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="11">
         <v>18515.464</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="11">
         <v>17373.239000000001</v>
       </c>
       <c r="G36">
@@ -3717,22 +3721,22 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B37" s="14" t="s">
+      <c r="A37" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="13">
         <v>18522.847999999998</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="13">
         <v>17781.706999999995</v>
       </c>
       <c r="G37">
@@ -3744,22 +3748,22 @@
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="11">
         <v>20180.283000000003</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="11">
         <v>20216.315999999999</v>
       </c>
       <c r="G38">
@@ -3771,22 +3775,22 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B39" s="14" t="s">
+      <c r="A39" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="13">
         <v>13812.998000000003</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="13">
         <v>13574.813999999998</v>
       </c>
       <c r="G39">
@@ -3798,22 +3802,22 @@
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B40" s="11" t="s">
+      <c r="A40" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="11">
         <v>19299.116999999995</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="11">
         <v>19129.843000000001</v>
       </c>
       <c r="G40">
@@ -3825,22 +3829,22 @@
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B41" s="14" t="s">
+      <c r="A41" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="13">
         <v>17562.728999999996</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="13">
         <v>17229.805000000008</v>
       </c>
       <c r="G41">
@@ -3852,22 +3856,22 @@
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B42" s="11" t="s">
+      <c r="A42" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="11">
         <v>20321.337000000003</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="11">
         <v>20754.897999999994</v>
       </c>
       <c r="G42">
@@ -3879,22 +3883,22 @@
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B43" s="14" t="s">
+      <c r="A43" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="13">
         <v>18191.475000000006</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="13">
         <v>16968.328999999998</v>
       </c>
       <c r="G43">
@@ -3906,22 +3910,22 @@
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="11">
         <v>18784.802000000003</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="11">
         <v>18729.341</v>
       </c>
       <c r="G44">
@@ -3933,22 +3937,22 @@
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B45" s="14" t="s">
+      <c r="A45" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="13">
         <v>20636.684000000001</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="13">
         <v>18626.182999999997</v>
       </c>
       <c r="G45">
@@ -3960,22 +3964,22 @@
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="11">
         <v>14329.561000000002</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="11">
         <v>9757.5190000000002</v>
       </c>
       <c r="G46">
@@ -3987,22 +3991,22 @@
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B47" s="14" t="s">
+      <c r="A47" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="13">
         <v>19113.870999999999</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F47" s="13">
         <v>17133.224999999999</v>
       </c>
       <c r="G47">
@@ -4014,22 +4018,22 @@
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B48" s="11" t="s">
+      <c r="A48" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="11">
         <v>23710.557999999997</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="11">
         <v>21133.063999999998</v>
       </c>
       <c r="G48">
@@ -4041,22 +4045,22 @@
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B49" s="14" t="s">
+      <c r="A49" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="13">
         <v>23530.459000000003</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="13">
         <v>21374.058999999997</v>
       </c>
       <c r="G49">
@@ -4068,22 +4072,22 @@
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B50" s="11" t="s">
+      <c r="A50" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="11">
         <v>22014.04199999999</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="11">
         <v>21255.716000000008</v>
       </c>
       <c r="G50">
@@ -4095,22 +4099,22 @@
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B51" s="14" t="s">
+      <c r="A51" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="13">
         <v>19299.676999999996</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="13">
         <v>20062.444</v>
       </c>
       <c r="G51">
@@ -4122,22 +4126,22 @@
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B52" s="11" t="s">
+      <c r="A52" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="11">
         <v>19303.536</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="11">
         <v>19147.671000000002</v>
       </c>
       <c r="G52">
@@ -4149,22 +4153,22 @@
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B53" s="14" t="s">
+      <c r="A53" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="13">
         <v>19722.067999999999</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="13">
         <v>20691.950999999997</v>
       </c>
       <c r="G53">
@@ -4176,22 +4180,22 @@
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B54" s="11" t="s">
+      <c r="A54" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="11">
         <v>20221.484</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="11">
         <v>20630.724000000002</v>
       </c>
       <c r="G54">
@@ -4203,22 +4207,22 @@
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B55" s="14" t="s">
+      <c r="A55" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="13">
         <v>22270.287000000004</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="13">
         <v>22109.749000000003</v>
       </c>
       <c r="G55">
@@ -4230,22 +4234,22 @@
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B56" s="11" t="s">
+      <c r="A56" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="11">
         <v>21195.548999999995</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="11">
         <v>22224.383999999998</v>
       </c>
       <c r="G56">
@@ -4257,22 +4261,22 @@
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B57" s="14" t="s">
+      <c r="A57" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="13">
         <v>21388.302</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F57" s="13">
         <v>21167.850999999995</v>
       </c>
       <c r="G57">
@@ -4284,22 +4288,22 @@
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B58" s="11" t="s">
+      <c r="A58" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="11">
         <v>12680.278999999999</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="11">
         <v>11617.185000000001</v>
       </c>
       <c r="G58">
@@ -4311,22 +4315,22 @@
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B59" s="14" t="s">
+      <c r="A59" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="13">
         <v>11397.062000000004</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F59" s="13">
         <v>11341.775000000005</v>
       </c>
       <c r="G59">
@@ -4338,22 +4342,22 @@
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B60" s="11" t="s">
+      <c r="A60" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="11">
         <v>11252.791000000001</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="11">
         <v>11290.382</v>
       </c>
       <c r="G60">
@@ -4365,22 +4369,22 @@
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B61" s="14" t="s">
+      <c r="A61" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="13">
         <v>13113.727000000001</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F61" s="13">
         <v>13500.669999999998</v>
       </c>
       <c r="G61">
@@ -4392,22 +4396,22 @@
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B62" s="11" t="s">
+      <c r="A62" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="11">
         <v>15403.501999999999</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="11">
         <v>13355.066999999999</v>
       </c>
       <c r="G62">
@@ -4419,22 +4423,22 @@
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B63" s="14" t="s">
+      <c r="A63" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B63" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="13">
         <v>10925.186999999998</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F63" s="13">
         <v>12574.347000000002</v>
       </c>
       <c r="G63">
@@ -4446,22 +4450,22 @@
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B64" s="11" t="s">
+      <c r="A64" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="11">
         <v>10316.288999999999</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="11">
         <v>13059.000000000004</v>
       </c>
       <c r="G64">
@@ -4475,22 +4479,22 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B65" s="14" t="s">
+      <c r="A65" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="13">
         <v>5522.1439999999993</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F65" s="13">
         <v>7666.5950000000003</v>
       </c>
       <c r="G65">
@@ -4504,22 +4508,22 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B66" s="11" t="s">
+      <c r="A66" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="11">
         <v>10089.251</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="11">
         <v>10990.215999999999</v>
       </c>
       <c r="G66">
@@ -4533,22 +4537,22 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B67" s="14" t="s">
+      <c r="A67" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B67" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="13">
         <v>10891.928999999998</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F67" s="13">
         <v>11813.324999999997</v>
       </c>
       <c r="G67">
@@ -4560,22 +4564,22 @@
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B68" s="11" t="s">
+      <c r="A68" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="11">
         <v>11861.058000000001</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="11">
         <v>13290.422999999999</v>
       </c>
       <c r="G68">
@@ -4587,22 +4591,22 @@
       <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B69" s="14" t="s">
+      <c r="A69" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B69" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="13">
         <v>12094.032999999996</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F69" s="13">
         <v>12620.657000000003</v>
       </c>
       <c r="G69">
@@ -4614,22 +4618,22 @@
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B70" s="11" t="s">
+      <c r="A70" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="11">
         <v>10091.090999999999</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="11">
         <v>13161.122999999996</v>
       </c>
       <c r="G70">
@@ -4641,22 +4645,22 @@
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B71" s="14" t="s">
+      <c r="A71" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B71" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="13">
         <v>10546.991999999995</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F71" s="13">
         <v>13157.605000000003</v>
       </c>
       <c r="G71">
@@ -4668,22 +4672,22 @@
       <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B72" s="11" t="s">
+      <c r="A72" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="11">
         <v>10925.283999999998</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="11">
         <v>15531.744999999997</v>
       </c>
       <c r="G72">
@@ -4695,22 +4699,22 @@
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B73" s="14" t="s">
+      <c r="A73" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B73" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="13">
         <v>11461.300999999999</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F73" s="13">
         <v>16224.138999999996</v>
       </c>
       <c r="G73">
@@ -4722,22 +4726,22 @@
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B74" s="11" t="s">
+      <c r="A74" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="11">
         <v>11972.827999999998</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="11">
         <v>15817.880999999998</v>
       </c>
       <c r="G74">
@@ -4749,22 +4753,22 @@
       <c r="I74" s="2"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B75" s="14" t="s">
+      <c r="A75" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B75" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E75" s="13">
         <v>12223.186</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F75" s="13">
         <v>18421.411</v>
       </c>
       <c r="G75">
@@ -4776,22 +4780,22 @@
       <c r="I75" s="2"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B76" s="11" t="s">
+      <c r="A76" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E76" s="11">
         <v>12273.871999999999</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76" s="11">
         <v>14660.733999999993</v>
       </c>
       <c r="G76">
@@ -4803,22 +4807,22 @@
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B77" s="14" t="s">
+      <c r="A77" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B77" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D77" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="13">
         <v>10694.581</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F77" s="13">
         <v>10779.816000000001</v>
       </c>
       <c r="G77">
@@ -4830,22 +4834,22 @@
       <c r="I77" s="2"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B78" s="11" t="s">
+      <c r="A78" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E78" s="11">
         <v>26951.393</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F78" s="11">
         <v>26656.360000000008</v>
       </c>
       <c r="G78">
@@ -4857,22 +4861,22 @@
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B79" s="14" t="s">
+      <c r="A79" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E79" s="13">
         <v>24524.912000000004</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F79" s="13">
         <v>24501.018</v>
       </c>
       <c r="G79">
@@ -4884,22 +4888,22 @@
       <c r="I79" s="2"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B80" s="11" t="s">
+      <c r="A80" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B80" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="11">
         <v>29017.516000000014</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F80" s="11">
         <v>29248.806000000004</v>
       </c>
       <c r="G80">
@@ -4911,22 +4915,22 @@
       <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B81" s="14" t="s">
+      <c r="A81" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B81" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D81" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="13">
         <v>25834.431000000004</v>
       </c>
-      <c r="F81" s="15">
+      <c r="F81" s="13">
         <v>24673.643999999997</v>
       </c>
       <c r="G81">
@@ -4938,22 +4942,22 @@
       <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B82" s="11" t="s">
+      <c r="A82" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E82" s="11">
         <v>26042.323999999993</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="11">
         <v>26843.398999999998</v>
       </c>
       <c r="G82">
@@ -4965,22 +4969,22 @@
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B83" s="14" t="s">
+      <c r="A83" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E83" s="13">
         <v>30266.754999999997</v>
       </c>
-      <c r="F83" s="15">
+      <c r="F83" s="13">
         <v>28959.473999999995</v>
       </c>
       <c r="G83">
@@ -4992,22 +4996,22 @@
       <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B84" s="11" t="s">
+      <c r="A84" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E84" s="11">
         <v>16016.841</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F84" s="11">
         <v>13883.338000000002</v>
       </c>
       <c r="G84">
@@ -5019,22 +5023,22 @@
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B85" s="14" t="s">
+      <c r="A85" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D85" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E85" s="13">
         <v>28013.754000000001</v>
       </c>
-      <c r="F85" s="15">
+      <c r="F85" s="13">
         <v>25754.334999999992</v>
       </c>
       <c r="G85">
@@ -5046,22 +5050,22 @@
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B86" s="11" t="s">
+      <c r="A86" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E86" s="11">
         <v>30983.672999999995</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F86" s="11">
         <v>30658.766</v>
       </c>
       <c r="G86">
@@ -5073,22 +5077,22 @@
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B87" s="14" t="s">
+      <c r="A87" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B87" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D87" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E87" s="13">
         <v>31519.802</v>
       </c>
-      <c r="F87" s="15">
+      <c r="F87" s="13">
         <v>30817.454999999994</v>
       </c>
       <c r="G87">
@@ -5100,22 +5104,22 @@
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B88" s="11" t="s">
+      <c r="A88" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B88" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E88" s="11">
         <v>29805.934999999994</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F88" s="11">
         <v>29389.967000000001</v>
       </c>
       <c r="G88">
@@ -5127,22 +5131,22 @@
       <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B89" s="14" t="s">
+      <c r="A89" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B89" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D89" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E89" s="13">
         <v>27716.103999999999</v>
       </c>
-      <c r="F89" s="15">
+      <c r="F89" s="13">
         <v>25629.200999999994</v>
       </c>
       <c r="G89">
@@ -5154,22 +5158,22 @@
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B90" s="11" t="s">
+      <c r="A90" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B90" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E90" s="11">
         <v>25763.435000000005</v>
       </c>
-      <c r="F90" s="12">
+      <c r="F90" s="11">
         <v>24363.922999999999</v>
       </c>
       <c r="G90">
@@ -5181,22 +5185,22 @@
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B91" s="14" t="s">
+      <c r="A91" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B91" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D91" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E91" s="15">
+      <c r="E91" s="13">
         <v>27941.672999999995</v>
       </c>
-      <c r="F91" s="15">
+      <c r="F91" s="13">
         <v>26850.266000000003</v>
       </c>
       <c r="G91">
@@ -5208,22 +5212,22 @@
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B92" s="11" t="s">
+      <c r="A92" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E92" s="12">
+      <c r="E92" s="11">
         <v>26994.79</v>
       </c>
-      <c r="F92" s="12">
+      <c r="F92" s="11">
         <v>25129.57</v>
       </c>
       <c r="G92">
@@ -5235,22 +5239,22 @@
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B93" s="14" t="s">
+      <c r="A93" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B93" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="D93" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E93" s="15">
+      <c r="E93" s="13">
         <v>30272.343000000001</v>
       </c>
-      <c r="F93" s="15">
+      <c r="F93" s="13">
         <v>28999.401999999995</v>
       </c>
       <c r="G93">
@@ -5262,22 +5266,22 @@
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B94" s="11" t="s">
+      <c r="A94" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B94" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E94" s="11">
         <v>29028.511000000002</v>
       </c>
-      <c r="F94" s="12">
+      <c r="F94" s="11">
         <v>27694.159000000007</v>
       </c>
       <c r="G94">
@@ -5289,22 +5293,22 @@
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B95" s="14" t="s">
+      <c r="A95" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B95" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C95" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D95" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E95" s="15">
+      <c r="E95" s="13">
         <v>30814.475999999995</v>
       </c>
-      <c r="F95" s="15">
+      <c r="F95" s="13">
         <v>29947.003000000004</v>
       </c>
       <c r="G95">
@@ -5316,22 +5320,22 @@
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B96" s="11" t="s">
+      <c r="A96" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B96" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D96" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E96" s="12">
+      <c r="E96" s="11">
         <v>17674.721999999998</v>
       </c>
-      <c r="F96" s="12">
+      <c r="F96" s="11">
         <v>16357.337999999998</v>
       </c>
       <c r="G96">
@@ -5343,22 +5347,22 @@
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B97" s="14" t="s">
+      <c r="A97" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B97" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E97" s="15">
+      <c r="E97" s="13">
         <v>16296.622999999998</v>
       </c>
-      <c r="F97" s="15">
+      <c r="F97" s="13">
         <v>14469.314</v>
       </c>
       <c r="G97">
@@ -5370,22 +5374,22 @@
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B98" s="11" t="s">
+      <c r="A98" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D98" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E98" s="12">
+      <c r="E98" s="11">
         <v>14463.427000000001</v>
       </c>
-      <c r="F98" s="12">
+      <c r="F98" s="11">
         <v>13652.101999999997</v>
       </c>
       <c r="G98">
@@ -5397,22 +5401,22 @@
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B99" s="14" t="s">
+      <c r="A99" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B99" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C99" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="D99" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E99" s="15">
+      <c r="E99" s="13">
         <v>16556.240999999998</v>
       </c>
-      <c r="F99" s="15">
+      <c r="F99" s="13">
         <v>15102.210999999999</v>
       </c>
       <c r="G99">
@@ -5424,22 +5428,22 @@
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B100" s="11" t="s">
+      <c r="A100" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E100" s="12">
+      <c r="E100" s="11">
         <v>15679.056</v>
       </c>
-      <c r="F100" s="12">
+      <c r="F100" s="11">
         <v>13116.599000000002</v>
       </c>
       <c r="G100">
@@ -5451,22 +5455,22 @@
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B101" s="14" t="s">
+      <c r="A101" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B101" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="C101" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D101" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E101" s="15">
+      <c r="E101" s="13">
         <v>15942.387000000002</v>
       </c>
-      <c r="F101" s="15">
+      <c r="F101" s="13">
         <v>14574.513999999997</v>
       </c>
       <c r="G101">
@@ -5478,22 +5482,22 @@
       <c r="I101" s="2"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B102" s="11" t="s">
+      <c r="A102" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B102" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D102" s="11" t="s">
+      <c r="D102" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E102" s="12">
+      <c r="E102" s="11">
         <v>16333.529999999999</v>
       </c>
-      <c r="F102" s="12">
+      <c r="F102" s="11">
         <v>14660.552</v>
       </c>
       <c r="G102">
@@ -5505,22 +5509,22 @@
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B103" s="14" t="s">
+      <c r="A103" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B103" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C103" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D103" s="14" t="s">
+      <c r="D103" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E103" s="15">
+      <c r="E103" s="13">
         <v>12461.429999999997</v>
       </c>
-      <c r="F103" s="15">
+      <c r="F103" s="13">
         <v>7782.0099999999984</v>
       </c>
       <c r="G103">
@@ -5532,22 +5536,22 @@
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B104" s="11" t="s">
+      <c r="A104" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B104" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D104" s="11" t="s">
+      <c r="D104" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="12">
+      <c r="E104" s="11">
         <v>15359.741000000002</v>
       </c>
-      <c r="F104" s="12">
+      <c r="F104" s="11">
         <v>14259.445999999996</v>
       </c>
       <c r="G104">
@@ -5559,22 +5563,22 @@
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B105" s="14" t="s">
+      <c r="A105" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B105" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D105" s="14" t="s">
+      <c r="D105" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E105" s="15">
+      <c r="E105" s="13">
         <v>17969.771999999997</v>
       </c>
-      <c r="F105" s="15">
+      <c r="F105" s="13">
         <v>14984.602000000001</v>
       </c>
       <c r="G105">
@@ -5586,22 +5590,22 @@
       <c r="I105" s="2"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B106" s="11" t="s">
+      <c r="A106" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D106" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E106" s="12">
+      <c r="E106" s="11">
         <v>18987.434000000001</v>
       </c>
-      <c r="F106" s="12">
+      <c r="F106" s="11">
         <v>16232.174999999999</v>
       </c>
       <c r="G106">
@@ -5613,22 +5617,22 @@
       <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B107" s="14" t="s">
+      <c r="A107" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B107" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C107" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="D107" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E107" s="15">
+      <c r="E107" s="13">
         <v>18091.618999999999</v>
       </c>
-      <c r="F107" s="15">
+      <c r="F107" s="13">
         <v>16496.016000000003</v>
       </c>
       <c r="G107">
@@ -5640,22 +5644,22 @@
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B108" s="11" t="s">
+      <c r="A108" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D108" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E108" s="12">
+      <c r="E108" s="11">
         <v>16218.726999999997</v>
       </c>
-      <c r="F108" s="12">
+      <c r="F108" s="11">
         <v>16089.221999999998</v>
       </c>
       <c r="G108">
@@ -5667,22 +5671,22 @@
       <c r="I108" s="2"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B109" s="14" t="s">
+      <c r="A109" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B109" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="14" t="s">
+      <c r="C109" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="D109" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E109" s="15">
+      <c r="E109" s="13">
         <v>15939.559000000007</v>
       </c>
-      <c r="F109" s="15">
+      <c r="F109" s="13">
         <v>14471.860999999999</v>
       </c>
       <c r="G109">
@@ -5694,22 +5698,22 @@
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B110" s="11" t="s">
+      <c r="A110" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B110" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C110" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D110" s="11" t="s">
+      <c r="D110" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E110" s="12">
+      <c r="E110" s="11">
         <v>16263.026000000003</v>
       </c>
-      <c r="F110" s="12">
+      <c r="F110" s="11">
         <v>16901.797999999995</v>
       </c>
       <c r="G110">
@@ -5721,22 +5725,22 @@
       <c r="I110" s="2"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B111" s="14" t="s">
+      <c r="A111" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B111" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C111" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="D111" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E111" s="15">
+      <c r="E111" s="13">
         <v>16805.678999999996</v>
       </c>
-      <c r="F111" s="15">
+      <c r="F111" s="13">
         <v>15775.11</v>
       </c>
       <c r="G111">
@@ -5748,22 +5752,22 @@
       <c r="I111" s="2"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B112" s="11" t="s">
+      <c r="A112" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D112" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E112" s="12">
+      <c r="E112" s="11">
         <v>17302.801000000003</v>
       </c>
-      <c r="F112" s="12">
+      <c r="F112" s="11">
         <v>16727.812999999998</v>
       </c>
       <c r="G112">
@@ -5775,22 +5779,22 @@
       <c r="I112" s="2"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B113" s="14" t="s">
+      <c r="A113" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B113" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="C113" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D113" s="14" t="s">
+      <c r="D113" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E113" s="15">
+      <c r="E113" s="13">
         <v>17358.112999999998</v>
       </c>
-      <c r="F113" s="15">
+      <c r="F113" s="13">
         <v>17498.349999999999</v>
       </c>
       <c r="G113">
@@ -5802,22 +5806,22 @@
       <c r="I113" s="2"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B114" s="11" t="s">
+      <c r="A114" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D114" s="11" t="s">
+      <c r="D114" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E114" s="12">
+      <c r="E114" s="11">
         <v>17570.36</v>
       </c>
-      <c r="F114" s="12">
+      <c r="F114" s="11">
         <v>17389.378000000004</v>
       </c>
       <c r="G114">
@@ -5829,22 +5833,22 @@
       <c r="I114" s="2"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B115" s="14" t="s">
+      <c r="A115" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B115" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="C115" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D115" s="14" t="s">
+      <c r="D115" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E115" s="15">
+      <c r="E115" s="13">
         <v>11282.172000000002</v>
       </c>
-      <c r="F115" s="15">
+      <c r="F115" s="13">
         <v>10583.759999999998</v>
       </c>
       <c r="G115">
@@ -5856,22 +5860,22 @@
       <c r="I115" s="2"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B116" s="11" t="s">
+      <c r="A116" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D116" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E116" s="12">
+      <c r="E116" s="11">
         <v>12707.752999999997</v>
       </c>
-      <c r="F116" s="12">
+      <c r="F116" s="11">
         <v>14043.407000000001</v>
       </c>
       <c r="G116">
@@ -5883,22 +5887,22 @@
       <c r="I116" s="2"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B117" s="14" t="s">
+      <c r="A117" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B117" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C117" s="14" t="s">
+      <c r="C117" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D117" s="14" t="s">
+      <c r="D117" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E117" s="15">
+      <c r="E117" s="13">
         <v>11761.259</v>
       </c>
-      <c r="F117" s="15">
+      <c r="F117" s="13">
         <v>12703.800000000001</v>
       </c>
       <c r="G117">
@@ -5910,22 +5914,22 @@
       <c r="I117" s="2"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B118" s="11" t="s">
+      <c r="A118" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B118" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="D118" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E118" s="12">
+      <c r="E118" s="11">
         <v>14658.205000000004</v>
       </c>
-      <c r="F118" s="12">
+      <c r="F118" s="11">
         <v>15112.570000000002</v>
       </c>
       <c r="G118">
@@ -5937,22 +5941,22 @@
       <c r="I118" s="2"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B119" s="14" t="s">
+      <c r="A119" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B119" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C119" s="14" t="s">
+      <c r="C119" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="D119" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E119" s="15">
+      <c r="E119" s="13">
         <v>11619.467999999999</v>
       </c>
-      <c r="F119" s="15">
+      <c r="F119" s="13">
         <v>13119.365999999998</v>
       </c>
       <c r="G119">
@@ -5964,22 +5968,22 @@
       <c r="I119" s="2"/>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B120" s="11" t="s">
+      <c r="A120" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B120" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D120" s="11" t="s">
+      <c r="D120" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E120" s="12">
+      <c r="E120" s="11">
         <v>12646.883000000002</v>
       </c>
-      <c r="F120" s="12">
+      <c r="F120" s="11">
         <v>13637.723</v>
       </c>
       <c r="G120">
@@ -5991,22 +5995,22 @@
       <c r="I120" s="2"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B121" s="14" t="s">
+      <c r="A121" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B121" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="C121" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D121" s="14" t="s">
+      <c r="D121" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E121" s="15">
+      <c r="E121" s="13">
         <v>12381.177999999998</v>
       </c>
-      <c r="F121" s="15">
+      <c r="F121" s="13">
         <v>13616.948000000002</v>
       </c>
       <c r="G121">
@@ -6020,22 +6024,22 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B122" s="11" t="s">
+      <c r="A122" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B122" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C122" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E122" s="12">
+      <c r="E122" s="11">
         <v>5968.77</v>
       </c>
-      <c r="F122" s="12">
+      <c r="F122" s="11">
         <v>7605.4089999999978</v>
       </c>
       <c r="G122">
@@ -6049,22 +6053,22 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B123" s="14" t="s">
+      <c r="A123" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B123" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C123" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D123" s="14" t="s">
+      <c r="D123" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E123" s="15">
+      <c r="E123" s="13">
         <v>11304.572000000004</v>
       </c>
-      <c r="F123" s="15">
+      <c r="F123" s="13">
         <v>13521.166999999996</v>
       </c>
       <c r="G123">
@@ -6078,22 +6082,22 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B124" s="11" t="s">
+      <c r="A124" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B124" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C124" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D124" s="11" t="s">
+      <c r="D124" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E124" s="12">
+      <c r="E124" s="11">
         <v>13161.940999999999</v>
       </c>
-      <c r="F124" s="12">
+      <c r="F124" s="11">
         <v>15499.419000000004</v>
       </c>
       <c r="G124">
@@ -6104,22 +6108,22 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B125" s="14" t="s">
+      <c r="A125" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B125" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C125" s="14" t="s">
+      <c r="C125" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E125" s="15">
+      <c r="E125" s="13">
         <v>13422.159999999998</v>
       </c>
-      <c r="F125" s="15">
+      <c r="F125" s="13">
         <v>15240.450999999997</v>
       </c>
       <c r="G125">
@@ -6130,22 +6134,22 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B126" s="11" t="s">
+      <c r="A126" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B126" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C126" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D126" s="11" t="s">
+      <c r="D126" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E126" s="12">
+      <c r="E126" s="11">
         <v>13348.026</v>
       </c>
-      <c r="F126" s="12">
+      <c r="F126" s="11">
         <v>14757.932000000003</v>
       </c>
       <c r="G126">
@@ -6156,22 +6160,22 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B127" s="14" t="s">
+      <c r="A127" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B127" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C127" s="14" t="s">
+      <c r="C127" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="D127" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E127" s="15">
+      <c r="E127" s="13">
         <v>11928.379000000003</v>
       </c>
-      <c r="F127" s="15">
+      <c r="F127" s="13">
         <v>12067.286</v>
       </c>
       <c r="G127">
@@ -6182,22 +6186,22 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B128" s="11" t="s">
+      <c r="A128" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B128" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="C128" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D128" s="11" t="s">
+      <c r="D128" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E128" s="12">
+      <c r="E128" s="11">
         <v>11691.819</v>
       </c>
-      <c r="F128" s="12">
+      <c r="F128" s="11">
         <v>12838.215999999999</v>
       </c>
       <c r="G128">
@@ -6208,22 +6212,22 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B129" s="14" t="s">
+      <c r="A129" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B129" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C129" s="14" t="s">
+      <c r="C129" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D129" s="14" t="s">
+      <c r="D129" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E129" s="15">
+      <c r="E129" s="13">
         <v>12438.783999999996</v>
       </c>
-      <c r="F129" s="15">
+      <c r="F129" s="13">
         <v>13387.033000000001</v>
       </c>
       <c r="G129">
@@ -6234,22 +6238,22 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B130" s="11" t="s">
+      <c r="A130" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B130" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C130" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D130" s="11" t="s">
+      <c r="D130" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E130" s="12">
+      <c r="E130" s="11">
         <v>13062.050999999999</v>
       </c>
-      <c r="F130" s="12">
+      <c r="F130" s="11">
         <v>14134.713999999998</v>
       </c>
       <c r="G130">
@@ -6260,22 +6264,22 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B131" s="14" t="s">
+      <c r="A131" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B131" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C131" s="14" t="s">
+      <c r="C131" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D131" s="14" t="s">
+      <c r="D131" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E131" s="15">
+      <c r="E131" s="13">
         <v>13382.759999999998</v>
       </c>
-      <c r="F131" s="15">
+      <c r="F131" s="13">
         <v>13875.506999999996</v>
       </c>
       <c r="G131">
@@ -6286,22 +6290,22 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B132" s="11" t="s">
+      <c r="A132" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B132" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C132" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D132" s="11" t="s">
+      <c r="D132" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E132" s="12">
+      <c r="E132" s="11">
         <v>11962.442999999997</v>
       </c>
-      <c r="F132" s="12">
+      <c r="F132" s="11">
         <v>13057.563000000002</v>
       </c>
       <c r="G132">
@@ -6312,22 +6316,22 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B133" s="14" t="s">
+      <c r="A133" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B133" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C133" s="14" t="s">
+      <c r="C133" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D133" s="14" t="s">
+      <c r="D133" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E133" s="15">
+      <c r="E133" s="13">
         <v>13465.931000000004</v>
       </c>
-      <c r="F133" s="15">
+      <c r="F133" s="13">
         <v>13531.371999999999</v>
       </c>
       <c r="G133">
@@ -6338,22 +6342,22 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B134" s="11" t="s">
+      <c r="A134" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B134" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C134" s="11" t="s">
+      <c r="C134" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D134" s="11" t="s">
+      <c r="D134" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E134" s="12">
+      <c r="E134" s="11">
         <v>6146.9430000000011</v>
       </c>
-      <c r="F134" s="12">
+      <c r="F134" s="11">
         <v>5644.8899999999994</v>
       </c>
       <c r="G134">
@@ -6364,22 +6368,22 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B135" s="14" t="s">
+      <c r="A135" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B135" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C135" s="14" t="s">
+      <c r="C135" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D135" s="14" t="s">
+      <c r="D135" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E135" s="15">
+      <c r="E135" s="13">
         <v>7776.0119999999988</v>
       </c>
-      <c r="F135" s="15">
+      <c r="F135" s="13">
         <v>6870.0969999999979</v>
       </c>
       <c r="G135">
@@ -6390,22 +6394,22 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B136" s="11" t="s">
+      <c r="A136" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B136" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C136" s="11" t="s">
+      <c r="C136" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D136" s="11" t="s">
+      <c r="D136" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E136" s="12">
+      <c r="E136" s="11">
         <v>6954.4609999999993</v>
       </c>
-      <c r="F136" s="12">
+      <c r="F136" s="11">
         <v>6672.4</v>
       </c>
       <c r="G136">
@@ -6416,22 +6420,22 @@
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B137" s="14" t="s">
+      <c r="A137" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B137" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C137" s="14" t="s">
+      <c r="C137" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D137" s="14" t="s">
+      <c r="D137" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E137" s="15">
+      <c r="E137" s="13">
         <v>8450.3539999999975</v>
       </c>
-      <c r="F137" s="15">
+      <c r="F137" s="13">
         <v>8494.4140000000007</v>
       </c>
       <c r="G137">
@@ -6442,22 +6446,22 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B138" s="11" t="s">
+      <c r="A138" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B138" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C138" s="11" t="s">
+      <c r="C138" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D138" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E138" s="12">
+      <c r="E138" s="11">
         <v>7387.6450000000013</v>
       </c>
-      <c r="F138" s="12">
+      <c r="F138" s="11">
         <v>7180.8900000000012</v>
       </c>
       <c r="G138">
@@ -6468,22 +6472,22 @@
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B139" s="14" t="s">
+      <c r="A139" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B139" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C139" s="14" t="s">
+      <c r="C139" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D139" s="14" t="s">
+      <c r="D139" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E139" s="15">
+      <c r="E139" s="13">
         <v>7952.3369999999986</v>
       </c>
-      <c r="F139" s="15">
+      <c r="F139" s="13">
         <v>7680.9160000000002</v>
       </c>
       <c r="G139">
@@ -6495,22 +6499,22 @@
       <c r="I139" s="2"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B140" s="11" t="s">
+      <c r="A140" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B140" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C140" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="D140" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E140" s="12">
+      <c r="E140" s="11">
         <v>10369.655999999999</v>
       </c>
-      <c r="F140" s="12">
+      <c r="F140" s="11">
         <v>9219.1319999999996</v>
       </c>
       <c r="G140">
@@ -6524,22 +6528,22 @@
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B141" s="14" t="s">
+      <c r="A141" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B141" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C141" s="14" t="s">
+      <c r="C141" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D141" s="14" t="s">
+      <c r="D141" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E141" s="15">
+      <c r="E141" s="13">
         <v>17841.851000000002</v>
       </c>
-      <c r="F141" s="15">
+      <c r="F141" s="13">
         <v>13692.336999999998</v>
       </c>
       <c r="G141">
@@ -6553,22 +6557,22 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B142" s="11" t="s">
+      <c r="A142" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B142" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C142" s="11" t="s">
+      <c r="C142" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D142" s="11" t="s">
+      <c r="D142" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E142" s="12">
+      <c r="E142" s="11">
         <v>10847.431999999999</v>
       </c>
-      <c r="F142" s="12">
+      <c r="F142" s="11">
         <v>9984.4250000000011</v>
       </c>
       <c r="G142">
@@ -6582,22 +6586,22 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B143" s="14" t="s">
+      <c r="A143" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B143" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C143" s="14" t="s">
+      <c r="C143" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D143" s="14" t="s">
+      <c r="D143" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E143" s="15">
+      <c r="E143" s="13">
         <v>9015.0609999999997</v>
       </c>
-      <c r="F143" s="15">
+      <c r="F143" s="13">
         <v>8774.8010000000031</v>
       </c>
       <c r="G143">
@@ -6608,22 +6612,22 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B144" s="11" t="s">
+      <c r="A144" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B144" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C144" s="11" t="s">
+      <c r="C144" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D144" s="11" t="s">
+      <c r="D144" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E144" s="12">
+      <c r="E144" s="11">
         <v>9040.1399999999976</v>
       </c>
-      <c r="F144" s="12">
+      <c r="F144" s="11">
         <v>9047.7110000000011</v>
       </c>
       <c r="G144">
@@ -6634,22 +6638,22 @@
       </c>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B145" s="14" t="s">
+      <c r="A145" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B145" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C145" s="14" t="s">
+      <c r="C145" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D145" s="14" t="s">
+      <c r="D145" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E145" s="15">
+      <c r="E145" s="13">
         <v>8723.9040000000023</v>
       </c>
-      <c r="F145" s="15">
+      <c r="F145" s="13">
         <v>8411.9750000000022</v>
       </c>
       <c r="G145">
@@ -6660,22 +6664,22 @@
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B146" s="11" t="s">
+      <c r="A146" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B146" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="C146" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D146" s="11" t="s">
+      <c r="D146" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E146" s="12">
+      <c r="E146" s="11">
         <v>7944.868999999997</v>
       </c>
-      <c r="F146" s="12">
+      <c r="F146" s="11">
         <v>6731.1900000000023</v>
       </c>
       <c r="G146">
@@ -6686,22 +6690,22 @@
       </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B147" s="14" t="s">
+      <c r="A147" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B147" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C147" s="14" t="s">
+      <c r="C147" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D147" s="14" t="s">
+      <c r="D147" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E147" s="15">
+      <c r="E147" s="13">
         <v>7507.4540000000034</v>
       </c>
-      <c r="F147" s="15">
+      <c r="F147" s="13">
         <v>6413.0840000000007</v>
       </c>
       <c r="G147">
@@ -6712,22 +6716,22 @@
       </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B148" s="11" t="s">
+      <c r="A148" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B148" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C148" s="11" t="s">
+      <c r="C148" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D148" s="11" t="s">
+      <c r="D148" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E148" s="12">
+      <c r="E148" s="11">
         <v>9098.4650000000001</v>
       </c>
-      <c r="F148" s="12">
+      <c r="F148" s="11">
         <v>7579.5519999999997</v>
       </c>
       <c r="G148">
@@ -6738,22 +6742,22 @@
       </c>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B149" s="14" t="s">
+      <c r="A149" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B149" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C149" s="14" t="s">
+      <c r="C149" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D149" s="14" t="s">
+      <c r="D149" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E149" s="15">
+      <c r="E149" s="13">
         <v>9216.851999999999</v>
       </c>
-      <c r="F149" s="15">
+      <c r="F149" s="13">
         <v>7642.1750000000002</v>
       </c>
       <c r="G149">
@@ -6764,22 +6768,22 @@
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B150" s="11" t="s">
+      <c r="A150" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B150" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C150" s="11" t="s">
+      <c r="C150" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D150" s="11" t="s">
+      <c r="D150" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E150" s="12">
+      <c r="E150" s="11">
         <v>8980.0820000000022</v>
       </c>
-      <c r="F150" s="12">
+      <c r="F150" s="11">
         <v>6825.9239999999991</v>
       </c>
       <c r="G150">
@@ -6790,22 +6794,22 @@
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B151" s="14" t="s">
+      <c r="A151" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B151" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C151" s="14" t="s">
+      <c r="C151" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D151" s="14" t="s">
+      <c r="D151" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E151" s="15">
+      <c r="E151" s="13">
         <v>8339.85</v>
       </c>
-      <c r="F151" s="15">
+      <c r="F151" s="13">
         <v>7350.4449999999997</v>
       </c>
       <c r="G151">
@@ -6816,22 +6820,22 @@
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B152" s="11" t="s">
+      <c r="A152" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B152" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C152" s="11" t="s">
+      <c r="C152" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D152" s="11" t="s">
+      <c r="D152" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E152" s="12">
+      <c r="E152" s="11">
         <v>8789.3059999999969</v>
       </c>
-      <c r="F152" s="12">
+      <c r="F152" s="11">
         <v>8153.058</v>
       </c>
       <c r="G152">
@@ -6842,22 +6846,22 @@
       </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B153" s="14" t="s">
+      <c r="A153" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B153" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C153" s="14" t="s">
+      <c r="C153" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D153" s="14" t="s">
+      <c r="D153" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E153" s="15">
+      <c r="E153" s="13">
         <v>6116.2710000000006</v>
       </c>
-      <c r="F153" s="15">
+      <c r="F153" s="13">
         <v>4570.8399999999992</v>
       </c>
       <c r="G153">
@@ -6868,22 +6872,22 @@
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B154" s="11" t="s">
+      <c r="A154" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B154" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C154" s="11" t="s">
+      <c r="C154" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D154" s="11" t="s">
+      <c r="D154" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E154" s="12">
+      <c r="E154" s="11">
         <v>10041.566999999999</v>
       </c>
-      <c r="F154" s="12">
+      <c r="F154" s="11">
         <v>9498.2769999999982</v>
       </c>
       <c r="G154">
@@ -6894,22 +6898,22 @@
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B155" s="14" t="s">
+      <c r="A155" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B155" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C155" s="14" t="s">
+      <c r="C155" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D155" s="14" t="s">
+      <c r="D155" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E155" s="15">
+      <c r="E155" s="13">
         <v>8659.6319999999996</v>
       </c>
-      <c r="F155" s="15">
+      <c r="F155" s="13">
         <v>9004.2619999999988</v>
       </c>
       <c r="G155">
@@ -6920,22 +6924,22 @@
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B156" s="11" t="s">
+      <c r="A156" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B156" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C156" s="11" t="s">
+      <c r="C156" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D156" s="11" t="s">
+      <c r="D156" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E156" s="12">
+      <c r="E156" s="11">
         <v>9624.2999999999975</v>
       </c>
-      <c r="F156" s="12">
+      <c r="F156" s="11">
         <v>10125.352000000003</v>
       </c>
       <c r="G156">
@@ -6946,22 +6950,22 @@
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B157" s="14" t="s">
+      <c r="A157" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B157" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C157" s="14" t="s">
+      <c r="C157" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D157" s="14" t="s">
+      <c r="D157" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E157" s="15">
+      <c r="E157" s="13">
         <v>10769.863999999998</v>
       </c>
-      <c r="F157" s="15">
+      <c r="F157" s="13">
         <v>8484.5349999999999</v>
       </c>
       <c r="G157">
@@ -6972,22 +6976,22 @@
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B158" s="11" t="s">
+      <c r="A158" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B158" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C158" s="11" t="s">
+      <c r="C158" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D158" s="11" t="s">
+      <c r="D158" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E158" s="12">
+      <c r="E158" s="11">
         <v>10119.624000000002</v>
       </c>
-      <c r="F158" s="12">
+      <c r="F158" s="11">
         <v>9170.4509999999991</v>
       </c>
       <c r="G158">
@@ -6998,22 +7002,22 @@
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B159" s="14" t="s">
+      <c r="A159" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B159" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C159" s="14" t="s">
+      <c r="C159" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D159" s="14" t="s">
+      <c r="D159" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E159" s="15">
+      <c r="E159" s="13">
         <v>10185.323000000002</v>
       </c>
-      <c r="F159" s="15">
+      <c r="F159" s="13">
         <v>10494.187999999998</v>
       </c>
       <c r="G159">
@@ -7024,22 +7028,22 @@
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B160" s="11" t="s">
+      <c r="A160" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B160" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C160" s="11" t="s">
+      <c r="C160" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D160" s="11" t="s">
+      <c r="D160" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E160" s="12">
+      <c r="E160" s="11">
         <v>6676.7770000000019</v>
       </c>
-      <c r="F160" s="12">
+      <c r="F160" s="11">
         <v>5838.5339999999997</v>
       </c>
       <c r="G160">
@@ -7050,22 +7054,22 @@
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B161" s="14" t="s">
+      <c r="A161" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B161" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C161" s="14" t="s">
+      <c r="C161" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D161" s="14" t="s">
+      <c r="D161" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E161" s="15">
+      <c r="E161" s="13">
         <v>10857.368000000002</v>
       </c>
-      <c r="F161" s="15">
+      <c r="F161" s="13">
         <v>10482.121999999998</v>
       </c>
       <c r="G161">
@@ -7076,22 +7080,22 @@
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B162" s="11" t="s">
+      <c r="A162" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B162" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C162" s="11" t="s">
+      <c r="C162" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D162" s="11" t="s">
+      <c r="D162" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E162" s="12">
+      <c r="E162" s="11">
         <v>10035.850000000002</v>
       </c>
-      <c r="F162" s="12">
+      <c r="F162" s="11">
         <v>11032.579999999998</v>
       </c>
       <c r="G162">
@@ -7102,22 +7106,22 @@
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B163" s="14" t="s">
+      <c r="A163" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B163" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C163" s="14" t="s">
+      <c r="C163" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D163" s="14" t="s">
+      <c r="D163" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E163" s="15">
+      <c r="E163" s="13">
         <v>10348.186999999998</v>
       </c>
-      <c r="F163" s="15">
+      <c r="F163" s="13">
         <v>9518.7949999999983</v>
       </c>
       <c r="G163">
@@ -7128,22 +7132,22 @@
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B164" s="11" t="s">
+      <c r="A164" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B164" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C164" s="11" t="s">
+      <c r="C164" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D164" s="11" t="s">
+      <c r="D164" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E164" s="12">
+      <c r="E164" s="11">
         <v>9757.5980000000018</v>
       </c>
-      <c r="F164" s="12">
+      <c r="F164" s="11">
         <v>9018.91</v>
       </c>
       <c r="G164">
@@ -7154,22 +7158,22 @@
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B165" s="14" t="s">
+      <c r="A165" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B165" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C165" s="14" t="s">
+      <c r="C165" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D165" s="14" t="s">
+      <c r="D165" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E165" s="15">
+      <c r="E165" s="13">
         <v>8078.7479999999978</v>
       </c>
-      <c r="F165" s="15">
+      <c r="F165" s="13">
         <v>9192.4220000000023</v>
       </c>
       <c r="G165">
@@ -7180,22 +7184,22 @@
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B166" s="11" t="s">
+      <c r="A166" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B166" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C166" s="11" t="s">
+      <c r="C166" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D166" s="11" t="s">
+      <c r="D166" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E166" s="12">
+      <c r="E166" s="11">
         <v>8514.226999999999</v>
       </c>
-      <c r="F166" s="12">
+      <c r="F166" s="11">
         <v>8138.0429999999997</v>
       </c>
       <c r="G166">
@@ -7206,22 +7210,22 @@
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B167" s="14" t="s">
+      <c r="A167" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B167" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C167" s="14" t="s">
+      <c r="C167" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D167" s="14" t="s">
+      <c r="D167" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E167" s="15">
+      <c r="E167" s="13">
         <v>8808.1319999999978</v>
       </c>
-      <c r="F167" s="15">
+      <c r="F167" s="13">
         <v>8324.5209999999988</v>
       </c>
       <c r="G167">
@@ -7232,22 +7236,22 @@
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B168" s="11" t="s">
+      <c r="A168" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B168" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C168" s="11" t="s">
+      <c r="C168" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D168" s="11" t="s">
+      <c r="D168" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E168" s="12">
+      <c r="E168" s="11">
         <v>8774.3539999999994</v>
       </c>
-      <c r="F168" s="12">
+      <c r="F168" s="11">
         <v>8653.9760000000024</v>
       </c>
       <c r="G168">
@@ -7258,22 +7262,22 @@
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B169" s="14" t="s">
+      <c r="A169" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B169" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C169" s="14" t="s">
+      <c r="C169" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D169" s="14" t="s">
+      <c r="D169" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E169" s="15">
+      <c r="E169" s="13">
         <v>9217.8770000000004</v>
       </c>
-      <c r="F169" s="15">
+      <c r="F169" s="13">
         <v>8878.014000000001</v>
       </c>
       <c r="G169">
@@ -7284,22 +7288,22 @@
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B170" s="11" t="s">
+      <c r="A170" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B170" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C170" s="11" t="s">
+      <c r="C170" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D170" s="11" t="s">
+      <c r="D170" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E170" s="12">
+      <c r="E170" s="11">
         <v>9381.3709999999974</v>
       </c>
-      <c r="F170" s="12">
+      <c r="F170" s="11">
         <v>9326.3989999999994</v>
       </c>
       <c r="G170">
@@ -7310,22 +7314,22 @@
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B171" s="14" t="s">
+      <c r="A171" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B171" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C171" s="14" t="s">
+      <c r="C171" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D171" s="14" t="s">
+      <c r="D171" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E171" s="15">
+      <c r="E171" s="13">
         <v>10294.790000000003</v>
       </c>
-      <c r="F171" s="15">
+      <c r="F171" s="13">
         <v>10912.141999999993</v>
       </c>
       <c r="G171">
@@ -7336,22 +7340,22 @@
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B172" s="11" t="s">
+      <c r="A172" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B172" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C172" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D172" s="11" t="s">
+      <c r="D172" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E172" s="12">
+      <c r="E172" s="11">
         <v>7280.5219999999999</v>
       </c>
-      <c r="F172" s="12">
+      <c r="F172" s="11">
         <v>6602.4499999999989</v>
       </c>
       <c r="G172">
@@ -7362,22 +7366,22 @@
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B173" s="14" t="s">
+      <c r="A173" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B173" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C173" s="14" t="s">
+      <c r="C173" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D173" s="14" t="s">
+      <c r="D173" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E173" s="15">
+      <c r="E173" s="13">
         <v>52899.606999999989</v>
       </c>
-      <c r="F173" s="15">
+      <c r="F173" s="13">
         <v>52919.712000000014</v>
       </c>
       <c r="G173">
@@ -7388,22 +7392,22 @@
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B174" s="11" t="s">
+      <c r="A174" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B174" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C174" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D174" s="11" t="s">
+      <c r="D174" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E174" s="12">
+      <c r="E174" s="11">
         <v>48113.856</v>
       </c>
-      <c r="F174" s="12">
+      <c r="F174" s="11">
         <v>48049.942999999992</v>
       </c>
       <c r="G174">
@@ -7414,22 +7418,22 @@
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B175" s="14" t="s">
+      <c r="A175" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B175" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C175" s="14" t="s">
+      <c r="C175" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D175" s="14" t="s">
+      <c r="D175" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E175" s="15">
+      <c r="E175" s="13">
         <v>56888.356</v>
       </c>
-      <c r="F175" s="15">
+      <c r="F175" s="13">
         <v>56953.467000000011</v>
       </c>
       <c r="G175">
@@ -7440,22 +7444,22 @@
       </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B176" s="11" t="s">
+      <c r="A176" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B176" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C176" s="11" t="s">
+      <c r="C176" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D176" s="11" t="s">
+      <c r="D176" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E176" s="12">
+      <c r="E176" s="11">
         <v>48093.260000000009</v>
       </c>
-      <c r="F176" s="12">
+      <c r="F176" s="11">
         <v>47220.203000000009</v>
       </c>
       <c r="G176">
@@ -7466,22 +7470,22 @@
       </c>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B177" s="14" t="s">
+      <c r="A177" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B177" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C177" s="14" t="s">
+      <c r="C177" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D177" s="14" t="s">
+      <c r="D177" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E177" s="15">
+      <c r="E177" s="13">
         <v>51571.553999999996</v>
       </c>
-      <c r="F177" s="15">
+      <c r="F177" s="13">
         <v>52619.728000000003</v>
       </c>
       <c r="G177">
@@ -7492,22 +7496,22 @@
       </c>
     </row>
     <row r="178" spans="1:9">
-      <c r="A178" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B178" s="11" t="s">
+      <c r="A178" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B178" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C178" s="11" t="s">
+      <c r="C178" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D178" s="11" t="s">
+      <c r="D178" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E178" s="12">
+      <c r="E178" s="11">
         <v>52340.88700000001</v>
       </c>
-      <c r="F178" s="12">
+      <c r="F178" s="11">
         <v>51585.494000000013</v>
       </c>
       <c r="G178">
@@ -7521,22 +7525,22 @@
       </c>
     </row>
     <row r="179" spans="1:9">
-      <c r="A179" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B179" s="14" t="s">
+      <c r="A179" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B179" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C179" s="14" t="s">
+      <c r="C179" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D179" s="14" t="s">
+      <c r="D179" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E179" s="15">
+      <c r="E179" s="13">
         <v>32663.896999999997</v>
       </c>
-      <c r="F179" s="15">
+      <c r="F179" s="13">
         <v>24817.495999999999</v>
       </c>
       <c r="G179">
@@ -7550,22 +7554,22 @@
       </c>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B180" s="11" t="s">
+      <c r="A180" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B180" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C180" s="11" t="s">
+      <c r="C180" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D180" s="11" t="s">
+      <c r="D180" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E180" s="12">
+      <c r="E180" s="11">
         <v>49873.981</v>
       </c>
-      <c r="F180" s="12">
+      <c r="F180" s="11">
         <v>48378.202000000005</v>
       </c>
       <c r="G180">
@@ -7579,22 +7583,22 @@
       </c>
     </row>
     <row r="181" spans="1:9">
-      <c r="A181" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B181" s="14" t="s">
+      <c r="A181" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B181" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C181" s="14" t="s">
+      <c r="C181" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D181" s="14" t="s">
+      <c r="D181" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E181" s="15">
+      <c r="E181" s="13">
         <v>53602.29300000002</v>
       </c>
-      <c r="F181" s="15">
+      <c r="F181" s="13">
         <v>55318.448000000004</v>
       </c>
       <c r="G181">
@@ -7605,22 +7609,22 @@
       </c>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B182" s="11" t="s">
+      <c r="A182" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B182" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C182" s="11" t="s">
+      <c r="C182" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D182" s="11" t="s">
+      <c r="D182" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E182" s="12">
+      <c r="E182" s="11">
         <v>55310.753000000004</v>
       </c>
-      <c r="F182" s="12">
+      <c r="F182" s="11">
         <v>56072.572000000015</v>
       </c>
       <c r="G182">
@@ -7631,22 +7635,22 @@
       </c>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B183" s="14" t="s">
+      <c r="A183" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B183" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C183" s="14" t="s">
+      <c r="C183" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D183" s="14" t="s">
+      <c r="D183" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E183" s="15">
+      <c r="E183" s="13">
         <v>55394.875999999997</v>
       </c>
-      <c r="F183" s="15">
+      <c r="F183" s="13">
         <v>55789.756000000016</v>
       </c>
       <c r="G183">
@@ -7657,22 +7661,22 @@
       </c>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B184" s="11" t="s">
+      <c r="A184" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B184" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C184" s="11" t="s">
+      <c r="C184" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D184" s="11" t="s">
+      <c r="D184" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E184" s="12">
+      <c r="E184" s="11">
         <v>47781.125</v>
       </c>
-      <c r="F184" s="12">
+      <c r="F184" s="11">
         <v>50286.493000000002</v>
       </c>
       <c r="G184">
@@ -7683,22 +7687,22 @@
       </c>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B185" s="14" t="s">
+      <c r="A185" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B185" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C185" s="14" t="s">
+      <c r="C185" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D185" s="14" t="s">
+      <c r="D185" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E185" s="15">
+      <c r="E185" s="13">
         <v>44774.534000000007</v>
       </c>
-      <c r="F185" s="15">
+      <c r="F185" s="13">
         <v>47472.925000000017</v>
       </c>
       <c r="G185">
@@ -7709,22 +7713,22 @@
       </c>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B186" s="11" t="s">
+      <c r="A186" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B186" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C186" s="11" t="s">
+      <c r="C186" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D186" s="11" t="s">
+      <c r="D186" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E186" s="12">
+      <c r="E186" s="11">
         <v>47664.486000000012</v>
       </c>
-      <c r="F186" s="12">
+      <c r="F186" s="11">
         <v>51780.555999999997</v>
       </c>
       <c r="G186">
@@ -7735,22 +7739,22 @@
       </c>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B187" s="14" t="s">
+      <c r="A187" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B187" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C187" s="14" t="s">
+      <c r="C187" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D187" s="14" t="s">
+      <c r="D187" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E187" s="15">
+      <c r="E187" s="13">
         <v>46266.164000000004</v>
       </c>
-      <c r="F187" s="15">
+      <c r="F187" s="13">
         <v>55687.869000000006</v>
       </c>
       <c r="G187">
@@ -7761,22 +7765,22 @@
       </c>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B188" s="11" t="s">
+      <c r="A188" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B188" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C188" s="11" t="s">
+      <c r="C188" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D188" s="11" t="s">
+      <c r="D188" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E188" s="12">
+      <c r="E188" s="11">
         <v>50297.75</v>
       </c>
-      <c r="F188" s="12">
+      <c r="F188" s="11">
         <v>52973.094000000005</v>
       </c>
       <c r="G188">
@@ -7787,22 +7791,22 @@
       </c>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B189" s="14" t="s">
+      <c r="A189" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B189" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C189" s="14" t="s">
+      <c r="C189" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D189" s="14" t="s">
+      <c r="D189" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E189" s="15">
+      <c r="E189" s="13">
         <v>48709.713000000011</v>
       </c>
-      <c r="F189" s="15">
+      <c r="F189" s="13">
         <v>53009.49099999998</v>
       </c>
       <c r="G189">
@@ -7813,22 +7817,22 @@
       </c>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B190" s="11" t="s">
+      <c r="A190" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B190" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C190" s="11" t="s">
+      <c r="C190" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D190" s="11" t="s">
+      <c r="D190" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E190" s="12">
+      <c r="E190" s="11">
         <v>55160.091</v>
       </c>
-      <c r="F190" s="12">
+      <c r="F190" s="11">
         <v>55596.718000000008</v>
       </c>
       <c r="G190">
@@ -7839,22 +7843,22 @@
       </c>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B191" s="14" t="s">
+      <c r="A191" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B191" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C191" s="14" t="s">
+      <c r="C191" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D191" s="14" t="s">
+      <c r="D191" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E191" s="15">
+      <c r="E191" s="13">
         <v>35635.683000000012</v>
       </c>
-      <c r="F191" s="15">
+      <c r="F191" s="13">
         <v>31792.357999999997</v>
       </c>
       <c r="G191">
@@ -7865,7 +7869,7 @@
       </c>
     </row>
     <row r="192" spans="1:9">
-      <c r="A192" s="17">
+      <c r="A192" s="22">
         <v>2024</v>
       </c>
       <c r="B192" t="s">
@@ -7877,10 +7881,10 @@
       <c r="D192" t="s">
         <v>25</v>
       </c>
-      <c r="E192" s="17">
+      <c r="E192" s="15">
         <v>18789.020999999997</v>
       </c>
-      <c r="F192" s="17">
+      <c r="F192" s="15">
         <v>18505.593999999997</v>
       </c>
       <c r="G192">
@@ -7891,7 +7895,7 @@
       </c>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="17">
+      <c r="A193" s="22">
         <v>2024</v>
       </c>
       <c r="B193" t="s">
@@ -7903,10 +7907,10 @@
       <c r="D193" t="s">
         <v>48</v>
       </c>
-      <c r="E193" s="17">
+      <c r="E193" s="15">
         <v>20257.911999999993</v>
       </c>
-      <c r="F193" s="17">
+      <c r="F193" s="15">
         <v>20880.127</v>
       </c>
       <c r="G193">
@@ -7917,7 +7921,7 @@
       </c>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="17">
+      <c r="A194" s="22">
         <v>2024</v>
       </c>
       <c r="B194" t="s">
@@ -7929,10 +7933,10 @@
       <c r="D194" t="s">
         <v>49</v>
       </c>
-      <c r="E194" s="17">
+      <c r="E194" s="15">
         <v>20535.07699999999</v>
       </c>
-      <c r="F194" s="17">
+      <c r="F194" s="15">
         <v>20810.712999999989</v>
       </c>
       <c r="G194">
@@ -7943,7 +7947,7 @@
       </c>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="17">
+      <c r="A195" s="22">
         <v>2024</v>
       </c>
       <c r="B195" t="s">
@@ -7955,10 +7959,10 @@
       <c r="D195" t="s">
         <v>50</v>
       </c>
-      <c r="E195" s="17">
+      <c r="E195" s="15">
         <v>12154.948</v>
       </c>
-      <c r="F195" s="17">
+      <c r="F195" s="15">
         <v>12230.609999999997</v>
       </c>
       <c r="G195">
@@ -7969,7 +7973,7 @@
       </c>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="17">
+      <c r="A196" s="22">
         <v>2024</v>
       </c>
       <c r="B196" t="s">
@@ -7981,10 +7985,10 @@
       <c r="D196" t="s">
         <v>51</v>
       </c>
-      <c r="E196" s="17">
+      <c r="E196" s="15">
         <v>31605.749000000003</v>
       </c>
-      <c r="F196" s="17">
+      <c r="F196" s="15">
         <v>31041.086000000007</v>
       </c>
       <c r="G196">
@@ -7995,7 +7999,7 @@
       </c>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="17">
+      <c r="A197" s="22">
         <v>2024</v>
       </c>
       <c r="B197" t="s">
@@ -8007,10 +8011,10 @@
       <c r="D197" t="s">
         <v>52</v>
       </c>
-      <c r="E197" s="17">
+      <c r="E197" s="15">
         <v>16574.036</v>
       </c>
-      <c r="F197" s="17">
+      <c r="F197" s="15">
         <v>16976.095999999994</v>
       </c>
       <c r="G197">
@@ -8021,7 +8025,7 @@
       </c>
     </row>
     <row r="198" spans="1:8">
-      <c r="A198" s="17">
+      <c r="A198" s="22">
         <v>2024</v>
       </c>
       <c r="B198" t="s">
@@ -8033,10 +8037,10 @@
       <c r="D198" t="s">
         <v>53</v>
       </c>
-      <c r="E198" s="17">
+      <c r="E198" s="15">
         <v>13859.484000000004</v>
       </c>
-      <c r="F198" s="17">
+      <c r="F198" s="15">
         <v>14258.957999999995</v>
       </c>
       <c r="G198">
@@ -8047,7 +8051,7 @@
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="17">
+      <c r="A199" s="22">
         <v>2024</v>
       </c>
       <c r="B199" t="s">
@@ -8059,10 +8063,10 @@
       <c r="D199" t="s">
         <v>54</v>
       </c>
-      <c r="E199" s="17">
+      <c r="E199" s="15">
         <v>8544.9649999999983</v>
       </c>
-      <c r="F199" s="17">
+      <c r="F199" s="15">
         <v>8017.3680000000022</v>
       </c>
       <c r="G199">
@@ -8073,7 +8077,7 @@
       </c>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="17">
+      <c r="A200" s="22">
         <v>2024</v>
       </c>
       <c r="B200" t="s">
@@ -8085,10 +8089,10 @@
       <c r="D200" t="s">
         <v>56</v>
       </c>
-      <c r="E200" s="17">
+      <c r="E200" s="15">
         <v>58771.459999999941</v>
       </c>
-      <c r="F200" s="17">
+      <c r="F200" s="15">
         <v>57098.92</v>
       </c>
       <c r="G200">
@@ -8099,7 +8103,7 @@
       </c>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="17">
+      <c r="A201" s="22">
         <v>2024</v>
       </c>
       <c r="B201" t="s">
@@ -8111,10 +8115,10 @@
       <c r="D201" t="s">
         <v>55</v>
       </c>
-      <c r="E201" s="17">
+      <c r="E201" s="15">
         <v>12435.758000000009</v>
       </c>
-      <c r="F201" s="17">
+      <c r="F201" s="15">
         <v>10748.339999999997</v>
       </c>
       <c r="G201">
@@ -8125,7 +8129,7 @@
       </c>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="17">
+      <c r="A202" s="22">
         <v>2024</v>
       </c>
       <c r="B202" t="s">
@@ -8137,10 +8141,10 @@
       <c r="D202" t="s">
         <v>25</v>
       </c>
-      <c r="E202" s="18">
+      <c r="E202" s="16">
         <v>19680.261999999999</v>
       </c>
-      <c r="F202" s="18">
+      <c r="F202" s="16">
         <v>18951.710000000006</v>
       </c>
       <c r="G202">
@@ -8151,7 +8155,7 @@
       </c>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="17">
+      <c r="A203" s="22">
         <v>2024</v>
       </c>
       <c r="B203" t="s">
@@ -8163,10 +8167,10 @@
       <c r="D203" t="s">
         <v>48</v>
       </c>
-      <c r="E203" s="18">
+      <c r="E203" s="16">
         <v>19633.394999999997</v>
       </c>
-      <c r="F203" s="18">
+      <c r="F203" s="16">
         <v>20245.920000000002</v>
       </c>
       <c r="G203">
@@ -8177,7 +8181,7 @@
       </c>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="17">
+      <c r="A204" s="22">
         <v>2024</v>
       </c>
       <c r="B204" t="s">
@@ -8189,10 +8193,10 @@
       <c r="D204" t="s">
         <v>49</v>
       </c>
-      <c r="E204" s="18">
+      <c r="E204" s="16">
         <v>21261.245000000003</v>
       </c>
-      <c r="F204" s="18">
+      <c r="F204" s="16">
         <v>21386.857999999997</v>
       </c>
       <c r="G204">
@@ -8203,7 +8207,7 @@
       </c>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="17">
+      <c r="A205" s="22">
         <v>2024</v>
       </c>
       <c r="B205" t="s">
@@ -8215,10 +8219,10 @@
       <c r="D205" t="s">
         <v>50</v>
       </c>
-      <c r="E205" s="18">
+      <c r="E205" s="16">
         <v>12774.434000000003</v>
       </c>
-      <c r="F205" s="18">
+      <c r="F205" s="16">
         <v>12469.708999999999</v>
       </c>
       <c r="G205">
@@ -8229,7 +8233,7 @@
       </c>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="17">
+      <c r="A206" s="22">
         <v>2024</v>
       </c>
       <c r="B206" t="s">
@@ -8241,10 +8245,10 @@
       <c r="D206" t="s">
         <v>51</v>
       </c>
-      <c r="E206" s="18">
+      <c r="E206" s="16">
         <v>30466.339</v>
       </c>
-      <c r="F206" s="18">
+      <c r="F206" s="16">
         <v>30409.255999999994</v>
       </c>
       <c r="G206">
@@ -8255,7 +8259,7 @@
       </c>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="17">
+      <c r="A207" s="22">
         <v>2024</v>
       </c>
       <c r="B207" t="s">
@@ -8267,10 +8271,10 @@
       <c r="D207" t="s">
         <v>52</v>
       </c>
-      <c r="E207" s="18">
+      <c r="E207" s="16">
         <v>17517.006999999998</v>
       </c>
-      <c r="F207" s="18">
+      <c r="F207" s="16">
         <v>17344.05</v>
       </c>
       <c r="G207">
@@ -8281,7 +8285,7 @@
       </c>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="17">
+      <c r="A208" s="22">
         <v>2024</v>
       </c>
       <c r="B208" t="s">
@@ -8293,10 +8297,10 @@
       <c r="D208" t="s">
         <v>53</v>
       </c>
-      <c r="E208" s="18">
+      <c r="E208" s="16">
         <v>14544.115</v>
       </c>
-      <c r="F208" s="18">
+      <c r="F208" s="16">
         <v>14077.042999999998</v>
       </c>
       <c r="G208">
@@ -8307,7 +8311,7 @@
       </c>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="17">
+      <c r="A209" s="22">
         <v>2024</v>
       </c>
       <c r="B209" t="s">
@@ -8319,10 +8323,10 @@
       <c r="D209" t="s">
         <v>54</v>
       </c>
-      <c r="E209" s="18">
+      <c r="E209" s="16">
         <v>8659.603000000001</v>
       </c>
-      <c r="F209" s="18">
+      <c r="F209" s="16">
         <v>8281.9300000000021</v>
       </c>
       <c r="G209">
@@ -8333,7 +8337,7 @@
       </c>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="17">
+      <c r="A210" s="22">
         <v>2024</v>
       </c>
       <c r="B210" t="s">
@@ -8345,10 +8349,10 @@
       <c r="D210" t="s">
         <v>56</v>
       </c>
-      <c r="E210" s="18">
+      <c r="E210" s="16">
         <v>57423.668999999994</v>
       </c>
-      <c r="F210" s="18">
+      <c r="F210" s="16">
         <v>57182.881999999991</v>
       </c>
       <c r="G210">
@@ -8359,7 +8363,7 @@
       </c>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="17">
+      <c r="A211" s="22">
         <v>2024</v>
       </c>
       <c r="B211" t="s">
@@ -8371,10 +8375,10 @@
       <c r="D211" t="s">
         <v>55</v>
       </c>
-      <c r="E211" s="18">
+      <c r="E211" s="16">
         <v>10128.327999999998</v>
       </c>
-      <c r="F211" s="18">
+      <c r="F211" s="16">
         <v>10825.014999999999</v>
       </c>
       <c r="G211">
@@ -8385,7 +8389,7 @@
       </c>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="17">
+      <c r="A212" s="22">
         <v>2024</v>
       </c>
       <c r="B212" t="s">
@@ -8397,10 +8401,10 @@
       <c r="D212" t="s">
         <v>25</v>
       </c>
-      <c r="E212" s="18">
+      <c r="E212" s="16">
         <v>21018.588000000003</v>
       </c>
-      <c r="F212" s="18">
+      <c r="F212" s="16">
         <v>20359.063999999991</v>
       </c>
       <c r="G212">
@@ -8411,7 +8415,7 @@
       </c>
     </row>
     <row r="213" spans="1:8">
-      <c r="A213" s="17">
+      <c r="A213" s="22">
         <v>2024</v>
       </c>
       <c r="B213" t="s">
@@ -8423,10 +8427,10 @@
       <c r="D213" t="s">
         <v>48</v>
       </c>
-      <c r="E213" s="18">
+      <c r="E213" s="16">
         <v>20607.674000000006</v>
       </c>
-      <c r="F213" s="18">
+      <c r="F213" s="16">
         <v>20675.696000000007</v>
       </c>
       <c r="G213">
@@ -8437,7 +8441,7 @@
       </c>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="17">
+      <c r="A214" s="22">
         <v>2024</v>
       </c>
       <c r="B214" t="s">
@@ -8449,10 +8453,10 @@
       <c r="D214" t="s">
         <v>49</v>
       </c>
-      <c r="E214" s="18">
+      <c r="E214" s="16">
         <v>21147.625999999986</v>
       </c>
-      <c r="F214" s="18">
+      <c r="F214" s="16">
         <v>21701.289999999997</v>
       </c>
       <c r="G214">
@@ -8463,7 +8467,7 @@
       </c>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="17">
+      <c r="A215" s="22">
         <v>2024</v>
       </c>
       <c r="B215" t="s">
@@ -8475,10 +8479,10 @@
       <c r="D215" t="s">
         <v>50</v>
       </c>
-      <c r="E215" s="18">
+      <c r="E215" s="16">
         <v>13096.959000000003</v>
       </c>
-      <c r="F215" s="18">
+      <c r="F215" s="16">
         <v>12383.291999999999</v>
       </c>
       <c r="G215">
@@ -8489,7 +8493,7 @@
       </c>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="17">
+      <c r="A216" s="22">
         <v>2024</v>
       </c>
       <c r="B216" t="s">
@@ -8501,10 +8505,10 @@
       <c r="D216" t="s">
         <v>51</v>
       </c>
-      <c r="E216" s="18">
+      <c r="E216" s="16">
         <v>30079.798000000003</v>
       </c>
-      <c r="F216" s="18">
+      <c r="F216" s="16">
         <v>30817.405999999988</v>
       </c>
       <c r="G216">
@@ -8515,7 +8519,7 @@
       </c>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="17">
+      <c r="A217" s="22">
         <v>2024</v>
       </c>
       <c r="B217" t="s">
@@ -8527,10 +8531,10 @@
       <c r="D217" t="s">
         <v>52</v>
       </c>
-      <c r="E217" s="18">
+      <c r="E217" s="16">
         <v>17772.718000000004</v>
       </c>
-      <c r="F217" s="18">
+      <c r="F217" s="16">
         <v>17844.999000000003</v>
       </c>
       <c r="G217">
@@ -8541,7 +8545,7 @@
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="17">
+      <c r="A218" s="22">
         <v>2024</v>
       </c>
       <c r="B218" t="s">
@@ -8553,10 +8557,10 @@
       <c r="D218" t="s">
         <v>53</v>
       </c>
-      <c r="E218" s="18">
+      <c r="E218" s="16">
         <v>14995.868000000002</v>
       </c>
-      <c r="F218" s="18">
+      <c r="F218" s="16">
         <v>15099.976000000002</v>
       </c>
       <c r="G218">
@@ -8567,7 +8571,7 @@
       </c>
     </row>
     <row r="219" spans="1:8">
-      <c r="A219" s="17">
+      <c r="A219" s="22">
         <v>2024</v>
       </c>
       <c r="B219" t="s">
@@ -8579,10 +8583,10 @@
       <c r="D219" t="s">
         <v>54</v>
       </c>
-      <c r="E219" s="18">
+      <c r="E219" s="16">
         <v>8679.3260000000009</v>
       </c>
-      <c r="F219" s="18">
+      <c r="F219" s="16">
         <v>8306.4229999999952</v>
       </c>
       <c r="G219">
@@ -8593,7 +8597,7 @@
       </c>
     </row>
     <row r="220" spans="1:8">
-      <c r="A220" s="17">
+      <c r="A220" s="22">
         <v>2024</v>
       </c>
       <c r="B220" t="s">
@@ -8605,10 +8609,10 @@
       <c r="D220" t="s">
         <v>56</v>
       </c>
-      <c r="E220" s="18">
+      <c r="E220" s="16">
         <v>58451.88999999997</v>
       </c>
-      <c r="F220" s="18">
+      <c r="F220" s="16">
         <v>57812.345000000001</v>
       </c>
       <c r="G220">
@@ -8619,7 +8623,7 @@
       </c>
     </row>
     <row r="221" spans="1:8">
-      <c r="A221" s="17">
+      <c r="A221" s="22">
         <v>2024</v>
       </c>
       <c r="B221" t="s">
@@ -8631,10 +8635,10 @@
       <c r="D221" t="s">
         <v>55</v>
       </c>
-      <c r="E221" s="18">
+      <c r="E221" s="16">
         <v>11045.914999999997</v>
       </c>
-      <c r="F221" s="18">
+      <c r="F221" s="16">
         <v>10469.111000000001</v>
       </c>
       <c r="G221">
@@ -8645,7 +8649,7 @@
       </c>
     </row>
     <row r="222" spans="1:8">
-      <c r="A222" s="17">
+      <c r="A222" s="22">
         <v>2024</v>
       </c>
       <c r="B222" t="s">
@@ -8657,10 +8661,10 @@
       <c r="D222" t="s">
         <v>25</v>
       </c>
-      <c r="E222" s="18">
+      <c r="E222" s="16">
         <v>18678.017000000003</v>
       </c>
-      <c r="F222" s="18">
+      <c r="F222" s="16">
         <v>18200.701999999997</v>
       </c>
       <c r="G222">
@@ -8671,7 +8675,7 @@
       </c>
     </row>
     <row r="223" spans="1:8">
-      <c r="A223" s="17">
+      <c r="A223" s="22">
         <v>2024</v>
       </c>
       <c r="B223" t="s">
@@ -8683,10 +8687,10 @@
       <c r="D223" t="s">
         <v>48</v>
       </c>
-      <c r="E223" s="18">
+      <c r="E223" s="16">
         <v>19229.685000000001</v>
       </c>
-      <c r="F223" s="18">
+      <c r="F223" s="16">
         <v>19846.914000000004</v>
       </c>
       <c r="G223">
@@ -8697,7 +8701,7 @@
       </c>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224" s="17">
+      <c r="A224" s="22">
         <v>2024</v>
       </c>
       <c r="B224" t="s">
@@ -8709,10 +8713,10 @@
       <c r="D224" t="s">
         <v>49</v>
       </c>
-      <c r="E224" s="18">
+      <c r="E224" s="16">
         <v>20470.824000000001</v>
       </c>
-      <c r="F224" s="18">
+      <c r="F224" s="16">
         <v>20324.272999999997</v>
       </c>
       <c r="G224">
@@ -8723,7 +8727,7 @@
       </c>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" s="17">
+      <c r="A225" s="22">
         <v>2024</v>
       </c>
       <c r="B225" t="s">
@@ -8735,10 +8739,10 @@
       <c r="D225" t="s">
         <v>50</v>
       </c>
-      <c r="E225" s="18">
+      <c r="E225" s="16">
         <v>12038.817000000001</v>
       </c>
-      <c r="F225" s="18">
+      <c r="F225" s="16">
         <v>11982.258999999996</v>
       </c>
       <c r="G225">
@@ -8749,7 +8753,7 @@
       </c>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="17">
+      <c r="A226" s="22">
         <v>2024</v>
       </c>
       <c r="B226" t="s">
@@ -8761,10 +8765,10 @@
       <c r="D226" t="s">
         <v>51</v>
       </c>
-      <c r="E226" s="18">
+      <c r="E226" s="16">
         <v>29853.899999999994</v>
       </c>
-      <c r="F226" s="18">
+      <c r="F226" s="16">
         <v>30027.300000000003</v>
       </c>
       <c r="G226">
@@ -8775,7 +8779,7 @@
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="17">
+      <c r="A227" s="22">
         <v>2024</v>
       </c>
       <c r="B227" t="s">
@@ -8787,10 +8791,10 @@
       <c r="D227" t="s">
         <v>52</v>
       </c>
-      <c r="E227" s="18">
+      <c r="E227" s="16">
         <v>16926.146000000001</v>
       </c>
-      <c r="F227" s="18">
+      <c r="F227" s="16">
         <v>17238.834999999999</v>
       </c>
       <c r="G227">
@@ -8801,7 +8805,7 @@
       </c>
     </row>
     <row r="228" spans="1:8">
-      <c r="A228" s="17">
+      <c r="A228" s="22">
         <v>2024</v>
       </c>
       <c r="B228" t="s">
@@ -8813,10 +8817,10 @@
       <c r="D228" t="s">
         <v>53</v>
       </c>
-      <c r="E228" s="18">
+      <c r="E228" s="16">
         <v>13541.306999999999</v>
       </c>
-      <c r="F228" s="18">
+      <c r="F228" s="16">
         <v>13848.302000000007</v>
       </c>
       <c r="G228">
@@ -8827,7 +8831,7 @@
       </c>
     </row>
     <row r="229" spans="1:8">
-      <c r="A229" s="17">
+      <c r="A229" s="22">
         <v>2024</v>
       </c>
       <c r="B229" t="s">
@@ -8839,10 +8843,10 @@
       <c r="D229" t="s">
         <v>54</v>
       </c>
-      <c r="E229" s="18">
+      <c r="E229" s="16">
         <v>8110.7640000000001</v>
       </c>
-      <c r="F229" s="18">
+      <c r="F229" s="16">
         <v>7868.5959999999986</v>
       </c>
       <c r="G229">
@@ -8853,7 +8857,7 @@
       </c>
     </row>
     <row r="230" spans="1:8">
-      <c r="A230" s="17">
+      <c r="A230" s="22">
         <v>2024</v>
       </c>
       <c r="B230" t="s">
@@ -8865,10 +8869,10 @@
       <c r="D230" t="s">
         <v>56</v>
       </c>
-      <c r="E230" s="18">
+      <c r="E230" s="16">
         <v>55668.460999999996</v>
       </c>
-      <c r="F230" s="18">
+      <c r="F230" s="16">
         <v>55700.029000000024</v>
       </c>
       <c r="G230">
@@ -8879,7 +8883,7 @@
       </c>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" s="17">
+      <c r="A231" s="22">
         <v>2024</v>
       </c>
       <c r="B231" t="s">
@@ -8891,10 +8895,10 @@
       <c r="D231" t="s">
         <v>55</v>
       </c>
-      <c r="E231" s="18">
+      <c r="E231" s="16">
         <v>10275.132000000005</v>
       </c>
-      <c r="F231" s="18">
+      <c r="F231" s="16">
         <v>9397.9740000000056</v>
       </c>
       <c r="G231">
@@ -8905,7 +8909,7 @@
       </c>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232">
+      <c r="A232" s="22">
         <v>2024</v>
       </c>
       <c r="B232">
@@ -8917,10 +8921,10 @@
       <c r="D232" t="s">
         <v>25</v>
       </c>
-      <c r="E232" s="18">
+      <c r="E232" s="16">
         <v>16482.668000000001</v>
       </c>
-      <c r="F232" s="18">
+      <c r="F232" s="16">
         <v>16577.228999999901</v>
       </c>
       <c r="G232">
@@ -8931,7 +8935,7 @@
       </c>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233">
+      <c r="A233" s="22">
         <v>2024</v>
       </c>
       <c r="B233">
@@ -8943,10 +8947,10 @@
       <c r="D233" t="s">
         <v>48</v>
       </c>
-      <c r="E233" s="18">
+      <c r="E233" s="16">
         <v>17293.182999999899</v>
       </c>
-      <c r="F233" s="18">
+      <c r="F233" s="16">
         <v>18764.972000000002</v>
       </c>
       <c r="G233">
@@ -8957,7 +8961,7 @@
       </c>
     </row>
     <row r="234" spans="1:8">
-      <c r="A234">
+      <c r="A234" s="22">
         <v>2024</v>
       </c>
       <c r="B234">
@@ -8969,10 +8973,10 @@
       <c r="D234" t="s">
         <v>49</v>
       </c>
-      <c r="E234" s="18">
+      <c r="E234" s="16">
         <v>18806.705000000002</v>
       </c>
-      <c r="F234" s="18">
+      <c r="F234" s="16">
         <v>19901.514999999999</v>
       </c>
       <c r="G234">
@@ -8983,7 +8987,7 @@
       </c>
     </row>
     <row r="235" spans="1:8">
-      <c r="A235">
+      <c r="A235" s="22">
         <v>2024</v>
       </c>
       <c r="B235">
@@ -8995,10 +8999,10 @@
       <c r="D235" t="s">
         <v>50</v>
       </c>
-      <c r="E235" s="18">
+      <c r="E235" s="16">
         <v>10273.003000000001</v>
       </c>
-      <c r="F235" s="18">
+      <c r="F235" s="16">
         <v>10679.4749999999</v>
       </c>
       <c r="G235">
@@ -9009,7 +9013,7 @@
       </c>
     </row>
     <row r="236" spans="1:8">
-      <c r="A236">
+      <c r="A236" s="22">
         <v>2024</v>
       </c>
       <c r="B236">
@@ -9021,10 +9025,10 @@
       <c r="D236" t="s">
         <v>51</v>
       </c>
-      <c r="E236" s="18">
+      <c r="E236" s="16">
         <v>26917.9209999999</v>
       </c>
-      <c r="F236" s="18">
+      <c r="F236" s="16">
         <v>27833.722000000002</v>
       </c>
       <c r="G236">
@@ -9035,7 +9039,7 @@
       </c>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237">
+      <c r="A237" s="22">
         <v>2024</v>
       </c>
       <c r="B237">
@@ -9047,10 +9051,10 @@
       <c r="D237" t="s">
         <v>52</v>
       </c>
-      <c r="E237" s="18">
+      <c r="E237" s="16">
         <v>16240.01</v>
       </c>
-      <c r="F237" s="18">
+      <c r="F237" s="16">
         <v>17505.763999999901</v>
       </c>
       <c r="G237">
@@ -9061,7 +9065,7 @@
       </c>
     </row>
     <row r="238" spans="1:8">
-      <c r="A238">
+      <c r="A238" s="22">
         <v>2024</v>
       </c>
       <c r="B238">
@@ -9073,10 +9077,10 @@
       <c r="D238" t="s">
         <v>53</v>
       </c>
-      <c r="E238" s="18">
+      <c r="E238" s="16">
         <v>11821.928</v>
       </c>
-      <c r="F238" s="18">
+      <c r="F238" s="16">
         <v>12651.365</v>
       </c>
       <c r="G238">
@@ -9087,7 +9091,7 @@
       </c>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239">
+      <c r="A239" s="22">
         <v>2024</v>
       </c>
       <c r="B239">
@@ -9099,10 +9103,10 @@
       <c r="D239" t="s">
         <v>54</v>
       </c>
-      <c r="E239" s="18">
+      <c r="E239" s="16">
         <v>7336.2380000000003</v>
       </c>
-      <c r="F239" s="18">
+      <c r="F239" s="16">
         <v>7718.1180000000004</v>
       </c>
       <c r="G239">
@@ -9113,7 +9117,7 @@
       </c>
     </row>
     <row r="240" spans="1:8">
-      <c r="A240">
+      <c r="A240" s="22">
         <v>2024</v>
       </c>
       <c r="B240">
@@ -9125,10 +9129,10 @@
       <c r="D240" t="s">
         <v>56</v>
       </c>
-      <c r="E240" s="18">
+      <c r="E240" s="16">
         <v>50535.286</v>
       </c>
-      <c r="F240" s="18">
+      <c r="F240" s="16">
         <v>52165.077999999899</v>
       </c>
       <c r="G240">
@@ -9139,7 +9143,7 @@
       </c>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241">
+      <c r="A241" s="22">
         <v>2024</v>
       </c>
       <c r="B241">
@@ -9151,10 +9155,10 @@
       <c r="D241" t="s">
         <v>55</v>
       </c>
-      <c r="E241" s="18">
+      <c r="E241" s="16">
         <v>9120.6419999999907</v>
       </c>
-      <c r="F241" s="18">
+      <c r="F241" s="16">
         <v>10378.547999999901</v>
       </c>
       <c r="G241">
@@ -9165,7 +9169,7 @@
       </c>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242">
+      <c r="A242" s="22">
         <v>2025</v>
       </c>
       <c r="B242">
@@ -9177,21 +9181,21 @@
       <c r="D242" t="s">
         <v>25</v>
       </c>
-      <c r="E242" s="17">
+      <c r="E242" s="15">
         <v>17644.195</v>
       </c>
-      <c r="F242" s="17">
+      <c r="F242" s="15">
         <v>16513.292000000009</v>
       </c>
-      <c r="G242" s="19">
+      <c r="G242" s="17">
         <v>10.311612999999999</v>
       </c>
-      <c r="H242" s="19">
+      <c r="H242" s="17">
         <v>59.492139000000002</v>
       </c>
     </row>
     <row r="243" spans="1:8">
-      <c r="A243">
+      <c r="A243" s="22">
         <v>2025</v>
       </c>
       <c r="B243">
@@ -9203,21 +9207,21 @@
       <c r="D243" t="s">
         <v>48</v>
       </c>
-      <c r="E243" s="17">
+      <c r="E243" s="15">
         <v>18117.41599999999</v>
       </c>
-      <c r="F243" s="17">
+      <c r="F243" s="15">
         <v>17840.127</v>
       </c>
-      <c r="G243" s="19">
+      <c r="G243" s="17">
         <v>10.030742999999999</v>
       </c>
-      <c r="H243" s="19">
+      <c r="H243" s="17">
         <v>59.050356999999998</v>
       </c>
     </row>
     <row r="244" spans="1:8">
-      <c r="A244">
+      <c r="A244" s="22">
         <v>2025</v>
       </c>
       <c r="B244">
@@ -9229,21 +9233,21 @@
       <c r="D244" t="s">
         <v>49</v>
       </c>
-      <c r="E244" s="17">
+      <c r="E244" s="15">
         <v>19905.754000000001</v>
       </c>
-      <c r="F244" s="17">
+      <c r="F244" s="15">
         <v>19648.217000000004</v>
       </c>
-      <c r="G244" s="19">
+      <c r="G244" s="17">
         <v>9.6586020000000001</v>
       </c>
-      <c r="H244" s="19">
+      <c r="H244" s="17">
         <v>59.139355999999999</v>
       </c>
     </row>
     <row r="245" spans="1:8">
-      <c r="A245">
+      <c r="A245" s="22">
         <v>2025</v>
       </c>
       <c r="B245">
@@ -9255,21 +9259,21 @@
       <c r="D245" t="s">
         <v>50</v>
       </c>
-      <c r="E245" s="17">
+      <c r="E245" s="15">
         <v>11274.463000000009</v>
       </c>
-      <c r="F245" s="17">
+      <c r="F245" s="15">
         <v>10851.671999999993</v>
       </c>
-      <c r="G245" s="19">
+      <c r="G245" s="17">
         <v>10.205496999999999</v>
       </c>
-      <c r="H245" s="19">
+      <c r="H245" s="17">
         <v>59.585008000000002</v>
       </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246">
+      <c r="A246" s="22">
         <v>2025</v>
       </c>
       <c r="B246">
@@ -9281,21 +9285,21 @@
       <c r="D246" t="s">
         <v>51</v>
       </c>
-      <c r="E246" s="17">
+      <c r="E246" s="15">
         <v>27530.24500000001</v>
       </c>
-      <c r="F246" s="17">
+      <c r="F246" s="15">
         <v>27359.103999999988</v>
       </c>
-      <c r="G246" s="19">
+      <c r="G246" s="17">
         <v>10.22247</v>
       </c>
-      <c r="H246" s="19">
+      <c r="H246" s="17">
         <v>59.135238999999999</v>
       </c>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247">
+      <c r="A247" s="22">
         <v>2025</v>
       </c>
       <c r="B247">
@@ -9307,21 +9311,21 @@
       <c r="D247" t="s">
         <v>52</v>
       </c>
-      <c r="E247" s="17">
+      <c r="E247" s="15">
         <v>16124.785000000007</v>
       </c>
-      <c r="F247" s="17">
+      <c r="F247" s="15">
         <v>15649.839000000005</v>
       </c>
-      <c r="G247" s="19">
+      <c r="G247" s="17">
         <v>9.6032630000000001</v>
       </c>
-      <c r="H247" s="19">
+      <c r="H247" s="17">
         <v>59.218800999999999</v>
       </c>
     </row>
     <row r="248" spans="1:8">
-      <c r="A248">
+      <c r="A248" s="22">
         <v>2025</v>
       </c>
       <c r="B248">
@@ -9333,21 +9337,21 @@
       <c r="D248" t="s">
         <v>53</v>
       </c>
-      <c r="E248" s="17">
+      <c r="E248" s="15">
         <v>12593.398000000001</v>
       </c>
-      <c r="F248" s="17">
+      <c r="F248" s="15">
         <v>12355.649999999996</v>
       </c>
-      <c r="G248" s="19">
+      <c r="G248" s="17">
         <v>10.411158</v>
       </c>
-      <c r="H248" s="19">
+      <c r="H248" s="17">
         <v>59.390796999999999</v>
       </c>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249">
+      <c r="A249" s="22">
         <v>2025</v>
       </c>
       <c r="B249">
@@ -9359,21 +9363,21 @@
       <c r="D249" t="s">
         <v>54</v>
       </c>
-      <c r="E249" s="17">
+      <c r="E249" s="15">
         <v>7608.0709999999972</v>
       </c>
-      <c r="F249" s="17">
+      <c r="F249" s="15">
         <v>7119.7860000000019</v>
       </c>
-      <c r="G249" s="19">
+      <c r="G249" s="17">
         <v>10.300190000000001</v>
       </c>
-      <c r="H249" s="19">
+      <c r="H249" s="17">
         <v>59.221215000000001</v>
       </c>
     </row>
     <row r="250" spans="1:8">
-      <c r="A250">
+      <c r="A250" s="22">
         <v>2025</v>
       </c>
       <c r="B250">
@@ -9385,21 +9389,21 @@
       <c r="D250" t="s">
         <v>55</v>
       </c>
-      <c r="E250" s="17">
+      <c r="E250" s="15">
         <v>9860.5919999999987</v>
       </c>
-      <c r="F250" s="17">
+      <c r="F250" s="15">
         <v>8648.8720000000012</v>
       </c>
-      <c r="G250" s="19">
+      <c r="G250" s="17">
         <v>10.266083</v>
       </c>
-      <c r="H250" s="19">
+      <c r="H250" s="17">
         <v>59.165526999999997</v>
       </c>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251">
+      <c r="A251" s="22">
         <v>2025</v>
       </c>
       <c r="B251">
@@ -9411,21 +9415,21 @@
       <c r="D251" t="s">
         <v>56</v>
       </c>
-      <c r="E251" s="17">
+      <c r="E251" s="15">
         <v>51597.320999999967</v>
       </c>
-      <c r="F251" s="17">
+      <c r="F251" s="15">
         <v>51390.414000000012</v>
       </c>
-      <c r="G251" s="19">
+      <c r="G251" s="17">
         <v>10.409449</v>
       </c>
-      <c r="H251" s="19">
+      <c r="H251" s="17">
         <v>59.271692000000002</v>
       </c>
     </row>
     <row r="252" spans="1:8">
-      <c r="A252">
+      <c r="A252" s="22">
         <v>2025</v>
       </c>
       <c r="B252" s="2">
@@ -9443,15 +9447,15 @@
       <c r="F252" s="5">
         <v>16374.893</v>
       </c>
-      <c r="G252" s="19">
+      <c r="G252" s="17">
         <v>10.311612999999999</v>
       </c>
-      <c r="H252" s="19">
+      <c r="H252" s="17">
         <v>59.492139000000002</v>
       </c>
     </row>
     <row r="253" spans="1:8">
-      <c r="A253">
+      <c r="A253" s="22">
         <v>2025</v>
       </c>
       <c r="B253" s="2">
@@ -9469,15 +9473,15 @@
       <c r="F253" s="5">
         <v>17320.465000000018</v>
       </c>
-      <c r="G253" s="19">
+      <c r="G253" s="17">
         <v>10.030742999999999</v>
       </c>
-      <c r="H253" s="19">
+      <c r="H253" s="17">
         <v>59.050356999999998</v>
       </c>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254">
+      <c r="A254" s="22">
         <v>2025</v>
       </c>
       <c r="B254" s="2">
@@ -9495,15 +9499,15 @@
       <c r="F254" s="5">
         <v>18507.474000000017</v>
       </c>
-      <c r="G254" s="19">
+      <c r="G254" s="17">
         <v>9.6586020000000001</v>
       </c>
-      <c r="H254" s="19">
+      <c r="H254" s="17">
         <v>59.139355999999999</v>
       </c>
     </row>
     <row r="255" spans="1:8">
-      <c r="A255">
+      <c r="A255" s="22">
         <v>2025</v>
       </c>
       <c r="B255" s="2">
@@ -9521,15 +9525,15 @@
       <c r="F255" s="5">
         <v>10758.136000000006</v>
       </c>
-      <c r="G255" s="19">
+      <c r="G255" s="17">
         <v>10.205496999999999</v>
       </c>
-      <c r="H255" s="19">
+      <c r="H255" s="17">
         <v>59.585008000000002</v>
       </c>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256">
+      <c r="A256" s="22">
         <v>2025</v>
       </c>
       <c r="B256" s="2">
@@ -9547,15 +9551,15 @@
       <c r="F256" s="5">
         <v>26272.268000000004</v>
       </c>
-      <c r="G256" s="19">
+      <c r="G256" s="17">
         <v>10.22247</v>
       </c>
-      <c r="H256" s="19">
+      <c r="H256" s="17">
         <v>59.135238999999999</v>
       </c>
     </row>
     <row r="257" spans="1:8">
-      <c r="A257">
+      <c r="A257" s="22">
         <v>2025</v>
       </c>
       <c r="B257" s="2">
@@ -9573,15 +9577,15 @@
       <c r="F257" s="5">
         <v>15008.458000000002</v>
       </c>
-      <c r="G257" s="19">
+      <c r="G257" s="17">
         <v>9.6032630000000001</v>
       </c>
-      <c r="H257" s="19">
+      <c r="H257" s="17">
         <v>59.218800999999999</v>
       </c>
     </row>
     <row r="258" spans="1:8">
-      <c r="A258">
+      <c r="A258" s="22">
         <v>2025</v>
       </c>
       <c r="B258" s="2">
@@ -9599,15 +9603,15 @@
       <c r="F258" s="5">
         <v>12069.238000000001</v>
       </c>
-      <c r="G258" s="19">
+      <c r="G258" s="17">
         <v>10.411158</v>
       </c>
-      <c r="H258" s="19">
+      <c r="H258" s="17">
         <v>59.390796999999999</v>
       </c>
     </row>
     <row r="259" spans="1:8">
-      <c r="A259">
+      <c r="A259" s="22">
         <v>2025</v>
       </c>
       <c r="B259" s="2">
@@ -9625,15 +9629,15 @@
       <c r="F259" s="5">
         <v>7117.4910000000036</v>
       </c>
-      <c r="G259" s="19">
+      <c r="G259" s="17">
         <v>10.300190000000001</v>
       </c>
-      <c r="H259" s="19">
+      <c r="H259" s="17">
         <v>59.221215000000001</v>
       </c>
     </row>
     <row r="260" spans="1:8">
-      <c r="A260">
+      <c r="A260" s="22">
         <v>2025</v>
       </c>
       <c r="B260" s="2">
@@ -9651,15 +9655,15 @@
       <c r="F260" s="5">
         <v>8716.7950000000019</v>
       </c>
-      <c r="G260" s="19">
+      <c r="G260" s="17">
         <v>10.266083</v>
       </c>
-      <c r="H260" s="19">
+      <c r="H260" s="17">
         <v>59.165526999999997</v>
       </c>
     </row>
     <row r="261" spans="1:8">
-      <c r="A261">
+      <c r="A261" s="22">
         <v>2025</v>
       </c>
       <c r="B261" s="2">
@@ -9677,15 +9681,15 @@
       <c r="F261" s="5">
         <v>49665.556000000004</v>
       </c>
-      <c r="G261" s="19">
+      <c r="G261" s="17">
         <v>10.409449</v>
       </c>
-      <c r="H261" s="19">
+      <c r="H261" s="17">
         <v>59.271692000000002</v>
       </c>
     </row>
     <row r="262" spans="1:8">
-      <c r="A262">
+      <c r="A262" s="22">
         <v>2025</v>
       </c>
       <c r="B262">
@@ -9697,21 +9701,21 @@
       <c r="D262" t="s">
         <v>25</v>
       </c>
-      <c r="E262" s="17">
+      <c r="E262" s="15">
         <v>19491.976999999999</v>
       </c>
-      <c r="F262" s="17">
+      <c r="F262" s="15">
         <v>18709.88499999998</v>
       </c>
-      <c r="G262" s="19">
+      <c r="G262" s="17">
         <v>10.311612999999999</v>
       </c>
-      <c r="H262" s="19">
+      <c r="H262" s="17">
         <v>59.492139000000002</v>
       </c>
     </row>
     <row r="263" spans="1:8">
-      <c r="A263">
+      <c r="A263" s="22">
         <v>2025</v>
       </c>
       <c r="B263">
@@ -9723,21 +9727,21 @@
       <c r="D263" t="s">
         <v>48</v>
       </c>
-      <c r="E263" s="17">
+      <c r="E263" s="15">
         <v>19651.041999999998</v>
       </c>
-      <c r="F263" s="17">
+      <c r="F263" s="15">
         <v>20193.808999999972</v>
       </c>
-      <c r="G263" s="19">
+      <c r="G263" s="17">
         <v>10.030742999999999</v>
       </c>
-      <c r="H263" s="19">
+      <c r="H263" s="17">
         <v>59.050356999999998</v>
       </c>
     </row>
     <row r="264" spans="1:8">
-      <c r="A264">
+      <c r="A264" s="22">
         <v>2025</v>
       </c>
       <c r="B264">
@@ -9749,21 +9753,21 @@
       <c r="D264" t="s">
         <v>49</v>
       </c>
-      <c r="E264" s="17">
+      <c r="E264" s="15">
         <v>21314.375</v>
       </c>
-      <c r="F264" s="17">
+      <c r="F264" s="15">
         <v>20945.364000000023</v>
       </c>
-      <c r="G264" s="19">
+      <c r="G264" s="17">
         <v>9.6586020000000001</v>
       </c>
-      <c r="H264" s="19">
+      <c r="H264" s="17">
         <v>59.139355999999999</v>
       </c>
     </row>
     <row r="265" spans="1:8">
-      <c r="A265">
+      <c r="A265" s="22">
         <v>2025</v>
       </c>
       <c r="B265">
@@ -9775,21 +9779,21 @@
       <c r="D265" t="s">
         <v>50</v>
       </c>
-      <c r="E265" s="17">
+      <c r="E265" s="15">
         <v>12996.375000000007</v>
       </c>
-      <c r="F265" s="17">
+      <c r="F265" s="15">
         <v>12884.251</v>
       </c>
-      <c r="G265" s="19">
+      <c r="G265" s="17">
         <v>10.205496999999999</v>
       </c>
-      <c r="H265" s="19">
+      <c r="H265" s="17">
         <v>59.585008000000002</v>
       </c>
     </row>
     <row r="266" spans="1:8">
-      <c r="A266">
+      <c r="A266" s="22">
         <v>2025</v>
       </c>
       <c r="B266">
@@ -9801,21 +9805,21 @@
       <c r="D266" t="s">
         <v>51</v>
       </c>
-      <c r="E266" s="17">
+      <c r="E266" s="15">
         <v>30326.65799999997</v>
       </c>
-      <c r="F266" s="17">
+      <c r="F266" s="15">
         <v>30341.715000000018</v>
       </c>
-      <c r="G266" s="19">
+      <c r="G266" s="17">
         <v>10.22247</v>
       </c>
-      <c r="H266" s="19">
+      <c r="H266" s="17">
         <v>59.135238999999999</v>
       </c>
     </row>
     <row r="267" spans="1:8">
-      <c r="A267">
+      <c r="A267" s="22">
         <v>2025</v>
       </c>
       <c r="B267">
@@ -9827,21 +9831,21 @@
       <c r="D267" t="s">
         <v>52</v>
       </c>
-      <c r="E267" s="17">
+      <c r="E267" s="15">
         <v>17063.37100000001</v>
       </c>
-      <c r="F267" s="17">
+      <c r="F267" s="15">
         <v>17125.302000000007</v>
       </c>
-      <c r="G267" s="19">
+      <c r="G267" s="17">
         <v>9.6032630000000001</v>
       </c>
-      <c r="H267" s="19">
+      <c r="H267" s="17">
         <v>59.218800999999999</v>
       </c>
     </row>
     <row r="268" spans="1:8">
-      <c r="A268">
+      <c r="A268" s="22">
         <v>2025</v>
       </c>
       <c r="B268">
@@ -9853,21 +9857,21 @@
       <c r="D268" t="s">
         <v>53</v>
       </c>
-      <c r="E268" s="17">
+      <c r="E268" s="15">
         <v>14339.866000000013</v>
       </c>
-      <c r="F268" s="17">
+      <c r="F268" s="15">
         <v>14220.27600000002</v>
       </c>
-      <c r="G268" s="19">
+      <c r="G268" s="17">
         <v>10.411158</v>
       </c>
-      <c r="H268" s="19">
+      <c r="H268" s="17">
         <v>59.390796999999999</v>
       </c>
     </row>
     <row r="269" spans="1:8">
-      <c r="A269">
+      <c r="A269" s="22">
         <v>2025</v>
       </c>
       <c r="B269">
@@ -9879,21 +9883,21 @@
       <c r="D269" t="s">
         <v>54</v>
       </c>
-      <c r="E269" s="17">
+      <c r="E269" s="15">
         <v>8471.0229999999938</v>
       </c>
-      <c r="F269" s="17">
+      <c r="F269" s="15">
         <v>8519.294999999991</v>
       </c>
-      <c r="G269" s="19">
+      <c r="G269" s="17">
         <v>10.300190000000001</v>
       </c>
-      <c r="H269" s="19">
+      <c r="H269" s="17">
         <v>59.221215000000001</v>
       </c>
     </row>
     <row r="270" spans="1:8">
-      <c r="A270">
+      <c r="A270" s="22">
         <v>2025</v>
       </c>
       <c r="B270">
@@ -9905,21 +9909,21 @@
       <c r="D270" t="s">
         <v>55</v>
       </c>
-      <c r="E270" s="17">
+      <c r="E270" s="15">
         <v>10117.127000000011</v>
       </c>
-      <c r="F270" s="17">
+      <c r="F270" s="15">
         <v>9988.9250000000047</v>
       </c>
-      <c r="G270" s="19">
+      <c r="G270" s="17">
         <v>10.266083</v>
       </c>
-      <c r="H270" s="19">
+      <c r="H270" s="17">
         <v>59.165526999999997</v>
       </c>
     </row>
     <row r="271" spans="1:8">
-      <c r="A271">
+      <c r="A271" s="22">
         <v>2025</v>
       </c>
       <c r="B271">
@@ -9931,21 +9935,21 @@
       <c r="D271" t="s">
         <v>56</v>
       </c>
-      <c r="E271" s="17">
+      <c r="E271" s="15">
         <v>56607.154000000039</v>
       </c>
-      <c r="F271" s="17">
+      <c r="F271" s="15">
         <v>57337.808000000005</v>
       </c>
-      <c r="G271" s="19">
+      <c r="G271" s="17">
         <v>10.409449</v>
       </c>
-      <c r="H271" s="19">
+      <c r="H271" s="17">
         <v>59.271692000000002</v>
       </c>
     </row>
     <row r="272" spans="1:8">
-      <c r="A272">
+      <c r="A272" s="22">
         <v>2025</v>
       </c>
       <c r="B272">
@@ -9957,21 +9961,21 @@
       <c r="D272" t="s">
         <v>25</v>
       </c>
-      <c r="E272" s="17">
+      <c r="E272" s="15">
         <v>17354.399000000005</v>
       </c>
-      <c r="F272" s="17">
+      <c r="F272" s="15">
         <v>17346.498999999989</v>
       </c>
-      <c r="G272" s="19">
+      <c r="G272" s="17">
         <v>10.311612999999999</v>
       </c>
-      <c r="H272" s="19">
+      <c r="H272" s="17">
         <v>59.492139000000002</v>
       </c>
     </row>
     <row r="273" spans="1:8">
-      <c r="A273">
+      <c r="A273" s="22">
         <v>2025</v>
       </c>
       <c r="B273">
@@ -9983,21 +9987,21 @@
       <c r="D273" t="s">
         <v>48</v>
       </c>
-      <c r="E273" s="17">
+      <c r="E273" s="15">
         <v>18365.531999999999</v>
       </c>
-      <c r="F273" s="17">
+      <c r="F273" s="15">
         <v>19120.726999999999</v>
       </c>
-      <c r="G273" s="19">
+      <c r="G273" s="17">
         <v>10.030742999999999</v>
       </c>
-      <c r="H273" s="19">
+      <c r="H273" s="17">
         <v>59.050356999999998</v>
       </c>
     </row>
     <row r="274" spans="1:8">
-      <c r="A274">
+      <c r="A274" s="22">
         <v>2025</v>
       </c>
       <c r="B274">
@@ -10009,21 +10013,21 @@
       <c r="D274" t="s">
         <v>49</v>
       </c>
-      <c r="E274" s="17">
+      <c r="E274" s="15">
         <v>19380.586999999992</v>
       </c>
-      <c r="F274" s="17">
+      <c r="F274" s="15">
         <v>19900.140999999992</v>
       </c>
-      <c r="G274" s="19">
+      <c r="G274" s="17">
         <v>9.6586020000000001</v>
       </c>
-      <c r="H274" s="19">
+      <c r="H274" s="17">
         <v>59.139355999999999</v>
       </c>
     </row>
     <row r="275" spans="1:8">
-      <c r="A275">
+      <c r="A275" s="22">
         <v>2025</v>
       </c>
       <c r="B275">
@@ -10035,21 +10039,21 @@
       <c r="D275" t="s">
         <v>50</v>
       </c>
-      <c r="E275" s="17">
+      <c r="E275" s="15">
         <v>11011.601000000001</v>
       </c>
-      <c r="F275" s="17">
+      <c r="F275" s="15">
         <v>11313.089000000005</v>
       </c>
-      <c r="G275" s="19">
+      <c r="G275" s="17">
         <v>10.205496999999999</v>
       </c>
-      <c r="H275" s="19">
+      <c r="H275" s="17">
         <v>59.585008000000002</v>
       </c>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276">
+      <c r="A276" s="22">
         <v>2025</v>
       </c>
       <c r="B276">
@@ -10061,21 +10065,21 @@
       <c r="D276" t="s">
         <v>51</v>
       </c>
-      <c r="E276" s="17">
+      <c r="E276" s="15">
         <v>28057.992999999991</v>
       </c>
-      <c r="F276" s="17">
+      <c r="F276" s="15">
         <v>28316.537999999997</v>
       </c>
-      <c r="G276" s="19">
+      <c r="G276" s="17">
         <v>10.22247</v>
       </c>
-      <c r="H276" s="19">
+      <c r="H276" s="17">
         <v>59.135238999999999</v>
       </c>
     </row>
     <row r="277" spans="1:8">
-      <c r="A277">
+      <c r="A277" s="22">
         <v>2025</v>
       </c>
       <c r="B277">
@@ -10087,21 +10091,21 @@
       <c r="D277" t="s">
         <v>52</v>
       </c>
-      <c r="E277" s="17">
+      <c r="E277" s="15">
         <v>16170.986000000001</v>
       </c>
-      <c r="F277" s="17">
+      <c r="F277" s="15">
         <v>16542.084999999999</v>
       </c>
-      <c r="G277" s="19">
+      <c r="G277" s="17">
         <v>9.6032630000000001</v>
       </c>
-      <c r="H277" s="19">
+      <c r="H277" s="17">
         <v>59.218800999999999</v>
       </c>
     </row>
     <row r="278" spans="1:8">
-      <c r="A278">
+      <c r="A278" s="22">
         <v>2025</v>
       </c>
       <c r="B278">
@@ -10113,21 +10117,21 @@
       <c r="D278" t="s">
         <v>53</v>
       </c>
-      <c r="E278" s="17">
+      <c r="E278" s="15">
         <v>12652.624999999993</v>
       </c>
-      <c r="F278" s="17">
+      <c r="F278" s="15">
         <v>13068.969000000003</v>
       </c>
-      <c r="G278" s="19">
+      <c r="G278" s="17">
         <v>10.411158</v>
       </c>
-      <c r="H278" s="19">
+      <c r="H278" s="17">
         <v>59.390796999999999</v>
       </c>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279">
+      <c r="A279" s="22">
         <v>2025</v>
       </c>
       <c r="B279">
@@ -10139,21 +10143,21 @@
       <c r="D279" t="s">
         <v>54</v>
       </c>
-      <c r="E279" s="17">
+      <c r="E279" s="15">
         <v>7863.9330000000027</v>
       </c>
-      <c r="F279" s="17">
+      <c r="F279" s="15">
         <v>8017.2750000000033</v>
       </c>
-      <c r="G279" s="19">
+      <c r="G279" s="17">
         <v>10.300190000000001</v>
       </c>
-      <c r="H279" s="19">
+      <c r="H279" s="17">
         <v>59.221215000000001</v>
       </c>
     </row>
     <row r="280" spans="1:8">
-      <c r="A280">
+      <c r="A280" s="22">
         <v>2025</v>
       </c>
       <c r="B280">
@@ -10165,21 +10169,21 @@
       <c r="D280" t="s">
         <v>55</v>
       </c>
-      <c r="E280" s="17">
+      <c r="E280" s="15">
         <v>9744.0160000000069</v>
       </c>
-      <c r="F280" s="17">
+      <c r="F280" s="15">
         <v>9763.2589999999982</v>
       </c>
-      <c r="G280" s="19">
+      <c r="G280" s="17">
         <v>10.266083</v>
       </c>
-      <c r="H280" s="19">
+      <c r="H280" s="17">
         <v>59.165526999999997</v>
       </c>
     </row>
     <row r="281" spans="1:8">
-      <c r="A281">
+      <c r="A281" s="22">
         <v>2025</v>
       </c>
       <c r="B281">
@@ -10191,21 +10195,21 @@
       <c r="D281" t="s">
         <v>56</v>
       </c>
-      <c r="E281" s="17">
+      <c r="E281" s="15">
         <v>51534.290999999997</v>
       </c>
-      <c r="F281" s="17">
+      <c r="F281" s="15">
         <v>52217.570999999996</v>
       </c>
-      <c r="G281" s="19">
+      <c r="G281" s="17">
         <v>10.409449</v>
       </c>
-      <c r="H281" s="19">
+      <c r="H281" s="17">
         <v>59.271692000000002</v>
       </c>
     </row>
     <row r="282" spans="1:8">
-      <c r="A282">
+      <c r="A282" s="22">
         <v>2025</v>
       </c>
       <c r="B282">
@@ -10217,10 +10221,10 @@
       <c r="D282" t="s">
         <v>25</v>
       </c>
-      <c r="E282" s="17">
+      <c r="E282" s="15">
         <v>18319.176000000003</v>
       </c>
-      <c r="F282" s="17">
+      <c r="F282" s="15">
         <v>18241.580999999998</v>
       </c>
       <c r="G282">
@@ -10231,7 +10235,7 @@
       </c>
     </row>
     <row r="283" spans="1:8">
-      <c r="A283">
+      <c r="A283" s="22">
         <v>2025</v>
       </c>
       <c r="B283">
@@ -10243,10 +10247,10 @@
       <c r="D283" t="s">
         <v>48</v>
       </c>
-      <c r="E283" s="17">
+      <c r="E283" s="15">
         <v>19884.151000000002</v>
       </c>
-      <c r="F283" s="17">
+      <c r="F283" s="15">
         <v>20459.780000000006</v>
       </c>
       <c r="G283">
@@ -10257,7 +10261,7 @@
       </c>
     </row>
     <row r="284" spans="1:8">
-      <c r="A284">
+      <c r="A284" s="22">
         <v>2025</v>
       </c>
       <c r="B284">
@@ -10269,10 +10273,10 @@
       <c r="D284" t="s">
         <v>49</v>
       </c>
-      <c r="E284" s="17">
+      <c r="E284" s="15">
         <v>20210.923999999995</v>
       </c>
-      <c r="F284" s="17">
+      <c r="F284" s="15">
         <v>20315.542999999998</v>
       </c>
       <c r="G284">
@@ -10283,7 +10287,7 @@
       </c>
     </row>
     <row r="285" spans="1:8">
-      <c r="A285">
+      <c r="A285" s="22">
         <v>2025</v>
       </c>
       <c r="B285">
@@ -10295,10 +10299,10 @@
       <c r="D285" t="s">
         <v>50</v>
       </c>
-      <c r="E285" s="17">
+      <c r="E285" s="15">
         <v>12036.863999999996</v>
       </c>
-      <c r="F285" s="17">
+      <c r="F285" s="15">
         <v>12434.575000000001</v>
       </c>
       <c r="G285">
@@ -10309,7 +10313,7 @@
       </c>
     </row>
     <row r="286" spans="1:8">
-      <c r="A286">
+      <c r="A286" s="22">
         <v>2025</v>
       </c>
       <c r="B286">
@@ -10321,10 +10325,10 @@
       <c r="D286" t="s">
         <v>51</v>
       </c>
-      <c r="E286" s="17">
+      <c r="E286" s="15">
         <v>29940.447999999989</v>
       </c>
-      <c r="F286" s="17">
+      <c r="F286" s="15">
         <v>30616.964999999997</v>
       </c>
       <c r="G286">
@@ -10335,7 +10339,7 @@
       </c>
     </row>
     <row r="287" spans="1:8">
-      <c r="A287">
+      <c r="A287" s="22">
         <v>2025</v>
       </c>
       <c r="B287">
@@ -10347,10 +10351,10 @@
       <c r="D287" t="s">
         <v>52</v>
       </c>
-      <c r="E287" s="17">
+      <c r="E287" s="15">
         <v>16842.983</v>
       </c>
-      <c r="F287" s="17">
+      <c r="F287" s="15">
         <v>17016.309000000005</v>
       </c>
       <c r="G287">
@@ -10361,7 +10365,7 @@
       </c>
     </row>
     <row r="288" spans="1:8">
-      <c r="A288">
+      <c r="A288" s="22">
         <v>2025</v>
       </c>
       <c r="B288">
@@ -10373,10 +10377,10 @@
       <c r="D288" t="s">
         <v>53</v>
       </c>
-      <c r="E288" s="17">
+      <c r="E288" s="15">
         <v>13004.703</v>
       </c>
-      <c r="F288" s="17">
+      <c r="F288" s="15">
         <v>13285.723000000002</v>
       </c>
       <c r="G288">
@@ -10387,7 +10391,7 @@
       </c>
     </row>
     <row r="289" spans="1:8">
-      <c r="A289">
+      <c r="A289" s="22">
         <v>2025</v>
       </c>
       <c r="B289">
@@ -10399,10 +10403,10 @@
       <c r="D289" t="s">
         <v>54</v>
       </c>
-      <c r="E289" s="17">
+      <c r="E289" s="15">
         <v>8364.612000000001</v>
       </c>
-      <c r="F289" s="17">
+      <c r="F289" s="15">
         <v>8188.3679999999995</v>
       </c>
       <c r="G289">
@@ -10413,7 +10417,7 @@
       </c>
     </row>
     <row r="290" spans="1:8">
-      <c r="A290">
+      <c r="A290" s="22">
         <v>2025</v>
       </c>
       <c r="B290">
@@ -10425,10 +10429,10 @@
       <c r="D290" t="s">
         <v>55</v>
       </c>
-      <c r="E290" s="17">
+      <c r="E290" s="15">
         <v>10064.831999999999</v>
       </c>
-      <c r="F290" s="17">
+      <c r="F290" s="15">
         <v>9971.8870000000006</v>
       </c>
       <c r="G290">
@@ -10439,7 +10443,7 @@
       </c>
     </row>
     <row r="291" spans="1:8">
-      <c r="A291">
+      <c r="A291" s="22">
         <v>2025</v>
       </c>
       <c r="B291">
@@ -10451,10 +10455,10 @@
       <c r="D291" t="s">
         <v>56</v>
       </c>
-      <c r="E291" s="17">
+      <c r="E291" s="15">
         <v>55578.746000000014</v>
       </c>
-      <c r="F291" s="17">
+      <c r="F291" s="15">
         <v>56301.769000000008</v>
       </c>
       <c r="G291">
@@ -10465,22 +10469,22 @@
       </c>
     </row>
     <row r="292" spans="1:8">
-      <c r="A292" s="20">
+      <c r="A292" s="23">
         <v>2025</v>
       </c>
-      <c r="B292" s="20">
+      <c r="B292" s="18">
         <v>6</v>
       </c>
-      <c r="C292" s="20" t="s">
+      <c r="C292" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D292" s="20" t="s">
+      <c r="D292" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E292" s="20">
+      <c r="E292" s="18">
         <v>16984</v>
       </c>
-      <c r="F292" s="20">
+      <c r="F292" s="18">
         <v>16808</v>
       </c>
       <c r="G292">
@@ -10491,22 +10495,22 @@
       </c>
     </row>
     <row r="293" spans="1:8">
-      <c r="A293" s="20">
+      <c r="A293" s="23">
         <v>2025</v>
       </c>
-      <c r="B293" s="20">
+      <c r="B293" s="18">
         <v>6</v>
       </c>
-      <c r="C293" s="20" t="s">
+      <c r="C293" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D293" s="20" t="s">
+      <c r="D293" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E293" s="20">
+      <c r="E293" s="18">
         <v>20989</v>
       </c>
-      <c r="F293" s="20">
+      <c r="F293" s="18">
         <v>21674</v>
       </c>
       <c r="G293">
@@ -10517,22 +10521,22 @@
       </c>
     </row>
     <row r="294" spans="1:8">
-      <c r="A294" s="20">
+      <c r="A294" s="23">
         <v>2025</v>
       </c>
-      <c r="B294" s="20">
+      <c r="B294" s="18">
         <v>6</v>
       </c>
-      <c r="C294" s="20" t="s">
+      <c r="C294" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D294" s="20" t="s">
+      <c r="D294" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E294" s="20">
+      <c r="E294" s="18">
         <v>21283</v>
       </c>
-      <c r="F294" s="20">
+      <c r="F294" s="18">
         <v>21158</v>
       </c>
       <c r="G294">
@@ -10543,22 +10547,22 @@
       </c>
     </row>
     <row r="295" spans="1:8">
-      <c r="A295" s="20">
+      <c r="A295" s="23">
         <v>2025</v>
       </c>
-      <c r="B295" s="20">
+      <c r="B295" s="18">
         <v>6</v>
       </c>
-      <c r="C295" s="20" t="s">
+      <c r="C295" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D295" s="20" t="s">
+      <c r="D295" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E295" s="20">
+      <c r="E295" s="18">
         <v>11056</v>
       </c>
-      <c r="F295" s="20">
+      <c r="F295" s="18">
         <v>11261</v>
       </c>
       <c r="G295">
@@ -10569,22 +10573,22 @@
       </c>
     </row>
     <row r="296" spans="1:8">
-      <c r="A296" s="20">
+      <c r="A296" s="23">
         <v>2025</v>
       </c>
-      <c r="B296" s="20">
+      <c r="B296" s="18">
         <v>6</v>
       </c>
-      <c r="C296" s="20" t="s">
+      <c r="C296" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D296" s="20" t="s">
+      <c r="D296" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E296" s="20">
+      <c r="E296" s="18">
         <v>31405</v>
       </c>
-      <c r="F296" s="20">
+      <c r="F296" s="18">
         <v>31502</v>
       </c>
       <c r="G296">
@@ -10595,22 +10599,22 @@
       </c>
     </row>
     <row r="297" spans="1:8">
-      <c r="A297" s="20">
+      <c r="A297" s="23">
         <v>2025</v>
       </c>
-      <c r="B297" s="20">
+      <c r="B297" s="18">
         <v>6</v>
       </c>
-      <c r="C297" s="20" t="s">
+      <c r="C297" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D297" s="20" t="s">
+      <c r="D297" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E297" s="20">
+      <c r="E297" s="18">
         <v>17840</v>
       </c>
-      <c r="F297" s="20">
+      <c r="F297" s="18">
         <v>17679</v>
       </c>
       <c r="G297">
@@ -10621,22 +10625,22 @@
       </c>
     </row>
     <row r="298" spans="1:8">
-      <c r="A298" s="20">
+      <c r="A298" s="23">
         <v>2025</v>
       </c>
-      <c r="B298" s="20">
+      <c r="B298" s="18">
         <v>6</v>
       </c>
-      <c r="C298" s="20" t="s">
+      <c r="C298" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D298" s="20" t="s">
+      <c r="D298" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E298" s="20">
+      <c r="E298" s="18">
         <v>12425</v>
       </c>
-      <c r="F298" s="20">
+      <c r="F298" s="18">
         <v>12360</v>
       </c>
       <c r="G298">
@@ -10647,22 +10651,22 @@
       </c>
     </row>
     <row r="299" spans="1:8">
-      <c r="A299" s="20">
+      <c r="A299" s="23">
         <v>2025</v>
       </c>
-      <c r="B299" s="20">
+      <c r="B299" s="18">
         <v>6</v>
       </c>
-      <c r="C299" s="20" t="s">
+      <c r="C299" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D299" s="20" t="s">
+      <c r="D299" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E299" s="20">
+      <c r="E299" s="18">
         <v>9049</v>
       </c>
-      <c r="F299" s="20">
+      <c r="F299" s="18">
         <v>10029</v>
       </c>
       <c r="G299">
@@ -10673,22 +10677,22 @@
       </c>
     </row>
     <row r="300" spans="1:8">
-      <c r="A300" s="20">
+      <c r="A300" s="23">
         <v>2025</v>
       </c>
-      <c r="B300" s="20">
+      <c r="B300" s="18">
         <v>6</v>
       </c>
-      <c r="C300" s="20" t="s">
+      <c r="C300" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D300" s="20" t="s">
+      <c r="D300" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E300" s="20">
+      <c r="E300" s="18">
         <v>9970</v>
       </c>
-      <c r="F300" s="20">
+      <c r="F300" s="18">
         <v>10578</v>
       </c>
       <c r="G300">
@@ -10699,22 +10703,22 @@
       </c>
     </row>
     <row r="301" spans="1:8">
-      <c r="A301" s="20">
+      <c r="A301" s="23">
         <v>2025</v>
       </c>
-      <c r="B301" s="20">
+      <c r="B301" s="18">
         <v>6</v>
       </c>
-      <c r="C301" s="20" t="s">
+      <c r="C301" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D301" s="20" t="s">
+      <c r="D301" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E301" s="20">
+      <c r="E301" s="18">
         <v>55072</v>
       </c>
-      <c r="F301" s="20">
+      <c r="F301" s="18">
         <v>55503</v>
       </c>
       <c r="G301">
@@ -10725,7 +10729,7 @@
       </c>
     </row>
     <row r="302" spans="1:8">
-      <c r="A302">
+      <c r="A302" s="22">
         <v>2025</v>
       </c>
       <c r="B302">
@@ -10751,7 +10755,7 @@
       </c>
     </row>
     <row r="303" spans="1:8">
-      <c r="A303">
+      <c r="A303" s="22">
         <v>2025</v>
       </c>
       <c r="B303">
@@ -10777,7 +10781,7 @@
       </c>
     </row>
     <row r="304" spans="1:8">
-      <c r="A304">
+      <c r="A304" s="22">
         <v>2025</v>
       </c>
       <c r="B304">
@@ -10803,7 +10807,7 @@
       </c>
     </row>
     <row r="305" spans="1:8">
-      <c r="A305">
+      <c r="A305" s="22">
         <v>2025</v>
       </c>
       <c r="B305">
@@ -10829,7 +10833,7 @@
       </c>
     </row>
     <row r="306" spans="1:8">
-      <c r="A306">
+      <c r="A306" s="22">
         <v>2025</v>
       </c>
       <c r="B306">
@@ -10855,7 +10859,7 @@
       </c>
     </row>
     <row r="307" spans="1:8">
-      <c r="A307">
+      <c r="A307" s="22">
         <v>2025</v>
       </c>
       <c r="B307">
@@ -10881,7 +10885,7 @@
       </c>
     </row>
     <row r="308" spans="1:8">
-      <c r="A308">
+      <c r="A308" s="22">
         <v>2025</v>
       </c>
       <c r="B308">
@@ -10907,7 +10911,7 @@
       </c>
     </row>
     <row r="309" spans="1:8">
-      <c r="A309">
+      <c r="A309" s="22">
         <v>2025</v>
       </c>
       <c r="B309">
@@ -10933,7 +10937,7 @@
       </c>
     </row>
     <row r="310" spans="1:8">
-      <c r="A310">
+      <c r="A310" s="22">
         <v>2025</v>
       </c>
       <c r="B310">
@@ -10959,7 +10963,7 @@
       </c>
     </row>
     <row r="311" spans="1:8">
-      <c r="A311">
+      <c r="A311" s="22">
         <v>2025</v>
       </c>
       <c r="B311">
@@ -10981,6 +10985,266 @@
         <v>10.409449</v>
       </c>
       <c r="H311">
+        <v>59.271692000000002</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B312">
+        <v>8</v>
+      </c>
+      <c r="C312" t="s">
+        <v>39</v>
+      </c>
+      <c r="D312" t="s">
+        <v>25</v>
+      </c>
+      <c r="E312" s="15">
+        <v>12793.439000000002</v>
+      </c>
+      <c r="F312" s="15">
+        <v>12623.182000000001</v>
+      </c>
+      <c r="G312">
+        <v>10.311612999999999</v>
+      </c>
+      <c r="H312">
+        <v>59.492139000000002</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="A313" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B313">
+        <v>8</v>
+      </c>
+      <c r="C313" t="s">
+        <v>39</v>
+      </c>
+      <c r="D313" t="s">
+        <v>48</v>
+      </c>
+      <c r="E313" s="15">
+        <v>16775.994999999999</v>
+      </c>
+      <c r="F313" s="15">
+        <v>15372.856999999993</v>
+      </c>
+      <c r="G313">
+        <v>10.030742999999999</v>
+      </c>
+      <c r="H313">
+        <v>59.050356999999998</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B314">
+        <v>8</v>
+      </c>
+      <c r="C314" t="s">
+        <v>39</v>
+      </c>
+      <c r="D314" t="s">
+        <v>49</v>
+      </c>
+      <c r="E314" s="15">
+        <v>16452.166000000005</v>
+      </c>
+      <c r="F314" s="15">
+        <v>14755.757000000001</v>
+      </c>
+      <c r="G314">
+        <v>9.6586020000000001</v>
+      </c>
+      <c r="H314">
+        <v>59.139355999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B315">
+        <v>8</v>
+      </c>
+      <c r="C315" t="s">
+        <v>39</v>
+      </c>
+      <c r="D315" t="s">
+        <v>50</v>
+      </c>
+      <c r="E315" s="15">
+        <v>11818.884</v>
+      </c>
+      <c r="F315" s="15">
+        <v>14009.541999999999</v>
+      </c>
+      <c r="G315">
+        <v>10.205496999999999</v>
+      </c>
+      <c r="H315">
+        <v>59.585008000000002</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="A316" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B316">
+        <v>8</v>
+      </c>
+      <c r="C316" t="s">
+        <v>39</v>
+      </c>
+      <c r="D316" t="s">
+        <v>51</v>
+      </c>
+      <c r="E316" s="15">
+        <v>22694.519000000008</v>
+      </c>
+      <c r="F316" s="15">
+        <v>20486.135000000006</v>
+      </c>
+      <c r="G316">
+        <v>10.22247</v>
+      </c>
+      <c r="H316">
+        <v>59.135238999999999</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B317">
+        <v>8</v>
+      </c>
+      <c r="C317" t="s">
+        <v>39</v>
+      </c>
+      <c r="D317" t="s">
+        <v>52</v>
+      </c>
+      <c r="E317" s="15">
+        <v>13043.899000000001</v>
+      </c>
+      <c r="F317" s="15">
+        <v>11823.569000000001</v>
+      </c>
+      <c r="G317">
+        <v>9.6032630000000001</v>
+      </c>
+      <c r="H317">
+        <v>59.218800999999999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="A318" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B318">
+        <v>8</v>
+      </c>
+      <c r="C318" t="s">
+        <v>39</v>
+      </c>
+      <c r="D318" t="s">
+        <v>53</v>
+      </c>
+      <c r="E318" s="15">
+        <v>8314.7099999999991</v>
+      </c>
+      <c r="F318" s="15">
+        <v>8612.7060000000001</v>
+      </c>
+      <c r="G318">
+        <v>10.411158</v>
+      </c>
+      <c r="H318">
+        <v>59.390796999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="A319" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B319">
+        <v>8</v>
+      </c>
+      <c r="C319" t="s">
+        <v>39</v>
+      </c>
+      <c r="D319" t="s">
+        <v>54</v>
+      </c>
+      <c r="E319" s="15">
+        <v>7218.7260000000006</v>
+      </c>
+      <c r="F319" s="15">
+        <v>5307.1229999999987</v>
+      </c>
+      <c r="G319">
+        <v>10.300190000000001</v>
+      </c>
+      <c r="H319">
+        <v>59.221215000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B320">
+        <v>8</v>
+      </c>
+      <c r="C320" t="s">
+        <v>39</v>
+      </c>
+      <c r="D320" t="s">
+        <v>55</v>
+      </c>
+      <c r="E320" s="15">
+        <v>9168.3210000000017</v>
+      </c>
+      <c r="F320" s="15">
+        <v>8026.7900000000009</v>
+      </c>
+      <c r="G320">
+        <v>10.266083</v>
+      </c>
+      <c r="H320">
+        <v>59.165526999999997</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="A321" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B321">
+        <v>8</v>
+      </c>
+      <c r="C321" t="s">
+        <v>39</v>
+      </c>
+      <c r="D321" t="s">
+        <v>56</v>
+      </c>
+      <c r="E321" s="15">
+        <v>40358.209000000003</v>
+      </c>
+      <c r="F321" s="15">
+        <v>35766.06</v>
+      </c>
+      <c r="G321">
+        <v>10.409449</v>
+      </c>
+      <c r="H321">
         <v>59.271692000000002</v>
       </c>
     </row>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="605" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3C33648-37F2-430F-83A8-9B61A5D586F5}"/>
+  <xr:revisionPtr revIDLastSave="613" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC6319A1-467D-4272-9A9E-AA1F26C132F7}"/>
   <bookViews>
-    <workbookView xWindow="41010" yWindow="3405" windowWidth="24045" windowHeight="16080" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012-2023" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="60">
   <si>
     <t>Togprodukt</t>
   </si>
@@ -333,7 +333,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -353,12 +353,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -2721,15 +2717,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE9A58E-6281-4D08-BF08-9517A14C48DB}">
-  <dimension ref="A1:I321"/>
+  <dimension ref="A1:I331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F321" sqref="F321"/>
+    <sheetView tabSelected="1" topLeftCell="A303" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H331" sqref="H331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="24"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="2"/>
     <col min="4" max="4" width="21.5703125" style="2" customWidth="1"/>
@@ -2741,7 +2737,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2770,7 +2766,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="20">
+      <c r="A2" s="19">
         <v>2023</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2797,7 +2793,7 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>2023</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -2824,7 +2820,7 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>2023</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -2851,7 +2847,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>2023</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -2878,7 +2874,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>2023</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2905,7 +2901,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>2023</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -2934,7 +2930,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>2023</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2963,7 +2959,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>2023</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -2992,7 +2988,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>2023</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -3019,7 +3015,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>2023</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -3046,7 +3042,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>2023</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -3073,7 +3069,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>2023</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -3100,7 +3096,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="20">
+      <c r="A14" s="19">
         <v>2024</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -3127,7 +3123,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>2024</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -3154,7 +3150,7 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="20">
+      <c r="A16" s="19">
         <v>2024</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -3181,7 +3177,7 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <v>2024</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -3208,7 +3204,7 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>2024</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -3235,7 +3231,7 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="21">
+      <c r="A19" s="20">
         <v>2024</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -3262,7 +3258,7 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <v>2024</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -3289,7 +3285,7 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="21">
+      <c r="A21" s="20">
         <v>2023</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -3316,7 +3312,7 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="20">
+      <c r="A22" s="19">
         <v>2023</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -3343,7 +3339,7 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="21">
+      <c r="A23" s="20">
         <v>2023</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -3370,7 +3366,7 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="20">
+      <c r="A24" s="19">
         <v>2023</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -3397,7 +3393,7 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="21">
+      <c r="A25" s="20">
         <v>2023</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -3424,7 +3420,7 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="20">
+      <c r="A26" s="19">
         <v>2023</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -3451,7 +3447,7 @@
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="21">
+      <c r="A27" s="20">
         <v>2023</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -3478,7 +3474,7 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="20">
+      <c r="A28" s="19">
         <v>2023</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -3505,7 +3501,7 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="21">
+      <c r="A29" s="20">
         <v>2023</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -3532,7 +3528,7 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="20">
+      <c r="A30" s="19">
         <v>2023</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -3559,7 +3555,7 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="21">
+      <c r="A31" s="20">
         <v>2023</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -3586,7 +3582,7 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="20">
+      <c r="A32" s="19">
         <v>2023</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -3613,7 +3609,7 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="21">
+      <c r="A33" s="20">
         <v>2024</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -3640,7 +3636,7 @@
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="20">
+      <c r="A34" s="19">
         <v>2024</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -3667,7 +3663,7 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="21">
+      <c r="A35" s="20">
         <v>2024</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -3694,7 +3690,7 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="20">
+      <c r="A36" s="19">
         <v>2024</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -3721,7 +3717,7 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="21">
+      <c r="A37" s="20">
         <v>2024</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -3748,7 +3744,7 @@
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="20">
+      <c r="A38" s="19">
         <v>2024</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -3775,7 +3771,7 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="21">
+      <c r="A39" s="20">
         <v>2024</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -3802,7 +3798,7 @@
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="20">
+      <c r="A40" s="19">
         <v>2023</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -3829,7 +3825,7 @@
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="21">
+      <c r="A41" s="20">
         <v>2023</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -3856,7 +3852,7 @@
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="20">
+      <c r="A42" s="19">
         <v>2023</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -3883,7 +3879,7 @@
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="21">
+      <c r="A43" s="20">
         <v>2023</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -3910,7 +3906,7 @@
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="20">
+      <c r="A44" s="19">
         <v>2023</v>
       </c>
       <c r="B44" s="10" t="s">
@@ -3937,7 +3933,7 @@
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="21">
+      <c r="A45" s="20">
         <v>2023</v>
       </c>
       <c r="B45" s="12" t="s">
@@ -3964,7 +3960,7 @@
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="20">
+      <c r="A46" s="19">
         <v>2023</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -3991,7 +3987,7 @@
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="21">
+      <c r="A47" s="20">
         <v>2023</v>
       </c>
       <c r="B47" s="12" t="s">
@@ -4018,7 +4014,7 @@
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="20">
+      <c r="A48" s="19">
         <v>2023</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -4045,7 +4041,7 @@
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="21">
+      <c r="A49" s="20">
         <v>2023</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -4072,7 +4068,7 @@
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="20">
+      <c r="A50" s="19">
         <v>2023</v>
       </c>
       <c r="B50" s="10" t="s">
@@ -4099,7 +4095,7 @@
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="21">
+      <c r="A51" s="20">
         <v>2023</v>
       </c>
       <c r="B51" s="12" t="s">
@@ -4126,7 +4122,7 @@
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="20">
+      <c r="A52" s="19">
         <v>2024</v>
       </c>
       <c r="B52" s="10" t="s">
@@ -4153,7 +4149,7 @@
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="21">
+      <c r="A53" s="20">
         <v>2024</v>
       </c>
       <c r="B53" s="12" t="s">
@@ -4180,7 +4176,7 @@
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="20">
+      <c r="A54" s="19">
         <v>2024</v>
       </c>
       <c r="B54" s="10" t="s">
@@ -4207,7 +4203,7 @@
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="21">
+      <c r="A55" s="20">
         <v>2024</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -4234,7 +4230,7 @@
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="20">
+      <c r="A56" s="19">
         <v>2024</v>
       </c>
       <c r="B56" s="10" t="s">
@@ -4261,7 +4257,7 @@
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="21">
+      <c r="A57" s="20">
         <v>2024</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -4288,7 +4284,7 @@
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="20">
+      <c r="A58" s="19">
         <v>2024</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -4315,7 +4311,7 @@
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="21">
+      <c r="A59" s="20">
         <v>2023</v>
       </c>
       <c r="B59" s="12" t="s">
@@ -4342,7 +4338,7 @@
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="20">
+      <c r="A60" s="19">
         <v>2023</v>
       </c>
       <c r="B60" s="10" t="s">
@@ -4369,7 +4365,7 @@
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="21">
+      <c r="A61" s="20">
         <v>2023</v>
       </c>
       <c r="B61" s="12" t="s">
@@ -4396,7 +4392,7 @@
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="20">
+      <c r="A62" s="19">
         <v>2023</v>
       </c>
       <c r="B62" s="10" t="s">
@@ -4423,7 +4419,7 @@
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="21">
+      <c r="A63" s="20">
         <v>2023</v>
       </c>
       <c r="B63" s="12" t="s">
@@ -4450,7 +4446,7 @@
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="20">
+      <c r="A64" s="19">
         <v>2023</v>
       </c>
       <c r="B64" s="10" t="s">
@@ -4479,7 +4475,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="21">
+      <c r="A65" s="20">
         <v>2023</v>
       </c>
       <c r="B65" s="12" t="s">
@@ -4508,7 +4504,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="20">
+      <c r="A66" s="19">
         <v>2023</v>
       </c>
       <c r="B66" s="10" t="s">
@@ -4537,7 +4533,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="21">
+      <c r="A67" s="20">
         <v>2023</v>
       </c>
       <c r="B67" s="12" t="s">
@@ -4564,7 +4560,7 @@
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="20">
+      <c r="A68" s="19">
         <v>2023</v>
       </c>
       <c r="B68" s="10" t="s">
@@ -4591,7 +4587,7 @@
       <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="21">
+      <c r="A69" s="20">
         <v>2023</v>
       </c>
       <c r="B69" s="12" t="s">
@@ -4618,7 +4614,7 @@
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="20">
+      <c r="A70" s="19">
         <v>2023</v>
       </c>
       <c r="B70" s="10" t="s">
@@ -4645,7 +4641,7 @@
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="21">
+      <c r="A71" s="20">
         <v>2024</v>
       </c>
       <c r="B71" s="12" t="s">
@@ -4672,7 +4668,7 @@
       <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="20">
+      <c r="A72" s="19">
         <v>2024</v>
       </c>
       <c r="B72" s="10" t="s">
@@ -4699,7 +4695,7 @@
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="21">
+      <c r="A73" s="20">
         <v>2024</v>
       </c>
       <c r="B73" s="12" t="s">
@@ -4726,7 +4722,7 @@
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="20">
+      <c r="A74" s="19">
         <v>2024</v>
       </c>
       <c r="B74" s="10" t="s">
@@ -4753,7 +4749,7 @@
       <c r="I74" s="2"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="21">
+      <c r="A75" s="20">
         <v>2024</v>
       </c>
       <c r="B75" s="12" t="s">
@@ -4780,7 +4776,7 @@
       <c r="I75" s="2"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="20">
+      <c r="A76" s="19">
         <v>2024</v>
       </c>
       <c r="B76" s="10" t="s">
@@ -4807,7 +4803,7 @@
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="21">
+      <c r="A77" s="20">
         <v>2024</v>
       </c>
       <c r="B77" s="12" t="s">
@@ -4834,7 +4830,7 @@
       <c r="I77" s="2"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="20">
+      <c r="A78" s="19">
         <v>2023</v>
       </c>
       <c r="B78" s="10" t="s">
@@ -4861,7 +4857,7 @@
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="21">
+      <c r="A79" s="20">
         <v>2023</v>
       </c>
       <c r="B79" s="12" t="s">
@@ -4888,7 +4884,7 @@
       <c r="I79" s="2"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="20">
+      <c r="A80" s="19">
         <v>2023</v>
       </c>
       <c r="B80" s="10" t="s">
@@ -4915,7 +4911,7 @@
       <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="21">
+      <c r="A81" s="20">
         <v>2023</v>
       </c>
       <c r="B81" s="12" t="s">
@@ -4942,7 +4938,7 @@
       <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="20">
+      <c r="A82" s="19">
         <v>2023</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -4969,7 +4965,7 @@
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="21">
+      <c r="A83" s="20">
         <v>2023</v>
       </c>
       <c r="B83" s="12" t="s">
@@ -4996,7 +4992,7 @@
       <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="20">
+      <c r="A84" s="19">
         <v>2023</v>
       </c>
       <c r="B84" s="10" t="s">
@@ -5023,7 +5019,7 @@
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="21">
+      <c r="A85" s="20">
         <v>2023</v>
       </c>
       <c r="B85" s="12" t="s">
@@ -5050,7 +5046,7 @@
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="20">
+      <c r="A86" s="19">
         <v>2023</v>
       </c>
       <c r="B86" s="10" t="s">
@@ -5077,7 +5073,7 @@
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="21">
+      <c r="A87" s="20">
         <v>2023</v>
       </c>
       <c r="B87" s="12" t="s">
@@ -5104,7 +5100,7 @@
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="20">
+      <c r="A88" s="19">
         <v>2023</v>
       </c>
       <c r="B88" s="10" t="s">
@@ -5131,7 +5127,7 @@
       <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="21">
+      <c r="A89" s="20">
         <v>2023</v>
       </c>
       <c r="B89" s="12" t="s">
@@ -5158,7 +5154,7 @@
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="20">
+      <c r="A90" s="19">
         <v>2024</v>
       </c>
       <c r="B90" s="10" t="s">
@@ -5185,7 +5181,7 @@
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="21">
+      <c r="A91" s="20">
         <v>2024</v>
       </c>
       <c r="B91" s="12" t="s">
@@ -5212,7 +5208,7 @@
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="20">
+      <c r="A92" s="19">
         <v>2024</v>
       </c>
       <c r="B92" s="10" t="s">
@@ -5239,7 +5235,7 @@
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="21">
+      <c r="A93" s="20">
         <v>2024</v>
       </c>
       <c r="B93" s="12" t="s">
@@ -5266,7 +5262,7 @@
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="20">
+      <c r="A94" s="19">
         <v>2024</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -5293,7 +5289,7 @@
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="21">
+      <c r="A95" s="20">
         <v>2024</v>
       </c>
       <c r="B95" s="12" t="s">
@@ -5320,7 +5316,7 @@
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="20">
+      <c r="A96" s="19">
         <v>2024</v>
       </c>
       <c r="B96" s="10" t="s">
@@ -5347,7 +5343,7 @@
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="21">
+      <c r="A97" s="20">
         <v>2023</v>
       </c>
       <c r="B97" s="12" t="s">
@@ -5374,7 +5370,7 @@
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="20">
+      <c r="A98" s="19">
         <v>2023</v>
       </c>
       <c r="B98" s="10" t="s">
@@ -5401,7 +5397,7 @@
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="21">
+      <c r="A99" s="20">
         <v>2023</v>
       </c>
       <c r="B99" s="12" t="s">
@@ -5428,7 +5424,7 @@
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="20">
+      <c r="A100" s="19">
         <v>2023</v>
       </c>
       <c r="B100" s="10" t="s">
@@ -5455,7 +5451,7 @@
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="21">
+      <c r="A101" s="20">
         <v>2023</v>
       </c>
       <c r="B101" s="12" t="s">
@@ -5482,7 +5478,7 @@
       <c r="I101" s="2"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="20">
+      <c r="A102" s="19">
         <v>2023</v>
       </c>
       <c r="B102" s="10" t="s">
@@ -5509,7 +5505,7 @@
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="21">
+      <c r="A103" s="20">
         <v>2023</v>
       </c>
       <c r="B103" s="12" t="s">
@@ -5536,7 +5532,7 @@
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="20">
+      <c r="A104" s="19">
         <v>2023</v>
       </c>
       <c r="B104" s="10" t="s">
@@ -5563,7 +5559,7 @@
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="21">
+      <c r="A105" s="20">
         <v>2023</v>
       </c>
       <c r="B105" s="12" t="s">
@@ -5590,7 +5586,7 @@
       <c r="I105" s="2"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="20">
+      <c r="A106" s="19">
         <v>2023</v>
       </c>
       <c r="B106" s="10" t="s">
@@ -5617,7 +5613,7 @@
       <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="21">
+      <c r="A107" s="20">
         <v>2023</v>
       </c>
       <c r="B107" s="12" t="s">
@@ -5644,7 +5640,7 @@
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="20">
+      <c r="A108" s="19">
         <v>2023</v>
       </c>
       <c r="B108" s="10" t="s">
@@ -5671,7 +5667,7 @@
       <c r="I108" s="2"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="21">
+      <c r="A109" s="20">
         <v>2024</v>
       </c>
       <c r="B109" s="12" t="s">
@@ -5698,7 +5694,7 @@
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="20">
+      <c r="A110" s="19">
         <v>2024</v>
       </c>
       <c r="B110" s="10" t="s">
@@ -5725,7 +5721,7 @@
       <c r="I110" s="2"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="21">
+      <c r="A111" s="20">
         <v>2024</v>
       </c>
       <c r="B111" s="12" t="s">
@@ -5752,7 +5748,7 @@
       <c r="I111" s="2"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="20">
+      <c r="A112" s="19">
         <v>2024</v>
       </c>
       <c r="B112" s="10" t="s">
@@ -5779,7 +5775,7 @@
       <c r="I112" s="2"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="21">
+      <c r="A113" s="20">
         <v>2024</v>
       </c>
       <c r="B113" s="12" t="s">
@@ -5806,7 +5802,7 @@
       <c r="I113" s="2"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="20">
+      <c r="A114" s="19">
         <v>2024</v>
       </c>
       <c r="B114" s="10" t="s">
@@ -5833,7 +5829,7 @@
       <c r="I114" s="2"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="21">
+      <c r="A115" s="20">
         <v>2024</v>
       </c>
       <c r="B115" s="12" t="s">
@@ -5860,7 +5856,7 @@
       <c r="I115" s="2"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="20">
+      <c r="A116" s="19">
         <v>2023</v>
       </c>
       <c r="B116" s="10" t="s">
@@ -5887,7 +5883,7 @@
       <c r="I116" s="2"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="21">
+      <c r="A117" s="20">
         <v>2023</v>
       </c>
       <c r="B117" s="12" t="s">
@@ -5914,7 +5910,7 @@
       <c r="I117" s="2"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="20">
+      <c r="A118" s="19">
         <v>2023</v>
       </c>
       <c r="B118" s="10" t="s">
@@ -5941,7 +5937,7 @@
       <c r="I118" s="2"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="21">
+      <c r="A119" s="20">
         <v>2023</v>
       </c>
       <c r="B119" s="12" t="s">
@@ -5968,7 +5964,7 @@
       <c r="I119" s="2"/>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="20">
+      <c r="A120" s="19">
         <v>2023</v>
       </c>
       <c r="B120" s="10" t="s">
@@ -5995,7 +5991,7 @@
       <c r="I120" s="2"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="21">
+      <c r="A121" s="20">
         <v>2023</v>
       </c>
       <c r="B121" s="12" t="s">
@@ -6024,7 +6020,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="20">
+      <c r="A122" s="19">
         <v>2023</v>
       </c>
       <c r="B122" s="10" t="s">
@@ -6053,7 +6049,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="21">
+      <c r="A123" s="20">
         <v>2023</v>
       </c>
       <c r="B123" s="12" t="s">
@@ -6082,7 +6078,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="20">
+      <c r="A124" s="19">
         <v>2023</v>
       </c>
       <c r="B124" s="10" t="s">
@@ -6108,7 +6104,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="21">
+      <c r="A125" s="20">
         <v>2023</v>
       </c>
       <c r="B125" s="12" t="s">
@@ -6134,7 +6130,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="20">
+      <c r="A126" s="19">
         <v>2023</v>
       </c>
       <c r="B126" s="10" t="s">
@@ -6160,7 +6156,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="21">
+      <c r="A127" s="20">
         <v>2023</v>
       </c>
       <c r="B127" s="12" t="s">
@@ -6186,7 +6182,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="20">
+      <c r="A128" s="19">
         <v>2024</v>
       </c>
       <c r="B128" s="10" t="s">
@@ -6212,7 +6208,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="21">
+      <c r="A129" s="20">
         <v>2024</v>
       </c>
       <c r="B129" s="12" t="s">
@@ -6238,7 +6234,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="20">
+      <c r="A130" s="19">
         <v>2024</v>
       </c>
       <c r="B130" s="10" t="s">
@@ -6264,7 +6260,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="21">
+      <c r="A131" s="20">
         <v>2024</v>
       </c>
       <c r="B131" s="12" t="s">
@@ -6290,7 +6286,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="20">
+      <c r="A132" s="19">
         <v>2024</v>
       </c>
       <c r="B132" s="10" t="s">
@@ -6316,7 +6312,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="21">
+      <c r="A133" s="20">
         <v>2024</v>
       </c>
       <c r="B133" s="12" t="s">
@@ -6342,7 +6338,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="20">
+      <c r="A134" s="19">
         <v>2024</v>
       </c>
       <c r="B134" s="10" t="s">
@@ -6368,7 +6364,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="21">
+      <c r="A135" s="20">
         <v>2023</v>
       </c>
       <c r="B135" s="12" t="s">
@@ -6394,7 +6390,7 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="20">
+      <c r="A136" s="19">
         <v>2023</v>
       </c>
       <c r="B136" s="10" t="s">
@@ -6420,7 +6416,7 @@
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="21">
+      <c r="A137" s="20">
         <v>2023</v>
       </c>
       <c r="B137" s="12" t="s">
@@ -6446,7 +6442,7 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="20">
+      <c r="A138" s="19">
         <v>2023</v>
       </c>
       <c r="B138" s="10" t="s">
@@ -6472,7 +6468,7 @@
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="21">
+      <c r="A139" s="20">
         <v>2023</v>
       </c>
       <c r="B139" s="12" t="s">
@@ -6499,7 +6495,7 @@
       <c r="I139" s="2"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="20">
+      <c r="A140" s="19">
         <v>2023</v>
       </c>
       <c r="B140" s="10" t="s">
@@ -6528,7 +6524,7 @@
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="21">
+      <c r="A141" s="20">
         <v>2023</v>
       </c>
       <c r="B141" s="12" t="s">
@@ -6557,7 +6553,7 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="20">
+      <c r="A142" s="19">
         <v>2023</v>
       </c>
       <c r="B142" s="10" t="s">
@@ -6586,7 +6582,7 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="21">
+      <c r="A143" s="20">
         <v>2023</v>
       </c>
       <c r="B143" s="12" t="s">
@@ -6612,7 +6608,7 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="20">
+      <c r="A144" s="19">
         <v>2023</v>
       </c>
       <c r="B144" s="10" t="s">
@@ -6638,7 +6634,7 @@
       </c>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="21">
+      <c r="A145" s="20">
         <v>2023</v>
       </c>
       <c r="B145" s="12" t="s">
@@ -6664,7 +6660,7 @@
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="20">
+      <c r="A146" s="19">
         <v>2023</v>
       </c>
       <c r="B146" s="10" t="s">
@@ -6690,7 +6686,7 @@
       </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="21">
+      <c r="A147" s="20">
         <v>2024</v>
       </c>
       <c r="B147" s="12" t="s">
@@ -6716,7 +6712,7 @@
       </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="20">
+      <c r="A148" s="19">
         <v>2024</v>
       </c>
       <c r="B148" s="10" t="s">
@@ -6742,7 +6738,7 @@
       </c>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="21">
+      <c r="A149" s="20">
         <v>2024</v>
       </c>
       <c r="B149" s="12" t="s">
@@ -6768,7 +6764,7 @@
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="20">
+      <c r="A150" s="19">
         <v>2024</v>
       </c>
       <c r="B150" s="10" t="s">
@@ -6794,7 +6790,7 @@
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="21">
+      <c r="A151" s="20">
         <v>2024</v>
       </c>
       <c r="B151" s="12" t="s">
@@ -6820,7 +6816,7 @@
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="20">
+      <c r="A152" s="19">
         <v>2024</v>
       </c>
       <c r="B152" s="10" t="s">
@@ -6846,7 +6842,7 @@
       </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="21">
+      <c r="A153" s="20">
         <v>2024</v>
       </c>
       <c r="B153" s="12" t="s">
@@ -6872,7 +6868,7 @@
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="20">
+      <c r="A154" s="19">
         <v>2023</v>
       </c>
       <c r="B154" s="10" t="s">
@@ -6898,7 +6894,7 @@
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="21">
+      <c r="A155" s="20">
         <v>2023</v>
       </c>
       <c r="B155" s="12" t="s">
@@ -6924,7 +6920,7 @@
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="20">
+      <c r="A156" s="19">
         <v>2023</v>
       </c>
       <c r="B156" s="10" t="s">
@@ -6950,7 +6946,7 @@
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="21">
+      <c r="A157" s="20">
         <v>2023</v>
       </c>
       <c r="B157" s="12" t="s">
@@ -6976,7 +6972,7 @@
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="20">
+      <c r="A158" s="19">
         <v>2023</v>
       </c>
       <c r="B158" s="10" t="s">
@@ -7002,7 +6998,7 @@
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="21">
+      <c r="A159" s="20">
         <v>2023</v>
       </c>
       <c r="B159" s="12" t="s">
@@ -7028,7 +7024,7 @@
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="20">
+      <c r="A160" s="19">
         <v>2023</v>
       </c>
       <c r="B160" s="10" t="s">
@@ -7054,7 +7050,7 @@
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="21">
+      <c r="A161" s="20">
         <v>2023</v>
       </c>
       <c r="B161" s="12" t="s">
@@ -7080,7 +7076,7 @@
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="20">
+      <c r="A162" s="19">
         <v>2023</v>
       </c>
       <c r="B162" s="10" t="s">
@@ -7106,7 +7102,7 @@
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="21">
+      <c r="A163" s="20">
         <v>2023</v>
       </c>
       <c r="B163" s="12" t="s">
@@ -7132,7 +7128,7 @@
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="20">
+      <c r="A164" s="19">
         <v>2023</v>
       </c>
       <c r="B164" s="10" t="s">
@@ -7158,7 +7154,7 @@
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="21">
+      <c r="A165" s="20">
         <v>2023</v>
       </c>
       <c r="B165" s="12" t="s">
@@ -7184,7 +7180,7 @@
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="20">
+      <c r="A166" s="19">
         <v>2024</v>
       </c>
       <c r="B166" s="10" t="s">
@@ -7210,7 +7206,7 @@
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="21">
+      <c r="A167" s="20">
         <v>2024</v>
       </c>
       <c r="B167" s="12" t="s">
@@ -7236,7 +7232,7 @@
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="20">
+      <c r="A168" s="19">
         <v>2024</v>
       </c>
       <c r="B168" s="10" t="s">
@@ -7262,7 +7258,7 @@
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="21">
+      <c r="A169" s="20">
         <v>2024</v>
       </c>
       <c r="B169" s="12" t="s">
@@ -7288,7 +7284,7 @@
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="20">
+      <c r="A170" s="19">
         <v>2024</v>
       </c>
       <c r="B170" s="10" t="s">
@@ -7314,7 +7310,7 @@
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="21">
+      <c r="A171" s="20">
         <v>2024</v>
       </c>
       <c r="B171" s="12" t="s">
@@ -7340,7 +7336,7 @@
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="20">
+      <c r="A172" s="19">
         <v>2024</v>
       </c>
       <c r="B172" s="10" t="s">
@@ -7366,7 +7362,7 @@
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="21">
+      <c r="A173" s="20">
         <v>2023</v>
       </c>
       <c r="B173" s="12" t="s">
@@ -7392,7 +7388,7 @@
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="20">
+      <c r="A174" s="19">
         <v>2023</v>
       </c>
       <c r="B174" s="10" t="s">
@@ -7418,7 +7414,7 @@
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="21">
+      <c r="A175" s="20">
         <v>2023</v>
       </c>
       <c r="B175" s="12" t="s">
@@ -7444,7 +7440,7 @@
       </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="20">
+      <c r="A176" s="19">
         <v>2023</v>
       </c>
       <c r="B176" s="10" t="s">
@@ -7470,7 +7466,7 @@
       </c>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="21">
+      <c r="A177" s="20">
         <v>2023</v>
       </c>
       <c r="B177" s="12" t="s">
@@ -7496,7 +7492,7 @@
       </c>
     </row>
     <row r="178" spans="1:9">
-      <c r="A178" s="20">
+      <c r="A178" s="19">
         <v>2023</v>
       </c>
       <c r="B178" s="10" t="s">
@@ -7525,7 +7521,7 @@
       </c>
     </row>
     <row r="179" spans="1:9">
-      <c r="A179" s="21">
+      <c r="A179" s="20">
         <v>2023</v>
       </c>
       <c r="B179" s="12" t="s">
@@ -7554,7 +7550,7 @@
       </c>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="20">
+      <c r="A180" s="19">
         <v>2023</v>
       </c>
       <c r="B180" s="10" t="s">
@@ -7583,7 +7579,7 @@
       </c>
     </row>
     <row r="181" spans="1:9">
-      <c r="A181" s="21">
+      <c r="A181" s="20">
         <v>2023</v>
       </c>
       <c r="B181" s="12" t="s">
@@ -7609,7 +7605,7 @@
       </c>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="20">
+      <c r="A182" s="19">
         <v>2023</v>
       </c>
       <c r="B182" s="10" t="s">
@@ -7635,7 +7631,7 @@
       </c>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="21">
+      <c r="A183" s="20">
         <v>2023</v>
       </c>
       <c r="B183" s="12" t="s">
@@ -7661,7 +7657,7 @@
       </c>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="20">
+      <c r="A184" s="19">
         <v>2023</v>
       </c>
       <c r="B184" s="10" t="s">
@@ -7687,7 +7683,7 @@
       </c>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="21">
+      <c r="A185" s="20">
         <v>2024</v>
       </c>
       <c r="B185" s="12" t="s">
@@ -7713,7 +7709,7 @@
       </c>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="20">
+      <c r="A186" s="19">
         <v>2024</v>
       </c>
       <c r="B186" s="10" t="s">
@@ -7739,7 +7735,7 @@
       </c>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="21">
+      <c r="A187" s="20">
         <v>2024</v>
       </c>
       <c r="B187" s="12" t="s">
@@ -7765,7 +7761,7 @@
       </c>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="20">
+      <c r="A188" s="19">
         <v>2024</v>
       </c>
       <c r="B188" s="10" t="s">
@@ -7791,7 +7787,7 @@
       </c>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="21">
+      <c r="A189" s="20">
         <v>2024</v>
       </c>
       <c r="B189" s="12" t="s">
@@ -7817,7 +7813,7 @@
       </c>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="20">
+      <c r="A190" s="19">
         <v>2024</v>
       </c>
       <c r="B190" s="10" t="s">
@@ -7843,7 +7839,7 @@
       </c>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="21">
+      <c r="A191" s="20">
         <v>2024</v>
       </c>
       <c r="B191" s="12" t="s">
@@ -7869,7 +7865,7 @@
       </c>
     </row>
     <row r="192" spans="1:9">
-      <c r="A192" s="22">
+      <c r="A192">
         <v>2024</v>
       </c>
       <c r="B192" t="s">
@@ -7895,7 +7891,7 @@
       </c>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="22">
+      <c r="A193">
         <v>2024</v>
       </c>
       <c r="B193" t="s">
@@ -7921,7 +7917,7 @@
       </c>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="22">
+      <c r="A194">
         <v>2024</v>
       </c>
       <c r="B194" t="s">
@@ -7947,7 +7943,7 @@
       </c>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="22">
+      <c r="A195">
         <v>2024</v>
       </c>
       <c r="B195" t="s">
@@ -7973,7 +7969,7 @@
       </c>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="22">
+      <c r="A196">
         <v>2024</v>
       </c>
       <c r="B196" t="s">
@@ -7999,7 +7995,7 @@
       </c>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="22">
+      <c r="A197">
         <v>2024</v>
       </c>
       <c r="B197" t="s">
@@ -8025,7 +8021,7 @@
       </c>
     </row>
     <row r="198" spans="1:8">
-      <c r="A198" s="22">
+      <c r="A198">
         <v>2024</v>
       </c>
       <c r="B198" t="s">
@@ -8051,7 +8047,7 @@
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="22">
+      <c r="A199">
         <v>2024</v>
       </c>
       <c r="B199" t="s">
@@ -8077,7 +8073,7 @@
       </c>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="22">
+      <c r="A200">
         <v>2024</v>
       </c>
       <c r="B200" t="s">
@@ -8103,7 +8099,7 @@
       </c>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="22">
+      <c r="A201">
         <v>2024</v>
       </c>
       <c r="B201" t="s">
@@ -8129,7 +8125,7 @@
       </c>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="22">
+      <c r="A202">
         <v>2024</v>
       </c>
       <c r="B202" t="s">
@@ -8155,7 +8151,7 @@
       </c>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="22">
+      <c r="A203">
         <v>2024</v>
       </c>
       <c r="B203" t="s">
@@ -8181,7 +8177,7 @@
       </c>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="22">
+      <c r="A204">
         <v>2024</v>
       </c>
       <c r="B204" t="s">
@@ -8207,7 +8203,7 @@
       </c>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="22">
+      <c r="A205">
         <v>2024</v>
       </c>
       <c r="B205" t="s">
@@ -8233,7 +8229,7 @@
       </c>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="22">
+      <c r="A206">
         <v>2024</v>
       </c>
       <c r="B206" t="s">
@@ -8259,7 +8255,7 @@
       </c>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="22">
+      <c r="A207">
         <v>2024</v>
       </c>
       <c r="B207" t="s">
@@ -8285,7 +8281,7 @@
       </c>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="22">
+      <c r="A208">
         <v>2024</v>
       </c>
       <c r="B208" t="s">
@@ -8311,7 +8307,7 @@
       </c>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="22">
+      <c r="A209">
         <v>2024</v>
       </c>
       <c r="B209" t="s">
@@ -8337,7 +8333,7 @@
       </c>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="22">
+      <c r="A210">
         <v>2024</v>
       </c>
       <c r="B210" t="s">
@@ -8363,7 +8359,7 @@
       </c>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="22">
+      <c r="A211">
         <v>2024</v>
       </c>
       <c r="B211" t="s">
@@ -8389,7 +8385,7 @@
       </c>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="22">
+      <c r="A212">
         <v>2024</v>
       </c>
       <c r="B212" t="s">
@@ -8415,7 +8411,7 @@
       </c>
     </row>
     <row r="213" spans="1:8">
-      <c r="A213" s="22">
+      <c r="A213">
         <v>2024</v>
       </c>
       <c r="B213" t="s">
@@ -8441,7 +8437,7 @@
       </c>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="22">
+      <c r="A214">
         <v>2024</v>
       </c>
       <c r="B214" t="s">
@@ -8467,7 +8463,7 @@
       </c>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="22">
+      <c r="A215">
         <v>2024</v>
       </c>
       <c r="B215" t="s">
@@ -8493,7 +8489,7 @@
       </c>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="22">
+      <c r="A216">
         <v>2024</v>
       </c>
       <c r="B216" t="s">
@@ -8519,7 +8515,7 @@
       </c>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="22">
+      <c r="A217">
         <v>2024</v>
       </c>
       <c r="B217" t="s">
@@ -8545,7 +8541,7 @@
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="22">
+      <c r="A218">
         <v>2024</v>
       </c>
       <c r="B218" t="s">
@@ -8571,7 +8567,7 @@
       </c>
     </row>
     <row r="219" spans="1:8">
-      <c r="A219" s="22">
+      <c r="A219">
         <v>2024</v>
       </c>
       <c r="B219" t="s">
@@ -8597,7 +8593,7 @@
       </c>
     </row>
     <row r="220" spans="1:8">
-      <c r="A220" s="22">
+      <c r="A220">
         <v>2024</v>
       </c>
       <c r="B220" t="s">
@@ -8623,7 +8619,7 @@
       </c>
     </row>
     <row r="221" spans="1:8">
-      <c r="A221" s="22">
+      <c r="A221">
         <v>2024</v>
       </c>
       <c r="B221" t="s">
@@ -8649,7 +8645,7 @@
       </c>
     </row>
     <row r="222" spans="1:8">
-      <c r="A222" s="22">
+      <c r="A222">
         <v>2024</v>
       </c>
       <c r="B222" t="s">
@@ -8675,7 +8671,7 @@
       </c>
     </row>
     <row r="223" spans="1:8">
-      <c r="A223" s="22">
+      <c r="A223">
         <v>2024</v>
       </c>
       <c r="B223" t="s">
@@ -8701,7 +8697,7 @@
       </c>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224" s="22">
+      <c r="A224">
         <v>2024</v>
       </c>
       <c r="B224" t="s">
@@ -8727,7 +8723,7 @@
       </c>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" s="22">
+      <c r="A225">
         <v>2024</v>
       </c>
       <c r="B225" t="s">
@@ -8753,7 +8749,7 @@
       </c>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="22">
+      <c r="A226">
         <v>2024</v>
       </c>
       <c r="B226" t="s">
@@ -8779,7 +8775,7 @@
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="22">
+      <c r="A227">
         <v>2024</v>
       </c>
       <c r="B227" t="s">
@@ -8805,7 +8801,7 @@
       </c>
     </row>
     <row r="228" spans="1:8">
-      <c r="A228" s="22">
+      <c r="A228">
         <v>2024</v>
       </c>
       <c r="B228" t="s">
@@ -8831,7 +8827,7 @@
       </c>
     </row>
     <row r="229" spans="1:8">
-      <c r="A229" s="22">
+      <c r="A229">
         <v>2024</v>
       </c>
       <c r="B229" t="s">
@@ -8857,7 +8853,7 @@
       </c>
     </row>
     <row r="230" spans="1:8">
-      <c r="A230" s="22">
+      <c r="A230">
         <v>2024</v>
       </c>
       <c r="B230" t="s">
@@ -8883,7 +8879,7 @@
       </c>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" s="22">
+      <c r="A231">
         <v>2024</v>
       </c>
       <c r="B231" t="s">
@@ -8909,7 +8905,7 @@
       </c>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232" s="22">
+      <c r="A232">
         <v>2024</v>
       </c>
       <c r="B232">
@@ -8935,7 +8931,7 @@
       </c>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" s="22">
+      <c r="A233">
         <v>2024</v>
       </c>
       <c r="B233">
@@ -8961,7 +8957,7 @@
       </c>
     </row>
     <row r="234" spans="1:8">
-      <c r="A234" s="22">
+      <c r="A234">
         <v>2024</v>
       </c>
       <c r="B234">
@@ -8987,7 +8983,7 @@
       </c>
     </row>
     <row r="235" spans="1:8">
-      <c r="A235" s="22">
+      <c r="A235">
         <v>2024</v>
       </c>
       <c r="B235">
@@ -9013,7 +9009,7 @@
       </c>
     </row>
     <row r="236" spans="1:8">
-      <c r="A236" s="22">
+      <c r="A236">
         <v>2024</v>
       </c>
       <c r="B236">
@@ -9039,7 +9035,7 @@
       </c>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="22">
+      <c r="A237">
         <v>2024</v>
       </c>
       <c r="B237">
@@ -9065,7 +9061,7 @@
       </c>
     </row>
     <row r="238" spans="1:8">
-      <c r="A238" s="22">
+      <c r="A238">
         <v>2024</v>
       </c>
       <c r="B238">
@@ -9091,7 +9087,7 @@
       </c>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" s="22">
+      <c r="A239">
         <v>2024</v>
       </c>
       <c r="B239">
@@ -9117,7 +9113,7 @@
       </c>
     </row>
     <row r="240" spans="1:8">
-      <c r="A240" s="22">
+      <c r="A240">
         <v>2024</v>
       </c>
       <c r="B240">
@@ -9143,7 +9139,7 @@
       </c>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="22">
+      <c r="A241">
         <v>2024</v>
       </c>
       <c r="B241">
@@ -9169,7 +9165,7 @@
       </c>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242" s="22">
+      <c r="A242">
         <v>2025</v>
       </c>
       <c r="B242">
@@ -9195,7 +9191,7 @@
       </c>
     </row>
     <row r="243" spans="1:8">
-      <c r="A243" s="22">
+      <c r="A243">
         <v>2025</v>
       </c>
       <c r="B243">
@@ -9221,7 +9217,7 @@
       </c>
     </row>
     <row r="244" spans="1:8">
-      <c r="A244" s="22">
+      <c r="A244">
         <v>2025</v>
       </c>
       <c r="B244">
@@ -9247,7 +9243,7 @@
       </c>
     </row>
     <row r="245" spans="1:8">
-      <c r="A245" s="22">
+      <c r="A245">
         <v>2025</v>
       </c>
       <c r="B245">
@@ -9273,7 +9269,7 @@
       </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="22">
+      <c r="A246">
         <v>2025</v>
       </c>
       <c r="B246">
@@ -9299,7 +9295,7 @@
       </c>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" s="22">
+      <c r="A247">
         <v>2025</v>
       </c>
       <c r="B247">
@@ -9325,7 +9321,7 @@
       </c>
     </row>
     <row r="248" spans="1:8">
-      <c r="A248" s="22">
+      <c r="A248">
         <v>2025</v>
       </c>
       <c r="B248">
@@ -9351,7 +9347,7 @@
       </c>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249" s="22">
+      <c r="A249">
         <v>2025</v>
       </c>
       <c r="B249">
@@ -9377,7 +9373,7 @@
       </c>
     </row>
     <row r="250" spans="1:8">
-      <c r="A250" s="22">
+      <c r="A250">
         <v>2025</v>
       </c>
       <c r="B250">
@@ -9403,7 +9399,7 @@
       </c>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="22">
+      <c r="A251">
         <v>2025</v>
       </c>
       <c r="B251">
@@ -9429,7 +9425,7 @@
       </c>
     </row>
     <row r="252" spans="1:8">
-      <c r="A252" s="22">
+      <c r="A252">
         <v>2025</v>
       </c>
       <c r="B252" s="2">
@@ -9455,7 +9451,7 @@
       </c>
     </row>
     <row r="253" spans="1:8">
-      <c r="A253" s="22">
+      <c r="A253">
         <v>2025</v>
       </c>
       <c r="B253" s="2">
@@ -9481,7 +9477,7 @@
       </c>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254" s="22">
+      <c r="A254">
         <v>2025</v>
       </c>
       <c r="B254" s="2">
@@ -9507,7 +9503,7 @@
       </c>
     </row>
     <row r="255" spans="1:8">
-      <c r="A255" s="22">
+      <c r="A255">
         <v>2025</v>
       </c>
       <c r="B255" s="2">
@@ -9533,7 +9529,7 @@
       </c>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256" s="22">
+      <c r="A256">
         <v>2025</v>
       </c>
       <c r="B256" s="2">
@@ -9559,7 +9555,7 @@
       </c>
     </row>
     <row r="257" spans="1:8">
-      <c r="A257" s="22">
+      <c r="A257">
         <v>2025</v>
       </c>
       <c r="B257" s="2">
@@ -9585,7 +9581,7 @@
       </c>
     </row>
     <row r="258" spans="1:8">
-      <c r="A258" s="22">
+      <c r="A258">
         <v>2025</v>
       </c>
       <c r="B258" s="2">
@@ -9611,7 +9607,7 @@
       </c>
     </row>
     <row r="259" spans="1:8">
-      <c r="A259" s="22">
+      <c r="A259">
         <v>2025</v>
       </c>
       <c r="B259" s="2">
@@ -9637,7 +9633,7 @@
       </c>
     </row>
     <row r="260" spans="1:8">
-      <c r="A260" s="22">
+      <c r="A260">
         <v>2025</v>
       </c>
       <c r="B260" s="2">
@@ -9663,7 +9659,7 @@
       </c>
     </row>
     <row r="261" spans="1:8">
-      <c r="A261" s="22">
+      <c r="A261">
         <v>2025</v>
       </c>
       <c r="B261" s="2">
@@ -9689,7 +9685,7 @@
       </c>
     </row>
     <row r="262" spans="1:8">
-      <c r="A262" s="22">
+      <c r="A262">
         <v>2025</v>
       </c>
       <c r="B262">
@@ -9715,7 +9711,7 @@
       </c>
     </row>
     <row r="263" spans="1:8">
-      <c r="A263" s="22">
+      <c r="A263">
         <v>2025</v>
       </c>
       <c r="B263">
@@ -9741,7 +9737,7 @@
       </c>
     </row>
     <row r="264" spans="1:8">
-      <c r="A264" s="22">
+      <c r="A264">
         <v>2025</v>
       </c>
       <c r="B264">
@@ -9767,7 +9763,7 @@
       </c>
     </row>
     <row r="265" spans="1:8">
-      <c r="A265" s="22">
+      <c r="A265">
         <v>2025</v>
       </c>
       <c r="B265">
@@ -9793,7 +9789,7 @@
       </c>
     </row>
     <row r="266" spans="1:8">
-      <c r="A266" s="22">
+      <c r="A266">
         <v>2025</v>
       </c>
       <c r="B266">
@@ -9819,7 +9815,7 @@
       </c>
     </row>
     <row r="267" spans="1:8">
-      <c r="A267" s="22">
+      <c r="A267">
         <v>2025</v>
       </c>
       <c r="B267">
@@ -9845,7 +9841,7 @@
       </c>
     </row>
     <row r="268" spans="1:8">
-      <c r="A268" s="22">
+      <c r="A268">
         <v>2025</v>
       </c>
       <c r="B268">
@@ -9871,7 +9867,7 @@
       </c>
     </row>
     <row r="269" spans="1:8">
-      <c r="A269" s="22">
+      <c r="A269">
         <v>2025</v>
       </c>
       <c r="B269">
@@ -9897,7 +9893,7 @@
       </c>
     </row>
     <row r="270" spans="1:8">
-      <c r="A270" s="22">
+      <c r="A270">
         <v>2025</v>
       </c>
       <c r="B270">
@@ -9923,7 +9919,7 @@
       </c>
     </row>
     <row r="271" spans="1:8">
-      <c r="A271" s="22">
+      <c r="A271">
         <v>2025</v>
       </c>
       <c r="B271">
@@ -9949,7 +9945,7 @@
       </c>
     </row>
     <row r="272" spans="1:8">
-      <c r="A272" s="22">
+      <c r="A272">
         <v>2025</v>
       </c>
       <c r="B272">
@@ -9975,7 +9971,7 @@
       </c>
     </row>
     <row r="273" spans="1:8">
-      <c r="A273" s="22">
+      <c r="A273">
         <v>2025</v>
       </c>
       <c r="B273">
@@ -10001,7 +9997,7 @@
       </c>
     </row>
     <row r="274" spans="1:8">
-      <c r="A274" s="22">
+      <c r="A274">
         <v>2025</v>
       </c>
       <c r="B274">
@@ -10027,7 +10023,7 @@
       </c>
     </row>
     <row r="275" spans="1:8">
-      <c r="A275" s="22">
+      <c r="A275">
         <v>2025</v>
       </c>
       <c r="B275">
@@ -10053,7 +10049,7 @@
       </c>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" s="22">
+      <c r="A276">
         <v>2025</v>
       </c>
       <c r="B276">
@@ -10079,7 +10075,7 @@
       </c>
     </row>
     <row r="277" spans="1:8">
-      <c r="A277" s="22">
+      <c r="A277">
         <v>2025</v>
       </c>
       <c r="B277">
@@ -10105,7 +10101,7 @@
       </c>
     </row>
     <row r="278" spans="1:8">
-      <c r="A278" s="22">
+      <c r="A278">
         <v>2025</v>
       </c>
       <c r="B278">
@@ -10131,7 +10127,7 @@
       </c>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279" s="22">
+      <c r="A279">
         <v>2025</v>
       </c>
       <c r="B279">
@@ -10157,7 +10153,7 @@
       </c>
     </row>
     <row r="280" spans="1:8">
-      <c r="A280" s="22">
+      <c r="A280">
         <v>2025</v>
       </c>
       <c r="B280">
@@ -10183,7 +10179,7 @@
       </c>
     </row>
     <row r="281" spans="1:8">
-      <c r="A281" s="22">
+      <c r="A281">
         <v>2025</v>
       </c>
       <c r="B281">
@@ -10209,7 +10205,7 @@
       </c>
     </row>
     <row r="282" spans="1:8">
-      <c r="A282" s="22">
+      <c r="A282">
         <v>2025</v>
       </c>
       <c r="B282">
@@ -10235,7 +10231,7 @@
       </c>
     </row>
     <row r="283" spans="1:8">
-      <c r="A283" s="22">
+      <c r="A283">
         <v>2025</v>
       </c>
       <c r="B283">
@@ -10261,7 +10257,7 @@
       </c>
     </row>
     <row r="284" spans="1:8">
-      <c r="A284" s="22">
+      <c r="A284">
         <v>2025</v>
       </c>
       <c r="B284">
@@ -10287,7 +10283,7 @@
       </c>
     </row>
     <row r="285" spans="1:8">
-      <c r="A285" s="22">
+      <c r="A285">
         <v>2025</v>
       </c>
       <c r="B285">
@@ -10313,7 +10309,7 @@
       </c>
     </row>
     <row r="286" spans="1:8">
-      <c r="A286" s="22">
+      <c r="A286">
         <v>2025</v>
       </c>
       <c r="B286">
@@ -10339,7 +10335,7 @@
       </c>
     </row>
     <row r="287" spans="1:8">
-      <c r="A287" s="22">
+      <c r="A287">
         <v>2025</v>
       </c>
       <c r="B287">
@@ -10365,7 +10361,7 @@
       </c>
     </row>
     <row r="288" spans="1:8">
-      <c r="A288" s="22">
+      <c r="A288">
         <v>2025</v>
       </c>
       <c r="B288">
@@ -10391,7 +10387,7 @@
       </c>
     </row>
     <row r="289" spans="1:8">
-      <c r="A289" s="22">
+      <c r="A289">
         <v>2025</v>
       </c>
       <c r="B289">
@@ -10417,7 +10413,7 @@
       </c>
     </row>
     <row r="290" spans="1:8">
-      <c r="A290" s="22">
+      <c r="A290">
         <v>2025</v>
       </c>
       <c r="B290">
@@ -10443,7 +10439,7 @@
       </c>
     </row>
     <row r="291" spans="1:8">
-      <c r="A291" s="22">
+      <c r="A291">
         <v>2025</v>
       </c>
       <c r="B291">
@@ -10469,7 +10465,7 @@
       </c>
     </row>
     <row r="292" spans="1:8">
-      <c r="A292" s="23">
+      <c r="A292" s="18">
         <v>2025</v>
       </c>
       <c r="B292" s="18">
@@ -10495,7 +10491,7 @@
       </c>
     </row>
     <row r="293" spans="1:8">
-      <c r="A293" s="23">
+      <c r="A293" s="18">
         <v>2025</v>
       </c>
       <c r="B293" s="18">
@@ -10521,7 +10517,7 @@
       </c>
     </row>
     <row r="294" spans="1:8">
-      <c r="A294" s="23">
+      <c r="A294" s="18">
         <v>2025</v>
       </c>
       <c r="B294" s="18">
@@ -10547,7 +10543,7 @@
       </c>
     </row>
     <row r="295" spans="1:8">
-      <c r="A295" s="23">
+      <c r="A295" s="18">
         <v>2025</v>
       </c>
       <c r="B295" s="18">
@@ -10573,7 +10569,7 @@
       </c>
     </row>
     <row r="296" spans="1:8">
-      <c r="A296" s="23">
+      <c r="A296" s="18">
         <v>2025</v>
       </c>
       <c r="B296" s="18">
@@ -10599,7 +10595,7 @@
       </c>
     </row>
     <row r="297" spans="1:8">
-      <c r="A297" s="23">
+      <c r="A297" s="18">
         <v>2025</v>
       </c>
       <c r="B297" s="18">
@@ -10625,7 +10621,7 @@
       </c>
     </row>
     <row r="298" spans="1:8">
-      <c r="A298" s="23">
+      <c r="A298" s="18">
         <v>2025</v>
       </c>
       <c r="B298" s="18">
@@ -10651,7 +10647,7 @@
       </c>
     </row>
     <row r="299" spans="1:8">
-      <c r="A299" s="23">
+      <c r="A299" s="18">
         <v>2025</v>
       </c>
       <c r="B299" s="18">
@@ -10677,7 +10673,7 @@
       </c>
     </row>
     <row r="300" spans="1:8">
-      <c r="A300" s="23">
+      <c r="A300" s="18">
         <v>2025</v>
       </c>
       <c r="B300" s="18">
@@ -10703,7 +10699,7 @@
       </c>
     </row>
     <row r="301" spans="1:8">
-      <c r="A301" s="23">
+      <c r="A301" s="18">
         <v>2025</v>
       </c>
       <c r="B301" s="18">
@@ -10729,7 +10725,7 @@
       </c>
     </row>
     <row r="302" spans="1:8">
-      <c r="A302" s="22">
+      <c r="A302">
         <v>2025</v>
       </c>
       <c r="B302">
@@ -10755,7 +10751,7 @@
       </c>
     </row>
     <row r="303" spans="1:8">
-      <c r="A303" s="22">
+      <c r="A303">
         <v>2025</v>
       </c>
       <c r="B303">
@@ -10781,7 +10777,7 @@
       </c>
     </row>
     <row r="304" spans="1:8">
-      <c r="A304" s="22">
+      <c r="A304">
         <v>2025</v>
       </c>
       <c r="B304">
@@ -10807,7 +10803,7 @@
       </c>
     </row>
     <row r="305" spans="1:8">
-      <c r="A305" s="22">
+      <c r="A305">
         <v>2025</v>
       </c>
       <c r="B305">
@@ -10833,7 +10829,7 @@
       </c>
     </row>
     <row r="306" spans="1:8">
-      <c r="A306" s="22">
+      <c r="A306">
         <v>2025</v>
       </c>
       <c r="B306">
@@ -10859,7 +10855,7 @@
       </c>
     </row>
     <row r="307" spans="1:8">
-      <c r="A307" s="22">
+      <c r="A307">
         <v>2025</v>
       </c>
       <c r="B307">
@@ -10885,7 +10881,7 @@
       </c>
     </row>
     <row r="308" spans="1:8">
-      <c r="A308" s="22">
+      <c r="A308">
         <v>2025</v>
       </c>
       <c r="B308">
@@ -10911,7 +10907,7 @@
       </c>
     </row>
     <row r="309" spans="1:8">
-      <c r="A309" s="22">
+      <c r="A309">
         <v>2025</v>
       </c>
       <c r="B309">
@@ -10937,7 +10933,7 @@
       </c>
     </row>
     <row r="310" spans="1:8">
-      <c r="A310" s="22">
+      <c r="A310">
         <v>2025</v>
       </c>
       <c r="B310">
@@ -10963,7 +10959,7 @@
       </c>
     </row>
     <row r="311" spans="1:8">
-      <c r="A311" s="22">
+      <c r="A311">
         <v>2025</v>
       </c>
       <c r="B311">
@@ -10989,7 +10985,7 @@
       </c>
     </row>
     <row r="312" spans="1:8">
-      <c r="A312" s="22">
+      <c r="A312">
         <v>2025</v>
       </c>
       <c r="B312">
@@ -11015,7 +11011,7 @@
       </c>
     </row>
     <row r="313" spans="1:8">
-      <c r="A313" s="22">
+      <c r="A313">
         <v>2025</v>
       </c>
       <c r="B313">
@@ -11041,7 +11037,7 @@
       </c>
     </row>
     <row r="314" spans="1:8">
-      <c r="A314" s="22">
+      <c r="A314">
         <v>2025</v>
       </c>
       <c r="B314">
@@ -11067,7 +11063,7 @@
       </c>
     </row>
     <row r="315" spans="1:8">
-      <c r="A315" s="22">
+      <c r="A315">
         <v>2025</v>
       </c>
       <c r="B315">
@@ -11093,7 +11089,7 @@
       </c>
     </row>
     <row r="316" spans="1:8">
-      <c r="A316" s="22">
+      <c r="A316">
         <v>2025</v>
       </c>
       <c r="B316">
@@ -11119,7 +11115,7 @@
       </c>
     </row>
     <row r="317" spans="1:8">
-      <c r="A317" s="22">
+      <c r="A317">
         <v>2025</v>
       </c>
       <c r="B317">
@@ -11145,7 +11141,7 @@
       </c>
     </row>
     <row r="318" spans="1:8">
-      <c r="A318" s="22">
+      <c r="A318">
         <v>2025</v>
       </c>
       <c r="B318">
@@ -11171,7 +11167,7 @@
       </c>
     </row>
     <row r="319" spans="1:8">
-      <c r="A319" s="22">
+      <c r="A319">
         <v>2025</v>
       </c>
       <c r="B319">
@@ -11197,7 +11193,7 @@
       </c>
     </row>
     <row r="320" spans="1:8">
-      <c r="A320" s="22">
+      <c r="A320">
         <v>2025</v>
       </c>
       <c r="B320">
@@ -11223,7 +11219,7 @@
       </c>
     </row>
     <row r="321" spans="1:8">
-      <c r="A321" s="22">
+      <c r="A321">
         <v>2025</v>
       </c>
       <c r="B321">
@@ -11245,6 +11241,266 @@
         <v>10.409449</v>
       </c>
       <c r="H321">
+        <v>59.271692000000002</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="A322">
+        <v>2025</v>
+      </c>
+      <c r="B322">
+        <v>9</v>
+      </c>
+      <c r="C322" t="s">
+        <v>41</v>
+      </c>
+      <c r="D322" t="s">
+        <v>25</v>
+      </c>
+      <c r="E322" s="15">
+        <v>18504.999000000022</v>
+      </c>
+      <c r="F322" s="15">
+        <v>16864.303000000014</v>
+      </c>
+      <c r="G322">
+        <v>10.311612999999999</v>
+      </c>
+      <c r="H322">
+        <v>59.492139000000002</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323">
+        <v>2025</v>
+      </c>
+      <c r="B323">
+        <v>9</v>
+      </c>
+      <c r="C323" t="s">
+        <v>41</v>
+      </c>
+      <c r="D323" t="s">
+        <v>48</v>
+      </c>
+      <c r="E323" s="15">
+        <v>19574.359999999986</v>
+      </c>
+      <c r="F323" s="15">
+        <v>19502.623000000007</v>
+      </c>
+      <c r="G323">
+        <v>10.030742999999999</v>
+      </c>
+      <c r="H323">
+        <v>59.050356999999998</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="A324">
+        <v>2025</v>
+      </c>
+      <c r="B324">
+        <v>9</v>
+      </c>
+      <c r="C324" t="s">
+        <v>41</v>
+      </c>
+      <c r="D324" t="s">
+        <v>49</v>
+      </c>
+      <c r="E324" s="15">
+        <v>20245.311999999991</v>
+      </c>
+      <c r="F324" s="15">
+        <v>20517.316999999988</v>
+      </c>
+      <c r="G324">
+        <v>9.6586020000000001</v>
+      </c>
+      <c r="H324">
+        <v>59.139355999999999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="A325">
+        <v>2025</v>
+      </c>
+      <c r="B325">
+        <v>9</v>
+      </c>
+      <c r="C325" t="s">
+        <v>41</v>
+      </c>
+      <c r="D325" t="s">
+        <v>50</v>
+      </c>
+      <c r="E325" s="15">
+        <v>12279.129999999997</v>
+      </c>
+      <c r="F325" s="15">
+        <v>12531.171999999999</v>
+      </c>
+      <c r="G325">
+        <v>10.205496999999999</v>
+      </c>
+      <c r="H325">
+        <v>59.585008000000002</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326">
+        <v>2025</v>
+      </c>
+      <c r="B326">
+        <v>9</v>
+      </c>
+      <c r="C326" t="s">
+        <v>41</v>
+      </c>
+      <c r="D326" t="s">
+        <v>51</v>
+      </c>
+      <c r="E326" s="15">
+        <v>29784.540000000008</v>
+      </c>
+      <c r="F326" s="15">
+        <v>29549.070000000014</v>
+      </c>
+      <c r="G326">
+        <v>10.22247</v>
+      </c>
+      <c r="H326">
+        <v>59.135238999999999</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327">
+        <v>2025</v>
+      </c>
+      <c r="B327">
+        <v>9</v>
+      </c>
+      <c r="C327" t="s">
+        <v>41</v>
+      </c>
+      <c r="D327" t="s">
+        <v>52</v>
+      </c>
+      <c r="E327" s="15">
+        <v>16429.996999999978</v>
+      </c>
+      <c r="F327" s="15">
+        <v>16805.746999999988</v>
+      </c>
+      <c r="G327">
+        <v>9.6032630000000001</v>
+      </c>
+      <c r="H327">
+        <v>59.218800999999999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328">
+        <v>2025</v>
+      </c>
+      <c r="B328">
+        <v>9</v>
+      </c>
+      <c r="C328" t="s">
+        <v>41</v>
+      </c>
+      <c r="D328" t="s">
+        <v>53</v>
+      </c>
+      <c r="E328" s="15">
+        <v>13256.240999999996</v>
+      </c>
+      <c r="F328" s="15">
+        <v>13469.495999999996</v>
+      </c>
+      <c r="G328">
+        <v>10.411158</v>
+      </c>
+      <c r="H328">
+        <v>59.390796999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329">
+        <v>2025</v>
+      </c>
+      <c r="B329">
+        <v>9</v>
+      </c>
+      <c r="C329" t="s">
+        <v>41</v>
+      </c>
+      <c r="D329" t="s">
+        <v>54</v>
+      </c>
+      <c r="E329" s="15">
+        <v>8054.6539999999932</v>
+      </c>
+      <c r="F329" s="15">
+        <v>7796.9130000000032</v>
+      </c>
+      <c r="G329">
+        <v>10.300190000000001</v>
+      </c>
+      <c r="H329">
+        <v>59.221215000000001</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330">
+        <v>2025</v>
+      </c>
+      <c r="B330">
+        <v>9</v>
+      </c>
+      <c r="C330" t="s">
+        <v>41</v>
+      </c>
+      <c r="D330" t="s">
+        <v>55</v>
+      </c>
+      <c r="E330" s="15">
+        <v>9374.8560000000052</v>
+      </c>
+      <c r="F330" s="15">
+        <v>9174.1469999999936</v>
+      </c>
+      <c r="G330">
+        <v>10.266083</v>
+      </c>
+      <c r="H330">
+        <v>59.165526999999997</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331">
+        <v>2025</v>
+      </c>
+      <c r="B331">
+        <v>9</v>
+      </c>
+      <c r="C331" t="s">
+        <v>41</v>
+      </c>
+      <c r="D331" t="s">
+        <v>56</v>
+      </c>
+      <c r="E331" s="15">
+        <v>55642.038000000015</v>
+      </c>
+      <c r="F331" s="15">
+        <v>55682.080999999976</v>
+      </c>
+      <c r="G331">
+        <v>10.409449</v>
+      </c>
+      <c r="H331">
         <v>59.271692000000002</v>
       </c>
     </row>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="613" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC6319A1-467D-4272-9A9E-AA1F26C132F7}"/>
+  <xr:revisionPtr revIDLastSave="624" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C921239-1547-4616-8E5D-C41293BEC3FC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
+    <workbookView xWindow="51135" yWindow="4215" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012-2023" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="60">
   <si>
     <t>Togprodukt</t>
   </si>
@@ -333,7 +333,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -355,6 +355,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -2717,10 +2719,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE9A58E-6281-4D08-BF08-9517A14C48DB}">
-  <dimension ref="A1:I331"/>
+  <dimension ref="A1:I342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H331" sqref="H331"/>
+    <sheetView tabSelected="1" topLeftCell="A329" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A332" sqref="A332:A341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -11503,6 +11505,270 @@
       <c r="H331">
         <v>59.271692000000002</v>
       </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B332" s="22">
+        <v>10</v>
+      </c>
+      <c r="C332" t="s">
+        <v>43</v>
+      </c>
+      <c r="D332" t="s">
+        <v>25</v>
+      </c>
+      <c r="E332" s="15">
+        <v>19769.281000000003</v>
+      </c>
+      <c r="F332" s="15">
+        <v>18638.458999999999</v>
+      </c>
+      <c r="G332">
+        <v>10.311612999999999</v>
+      </c>
+      <c r="H332">
+        <v>59.492139000000002</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B333" s="22">
+        <v>10</v>
+      </c>
+      <c r="C333" t="s">
+        <v>43</v>
+      </c>
+      <c r="D333" t="s">
+        <v>48</v>
+      </c>
+      <c r="E333" s="15">
+        <v>20304.306000000004</v>
+      </c>
+      <c r="F333" s="15">
+        <v>20593.269000000004</v>
+      </c>
+      <c r="G333">
+        <v>10.030742999999999</v>
+      </c>
+      <c r="H333">
+        <v>59.050356999999998</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B334" s="22">
+        <v>10</v>
+      </c>
+      <c r="C334" t="s">
+        <v>43</v>
+      </c>
+      <c r="D334" t="s">
+        <v>49</v>
+      </c>
+      <c r="E334" s="15">
+        <v>21150.600999999999</v>
+      </c>
+      <c r="F334" s="15">
+        <v>21057.187999999998</v>
+      </c>
+      <c r="G334">
+        <v>9.6586020000000001</v>
+      </c>
+      <c r="H334">
+        <v>59.139355999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="A335" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B335" s="22">
+        <v>10</v>
+      </c>
+      <c r="C335" t="s">
+        <v>43</v>
+      </c>
+      <c r="D335" t="s">
+        <v>50</v>
+      </c>
+      <c r="E335" s="15">
+        <v>12442.467000000001</v>
+      </c>
+      <c r="F335" s="15">
+        <v>12517.397999999999</v>
+      </c>
+      <c r="G335">
+        <v>10.205496999999999</v>
+      </c>
+      <c r="H335">
+        <v>59.585008000000002</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B336" s="22">
+        <v>10</v>
+      </c>
+      <c r="C336" t="s">
+        <v>43</v>
+      </c>
+      <c r="D336" t="s">
+        <v>51</v>
+      </c>
+      <c r="E336" s="15">
+        <v>30137.117000000002</v>
+      </c>
+      <c r="F336" s="15">
+        <v>30309.279999999999</v>
+      </c>
+      <c r="G336">
+        <v>10.22247</v>
+      </c>
+      <c r="H336">
+        <v>59.135238999999999</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B337" s="22">
+        <v>10</v>
+      </c>
+      <c r="C337" t="s">
+        <v>43</v>
+      </c>
+      <c r="D337" t="s">
+        <v>52</v>
+      </c>
+      <c r="E337" s="15">
+        <v>17353.993999999999</v>
+      </c>
+      <c r="F337" s="15">
+        <v>16938.705000000002</v>
+      </c>
+      <c r="G337">
+        <v>9.6032630000000001</v>
+      </c>
+      <c r="H337">
+        <v>59.218800999999999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="A338" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B338" s="22">
+        <v>10</v>
+      </c>
+      <c r="C338" t="s">
+        <v>43</v>
+      </c>
+      <c r="D338" t="s">
+        <v>53</v>
+      </c>
+      <c r="E338" s="15">
+        <v>14143.787999999999</v>
+      </c>
+      <c r="F338" s="15">
+        <v>14213.381999999998</v>
+      </c>
+      <c r="G338">
+        <v>10.411158</v>
+      </c>
+      <c r="H338">
+        <v>59.390796999999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="A339" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B339" s="22">
+        <v>10</v>
+      </c>
+      <c r="C339" t="s">
+        <v>43</v>
+      </c>
+      <c r="D339" t="s">
+        <v>54</v>
+      </c>
+      <c r="E339" s="15">
+        <v>8445.6740000000009</v>
+      </c>
+      <c r="F339" s="15">
+        <v>8106.6059999999979</v>
+      </c>
+      <c r="G339">
+        <v>10.300190000000001</v>
+      </c>
+      <c r="H339">
+        <v>59.221215000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="A340" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B340" s="22">
+        <v>10</v>
+      </c>
+      <c r="C340" t="s">
+        <v>43</v>
+      </c>
+      <c r="D340" t="s">
+        <v>55</v>
+      </c>
+      <c r="E340" s="15">
+        <v>10052.815000000002</v>
+      </c>
+      <c r="F340" s="15">
+        <v>9798.7760000000035</v>
+      </c>
+      <c r="G340">
+        <v>10.266083</v>
+      </c>
+      <c r="H340">
+        <v>59.165526999999997</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B341" s="22">
+        <v>10</v>
+      </c>
+      <c r="C341" t="s">
+        <v>43</v>
+      </c>
+      <c r="D341" t="s">
+        <v>56</v>
+      </c>
+      <c r="E341" s="15">
+        <v>57952.251000000011</v>
+      </c>
+      <c r="F341" s="15">
+        <v>57544.368000000017</v>
+      </c>
+      <c r="G341">
+        <v>10.409449</v>
+      </c>
+      <c r="H341">
+        <v>59.271692000000002</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342" s="21"/>
+      <c r="B342" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F121" xr:uid="{8DE9A58E-6281-4D08-BF08-9517A14C48DB}">

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="624" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C921239-1547-4616-8E5D-C41293BEC3FC}"/>
+  <xr:revisionPtr revIDLastSave="631" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C46523C1-1687-4274-9175-A1E594936DF5}"/>
   <bookViews>
-    <workbookView xWindow="51135" yWindow="4215" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="77040" windowHeight="21120" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012-2023" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="60">
   <si>
     <t>Togprodukt</t>
   </si>
@@ -333,7 +333,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -355,8 +355,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -2719,10 +2717,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE9A58E-6281-4D08-BF08-9517A14C48DB}">
-  <dimension ref="A1:I342"/>
+  <dimension ref="A1:I351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A332" sqref="A332:A341"/>
+    <sheetView tabSelected="1" topLeftCell="A317" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H351" sqref="H351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -11507,10 +11505,10 @@
       </c>
     </row>
     <row r="332" spans="1:8">
-      <c r="A332" s="22">
+      <c r="A332">
         <v>2025</v>
       </c>
-      <c r="B332" s="22">
+      <c r="B332">
         <v>10</v>
       </c>
       <c r="C332" t="s">
@@ -11533,10 +11531,10 @@
       </c>
     </row>
     <row r="333" spans="1:8">
-      <c r="A333" s="22">
+      <c r="A333">
         <v>2025</v>
       </c>
-      <c r="B333" s="22">
+      <c r="B333">
         <v>10</v>
       </c>
       <c r="C333" t="s">
@@ -11559,10 +11557,10 @@
       </c>
     </row>
     <row r="334" spans="1:8">
-      <c r="A334" s="22">
+      <c r="A334">
         <v>2025</v>
       </c>
-      <c r="B334" s="22">
+      <c r="B334">
         <v>10</v>
       </c>
       <c r="C334" t="s">
@@ -11585,10 +11583,10 @@
       </c>
     </row>
     <row r="335" spans="1:8">
-      <c r="A335" s="22">
+      <c r="A335">
         <v>2025</v>
       </c>
-      <c r="B335" s="22">
+      <c r="B335">
         <v>10</v>
       </c>
       <c r="C335" t="s">
@@ -11611,10 +11609,10 @@
       </c>
     </row>
     <row r="336" spans="1:8">
-      <c r="A336" s="22">
+      <c r="A336">
         <v>2025</v>
       </c>
-      <c r="B336" s="22">
+      <c r="B336">
         <v>10</v>
       </c>
       <c r="C336" t="s">
@@ -11637,10 +11635,10 @@
       </c>
     </row>
     <row r="337" spans="1:8">
-      <c r="A337" s="22">
+      <c r="A337">
         <v>2025</v>
       </c>
-      <c r="B337" s="22">
+      <c r="B337">
         <v>10</v>
       </c>
       <c r="C337" t="s">
@@ -11663,10 +11661,10 @@
       </c>
     </row>
     <row r="338" spans="1:8">
-      <c r="A338" s="22">
+      <c r="A338">
         <v>2025</v>
       </c>
-      <c r="B338" s="22">
+      <c r="B338">
         <v>10</v>
       </c>
       <c r="C338" t="s">
@@ -11689,10 +11687,10 @@
       </c>
     </row>
     <row r="339" spans="1:8">
-      <c r="A339" s="22">
+      <c r="A339">
         <v>2025</v>
       </c>
-      <c r="B339" s="22">
+      <c r="B339">
         <v>10</v>
       </c>
       <c r="C339" t="s">
@@ -11715,10 +11713,10 @@
       </c>
     </row>
     <row r="340" spans="1:8">
-      <c r="A340" s="22">
+      <c r="A340">
         <v>2025</v>
       </c>
-      <c r="B340" s="22">
+      <c r="B340">
         <v>10</v>
       </c>
       <c r="C340" t="s">
@@ -11741,10 +11739,10 @@
       </c>
     </row>
     <row r="341" spans="1:8">
-      <c r="A341" s="22">
+      <c r="A341">
         <v>2025</v>
       </c>
-      <c r="B341" s="22">
+      <c r="B341">
         <v>10</v>
       </c>
       <c r="C341" t="s">
@@ -11767,8 +11765,264 @@
       </c>
     </row>
     <row r="342" spans="1:8">
-      <c r="A342" s="21"/>
-      <c r="B342" s="21"/>
+      <c r="A342">
+        <v>2025</v>
+      </c>
+      <c r="B342">
+        <v>11</v>
+      </c>
+      <c r="C342" t="s">
+        <v>45</v>
+      </c>
+      <c r="D342" t="s">
+        <v>25</v>
+      </c>
+      <c r="E342" s="15">
+        <v>17792.717000000004</v>
+      </c>
+      <c r="F342" s="15">
+        <v>17825.383999999995</v>
+      </c>
+      <c r="G342">
+        <v>10.311612999999999</v>
+      </c>
+      <c r="H342">
+        <v>59.492139000000002</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343">
+        <v>2025</v>
+      </c>
+      <c r="B343">
+        <v>11</v>
+      </c>
+      <c r="C343" t="s">
+        <v>45</v>
+      </c>
+      <c r="D343" t="s">
+        <v>48</v>
+      </c>
+      <c r="E343" s="15">
+        <v>19108.231999999996</v>
+      </c>
+      <c r="F343" s="15">
+        <v>19568.259000000002</v>
+      </c>
+      <c r="G343">
+        <v>10.030742999999999</v>
+      </c>
+      <c r="H343">
+        <v>59.050356999999998</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="A344">
+        <v>2025</v>
+      </c>
+      <c r="B344">
+        <v>11</v>
+      </c>
+      <c r="C344" t="s">
+        <v>45</v>
+      </c>
+      <c r="D344" t="s">
+        <v>49</v>
+      </c>
+      <c r="E344" s="15">
+        <v>19854.685999999994</v>
+      </c>
+      <c r="F344" s="15">
+        <v>20394.567999999999</v>
+      </c>
+      <c r="G344">
+        <v>9.6586020000000001</v>
+      </c>
+      <c r="H344">
+        <v>59.139355999999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="A345">
+        <v>2025</v>
+      </c>
+      <c r="B345">
+        <v>11</v>
+      </c>
+      <c r="C345" t="s">
+        <v>45</v>
+      </c>
+      <c r="D345" t="s">
+        <v>50</v>
+      </c>
+      <c r="E345" s="15">
+        <v>12062.114000000003</v>
+      </c>
+      <c r="F345" s="15">
+        <v>11730.362999999998</v>
+      </c>
+      <c r="G345">
+        <v>10.205496999999999</v>
+      </c>
+      <c r="H345">
+        <v>59.585008000000002</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346">
+        <v>2025</v>
+      </c>
+      <c r="B346">
+        <v>11</v>
+      </c>
+      <c r="C346" t="s">
+        <v>45</v>
+      </c>
+      <c r="D346" t="s">
+        <v>51</v>
+      </c>
+      <c r="E346" s="15">
+        <v>28331.878000000004</v>
+      </c>
+      <c r="F346" s="15">
+        <v>29645.943000000003</v>
+      </c>
+      <c r="G346">
+        <v>10.22247</v>
+      </c>
+      <c r="H346">
+        <v>59.135238999999999</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="A347">
+        <v>2025</v>
+      </c>
+      <c r="B347">
+        <v>11</v>
+      </c>
+      <c r="C347" t="s">
+        <v>45</v>
+      </c>
+      <c r="D347" t="s">
+        <v>52</v>
+      </c>
+      <c r="E347" s="15">
+        <v>16271.698</v>
+      </c>
+      <c r="F347" s="15">
+        <v>16381.716999999995</v>
+      </c>
+      <c r="G347">
+        <v>9.6032630000000001</v>
+      </c>
+      <c r="H347">
+        <v>59.218800999999999</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="A348">
+        <v>2025</v>
+      </c>
+      <c r="B348">
+        <v>11</v>
+      </c>
+      <c r="C348" t="s">
+        <v>45</v>
+      </c>
+      <c r="D348" t="s">
+        <v>53</v>
+      </c>
+      <c r="E348" s="15">
+        <v>13595.87</v>
+      </c>
+      <c r="F348" s="15">
+        <v>13703.269999999999</v>
+      </c>
+      <c r="G348">
+        <v>10.411158</v>
+      </c>
+      <c r="H348">
+        <v>59.390796999999999</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="A349">
+        <v>2025</v>
+      </c>
+      <c r="B349">
+        <v>11</v>
+      </c>
+      <c r="C349" t="s">
+        <v>45</v>
+      </c>
+      <c r="D349" t="s">
+        <v>54</v>
+      </c>
+      <c r="E349" s="15">
+        <v>8209.3239999999987</v>
+      </c>
+      <c r="F349" s="15">
+        <v>8003.1990000000005</v>
+      </c>
+      <c r="G349">
+        <v>10.300190000000001</v>
+      </c>
+      <c r="H349">
+        <v>59.221215000000001</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
+      <c r="A350">
+        <v>2025</v>
+      </c>
+      <c r="B350">
+        <v>11</v>
+      </c>
+      <c r="C350" t="s">
+        <v>45</v>
+      </c>
+      <c r="D350" t="s">
+        <v>55</v>
+      </c>
+      <c r="E350" s="15">
+        <v>8824.1180000000004</v>
+      </c>
+      <c r="F350" s="15">
+        <v>8175.8049999999994</v>
+      </c>
+      <c r="G350">
+        <v>10.266083</v>
+      </c>
+      <c r="H350">
+        <v>59.165526999999997</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="A351">
+        <v>2025</v>
+      </c>
+      <c r="B351">
+        <v>11</v>
+      </c>
+      <c r="C351" t="s">
+        <v>45</v>
+      </c>
+      <c r="D351" t="s">
+        <v>56</v>
+      </c>
+      <c r="E351" s="15">
+        <v>55793.807000000001</v>
+      </c>
+      <c r="F351" s="15">
+        <v>56013.303999999989</v>
+      </c>
+      <c r="G351">
+        <v>10.409449</v>
+      </c>
+      <c r="H351">
+        <v>59.271692000000002</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F121" xr:uid="{8DE9A58E-6281-4D08-BF08-9517A14C48DB}">

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="631" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C46523C1-1687-4274-9175-A1E594936DF5}"/>
+  <xr:revisionPtr revIDLastSave="637" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39F746EC-4DA8-4F2A-A1C5-40B7E97F361E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="77040" windowHeight="21120" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="60">
   <si>
     <t>Togprodukt</t>
   </si>
@@ -2717,10 +2717,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE9A58E-6281-4D08-BF08-9517A14C48DB}">
-  <dimension ref="A1:I351"/>
+  <dimension ref="A1:I361"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A317" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H351" sqref="H351"/>
+      <selection activeCell="B356" sqref="B356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -12021,6 +12021,266 @@
         <v>10.409449</v>
       </c>
       <c r="H351">
+        <v>59.271692000000002</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="A352">
+        <v>2025</v>
+      </c>
+      <c r="B352">
+        <v>12</v>
+      </c>
+      <c r="C352" t="s">
+        <v>47</v>
+      </c>
+      <c r="D352" t="s">
+        <v>25</v>
+      </c>
+      <c r="E352" s="15">
+        <v>15449.582999999997</v>
+      </c>
+      <c r="F352" s="15">
+        <v>15744.101999999992</v>
+      </c>
+      <c r="G352">
+        <v>10.311612999999999</v>
+      </c>
+      <c r="H352">
+        <v>59.492139000000002</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="A353">
+        <v>2025</v>
+      </c>
+      <c r="B353">
+        <v>12</v>
+      </c>
+      <c r="C353" t="s">
+        <v>47</v>
+      </c>
+      <c r="D353" t="s">
+        <v>48</v>
+      </c>
+      <c r="E353" s="15">
+        <v>17090.910000000003</v>
+      </c>
+      <c r="F353" s="15">
+        <v>17961.324000000001</v>
+      </c>
+      <c r="G353">
+        <v>10.030742999999999</v>
+      </c>
+      <c r="H353">
+        <v>59.050356999999998</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="A354">
+        <v>2025</v>
+      </c>
+      <c r="B354">
+        <v>12</v>
+      </c>
+      <c r="C354" t="s">
+        <v>47</v>
+      </c>
+      <c r="D354" t="s">
+        <v>49</v>
+      </c>
+      <c r="E354" s="15">
+        <v>18478.832000000002</v>
+      </c>
+      <c r="F354" s="15">
+        <v>18903.573</v>
+      </c>
+      <c r="G354">
+        <v>9.6586020000000001</v>
+      </c>
+      <c r="H354">
+        <v>59.139355999999999</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="A355">
+        <v>2025</v>
+      </c>
+      <c r="B355">
+        <v>12</v>
+      </c>
+      <c r="C355" t="s">
+        <v>47</v>
+      </c>
+      <c r="D355" t="s">
+        <v>50</v>
+      </c>
+      <c r="E355" s="15">
+        <v>10242.300999999999</v>
+      </c>
+      <c r="F355" s="15">
+        <v>10162.746999999999</v>
+      </c>
+      <c r="G355">
+        <v>10.205496999999999</v>
+      </c>
+      <c r="H355">
+        <v>59.585008000000002</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
+      <c r="A356">
+        <v>2025</v>
+      </c>
+      <c r="B356">
+        <v>12</v>
+      </c>
+      <c r="C356" t="s">
+        <v>47</v>
+      </c>
+      <c r="D356" t="s">
+        <v>51</v>
+      </c>
+      <c r="E356" s="15">
+        <v>25997.930999999997</v>
+      </c>
+      <c r="F356" s="15">
+        <v>26696.149000000005</v>
+      </c>
+      <c r="G356">
+        <v>10.22247</v>
+      </c>
+      <c r="H356">
+        <v>59.135238999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
+      <c r="A357">
+        <v>2025</v>
+      </c>
+      <c r="B357">
+        <v>12</v>
+      </c>
+      <c r="C357" t="s">
+        <v>47</v>
+      </c>
+      <c r="D357" t="s">
+        <v>52</v>
+      </c>
+      <c r="E357" s="15">
+        <v>15800.699000000004</v>
+      </c>
+      <c r="F357" s="15">
+        <v>16395.347000000002</v>
+      </c>
+      <c r="G357">
+        <v>9.6032630000000001</v>
+      </c>
+      <c r="H357">
+        <v>59.218800999999999</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
+      <c r="A358">
+        <v>2025</v>
+      </c>
+      <c r="B358">
+        <v>12</v>
+      </c>
+      <c r="C358" t="s">
+        <v>47</v>
+      </c>
+      <c r="D358" t="s">
+        <v>53</v>
+      </c>
+      <c r="E358" s="15">
+        <v>11624.636000000002</v>
+      </c>
+      <c r="F358" s="15">
+        <v>12061.987999999998</v>
+      </c>
+      <c r="G358">
+        <v>10.411158</v>
+      </c>
+      <c r="H358">
+        <v>59.390796999999999</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="A359">
+        <v>2025</v>
+      </c>
+      <c r="B359">
+        <v>12</v>
+      </c>
+      <c r="C359" t="s">
+        <v>47</v>
+      </c>
+      <c r="D359" t="s">
+        <v>54</v>
+      </c>
+      <c r="E359" s="15">
+        <v>7123.1530000000002</v>
+      </c>
+      <c r="F359" s="15">
+        <v>7145.8370000000014</v>
+      </c>
+      <c r="G359">
+        <v>10.300190000000001</v>
+      </c>
+      <c r="H359">
+        <v>59.221215000000001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="A360">
+        <v>2025</v>
+      </c>
+      <c r="B360">
+        <v>12</v>
+      </c>
+      <c r="C360" t="s">
+        <v>47</v>
+      </c>
+      <c r="D360" t="s">
+        <v>55</v>
+      </c>
+      <c r="E360" s="15">
+        <v>8003.4529999999995</v>
+      </c>
+      <c r="F360" s="15">
+        <v>9000.1869999999981</v>
+      </c>
+      <c r="G360">
+        <v>10.266083</v>
+      </c>
+      <c r="H360">
+        <v>59.165526999999997</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
+      <c r="A361">
+        <v>2025</v>
+      </c>
+      <c r="B361">
+        <v>12</v>
+      </c>
+      <c r="C361" t="s">
+        <v>47</v>
+      </c>
+      <c r="D361" t="s">
+        <v>56</v>
+      </c>
+      <c r="E361" s="15">
+        <v>49659.483999999997</v>
+      </c>
+      <c r="F361" s="15">
+        <v>51196.446000000011</v>
+      </c>
+      <c r="G361">
+        <v>10.409449</v>
+      </c>
+      <c r="H361">
         <v>59.271692000000002</v>
       </c>
     </row>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="637" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39F746EC-4DA8-4F2A-A1C5-40B7E97F361E}"/>
+  <xr:revisionPtr revIDLastSave="665" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C980283C-146E-4489-9E35-D86AB6F780B0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="77040" windowHeight="21120" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012-2023" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="60">
   <si>
     <t>Togprodukt</t>
   </si>
@@ -751,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D0B74A-329A-43D4-ACFD-DCC824F63451}">
-  <dimension ref="A1:N131"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2709,6 +2709,146 @@
         <v>2024</v>
       </c>
     </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" s="1">
+        <v>384782</v>
+      </c>
+      <c r="D132">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="1">
+        <v>443793</v>
+      </c>
+      <c r="D133">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="1">
+        <v>457997</v>
+      </c>
+      <c r="D134">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="1">
+        <v>266600</v>
+      </c>
+      <c r="D135">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" s="1">
+        <v>654262</v>
+      </c>
+      <c r="D136">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="1">
+        <v>378511</v>
+      </c>
+      <c r="D137">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="1">
+        <v>283012</v>
+      </c>
+      <c r="D138">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" s="1">
+        <v>197497</v>
+      </c>
+      <c r="D139">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="1">
+        <v>218460</v>
+      </c>
+      <c r="D140">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1183743</v>
+      </c>
+      <c r="D141">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2719,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE9A58E-6281-4D08-BF08-9517A14C48DB}">
   <dimension ref="A1:I361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B356" sqref="B356"/>
+    <sheetView topLeftCell="A340" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E352" sqref="E352:F352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Jernbanestatistikk_2012_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="665" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C980283C-146E-4489-9E35-D86AB6F780B0}"/>
+  <xr:revisionPtr revIDLastSave="677" documentId="8_{97E84CCC-6234-465C-AE6C-762AAC589669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6238E16A-0D3B-4F7B-B776-A7E8BEEEFBAA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DD3C63B0-74E3-455B-9E64-045F09D85D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012-2023" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="60">
   <si>
     <t>Togprodukt</t>
   </si>
@@ -333,7 +333,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -355,6 +355,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -753,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D0B74A-329A-43D4-ACFD-DCC824F63451}">
   <dimension ref="A1:N141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2857,10 +2858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE9A58E-6281-4D08-BF08-9517A14C48DB}">
-  <dimension ref="A1:I361"/>
+  <dimension ref="A1:I371"/>
   <sheetViews>
-    <sheetView topLeftCell="A340" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E352" sqref="E352:F352"/>
+    <sheetView tabSelected="1" topLeftCell="A349" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B363" sqref="B363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -12421,6 +12422,266 @@
         <v>10.409449</v>
       </c>
       <c r="H361">
+        <v>59.271692000000002</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
+      <c r="A362" s="21">
+        <v>2026</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362" t="s">
+        <v>24</v>
+      </c>
+      <c r="D362" t="s">
+        <v>25</v>
+      </c>
+      <c r="E362" s="15">
+        <v>17017.899000000001</v>
+      </c>
+      <c r="F362" s="15">
+        <v>16886.920999999995</v>
+      </c>
+      <c r="G362">
+        <v>10.311612999999999</v>
+      </c>
+      <c r="H362">
+        <v>59.492139000000002</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
+      <c r="A363" s="21">
+        <v>2026</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+      <c r="C363" t="s">
+        <v>24</v>
+      </c>
+      <c r="D363" t="s">
+        <v>48</v>
+      </c>
+      <c r="E363" s="15">
+        <v>18045.639999999992</v>
+      </c>
+      <c r="F363" s="15">
+        <v>18098.245999999999</v>
+      </c>
+      <c r="G363">
+        <v>10.030742999999999</v>
+      </c>
+      <c r="H363">
+        <v>59.050356999999998</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="A364" s="21">
+        <v>2026</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+      <c r="C364" t="s">
+        <v>24</v>
+      </c>
+      <c r="D364" t="s">
+        <v>49</v>
+      </c>
+      <c r="E364" s="15">
+        <v>18932.956000000006</v>
+      </c>
+      <c r="F364" s="15">
+        <v>19080.517</v>
+      </c>
+      <c r="G364">
+        <v>9.6586020000000001</v>
+      </c>
+      <c r="H364">
+        <v>59.139355999999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
+      <c r="A365" s="21">
+        <v>2026</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+      <c r="C365" t="s">
+        <v>24</v>
+      </c>
+      <c r="D365" t="s">
+        <v>50</v>
+      </c>
+      <c r="E365" s="15">
+        <v>11288.994999999999</v>
+      </c>
+      <c r="F365" s="15">
+        <v>11305.78</v>
+      </c>
+      <c r="G365">
+        <v>10.205496999999999</v>
+      </c>
+      <c r="H365">
+        <v>59.585008000000002</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
+      <c r="A366" s="21">
+        <v>2026</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="C366" t="s">
+        <v>24</v>
+      </c>
+      <c r="D366" t="s">
+        <v>51</v>
+      </c>
+      <c r="E366" s="15">
+        <v>27698.141000000011</v>
+      </c>
+      <c r="F366" s="15">
+        <v>27030.402999999998</v>
+      </c>
+      <c r="G366">
+        <v>10.22247</v>
+      </c>
+      <c r="H366">
+        <v>59.135238999999999</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
+      <c r="A367" s="21">
+        <v>2026</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="C367" t="s">
+        <v>24</v>
+      </c>
+      <c r="D367" t="s">
+        <v>52</v>
+      </c>
+      <c r="E367" s="15">
+        <v>15849.057999999999</v>
+      </c>
+      <c r="F367" s="15">
+        <v>15602.852000000001</v>
+      </c>
+      <c r="G367">
+        <v>9.6032630000000001</v>
+      </c>
+      <c r="H367">
+        <v>59.218800999999999</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="A368" s="21">
+        <v>2026</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368" t="s">
+        <v>24</v>
+      </c>
+      <c r="D368" t="s">
+        <v>53</v>
+      </c>
+      <c r="E368" s="15">
+        <v>12614.960999999999</v>
+      </c>
+      <c r="F368" s="15">
+        <v>12292.577000000003</v>
+      </c>
+      <c r="G368">
+        <v>10.411158</v>
+      </c>
+      <c r="H368">
+        <v>59.390796999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
+      <c r="A369" s="21">
+        <v>2026</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+      <c r="C369" t="s">
+        <v>24</v>
+      </c>
+      <c r="D369" t="s">
+        <v>54</v>
+      </c>
+      <c r="E369" s="15">
+        <v>7948.322000000001</v>
+      </c>
+      <c r="F369" s="15">
+        <v>7323.7549999999983</v>
+      </c>
+      <c r="G369">
+        <v>10.300190000000001</v>
+      </c>
+      <c r="H369">
+        <v>59.221215000000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
+      <c r="A370" s="21">
+        <v>2026</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370" t="s">
+        <v>24</v>
+      </c>
+      <c r="D370" t="s">
+        <v>55</v>
+      </c>
+      <c r="E370" s="15">
+        <v>8838.023000000001</v>
+      </c>
+      <c r="F370" s="15">
+        <v>7872.0970000000007</v>
+      </c>
+      <c r="G370">
+        <v>10.266083</v>
+      </c>
+      <c r="H370">
+        <v>59.165526999999997</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
+      <c r="A371" s="21">
+        <v>2026</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+      <c r="C371" t="s">
+        <v>24</v>
+      </c>
+      <c r="D371" t="s">
+        <v>56</v>
+      </c>
+      <c r="E371" s="15">
+        <v>53034.378000000004</v>
+      </c>
+      <c r="F371" s="15">
+        <v>53109.338000000011</v>
+      </c>
+      <c r="G371">
+        <v>10.409449</v>
+      </c>
+      <c r="H371">
         <v>59.271692000000002</v>
       </c>
     </row>
